--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T220"/>
+  <dimension ref="A1:T223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44273</v>
+        <v>44413</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
@@ -7644,7 +7644,7 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="N91" t="n">
         <v>8000</v>
@@ -7662,7 +7662,7 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S91" t="n">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44273</v>
+        <v>44413</v>
       </c>
       <c r="E92" t="n">
         <v>7</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N92" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O92" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P92" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7742,11 +7742,11 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T92" t="n">
         <v>18</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E93" t="n">
         <v>7</v>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N93" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O93" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P93" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7822,11 +7822,11 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S93" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T93" t="n">
         <v>18</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44257</v>
+        <v>44273</v>
       </c>
       <c r="E94" t="n">
         <v>7</v>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -7884,7 +7884,7 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="N94" t="n">
         <v>8000</v>
@@ -7902,7 +7902,7 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S94" t="n">
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44257</v>
+        <v>44273</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
@@ -7955,25 +7955,25 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N95" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O95" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P95" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7982,11 +7982,11 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S95" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T95" t="n">
         <v>18</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44257</v>
+        <v>44377</v>
       </c>
       <c r="E96" t="n">
         <v>7</v>
@@ -8044,16 +8044,16 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N96" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O96" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P96" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T96" t="n">
         <v>18</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44295</v>
+        <v>44257</v>
       </c>
       <c r="E97" t="n">
         <v>7</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="N97" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O97" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P97" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8142,11 +8142,11 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T97" t="n">
         <v>18</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44295</v>
+        <v>44257</v>
       </c>
       <c r="E98" t="n">
         <v>7</v>
@@ -8195,16 +8195,16 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N98" t="n">
         <v>7000</v>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S98" t="n">
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44390</v>
+        <v>44257</v>
       </c>
       <c r="E99" t="n">
         <v>7</v>
@@ -8280,11 +8280,11 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N99" t="n">
         <v>10000</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44390</v>
+        <v>44295</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
@@ -8355,25 +8355,25 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N100" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="O100" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="P100" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="T100" t="n">
         <v>18</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44321</v>
+        <v>44295</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
@@ -8435,25 +8435,25 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N101" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O101" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P101" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T101" t="n">
         <v>18</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
@@ -8520,20 +8520,20 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N102" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O102" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P102" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T102" t="n">
         <v>18</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44298</v>
+        <v>44390</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
@@ -8595,7 +8595,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -8604,16 +8604,16 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>530</v>
+        <v>300</v>
       </c>
       <c r="N103" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O103" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="P103" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="T103" t="n">
         <v>18</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
@@ -8680,11 +8680,11 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N104" t="n">
         <v>10000</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
@@ -8782,7 +8782,7 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S105" t="n">
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
@@ -8844,16 +8844,16 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>300</v>
+        <v>530</v>
       </c>
       <c r="N106" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O106" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P106" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T106" t="n">
         <v>18</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
@@ -8920,11 +8920,11 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N107" t="n">
         <v>10000</v>
@@ -8942,7 +8942,7 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S107" t="n">
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
@@ -9004,7 +9004,7 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N108" t="n">
         <v>9000</v>
@@ -9075,25 +9075,25 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N109" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O109" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P109" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9102,11 +9102,11 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S109" t="n">
-        <v>278</v>
+        <v>389</v>
       </c>
       <c r="T109" t="n">
         <v>18</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -9155,25 +9155,25 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="N110" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O110" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P110" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T110" t="n">
         <v>18</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -9240,20 +9240,20 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N111" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O111" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P111" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9262,11 +9262,11 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T111" t="n">
         <v>18</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -9320,20 +9320,20 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="N112" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O112" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P112" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>500</v>
+        <v>278</v>
       </c>
       <c r="T112" t="n">
         <v>18</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44410</v>
+        <v>44354</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -9395,25 +9395,25 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N113" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O113" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P113" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9422,11 +9422,11 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T113" t="n">
         <v>18</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44410</v>
+        <v>44354</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -9480,20 +9480,20 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N114" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O114" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P114" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T114" t="n">
         <v>18</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44412</v>
+        <v>44354</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -9555,16 +9555,16 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="N115" t="n">
         <v>9000</v>
@@ -9582,7 +9582,7 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S115" t="n">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -9635,25 +9635,25 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N116" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O116" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P116" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T116" t="n">
         <v>18</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -9720,20 +9720,20 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N117" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O117" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P117" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T117" t="n">
         <v>18</v>
@@ -9795,25 +9795,25 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N118" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O118" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P118" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T118" t="n">
         <v>18</v>
@@ -9875,25 +9875,25 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N119" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O119" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P119" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="T119" t="n">
         <v>18</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -9955,25 +9955,25 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="N120" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O120" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P120" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T120" t="n">
         <v>18</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M121" t="n">
         <v>250</v>
       </c>
       <c r="N121" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O121" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P121" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10062,11 +10062,11 @@
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S121" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T121" t="n">
         <v>18</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -10115,25 +10115,25 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N122" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O122" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P122" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="T122" t="n">
         <v>18</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E123" t="n">
         <v>7</v>
@@ -10204,16 +10204,16 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="N123" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O123" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P123" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T123" t="n">
         <v>18</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -10280,20 +10280,20 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N124" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O124" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P124" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10302,11 +10302,11 @@
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S124" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T124" t="n">
         <v>18</v>
@@ -10355,25 +10355,25 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="N125" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O125" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P125" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T125" t="n">
         <v>18</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44371</v>
+        <v>44300</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -10435,25 +10435,25 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N126" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O126" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P126" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10462,11 +10462,11 @@
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S126" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T126" t="n">
         <v>18</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44371</v>
+        <v>44300</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -10524,16 +10524,16 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="N127" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O127" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P127" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10542,11 +10542,11 @@
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S127" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T127" t="n">
         <v>18</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44238</v>
+        <v>44300</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -10595,38 +10595,38 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="N128" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O128" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P128" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S128" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T128" t="n">
         <v>18</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44320</v>
+        <v>44371</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
@@ -10675,25 +10675,25 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N129" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O129" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P129" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10702,11 +10702,11 @@
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S129" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="T129" t="n">
         <v>18</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44320</v>
+        <v>44371</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
@@ -10760,20 +10760,20 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N130" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O130" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P130" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T130" t="n">
         <v>18</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44320</v>
+        <v>44238</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
@@ -10835,7 +10835,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -10844,20 +10844,20 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N131" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O131" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P131" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T131" t="n">
         <v>18</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
@@ -10915,25 +10915,25 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="N132" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O132" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P132" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="T132" t="n">
         <v>18</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E133" t="n">
         <v>7</v>
@@ -11000,20 +11000,20 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N133" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O133" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P133" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11022,11 +11022,11 @@
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S133" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T133" t="n">
         <v>18</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44405</v>
+        <v>44320</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -11080,20 +11080,20 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M134" t="n">
         <v>200</v>
       </c>
       <c r="N134" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O134" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P134" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11102,11 +11102,11 @@
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S134" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T134" t="n">
         <v>18</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11160,20 +11160,20 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="N135" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O135" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P135" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T135" t="n">
         <v>18</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E136" t="n">
         <v>7</v>
@@ -11240,20 +11240,20 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N136" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O136" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P136" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T136" t="n">
         <v>18</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44327</v>
+        <v>44405</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -11315,25 +11315,25 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N137" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O137" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P137" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11342,11 +11342,11 @@
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S137" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T137" t="n">
         <v>18</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44327</v>
+        <v>44405</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11404,7 +11404,7 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N138" t="n">
         <v>9000</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44327</v>
+        <v>44405</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
@@ -11480,20 +11480,20 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="N139" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O139" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P139" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11502,11 +11502,11 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S139" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T139" t="n">
         <v>18</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44231</v>
+        <v>44327</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11555,7 +11555,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -11564,16 +11564,16 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="N140" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O140" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P140" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T140" t="n">
         <v>18</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44231</v>
+        <v>44327</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11635,25 +11635,25 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="N141" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O141" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P141" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11662,11 +11662,11 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S141" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T141" t="n">
         <v>18</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E142" t="n">
         <v>7</v>
@@ -11715,7 +11715,7 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -11724,16 +11724,16 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N142" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O142" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P142" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11742,11 +11742,11 @@
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S142" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T142" t="n">
         <v>18</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44330</v>
+        <v>44231</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11795,7 +11795,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -11804,16 +11804,16 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N143" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O143" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P143" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11822,11 +11822,11 @@
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S143" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="T143" t="n">
         <v>18</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44330</v>
+        <v>44231</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11875,16 +11875,16 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N144" t="n">
         <v>10000</v>
@@ -11902,7 +11902,7 @@
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S144" t="n">
@@ -11955,7 +11955,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -11964,16 +11964,16 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N145" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O145" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P145" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T145" t="n">
         <v>18</v>
@@ -12035,16 +12035,16 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N146" t="n">
         <v>7000</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E147" t="n">
         <v>7</v>
@@ -12124,16 +12124,16 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N147" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="O147" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="P147" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>56</v>
+        <v>556</v>
       </c>
       <c r="T147" t="n">
         <v>18</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12204,7 +12204,7 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N148" t="n">
         <v>9000</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44350</v>
+        <v>44330</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12275,16 +12275,16 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N149" t="n">
         <v>7000</v>
@@ -12302,7 +12302,7 @@
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S149" t="n">
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -12360,20 +12360,20 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N150" t="n">
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="O150" t="n">
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="P150" t="n">
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12382,11 +12382,11 @@
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S150" t="n">
-        <v>500</v>
+        <v>56</v>
       </c>
       <c r="T150" t="n">
         <v>18</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44278</v>
+        <v>44391</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -12444,16 +12444,16 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N151" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O151" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P151" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12462,11 +12462,11 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S151" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T151" t="n">
         <v>18</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -12524,7 +12524,7 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N152" t="n">
         <v>7000</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -12600,20 +12600,20 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="N153" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O153" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P153" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T153" t="n">
         <v>18</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -12684,16 +12684,16 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="N154" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O154" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P154" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T154" t="n">
         <v>18</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E155" t="n">
         <v>7</v>
@@ -12755,25 +12755,25 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="N155" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O155" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P155" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12782,11 +12782,11 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S155" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T155" t="n">
         <v>18</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
@@ -12840,20 +12840,20 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N156" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O156" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P156" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12862,11 +12862,11 @@
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S156" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T156" t="n">
         <v>18</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12915,7 +12915,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -12924,16 +12924,16 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N157" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O157" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P157" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T157" t="n">
         <v>18</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -13004,7 +13004,7 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="N158" t="n">
         <v>10000</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13084,16 +13084,16 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N159" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O159" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P159" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13102,11 +13102,11 @@
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S159" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T159" t="n">
         <v>18</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44250</v>
+        <v>44399</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13155,7 +13155,7 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -13164,7 +13164,7 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="N160" t="n">
         <v>8000</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44292</v>
+        <v>44399</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -13235,7 +13235,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -13244,16 +13244,16 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N161" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O161" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P161" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T161" t="n">
         <v>18</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44292</v>
+        <v>44399</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
@@ -13320,20 +13320,20 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N162" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O162" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P162" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13342,11 +13342,11 @@
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S162" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T162" t="n">
         <v>18</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E163" t="n">
         <v>7</v>
@@ -13395,7 +13395,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -13404,7 +13404,7 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="N163" t="n">
         <v>8000</v>
@@ -13422,7 +13422,7 @@
       </c>
       <c r="R163" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S163" t="n">
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
@@ -13475,25 +13475,25 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="N164" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O164" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P164" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T164" t="n">
         <v>18</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="E165" t="n">
         <v>7</v>
@@ -13564,16 +13564,16 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N165" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O165" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P165" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13582,11 +13582,11 @@
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S165" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T165" t="n">
         <v>18</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -13644,16 +13644,16 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N166" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O166" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P166" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13662,11 +13662,11 @@
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S166" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T166" t="n">
         <v>18</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44369</v>
+        <v>44305</v>
       </c>
       <c r="E167" t="n">
         <v>7</v>
@@ -13715,7 +13715,7 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -13724,16 +13724,16 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N167" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O167" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P167" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T167" t="n">
         <v>18</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44369</v>
+        <v>44294</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -13807,13 +13807,13 @@
         <v>260</v>
       </c>
       <c r="N168" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O168" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P168" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13822,11 +13822,11 @@
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S168" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T168" t="n">
         <v>18</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44265</v>
+        <v>44294</v>
       </c>
       <c r="E169" t="n">
         <v>7</v>
@@ -13875,7 +13875,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -13884,16 +13884,16 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="N169" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O169" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P169" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13902,11 +13902,11 @@
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S169" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T169" t="n">
         <v>18</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44265</v>
+        <v>44369</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -13955,7 +13955,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -13964,16 +13964,16 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N170" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O170" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P170" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T170" t="n">
         <v>18</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44265</v>
+        <v>44369</v>
       </c>
       <c r="E171" t="n">
         <v>7</v>
@@ -14040,20 +14040,20 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="N171" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O171" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P171" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T171" t="n">
         <v>18</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44333</v>
+        <v>44265</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -14115,25 +14115,25 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N172" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O172" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P172" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14142,11 +14142,11 @@
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S172" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T172" t="n">
         <v>18</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44333</v>
+        <v>44265</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14204,16 +14204,16 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>350</v>
+        <v>210</v>
       </c>
       <c r="N173" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O173" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P173" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14222,11 +14222,11 @@
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S173" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T173" t="n">
         <v>18</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44277</v>
+        <v>44265</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14275,25 +14275,25 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="N174" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O174" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P174" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T174" t="n">
         <v>18</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44309</v>
+        <v>44333</v>
       </c>
       <c r="E175" t="n">
         <v>7</v>
@@ -14355,7 +14355,7 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -14364,16 +14364,16 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N175" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O175" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P175" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14382,11 +14382,11 @@
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S175" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T175" t="n">
         <v>18</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44309</v>
+        <v>44333</v>
       </c>
       <c r="E176" t="n">
         <v>7</v>
@@ -14435,7 +14435,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -14444,16 +14444,16 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N176" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O176" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P176" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14462,11 +14462,11 @@
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S176" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T176" t="n">
         <v>18</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E177" t="n">
         <v>7</v>
@@ -14515,25 +14515,25 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N177" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O177" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P177" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T177" t="n">
         <v>18</v>
@@ -14595,16 +14595,16 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N178" t="n">
         <v>9000</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -14684,16 +14684,16 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N179" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O179" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P179" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T179" t="n">
         <v>18</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E180" t="n">
         <v>7</v>
@@ -14764,7 +14764,7 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N180" t="n">
         <v>10000</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E181" t="n">
         <v>7</v>
@@ -14840,20 +14840,20 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N181" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O181" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P181" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="T181" t="n">
         <v>18</v>
@@ -14915,7 +14915,7 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -14924,16 +14924,16 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="N182" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O182" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P182" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T182" t="n">
         <v>18</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E183" t="n">
         <v>7</v>
@@ -14995,7 +14995,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -15004,16 +15004,16 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N183" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O183" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P183" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T183" t="n">
         <v>18</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E184" t="n">
         <v>7</v>
@@ -15075,25 +15075,25 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="N184" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O184" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P184" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="T184" t="n">
         <v>18</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E185" t="n">
         <v>7</v>
@@ -15160,20 +15160,20 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N185" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O185" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P185" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T185" t="n">
         <v>18</v>
@@ -15235,16 +15235,16 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N186" t="n">
         <v>9000</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E187" t="n">
         <v>7</v>
@@ -15324,7 +15324,7 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="N187" t="n">
         <v>8000</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E188" t="n">
         <v>7</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E189" t="n">
         <v>7</v>
@@ -15484,16 +15484,16 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N189" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O189" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P189" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T189" t="n">
         <v>18</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E190" t="n">
         <v>7</v>
@@ -15564,7 +15564,7 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="N190" t="n">
         <v>8000</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E191" t="n">
         <v>7</v>
@@ -15635,25 +15635,25 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M191" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N191" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O191" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P191" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T191" t="n">
         <v>18</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E192" t="n">
         <v>7</v>
@@ -15715,25 +15715,25 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M192" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N192" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O192" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P192" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T192" t="n">
         <v>18</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E193" t="n">
         <v>7</v>
@@ -15795,25 +15795,25 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="N193" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O193" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P193" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T193" t="n">
         <v>18</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E194" t="n">
         <v>7</v>
@@ -15875,7 +15875,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
@@ -15884,7 +15884,7 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N194" t="n">
         <v>8000</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44211</v>
+        <v>44253</v>
       </c>
       <c r="E195" t="n">
         <v>7</v>
@@ -15955,7 +15955,7 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
@@ -15964,16 +15964,16 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="N195" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O195" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P195" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="T195" t="n">
         <v>18</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44272</v>
+        <v>44281</v>
       </c>
       <c r="E196" t="n">
         <v>7</v>
@@ -16035,25 +16035,25 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="N196" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O196" t="n">
         <v>9000</v>
       </c>
       <c r="P196" t="n">
-        <v>8435</v>
+        <v>9000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="T196" t="n">
         <v>18</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44272</v>
+        <v>44281</v>
       </c>
       <c r="E197" t="n">
         <v>7</v>
@@ -16120,20 +16120,20 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="N197" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O197" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P197" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T197" t="n">
         <v>18</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44272</v>
+        <v>44211</v>
       </c>
       <c r="E198" t="n">
         <v>7</v>
@@ -16195,25 +16195,25 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="N198" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O198" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P198" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T198" t="n">
         <v>18</v>
@@ -16275,25 +16275,25 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N199" t="n">
         <v>8000</v>
       </c>
       <c r="O199" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P199" t="n">
-        <v>8000</v>
+        <v>8435</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="T199" t="n">
         <v>18</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44326</v>
+        <v>44272</v>
       </c>
       <c r="E200" t="n">
         <v>7</v>
@@ -16355,25 +16355,25 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N200" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O200" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P200" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16382,11 +16382,11 @@
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S200" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="T200" t="n">
         <v>18</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44326</v>
+        <v>44272</v>
       </c>
       <c r="E201" t="n">
         <v>7</v>
@@ -16435,7 +16435,7 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
@@ -16444,16 +16444,16 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N201" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O201" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P201" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16462,11 +16462,11 @@
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S201" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T201" t="n">
         <v>18</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44326</v>
+        <v>44272</v>
       </c>
       <c r="E202" t="n">
         <v>7</v>
@@ -16515,7 +16515,7 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
@@ -16527,13 +16527,13 @@
         <v>100</v>
       </c>
       <c r="N202" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O202" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P202" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16542,11 +16542,11 @@
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S202" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T202" t="n">
         <v>18</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E203" t="n">
         <v>7</v>
@@ -16595,25 +16595,25 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M203" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N203" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O203" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P203" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T203" t="n">
         <v>18</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E204" t="n">
         <v>7</v>
@@ -16675,7 +16675,7 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
@@ -16684,16 +16684,16 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N204" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O204" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P204" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T204" t="n">
         <v>18</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44398</v>
+        <v>44326</v>
       </c>
       <c r="E205" t="n">
         <v>7</v>
@@ -16755,25 +16755,25 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N205" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O205" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P205" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16782,11 +16782,11 @@
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S205" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="T205" t="n">
         <v>18</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E206" t="n">
         <v>7</v>
@@ -16840,20 +16840,20 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="N206" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O206" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P206" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16862,11 +16862,11 @@
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S206" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T206" t="n">
         <v>18</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E207" t="n">
         <v>7</v>
@@ -16920,20 +16920,20 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M207" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="N207" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O207" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P207" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16942,11 +16942,11 @@
       </c>
       <c r="R207" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S207" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T207" t="n">
         <v>18</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E208" t="n">
         <v>7</v>
@@ -16995,25 +16995,25 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N208" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O208" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P208" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T208" t="n">
         <v>18</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E209" t="n">
         <v>7</v>
@@ -17080,20 +17080,20 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="N209" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O209" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P209" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T209" t="n">
         <v>18</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E210" t="n">
         <v>7</v>
@@ -17160,20 +17160,20 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>500</v>
+        <v>190</v>
       </c>
       <c r="N210" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O210" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P210" t="n">
-        <v>9400</v>
+        <v>7000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>522</v>
+        <v>389</v>
       </c>
       <c r="T210" t="n">
         <v>18</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44286</v>
+        <v>44270</v>
       </c>
       <c r="E211" t="n">
         <v>7</v>
@@ -17244,16 +17244,16 @@
         </is>
       </c>
       <c r="M211" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N211" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O211" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P211" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T211" t="n">
         <v>18</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44286</v>
+        <v>44270</v>
       </c>
       <c r="E212" t="n">
         <v>7</v>
@@ -17315,25 +17315,25 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="N212" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O212" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P212" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T212" t="n">
         <v>18</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E213" t="n">
         <v>7</v>
@@ -17395,7 +17395,7 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
@@ -17404,20 +17404,20 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N213" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O213" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P213" t="n">
-        <v>8000</v>
+        <v>9400</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R213" t="inlineStr">
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>444</v>
+        <v>522</v>
       </c>
       <c r="T213" t="n">
         <v>18</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44343</v>
+        <v>44286</v>
       </c>
       <c r="E214" t="n">
         <v>7</v>
@@ -17475,41 +17475,41 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M214" t="n">
         <v>200</v>
       </c>
       <c r="N214" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O214" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P214" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S214" t="n">
-        <v>600</v>
+        <v>389</v>
       </c>
       <c r="T214" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="215">
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44343</v>
+        <v>44286</v>
       </c>
       <c r="E215" t="n">
         <v>7</v>
@@ -17555,41 +17555,41 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N215" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O215" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P215" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R215" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S215" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T215" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="216">
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44376</v>
+        <v>44217</v>
       </c>
       <c r="E216" t="n">
         <v>7</v>
@@ -17635,7 +17635,7 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -17644,20 +17644,20 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N216" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O216" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P216" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T216" t="n">
         <v>18</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E217" t="n">
         <v>7</v>
@@ -17724,32 +17724,32 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N217" t="n">
         <v>9000</v>
       </c>
       <c r="O217" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P217" t="n">
-        <v>9714</v>
+        <v>9000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R217" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S217" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="T217" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="218">
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E218" t="n">
         <v>7</v>
@@ -17800,36 +17800,36 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N218" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O218" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P218" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R218" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S218" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T218" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="219">
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44284</v>
+        <v>44376</v>
       </c>
       <c r="E219" t="n">
         <v>7</v>
@@ -17875,25 +17875,25 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M219" t="n">
         <v>250</v>
       </c>
       <c r="N219" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O219" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P219" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T219" t="n">
         <v>18</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E220" t="n">
         <v>7</v>
@@ -17960,11 +17960,11 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>540</v>
+        <v>350</v>
       </c>
       <c r="N220" t="n">
         <v>9000</v>
@@ -17973,22 +17973,262 @@
         <v>10000</v>
       </c>
       <c r="P220" t="n">
+        <v>9714</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S220" t="n">
+        <v>540</v>
+      </c>
+      <c r="T220" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>5</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D221" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E221" t="n">
+        <v>7</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>300</v>
+      </c>
+      <c r="N221" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O221" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P221" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S221" t="n">
+        <v>444</v>
+      </c>
+      <c r="T221" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>5</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="E222" t="n">
+        <v>7</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G222" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>250</v>
+      </c>
+      <c r="N222" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O222" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P222" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S222" t="n">
+        <v>500</v>
+      </c>
+      <c r="T222" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>5</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E223" t="n">
+        <v>7</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>540</v>
+      </c>
+      <c r="N223" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O223" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P223" t="n">
         <v>9481</v>
       </c>
-      <c r="Q220" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos granel</t>
-        </is>
-      </c>
-      <c r="R220" t="inlineStr">
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S220" t="n">
+      <c r="S223" t="n">
         <v>527</v>
       </c>
-      <c r="T220" t="n">
+      <c r="T223" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T223"/>
+  <dimension ref="A1:T227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44403</v>
+        <v>44414</v>
       </c>
       <c r="E57" t="n">
         <v>7</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4924,16 +4924,16 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="N57" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O57" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P57" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4942,11 +4942,11 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T57" t="n">
         <v>18</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44379</v>
+        <v>44414</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
@@ -5004,7 +5004,7 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="N58" t="n">
         <v>9000</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44379</v>
+        <v>44414</v>
       </c>
       <c r="E59" t="n">
         <v>7</v>
@@ -5084,7 +5084,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="N59" t="n">
         <v>8000</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44306</v>
+        <v>44414</v>
       </c>
       <c r="E60" t="n">
         <v>7</v>
@@ -5155,25 +5155,25 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="N60" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O60" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P60" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5182,11 +5182,11 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T60" t="n">
         <v>18</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44306</v>
+        <v>44403</v>
       </c>
       <c r="E61" t="n">
         <v>7</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>210</v>
+        <v>350</v>
       </c>
       <c r="N61" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O61" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P61" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T61" t="n">
         <v>18</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44306</v>
+        <v>44379</v>
       </c>
       <c r="E62" t="n">
         <v>7</v>
@@ -5320,11 +5320,11 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N62" t="n">
         <v>9000</v>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S62" t="n">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44356</v>
+        <v>44379</v>
       </c>
       <c r="E63" t="n">
         <v>7</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5404,16 +5404,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="N63" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O63" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P63" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5422,11 +5422,11 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T63" t="n">
         <v>18</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44396</v>
+        <v>44306</v>
       </c>
       <c r="E64" t="n">
         <v>7</v>
@@ -5475,25 +5475,25 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N64" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O64" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P64" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5502,11 +5502,11 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T64" t="n">
         <v>18</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44396</v>
+        <v>44306</v>
       </c>
       <c r="E65" t="n">
         <v>7</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="N65" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O65" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P65" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T65" t="n">
         <v>18</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44340</v>
+        <v>44306</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N66" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O66" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P66" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5662,11 +5662,11 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T66" t="n">
         <v>18</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44340</v>
+        <v>44356</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5724,16 +5724,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N67" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O67" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P67" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5742,11 +5742,11 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T67" t="n">
         <v>18</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44221</v>
+        <v>44396</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -5795,25 +5795,25 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M68" t="n">
         <v>200</v>
       </c>
       <c r="N68" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O68" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P68" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T68" t="n">
         <v>18</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44271</v>
+        <v>44396</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
@@ -5880,11 +5880,11 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N69" t="n">
         <v>8000</v>
@@ -5902,7 +5902,7 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S69" t="n">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44280</v>
+        <v>44340</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
@@ -5964,7 +5964,7 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N70" t="n">
         <v>10000</v>
@@ -5982,7 +5982,7 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S70" t="n">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44280</v>
+        <v>44340</v>
       </c>
       <c r="E71" t="n">
         <v>7</v>
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N71" t="n">
         <v>9000</v>
@@ -6062,7 +6062,7 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S71" t="n">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44299</v>
+        <v>44221</v>
       </c>
       <c r="E72" t="n">
         <v>7</v>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -6124,7 +6124,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N72" t="n">
         <v>9000</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44342</v>
+        <v>44271</v>
       </c>
       <c r="E73" t="n">
         <v>7</v>
@@ -6195,25 +6195,25 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N73" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O73" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P73" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T73" t="n">
         <v>18</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44342</v>
+        <v>44280</v>
       </c>
       <c r="E74" t="n">
         <v>7</v>
@@ -6284,7 +6284,7 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N74" t="n">
         <v>10000</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44342</v>
+        <v>44280</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N75" t="n">
         <v>9000</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44342</v>
+        <v>44299</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="N76" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O76" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P76" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6462,11 +6462,11 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T76" t="n">
         <v>18</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44362</v>
+        <v>44342</v>
       </c>
       <c r="E77" t="n">
         <v>7</v>
@@ -6515,25 +6515,25 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N77" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O77" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P77" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6542,11 +6542,11 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T77" t="n">
         <v>18</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44362</v>
+        <v>44342</v>
       </c>
       <c r="E78" t="n">
         <v>7</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="N78" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O78" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P78" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T78" t="n">
         <v>18</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44362</v>
+        <v>44342</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
         <v>100</v>
       </c>
       <c r="N79" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O79" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P79" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T79" t="n">
         <v>18</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44384</v>
+        <v>44342</v>
       </c>
       <c r="E80" t="n">
         <v>7</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N80" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O80" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P80" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6782,11 +6782,11 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T80" t="n">
         <v>18</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44384</v>
+        <v>44362</v>
       </c>
       <c r="E81" t="n">
         <v>7</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M81" t="n">
         <v>200</v>
       </c>
       <c r="N81" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O81" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P81" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6862,11 +6862,11 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S81" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T81" t="n">
         <v>18</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44384</v>
+        <v>44362</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="N82" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O82" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P82" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6942,11 +6942,11 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T82" t="n">
         <v>18</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44323</v>
+        <v>44362</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N83" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O83" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P83" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7022,11 +7022,11 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T83" t="n">
         <v>18</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N84" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O84" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P84" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T84" t="n">
         <v>18</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44349</v>
+        <v>44384</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -7164,16 +7164,16 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N85" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O85" t="n">
         <v>8000</v>
       </c>
       <c r="P85" t="n">
-        <v>7385</v>
+        <v>8000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="T85" t="n">
         <v>18</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44349</v>
+        <v>44384</v>
       </c>
       <c r="E86" t="n">
         <v>7</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="N86" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O86" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P86" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="T86" t="n">
         <v>18</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44349</v>
+        <v>44323</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="N87" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O87" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P87" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T87" t="n">
         <v>18</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44385</v>
+        <v>44363</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N88" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O88" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P88" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7422,11 +7422,11 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T88" t="n">
         <v>18</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E89" t="n">
         <v>7</v>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -7484,16 +7484,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="N89" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O89" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P89" t="n">
-        <v>9000</v>
+        <v>7385</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7502,11 +7502,11 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S89" t="n">
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="T89" t="n">
         <v>18</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44243</v>
+        <v>44349</v>
       </c>
       <c r="E90" t="n">
         <v>7</v>
@@ -7555,25 +7555,25 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N90" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O90" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P90" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7582,11 +7582,11 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T90" t="n">
         <v>18</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44413</v>
+        <v>44349</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -7644,16 +7644,16 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="N91" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O91" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P91" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7662,11 +7662,11 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S91" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T91" t="n">
         <v>18</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E92" t="n">
         <v>7</v>
@@ -7724,16 +7724,16 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N92" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O92" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P92" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T92" t="n">
         <v>18</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E93" t="n">
         <v>7</v>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="N93" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O93" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P93" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T93" t="n">
         <v>18</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44273</v>
+        <v>44243</v>
       </c>
       <c r="E94" t="n">
         <v>7</v>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -7884,16 +7884,16 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>130</v>
+        <v>400</v>
       </c>
       <c r="N94" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O94" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P94" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7902,11 +7902,11 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S94" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T94" t="n">
         <v>18</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44273</v>
+        <v>44413</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -7964,7 +7964,7 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N95" t="n">
         <v>8000</v>
@@ -7982,7 +7982,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S95" t="n">
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E96" t="n">
         <v>7</v>
@@ -8040,7 +8040,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M96" t="n">
@@ -8062,7 +8062,7 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S96" t="n">
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44257</v>
+        <v>44413</v>
       </c>
       <c r="E97" t="n">
         <v>7</v>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -8124,7 +8124,7 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N97" t="n">
         <v>8000</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44257</v>
+        <v>44273</v>
       </c>
       <c r="E98" t="n">
         <v>7</v>
@@ -8195,25 +8195,25 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="N98" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O98" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P98" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8222,11 +8222,11 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T98" t="n">
         <v>18</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44257</v>
+        <v>44273</v>
       </c>
       <c r="E99" t="n">
         <v>7</v>
@@ -8284,16 +8284,16 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N99" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O99" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P99" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T99" t="n">
         <v>18</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44295</v>
+        <v>44377</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
@@ -8355,16 +8355,16 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N100" t="n">
         <v>9000</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44295</v>
+        <v>44257</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
@@ -8444,16 +8444,16 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N101" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O101" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P101" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8462,11 +8462,11 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S101" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T101" t="n">
         <v>18</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44390</v>
+        <v>44257</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
@@ -8515,25 +8515,25 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="N102" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O102" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P102" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8542,11 +8542,11 @@
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S102" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T102" t="n">
         <v>18</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44390</v>
+        <v>44257</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
@@ -8607,13 +8607,13 @@
         <v>300</v>
       </c>
       <c r="N103" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O103" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P103" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>472</v>
+        <v>556</v>
       </c>
       <c r="T103" t="n">
         <v>18</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44321</v>
+        <v>44295</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
@@ -8675,7 +8675,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -8687,13 +8687,13 @@
         <v>210</v>
       </c>
       <c r="N104" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O104" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P104" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T104" t="n">
         <v>18</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44321</v>
+        <v>44295</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
@@ -8755,7 +8755,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -8764,16 +8764,16 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N105" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O105" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P105" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T105" t="n">
         <v>18</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44298</v>
+        <v>44390</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
@@ -8835,25 +8835,25 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>530</v>
+        <v>400</v>
       </c>
       <c r="N106" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O106" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P106" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T106" t="n">
         <v>18</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44298</v>
+        <v>44390</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
@@ -8924,16 +8924,16 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N107" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="O107" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P107" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>556</v>
+        <v>472</v>
       </c>
       <c r="T107" t="n">
         <v>18</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
@@ -9000,20 +9000,20 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N108" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O108" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P108" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9022,11 +9022,11 @@
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S108" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T108" t="n">
         <v>18</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -9075,7 +9075,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -9084,16 +9084,16 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N109" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O109" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P109" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T109" t="n">
         <v>18</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -9155,25 +9155,25 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="N110" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O110" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P110" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9182,11 +9182,11 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T110" t="n">
         <v>18</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -9244,16 +9244,16 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N111" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O111" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P111" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9262,11 +9262,11 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T111" t="n">
         <v>18</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -9320,20 +9320,20 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N112" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O112" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P112" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>278</v>
+        <v>500</v>
       </c>
       <c r="T112" t="n">
         <v>18</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -9404,7 +9404,7 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N113" t="n">
         <v>7000</v>
@@ -9422,7 +9422,7 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S113" t="n">
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -9484,7 +9484,7 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N114" t="n">
         <v>10000</v>
@@ -9502,7 +9502,7 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S114" t="n">
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -9564,7 +9564,7 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="N115" t="n">
         <v>9000</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44410</v>
+        <v>44383</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -9640,20 +9640,20 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N116" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O116" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P116" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9662,11 +9662,11 @@
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S116" t="n">
-        <v>500</v>
+        <v>278</v>
       </c>
       <c r="T116" t="n">
         <v>18</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44410</v>
+        <v>44354</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -9715,16 +9715,16 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N117" t="n">
         <v>7000</v>
@@ -9742,7 +9742,7 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S117" t="n">
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44412</v>
+        <v>44354</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -9795,7 +9795,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -9804,16 +9804,16 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N118" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O118" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P118" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T118" t="n">
         <v>18</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44412</v>
+        <v>44354</v>
       </c>
       <c r="E119" t="n">
         <v>7</v>
@@ -9875,7 +9875,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -9884,16 +9884,16 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="N119" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O119" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P119" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9902,11 +9902,11 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S119" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T119" t="n">
         <v>18</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -9964,16 +9964,16 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N120" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O120" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P120" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T120" t="n">
         <v>18</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N121" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O121" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P121" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T121" t="n">
         <v>18</v>
@@ -10115,25 +10115,25 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N122" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O122" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P122" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="T122" t="n">
         <v>18</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E123" t="n">
         <v>7</v>
@@ -10204,7 +10204,7 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="N123" t="n">
         <v>7000</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -10284,7 +10284,7 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N124" t="n">
         <v>10000</v>
@@ -10302,7 +10302,7 @@
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S124" t="n">
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E125" t="n">
         <v>7</v>
@@ -10355,25 +10355,25 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="N125" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O125" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P125" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T125" t="n">
         <v>18</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -10435,25 +10435,25 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N126" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O126" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P126" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="T126" t="n">
         <v>18</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -10515,7 +10515,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -10524,16 +10524,16 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N127" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O127" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P127" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T127" t="n">
         <v>18</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -10600,20 +10600,20 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="N128" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O128" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P128" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10622,11 +10622,11 @@
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S128" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T128" t="n">
         <v>18</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44371</v>
+        <v>44300</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
@@ -10675,7 +10675,7 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
@@ -10684,7 +10684,7 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="N129" t="n">
         <v>9000</v>
@@ -10702,7 +10702,7 @@
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S129" t="n">
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44371</v>
+        <v>44300</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -10764,7 +10764,7 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N130" t="n">
         <v>8000</v>
@@ -10782,7 +10782,7 @@
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S130" t="n">
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44238</v>
+        <v>44300</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
@@ -10835,7 +10835,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -10844,29 +10844,29 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="N131" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O131" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P131" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S131" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T131" t="n">
         <v>18</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44320</v>
+        <v>44300</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
@@ -10915,7 +10915,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -10924,16 +10924,16 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="N132" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O132" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P132" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="T132" t="n">
         <v>18</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44320</v>
+        <v>44371</v>
       </c>
       <c r="E133" t="n">
         <v>7</v>
@@ -11007,13 +11007,13 @@
         <v>300</v>
       </c>
       <c r="N133" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O133" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P133" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T133" t="n">
         <v>18</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44320</v>
+        <v>44371</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -11084,16 +11084,16 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N134" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O134" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P134" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T134" t="n">
         <v>18</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44314</v>
+        <v>44238</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11155,38 +11155,38 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="N135" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O135" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P135" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S135" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T135" t="n">
         <v>18</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E136" t="n">
         <v>7</v>
@@ -11235,25 +11235,25 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N136" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O136" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P136" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="T136" t="n">
         <v>18</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44405</v>
+        <v>44320</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -11324,7 +11324,7 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N137" t="n">
         <v>10000</v>
@@ -11342,7 +11342,7 @@
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S137" t="n">
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44405</v>
+        <v>44320</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11404,7 +11404,7 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N138" t="n">
         <v>9000</v>
@@ -11422,7 +11422,7 @@
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S138" t="n">
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
@@ -11480,20 +11480,20 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="N139" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O139" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P139" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T139" t="n">
         <v>18</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44327</v>
+        <v>44314</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11555,7 +11555,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -11564,16 +11564,16 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="N140" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O140" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P140" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11582,11 +11582,11 @@
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S140" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T140" t="n">
         <v>18</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44327</v>
+        <v>44405</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11640,20 +11640,20 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N141" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O141" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P141" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T141" t="n">
         <v>18</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44327</v>
+        <v>44405</v>
       </c>
       <c r="E142" t="n">
         <v>7</v>
@@ -11724,7 +11724,7 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="N142" t="n">
         <v>9000</v>
@@ -11742,7 +11742,7 @@
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S142" t="n">
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44231</v>
+        <v>44405</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11795,25 +11795,25 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="N143" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O143" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P143" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11822,11 +11822,11 @@
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S143" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T143" t="n">
         <v>18</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44231</v>
+        <v>44327</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11875,25 +11875,25 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="N144" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O144" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P144" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T144" t="n">
         <v>18</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -11955,7 +11955,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -11964,16 +11964,16 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N145" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O145" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P145" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T145" t="n">
         <v>18</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E146" t="n">
         <v>7</v>
@@ -12035,7 +12035,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -12044,16 +12044,16 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N146" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O146" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P146" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12062,11 +12062,11 @@
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S146" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T146" t="n">
         <v>18</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44330</v>
+        <v>44231</v>
       </c>
       <c r="E147" t="n">
         <v>7</v>
@@ -12115,25 +12115,25 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N147" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O147" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P147" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12142,11 +12142,11 @@
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S147" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T147" t="n">
         <v>18</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44330</v>
+        <v>44231</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12195,25 +12195,25 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N148" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O148" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P148" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12222,11 +12222,11 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S148" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T148" t="n">
         <v>18</v>
@@ -12275,16 +12275,16 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N149" t="n">
         <v>7000</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -12355,25 +12355,25 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N150" t="n">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="O150" t="n">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="P150" t="n">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>56</v>
+        <v>389</v>
       </c>
       <c r="T150" t="n">
         <v>18</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -12440,20 +12440,20 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M151" t="n">
         <v>200</v>
       </c>
       <c r="N151" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O151" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P151" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T151" t="n">
         <v>18</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44350</v>
+        <v>44330</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -12515,7 +12515,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -12524,16 +12524,16 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N152" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O152" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P152" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12542,11 +12542,11 @@
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S152" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T152" t="n">
         <v>18</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44350</v>
+        <v>44330</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -12600,20 +12600,20 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N153" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O153" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P153" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12622,11 +12622,11 @@
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S153" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T153" t="n">
         <v>18</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44278</v>
+        <v>44391</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -12680,20 +12680,20 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N154" t="n">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="O154" t="n">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="P154" t="n">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12702,11 +12702,11 @@
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S154" t="n">
-        <v>389</v>
+        <v>56</v>
       </c>
       <c r="T154" t="n">
         <v>18</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44358</v>
+        <v>44391</v>
       </c>
       <c r="E155" t="n">
         <v>7</v>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -12764,16 +12764,16 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N155" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O155" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P155" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12782,11 +12782,11 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S155" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T155" t="n">
         <v>18</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
@@ -12835,25 +12835,25 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N156" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O156" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P156" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T156" t="n">
         <v>18</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12924,7 +12924,7 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="N157" t="n">
         <v>9000</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44389</v>
+        <v>44278</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -13000,20 +13000,20 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="N158" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O158" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P158" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13022,11 +13022,11 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S158" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T158" t="n">
         <v>18</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13075,7 +13075,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -13084,16 +13084,16 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N159" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O159" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P159" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13102,11 +13102,11 @@
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S159" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T159" t="n">
         <v>18</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13155,25 +13155,25 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N160" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O160" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P160" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T160" t="n">
         <v>18</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -13240,20 +13240,20 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="N161" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O161" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P161" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13262,11 +13262,11 @@
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S161" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T161" t="n">
         <v>18</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
@@ -13320,20 +13320,20 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="N162" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O162" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P162" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13342,11 +13342,11 @@
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S162" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T162" t="n">
         <v>18</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44250</v>
+        <v>44389</v>
       </c>
       <c r="E163" t="n">
         <v>7</v>
@@ -13395,7 +13395,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -13404,16 +13404,16 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="N163" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O163" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P163" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13422,11 +13422,11 @@
       </c>
       <c r="R163" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S163" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T163" t="n">
         <v>18</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44292</v>
+        <v>44399</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
@@ -13475,16 +13475,16 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N164" t="n">
         <v>8000</v>
@@ -13502,7 +13502,7 @@
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S164" t="n">
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44292</v>
+        <v>44399</v>
       </c>
       <c r="E165" t="n">
         <v>7</v>
@@ -13564,7 +13564,7 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N165" t="n">
         <v>10000</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44292</v>
+        <v>44399</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -13644,7 +13644,7 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="N166" t="n">
         <v>8000</v>
@@ -13662,7 +13662,7 @@
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S166" t="n">
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44305</v>
+        <v>44250</v>
       </c>
       <c r="E167" t="n">
         <v>7</v>
@@ -13715,7 +13715,7 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -13724,16 +13724,16 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="N167" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O167" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P167" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13742,11 +13742,11 @@
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S167" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T167" t="n">
         <v>18</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -13795,7 +13795,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="N168" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O168" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P168" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13822,11 +13822,11 @@
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S168" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T168" t="n">
         <v>18</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="E169" t="n">
         <v>7</v>
@@ -13880,11 +13880,11 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N169" t="n">
         <v>10000</v>
@@ -13902,7 +13902,7 @@
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S169" t="n">
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44369</v>
+        <v>44292</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -13955,7 +13955,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -13964,16 +13964,16 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N170" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O170" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P170" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T170" t="n">
         <v>18</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44369</v>
+        <v>44305</v>
       </c>
       <c r="E171" t="n">
         <v>7</v>
@@ -14040,20 +14040,20 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M171" t="n">
         <v>260</v>
       </c>
       <c r="N171" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O171" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P171" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T171" t="n">
         <v>18</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44265</v>
+        <v>44294</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -14115,25 +14115,25 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="N172" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O172" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P172" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14142,11 +14142,11 @@
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S172" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="T172" t="n">
         <v>18</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44265</v>
+        <v>44294</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14204,16 +14204,16 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="N173" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O173" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P173" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14222,11 +14222,11 @@
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S173" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T173" t="n">
         <v>18</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44265</v>
+        <v>44369</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14275,16 +14275,16 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N174" t="n">
         <v>7000</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44333</v>
+        <v>44369</v>
       </c>
       <c r="E175" t="n">
         <v>7</v>
@@ -14364,16 +14364,16 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N175" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O175" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P175" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14382,11 +14382,11 @@
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S175" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="T175" t="n">
         <v>18</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44333</v>
+        <v>44265</v>
       </c>
       <c r="E176" t="n">
         <v>7</v>
@@ -14435,7 +14435,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -14444,16 +14444,16 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="N176" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O176" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P176" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14462,11 +14462,11 @@
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S176" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T176" t="n">
         <v>18</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44277</v>
+        <v>44265</v>
       </c>
       <c r="E177" t="n">
         <v>7</v>
@@ -14515,7 +14515,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -14527,13 +14527,13 @@
         <v>210</v>
       </c>
       <c r="N177" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O177" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P177" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T177" t="n">
         <v>18</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44309</v>
+        <v>44265</v>
       </c>
       <c r="E178" t="n">
         <v>7</v>
@@ -14595,25 +14595,25 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="N178" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O178" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P178" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T178" t="n">
         <v>18</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44309</v>
+        <v>44333</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -14675,25 +14675,25 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M179" t="n">
         <v>200</v>
       </c>
       <c r="N179" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O179" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P179" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14702,11 +14702,11 @@
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S179" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="T179" t="n">
         <v>18</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44309</v>
+        <v>44333</v>
       </c>
       <c r="E180" t="n">
         <v>7</v>
@@ -14760,11 +14760,11 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N180" t="n">
         <v>10000</v>
@@ -14782,7 +14782,7 @@
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S180" t="n">
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E181" t="n">
         <v>7</v>
@@ -14835,7 +14835,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -14844,16 +14844,16 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N181" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O181" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P181" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T181" t="n">
         <v>18</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E182" t="n">
         <v>7</v>
@@ -14920,20 +14920,20 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M182" t="n">
         <v>210</v>
       </c>
       <c r="N182" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O182" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P182" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T182" t="n">
         <v>18</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E183" t="n">
         <v>7</v>
@@ -14995,25 +14995,25 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M183" t="n">
         <v>200</v>
       </c>
       <c r="N183" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O183" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P183" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T183" t="n">
         <v>18</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E184" t="n">
         <v>7</v>
@@ -15080,20 +15080,20 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N184" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O184" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P184" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T184" t="n">
         <v>18</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E185" t="n">
         <v>7</v>
@@ -15164,7 +15164,7 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N185" t="n">
         <v>9000</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E186" t="n">
         <v>7</v>
@@ -15240,20 +15240,20 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="N186" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O186" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P186" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T186" t="n">
         <v>18</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E187" t="n">
         <v>7</v>
@@ -15315,25 +15315,25 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N187" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O187" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P187" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T187" t="n">
         <v>18</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E188" t="n">
         <v>7</v>
@@ -15400,20 +15400,20 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N188" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O188" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P188" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T188" t="n">
         <v>18</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E189" t="n">
         <v>7</v>
@@ -15484,7 +15484,7 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="N189" t="n">
         <v>9000</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E190" t="n">
         <v>7</v>
@@ -15560,20 +15560,20 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="N190" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O190" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P190" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T190" t="n">
         <v>18</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E191" t="n">
         <v>7</v>
@@ -15635,25 +15635,25 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M191" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="N191" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O191" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P191" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T191" t="n">
         <v>18</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E192" t="n">
         <v>7</v>
@@ -15720,20 +15720,20 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M192" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N192" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O192" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P192" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T192" t="n">
         <v>18</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44253</v>
+        <v>44319</v>
       </c>
       <c r="E193" t="n">
         <v>7</v>
@@ -15795,7 +15795,7 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
@@ -15804,16 +15804,16 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N193" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O193" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P193" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T193" t="n">
         <v>18</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E194" t="n">
         <v>7</v>
@@ -15875,7 +15875,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
@@ -15884,7 +15884,7 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N194" t="n">
         <v>8000</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E195" t="n">
         <v>7</v>
@@ -15955,25 +15955,25 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N195" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O195" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P195" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="T195" t="n">
         <v>18</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44281</v>
+        <v>44316</v>
       </c>
       <c r="E196" t="n">
         <v>7</v>
@@ -16040,20 +16040,20 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="N196" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O196" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P196" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T196" t="n">
         <v>18</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E197" t="n">
         <v>7</v>
@@ -16115,7 +16115,7 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
@@ -16124,7 +16124,7 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N197" t="n">
         <v>8000</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44211</v>
+        <v>44253</v>
       </c>
       <c r="E198" t="n">
         <v>7</v>
@@ -16195,16 +16195,16 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="N198" t="n">
         <v>8000</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44272</v>
+        <v>44253</v>
       </c>
       <c r="E199" t="n">
         <v>7</v>
@@ -16275,25 +16275,25 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N199" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O199" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P199" t="n">
-        <v>8435</v>
+        <v>6000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>469</v>
+        <v>333</v>
       </c>
       <c r="T199" t="n">
         <v>18</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44272</v>
+        <v>44281</v>
       </c>
       <c r="E200" t="n">
         <v>7</v>
@@ -16364,16 +16364,16 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="N200" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O200" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P200" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T200" t="n">
         <v>18</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44272</v>
+        <v>44281</v>
       </c>
       <c r="E201" t="n">
         <v>7</v>
@@ -16444,16 +16444,16 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N201" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O201" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P201" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T201" t="n">
         <v>18</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44272</v>
+        <v>44211</v>
       </c>
       <c r="E202" t="n">
         <v>7</v>
@@ -16515,7 +16515,7 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
@@ -16524,7 +16524,7 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N202" t="n">
         <v>8000</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44326</v>
+        <v>44272</v>
       </c>
       <c r="E203" t="n">
         <v>7</v>
@@ -16604,16 +16604,16 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N203" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O203" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P203" t="n">
-        <v>7000</v>
+        <v>8435</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16622,11 +16622,11 @@
       </c>
       <c r="R203" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S203" t="n">
-        <v>389</v>
+        <v>469</v>
       </c>
       <c r="T203" t="n">
         <v>18</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44326</v>
+        <v>44272</v>
       </c>
       <c r="E204" t="n">
         <v>7</v>
@@ -16675,25 +16675,25 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M204" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="N204" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O204" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P204" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16702,11 +16702,11 @@
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S204" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T204" t="n">
         <v>18</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44326</v>
+        <v>44272</v>
       </c>
       <c r="E205" t="n">
         <v>7</v>
@@ -16755,25 +16755,25 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N205" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O205" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P205" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16782,11 +16782,11 @@
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S205" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="T205" t="n">
         <v>18</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44382</v>
+        <v>44272</v>
       </c>
       <c r="E206" t="n">
         <v>7</v>
@@ -16840,20 +16840,20 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M206" t="n">
         <v>100</v>
       </c>
       <c r="N206" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O206" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P206" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16862,11 +16862,11 @@
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S206" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T206" t="n">
         <v>18</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E207" t="n">
         <v>7</v>
@@ -16915,7 +16915,7 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
@@ -16924,16 +16924,16 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N207" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O207" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P207" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T207" t="n">
         <v>18</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44398</v>
+        <v>44326</v>
       </c>
       <c r="E208" t="n">
         <v>7</v>
@@ -16995,25 +16995,25 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N208" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O208" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P208" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17022,11 +17022,11 @@
       </c>
       <c r="R208" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S208" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T208" t="n">
         <v>18</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44398</v>
+        <v>44326</v>
       </c>
       <c r="E209" t="n">
         <v>7</v>
@@ -17075,25 +17075,25 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="N209" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O209" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P209" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17102,11 +17102,11 @@
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S209" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="T209" t="n">
         <v>18</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E210" t="n">
         <v>7</v>
@@ -17160,20 +17160,20 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="N210" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O210" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P210" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17182,11 +17182,11 @@
       </c>
       <c r="R210" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S210" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T210" t="n">
         <v>18</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44270</v>
+        <v>44382</v>
       </c>
       <c r="E211" t="n">
         <v>7</v>
@@ -17235,7 +17235,7 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
@@ -17244,16 +17244,16 @@
         </is>
       </c>
       <c r="M211" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N211" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O211" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P211" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17262,11 +17262,11 @@
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S211" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T211" t="n">
         <v>18</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E212" t="n">
         <v>7</v>
@@ -17324,16 +17324,16 @@
         </is>
       </c>
       <c r="M212" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="N212" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O212" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P212" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T212" t="n">
         <v>18</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E213" t="n">
         <v>7</v>
@@ -17404,29 +17404,29 @@
         </is>
       </c>
       <c r="M213" t="n">
+        <v>240</v>
+      </c>
+      <c r="N213" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O213" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P213" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S213" t="n">
         <v>500</v>
-      </c>
-      <c r="N213" t="n">
-        <v>9000</v>
-      </c>
-      <c r="O213" t="n">
-        <v>10000</v>
-      </c>
-      <c r="P213" t="n">
-        <v>9400</v>
-      </c>
-      <c r="Q213" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos granel</t>
-        </is>
-      </c>
-      <c r="R213" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S213" t="n">
-        <v>522</v>
       </c>
       <c r="T213" t="n">
         <v>18</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44286</v>
+        <v>44398</v>
       </c>
       <c r="E214" t="n">
         <v>7</v>
@@ -17475,16 +17475,16 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N214" t="n">
         <v>7000</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44286</v>
+        <v>44270</v>
       </c>
       <c r="E215" t="n">
         <v>7</v>
@@ -17555,7 +17555,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -17564,7 +17564,7 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N215" t="n">
         <v>8000</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E216" t="n">
         <v>7</v>
@@ -17635,29 +17635,29 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="N216" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O216" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P216" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T216" t="n">
         <v>18</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44343</v>
+        <v>44270</v>
       </c>
       <c r="E217" t="n">
         <v>7</v>
@@ -17720,36 +17720,36 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N217" t="n">
         <v>9000</v>
       </c>
       <c r="O217" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P217" t="n">
-        <v>9000</v>
+        <v>9400</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R217" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S217" t="n">
-        <v>600</v>
+        <v>522</v>
       </c>
       <c r="T217" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="218">
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44343</v>
+        <v>44286</v>
       </c>
       <c r="E218" t="n">
         <v>7</v>
@@ -17795,41 +17795,41 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N218" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O218" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P218" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R218" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S218" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T218" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="219">
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44376</v>
+        <v>44286</v>
       </c>
       <c r="E219" t="n">
         <v>7</v>
@@ -17875,7 +17875,7 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
@@ -17884,16 +17884,16 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N219" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O219" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P219" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T219" t="n">
         <v>18</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44376</v>
+        <v>44217</v>
       </c>
       <c r="E220" t="n">
         <v>7</v>
@@ -17955,29 +17955,29 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M220" t="n">
         <v>350</v>
       </c>
       <c r="N220" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O220" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P220" t="n">
-        <v>9714</v>
+        <v>8000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R220" t="inlineStr">
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>540</v>
+        <v>444</v>
       </c>
       <c r="T220" t="n">
         <v>18</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E221" t="n">
         <v>7</v>
@@ -18040,36 +18040,36 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N221" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O221" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P221" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S221" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="T221" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="222">
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44284</v>
+        <v>44343</v>
       </c>
       <c r="E222" t="n">
         <v>7</v>
@@ -18120,36 +18120,36 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N222" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O222" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P222" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R222" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S222" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T222" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223">
@@ -18167,68 +18167,388 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E223" t="n">
+        <v>7</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>Abate Fettel</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>250</v>
+      </c>
+      <c r="N223" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O223" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P223" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S223" t="n">
+        <v>389</v>
+      </c>
+      <c r="T223" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>5</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E224" t="n">
+        <v>7</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>350</v>
+      </c>
+      <c r="N224" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O224" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P224" t="n">
+        <v>9714</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S224" t="n">
+        <v>540</v>
+      </c>
+      <c r="T224" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>5</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E225" t="n">
+        <v>7</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>300</v>
+      </c>
+      <c r="N225" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O225" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P225" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S225" t="n">
+        <v>444</v>
+      </c>
+      <c r="T225" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>5</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D226" s="2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="E226" t="n">
+        <v>7</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>250</v>
+      </c>
+      <c r="N226" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O226" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P226" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S226" t="n">
+        <v>500</v>
+      </c>
+      <c r="T226" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>5</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D227" s="2" t="n">
         <v>44334</v>
       </c>
-      <c r="E223" t="n">
-        <v>7</v>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G223" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I223" t="n">
-        <v>100104005</v>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>Pera</t>
-        </is>
-      </c>
-      <c r="K223" t="inlineStr">
+      <c r="E227" t="n">
+        <v>7</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
         <is>
           <t>Packham's Triumph</t>
         </is>
       </c>
-      <c r="L223" t="inlineStr">
+      <c r="L227" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M223" t="n">
+      <c r="M227" t="n">
         <v>540</v>
       </c>
-      <c r="N223" t="n">
-        <v>9000</v>
-      </c>
-      <c r="O223" t="n">
+      <c r="N227" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O227" t="n">
         <v>10000</v>
       </c>
-      <c r="P223" t="n">
+      <c r="P227" t="n">
         <v>9481</v>
       </c>
-      <c r="Q223" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos granel</t>
-        </is>
-      </c>
-      <c r="R223" t="inlineStr">
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S223" t="n">
+      <c r="S227" t="n">
         <v>527</v>
       </c>
-      <c r="T223" t="n">
+      <c r="T227" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T252"/>
+  <dimension ref="A1:T268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44340</v>
+        <v>44434</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
@@ -6355,25 +6355,25 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N75" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O75" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P75" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T75" t="n">
         <v>18</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44340</v>
+        <v>44434</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -6440,11 +6440,11 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N76" t="n">
         <v>9000</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44221</v>
+        <v>44434</v>
       </c>
       <c r="E77" t="n">
         <v>7</v>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N77" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O77" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P77" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6542,11 +6542,11 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T77" t="n">
         <v>18</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44271</v>
+        <v>44340</v>
       </c>
       <c r="E78" t="n">
         <v>7</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="N78" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O78" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P78" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T78" t="n">
         <v>18</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44280</v>
+        <v>44340</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
         <v>200</v>
       </c>
       <c r="N79" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O79" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P79" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6702,11 +6702,11 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T79" t="n">
         <v>18</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44280</v>
+        <v>44221</v>
       </c>
       <c r="E80" t="n">
         <v>7</v>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6764,7 +6764,7 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N80" t="n">
         <v>9000</v>
@@ -6782,7 +6782,7 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S80" t="n">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44299</v>
+        <v>44271</v>
       </c>
       <c r="E81" t="n">
         <v>7</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N81" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O81" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P81" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T81" t="n">
         <v>18</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44342</v>
+        <v>44280</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -6915,25 +6915,25 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N82" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O82" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P82" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6942,11 +6942,11 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T82" t="n">
         <v>18</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44342</v>
+        <v>44280</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="N83" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O83" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P83" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T83" t="n">
         <v>18</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44342</v>
+        <v>44299</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N84" t="n">
         <v>9000</v>
@@ -7102,7 +7102,7 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S84" t="n">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44342</v>
+        <v>44428</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
@@ -7155,16 +7155,16 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N85" t="n">
         <v>8000</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44362</v>
+        <v>44428</v>
       </c>
       <c r="E86" t="n">
         <v>7</v>
@@ -7244,7 +7244,7 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N86" t="n">
         <v>9000</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44362</v>
+        <v>44428</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="N87" t="n">
         <v>8000</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44362</v>
+        <v>44342</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
@@ -7395,16 +7395,16 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N88" t="n">
         <v>7000</v>
@@ -7422,7 +7422,7 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S88" t="n">
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44384</v>
+        <v>44342</v>
       </c>
       <c r="E89" t="n">
         <v>7</v>
@@ -7484,7 +7484,7 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N89" t="n">
         <v>10000</v>
@@ -7502,7 +7502,7 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S89" t="n">
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44384</v>
+        <v>44342</v>
       </c>
       <c r="E90" t="n">
         <v>7</v>
@@ -7564,16 +7564,16 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N90" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O90" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P90" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7582,11 +7582,11 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T90" t="n">
         <v>18</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44384</v>
+        <v>44342</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
@@ -7644,16 +7644,16 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="N91" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O91" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P91" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7662,11 +7662,11 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S91" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T91" t="n">
         <v>18</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44323</v>
+        <v>44362</v>
       </c>
       <c r="E92" t="n">
         <v>7</v>
@@ -7724,16 +7724,16 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N92" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O92" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P92" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7742,11 +7742,11 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T92" t="n">
         <v>18</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="E93" t="n">
         <v>7</v>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="N93" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O93" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P93" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7822,11 +7822,11 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S93" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T93" t="n">
         <v>18</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44349</v>
+        <v>44362</v>
       </c>
       <c r="E94" t="n">
         <v>7</v>
@@ -7875,25 +7875,25 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="N94" t="n">
         <v>7000</v>
       </c>
       <c r="O94" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P94" t="n">
-        <v>7385</v>
+        <v>7000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7902,11 +7902,11 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S94" t="n">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="T94" t="n">
         <v>18</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44349</v>
+        <v>44384</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
@@ -7964,7 +7964,7 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N95" t="n">
         <v>10000</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44349</v>
+        <v>44384</v>
       </c>
       <c r="E96" t="n">
         <v>7</v>
@@ -8044,16 +8044,16 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N96" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O96" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P96" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T96" t="n">
         <v>18</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="E97" t="n">
         <v>7</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="N97" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O97" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P97" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8142,11 +8142,11 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="T97" t="n">
         <v>18</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44385</v>
+        <v>44323</v>
       </c>
       <c r="E98" t="n">
         <v>7</v>
@@ -8200,20 +8200,20 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N98" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O98" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P98" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8222,11 +8222,11 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T98" t="n">
         <v>18</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44243</v>
+        <v>44363</v>
       </c>
       <c r="E99" t="n">
         <v>7</v>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -8284,7 +8284,7 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="N99" t="n">
         <v>9000</v>
@@ -8302,7 +8302,7 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S99" t="n">
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44427</v>
+        <v>44349</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
@@ -8355,25 +8355,25 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M100" t="n">
         <v>260</v>
       </c>
       <c r="N100" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O100" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P100" t="n">
-        <v>10000</v>
+        <v>7385</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>556</v>
+        <v>410</v>
       </c>
       <c r="T100" t="n">
         <v>18</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44427</v>
+        <v>44349</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N101" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O101" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P101" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T101" t="n">
         <v>18</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44413</v>
+        <v>44349</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -8524,16 +8524,16 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="N102" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O102" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P102" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8542,11 +8542,11 @@
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S102" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T102" t="n">
         <v>18</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
@@ -8604,16 +8604,16 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N103" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O103" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P103" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T103" t="n">
         <v>18</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
@@ -8684,16 +8684,16 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="N104" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O104" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P104" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T104" t="n">
         <v>18</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44421</v>
+        <v>44243</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
@@ -8755,7 +8755,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -8764,16 +8764,16 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N105" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O105" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P105" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T105" t="n">
         <v>18</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44421</v>
+        <v>44427</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
@@ -8835,25 +8835,25 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="N106" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O106" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P106" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8862,11 +8862,11 @@
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S106" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T106" t="n">
         <v>18</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44421</v>
+        <v>44427</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M107" t="n">
         <v>230</v>
       </c>
       <c r="N107" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O107" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P107" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8942,11 +8942,11 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S107" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T107" t="n">
         <v>18</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44421</v>
+        <v>44413</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
@@ -8995,7 +8995,7 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44273</v>
+        <v>44413</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -9075,25 +9075,25 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="N109" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O109" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P109" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9102,11 +9102,11 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S109" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T109" t="n">
         <v>18</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44273</v>
+        <v>44413</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -9182,7 +9182,7 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S110" t="n">
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44377</v>
+        <v>44421</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -9244,16 +9244,16 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N111" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O111" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P111" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9262,11 +9262,11 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T111" t="n">
         <v>18</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44257</v>
+        <v>44421</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -9315,7 +9315,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -9324,7 +9324,7 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N112" t="n">
         <v>8000</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44257</v>
+        <v>44421</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -9395,25 +9395,25 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N113" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O113" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P113" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T113" t="n">
         <v>18</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44257</v>
+        <v>44421</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -9484,16 +9484,16 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N114" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O114" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P114" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9502,11 +9502,11 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T114" t="n">
         <v>18</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44426</v>
+        <v>44273</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -9555,25 +9555,25 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="N115" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O115" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P115" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T115" t="n">
         <v>18</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44426</v>
+        <v>44273</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -9644,7 +9644,7 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N116" t="n">
         <v>8000</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44295</v>
+        <v>44377</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -9715,16 +9715,16 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N117" t="n">
         <v>9000</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44295</v>
+        <v>44257</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -9804,16 +9804,16 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N118" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O118" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P118" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9822,11 +9822,11 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S118" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T118" t="n">
         <v>18</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44390</v>
+        <v>44257</v>
       </c>
       <c r="E119" t="n">
         <v>7</v>
@@ -9875,25 +9875,25 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="N119" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O119" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P119" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9902,11 +9902,11 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S119" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T119" t="n">
         <v>18</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44390</v>
+        <v>44257</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -9967,13 +9967,13 @@
         <v>300</v>
       </c>
       <c r="N120" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O120" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P120" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>472</v>
+        <v>556</v>
       </c>
       <c r="T120" t="n">
         <v>18</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44321</v>
+        <v>44426</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -10044,16 +10044,16 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N121" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O121" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P121" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T121" t="n">
         <v>18</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44321</v>
+        <v>44426</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -10124,16 +10124,16 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N122" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O122" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P122" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T122" t="n">
         <v>18</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44298</v>
+        <v>44295</v>
       </c>
       <c r="E123" t="n">
         <v>7</v>
@@ -10200,20 +10200,20 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>530</v>
+        <v>210</v>
       </c>
       <c r="N123" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O123" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P123" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T123" t="n">
         <v>18</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44298</v>
+        <v>44295</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -10275,7 +10275,7 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -10284,16 +10284,16 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N124" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O124" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P124" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T124" t="n">
         <v>18</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44298</v>
+        <v>44390</v>
       </c>
       <c r="E125" t="n">
         <v>7</v>
@@ -10360,20 +10360,20 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N125" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O125" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P125" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10382,11 +10382,11 @@
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S125" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T125" t="n">
         <v>18</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -10435,7 +10435,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -10447,13 +10447,13 @@
         <v>300</v>
       </c>
       <c r="N126" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="O126" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="P126" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>389</v>
+        <v>472</v>
       </c>
       <c r="T126" t="n">
         <v>18</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -10524,7 +10524,7 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N127" t="n">
         <v>10000</v>
@@ -10542,7 +10542,7 @@
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S127" t="n">
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -10604,7 +10604,7 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N128" t="n">
         <v>9000</v>
@@ -10622,7 +10622,7 @@
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S128" t="n">
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
@@ -10675,25 +10675,25 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>100</v>
+        <v>530</v>
       </c>
       <c r="N129" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O129" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P129" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10702,11 +10702,11 @@
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S129" t="n">
-        <v>278</v>
+        <v>444</v>
       </c>
       <c r="T129" t="n">
         <v>18</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44354</v>
+        <v>44298</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -10764,16 +10764,16 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N130" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O130" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P130" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10782,11 +10782,11 @@
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S130" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T130" t="n">
         <v>18</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44354</v>
+        <v>44298</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
@@ -10840,20 +10840,20 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N131" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O131" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P131" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10862,11 +10862,11 @@
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S131" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T131" t="n">
         <v>18</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
@@ -10915,7 +10915,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -10924,16 +10924,16 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N132" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O132" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P132" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10942,11 +10942,11 @@
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S132" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T132" t="n">
         <v>18</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44410</v>
+        <v>44383</v>
       </c>
       <c r="E133" t="n">
         <v>7</v>
@@ -11004,16 +11004,16 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N133" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O133" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P133" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11022,11 +11022,11 @@
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S133" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T133" t="n">
         <v>18</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44410</v>
+        <v>44383</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -11080,20 +11080,20 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N134" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O134" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P134" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11102,11 +11102,11 @@
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S134" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T134" t="n">
         <v>18</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44412</v>
+        <v>44383</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11155,25 +11155,25 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M135" t="n">
         <v>100</v>
       </c>
       <c r="N135" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O135" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P135" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11182,11 +11182,11 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S135" t="n">
-        <v>500</v>
+        <v>278</v>
       </c>
       <c r="T135" t="n">
         <v>18</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44412</v>
+        <v>44354</v>
       </c>
       <c r="E136" t="n">
         <v>7</v>
@@ -11244,7 +11244,7 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="N136" t="n">
         <v>7000</v>
@@ -11262,7 +11262,7 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S136" t="n">
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44412</v>
+        <v>44354</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -11324,7 +11324,7 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N137" t="n">
         <v>10000</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44412</v>
+        <v>44354</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11404,16 +11404,16 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N138" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O138" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P138" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11422,11 +11422,11 @@
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S138" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T138" t="n">
         <v>18</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
@@ -11480,20 +11480,20 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N139" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O139" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P139" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="T139" t="n">
         <v>18</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44336</v>
+        <v>44410</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11555,16 +11555,16 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N140" t="n">
         <v>7000</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11635,7 +11635,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -11644,16 +11644,16 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N141" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O141" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P141" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11662,11 +11662,11 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S141" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T141" t="n">
         <v>18</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E142" t="n">
         <v>7</v>
@@ -11720,20 +11720,20 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="N142" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O142" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P142" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T142" t="n">
         <v>18</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11795,25 +11795,25 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N143" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O143" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P143" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T143" t="n">
         <v>18</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11884,16 +11884,16 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N144" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O144" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P144" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T144" t="n">
         <v>18</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -11964,16 +11964,16 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="N145" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O145" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P145" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="T145" t="n">
         <v>18</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E146" t="n">
         <v>7</v>
@@ -12035,25 +12035,25 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N146" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O146" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P146" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12062,11 +12062,11 @@
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S146" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T146" t="n">
         <v>18</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E147" t="n">
         <v>7</v>
@@ -12120,20 +12120,20 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N147" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O147" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P147" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T147" t="n">
         <v>18</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44238</v>
+        <v>44300</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12195,38 +12195,38 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="N148" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O148" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P148" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S148" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T148" t="n">
         <v>18</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44320</v>
+        <v>44300</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12275,25 +12275,25 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N149" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O149" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P149" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T149" t="n">
         <v>18</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44320</v>
+        <v>44300</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -12360,20 +12360,20 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N150" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O150" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P150" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12382,11 +12382,11 @@
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S150" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T150" t="n">
         <v>18</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44320</v>
+        <v>44300</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -12440,20 +12440,20 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="N151" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O151" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P151" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12462,11 +12462,11 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S151" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T151" t="n">
         <v>18</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44314</v>
+        <v>44371</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -12524,16 +12524,16 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N152" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O152" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P152" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12542,11 +12542,11 @@
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S152" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T152" t="n">
         <v>18</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44314</v>
+        <v>44371</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -12604,16 +12604,16 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N153" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O153" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P153" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12622,11 +12622,11 @@
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S153" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T153" t="n">
         <v>18</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44405</v>
+        <v>44238</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -12675,38 +12675,38 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N154" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O154" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P154" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S154" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T154" t="n">
         <v>18</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44405</v>
+        <v>44320</v>
       </c>
       <c r="E155" t="n">
         <v>7</v>
@@ -12755,25 +12755,25 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N155" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O155" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P155" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="T155" t="n">
         <v>18</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44405</v>
+        <v>44320</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
@@ -12840,20 +12840,20 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N156" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O156" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P156" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12862,11 +12862,11 @@
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S156" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T156" t="n">
         <v>18</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44327</v>
+        <v>44320</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12915,7 +12915,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -12924,16 +12924,16 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N157" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O157" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P157" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T157" t="n">
         <v>18</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44327</v>
+        <v>44314</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -13000,20 +13000,20 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="N158" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O158" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P158" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T158" t="n">
         <v>18</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44327</v>
+        <v>44314</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13084,7 +13084,7 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N159" t="n">
         <v>9000</v>
@@ -13102,7 +13102,7 @@
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S159" t="n">
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44231</v>
+        <v>44435</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13155,7 +13155,7 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -13164,16 +13164,16 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>230</v>
+        <v>590</v>
       </c>
       <c r="N160" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O160" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P160" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13182,11 +13182,11 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S160" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T160" t="n">
         <v>18</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44231</v>
+        <v>44435</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -13235,25 +13235,25 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="N161" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O161" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P161" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T161" t="n">
         <v>18</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44330</v>
+        <v>44435</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
@@ -13315,25 +13315,25 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>300</v>
+        <v>970</v>
       </c>
       <c r="N162" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O162" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P162" t="n">
-        <v>7000</v>
+        <v>9485</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>389</v>
+        <v>527</v>
       </c>
       <c r="T162" t="n">
         <v>18</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44330</v>
+        <v>44435</v>
       </c>
       <c r="E163" t="n">
         <v>7</v>
@@ -13395,7 +13395,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -13404,16 +13404,16 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="N163" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O163" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P163" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T163" t="n">
         <v>18</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44330</v>
+        <v>44435</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
@@ -13480,20 +13480,20 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N164" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O164" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P164" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13502,11 +13502,11 @@
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S164" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T164" t="n">
         <v>18</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44330</v>
+        <v>44435</v>
       </c>
       <c r="E165" t="n">
         <v>7</v>
@@ -13564,32 +13564,32 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="N165" t="n">
-        <v>9000</v>
+        <v>170000</v>
       </c>
       <c r="O165" t="n">
-        <v>9000</v>
+        <v>170000</v>
       </c>
       <c r="P165" t="n">
-        <v>9000</v>
+        <v>170000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S165" t="n">
-        <v>500</v>
+        <v>378</v>
       </c>
       <c r="T165" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="166">
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44330</v>
+        <v>44405</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -13640,20 +13640,20 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M166" t="n">
         <v>200</v>
       </c>
       <c r="N166" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O166" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P166" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T166" t="n">
         <v>18</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44391</v>
+        <v>44405</v>
       </c>
       <c r="E167" t="n">
         <v>7</v>
@@ -13720,20 +13720,20 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N167" t="n">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="O167" t="n">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="P167" t="n">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>56</v>
+        <v>500</v>
       </c>
       <c r="T167" t="n">
         <v>18</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44391</v>
+        <v>44405</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -13800,20 +13800,20 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N168" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O168" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P168" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T168" t="n">
         <v>18</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44350</v>
+        <v>44327</v>
       </c>
       <c r="E169" t="n">
         <v>7</v>
@@ -13884,7 +13884,7 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="N169" t="n">
         <v>7000</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44350</v>
+        <v>44327</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -13982,7 +13982,7 @@
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S170" t="n">
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44278</v>
+        <v>44327</v>
       </c>
       <c r="E171" t="n">
         <v>7</v>
@@ -14044,16 +14044,16 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="N171" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O171" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P171" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T171" t="n">
         <v>18</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44358</v>
+        <v>44231</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -14115,7 +14115,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -14124,16 +14124,16 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N172" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O172" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P172" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="T172" t="n">
         <v>18</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44358</v>
+        <v>44231</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14195,16 +14195,16 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N173" t="n">
         <v>10000</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44358</v>
+        <v>44330</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14275,7 +14275,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -14284,16 +14284,16 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N174" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O174" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P174" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14302,11 +14302,11 @@
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S174" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T174" t="n">
         <v>18</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44389</v>
+        <v>44330</v>
       </c>
       <c r="E175" t="n">
         <v>7</v>
@@ -14355,25 +14355,25 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N175" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O175" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P175" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T175" t="n">
         <v>18</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44389</v>
+        <v>44330</v>
       </c>
       <c r="E176" t="n">
         <v>7</v>
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N176" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O176" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P176" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T176" t="n">
         <v>18</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44399</v>
+        <v>44330</v>
       </c>
       <c r="E177" t="n">
         <v>7</v>
@@ -14515,7 +14515,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -14524,16 +14524,16 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N177" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O177" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P177" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14542,11 +14542,11 @@
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S177" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T177" t="n">
         <v>18</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44399</v>
+        <v>44330</v>
       </c>
       <c r="E178" t="n">
         <v>7</v>
@@ -14600,20 +14600,20 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N178" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O178" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P178" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T178" t="n">
         <v>18</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44399</v>
+        <v>44391</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -14680,20 +14680,20 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N179" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="O179" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="P179" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14702,11 +14702,11 @@
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S179" t="n">
-        <v>444</v>
+        <v>56</v>
       </c>
       <c r="T179" t="n">
         <v>18</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44250</v>
+        <v>44391</v>
       </c>
       <c r="E180" t="n">
         <v>7</v>
@@ -14755,7 +14755,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
@@ -14764,16 +14764,16 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N180" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O180" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P180" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14782,11 +14782,11 @@
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S180" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T180" t="n">
         <v>18</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44292</v>
+        <v>44350</v>
       </c>
       <c r="E181" t="n">
         <v>7</v>
@@ -14840,20 +14840,20 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N181" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O181" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P181" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14862,11 +14862,11 @@
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S181" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T181" t="n">
         <v>18</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44292</v>
+        <v>44350</v>
       </c>
       <c r="E182" t="n">
         <v>7</v>
@@ -14920,20 +14920,20 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N182" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O182" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P182" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14942,11 +14942,11 @@
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S182" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T182" t="n">
         <v>18</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44292</v>
+        <v>44278</v>
       </c>
       <c r="E183" t="n">
         <v>7</v>
@@ -15004,16 +15004,16 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="N183" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O183" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P183" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15022,11 +15022,11 @@
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S183" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T183" t="n">
         <v>18</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44305</v>
+        <v>44358</v>
       </c>
       <c r="E184" t="n">
         <v>7</v>
@@ -15075,7 +15075,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -15087,13 +15087,13 @@
         <v>260</v>
       </c>
       <c r="N184" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O184" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P184" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15102,11 +15102,11 @@
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S184" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T184" t="n">
         <v>18</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44294</v>
+        <v>44358</v>
       </c>
       <c r="E185" t="n">
         <v>7</v>
@@ -15164,16 +15164,16 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N185" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O185" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P185" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T185" t="n">
         <v>18</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44294</v>
+        <v>44358</v>
       </c>
       <c r="E186" t="n">
         <v>7</v>
@@ -15244,16 +15244,16 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N186" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O186" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P186" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T186" t="n">
         <v>18</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44417</v>
+        <v>44389</v>
       </c>
       <c r="E187" t="n">
         <v>7</v>
@@ -15315,25 +15315,25 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N187" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O187" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P187" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T187" t="n">
         <v>18</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44419</v>
+        <v>44389</v>
       </c>
       <c r="E188" t="n">
         <v>7</v>
@@ -15395,7 +15395,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -15404,16 +15404,16 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N188" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O188" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P188" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15422,11 +15422,11 @@
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S188" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T188" t="n">
         <v>18</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44419</v>
+        <v>44399</v>
       </c>
       <c r="E189" t="n">
         <v>7</v>
@@ -15475,25 +15475,25 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N189" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O189" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P189" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T189" t="n">
         <v>18</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44419</v>
+        <v>44399</v>
       </c>
       <c r="E190" t="n">
         <v>7</v>
@@ -15560,20 +15560,20 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="N190" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O190" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P190" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15582,11 +15582,11 @@
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S190" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T190" t="n">
         <v>18</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44420</v>
+        <v>44399</v>
       </c>
       <c r="E191" t="n">
         <v>7</v>
@@ -15640,20 +15640,20 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M191" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="N191" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O191" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P191" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15662,11 +15662,11 @@
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S191" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T191" t="n">
         <v>18</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44420</v>
+        <v>44250</v>
       </c>
       <c r="E192" t="n">
         <v>7</v>
@@ -15715,7 +15715,7 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
@@ -15724,7 +15724,7 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="N192" t="n">
         <v>8000</v>
@@ -15742,7 +15742,7 @@
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S192" t="n">
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44420</v>
+        <v>44292</v>
       </c>
       <c r="E193" t="n">
         <v>7</v>
@@ -15795,25 +15795,25 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="N193" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O193" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P193" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T193" t="n">
         <v>18</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44369</v>
+        <v>44292</v>
       </c>
       <c r="E194" t="n">
         <v>7</v>
@@ -15875,25 +15875,25 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M194" t="n">
         <v>250</v>
       </c>
       <c r="N194" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O194" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P194" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T194" t="n">
         <v>18</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44369</v>
+        <v>44292</v>
       </c>
       <c r="E195" t="n">
         <v>7</v>
@@ -15960,20 +15960,20 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="N195" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O195" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P195" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T195" t="n">
         <v>18</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44265</v>
+        <v>44305</v>
       </c>
       <c r="E196" t="n">
         <v>7</v>
@@ -16035,7 +16035,7 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
@@ -16044,16 +16044,16 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="N196" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O196" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P196" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T196" t="n">
         <v>18</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44265</v>
+        <v>44294</v>
       </c>
       <c r="E197" t="n">
         <v>7</v>
@@ -16120,20 +16120,20 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="N197" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O197" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P197" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16142,11 +16142,11 @@
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S197" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T197" t="n">
         <v>18</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44265</v>
+        <v>44294</v>
       </c>
       <c r="E198" t="n">
         <v>7</v>
@@ -16200,20 +16200,20 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N198" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O198" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P198" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16222,11 +16222,11 @@
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S198" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T198" t="n">
         <v>18</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44333</v>
+        <v>44417</v>
       </c>
       <c r="E199" t="n">
         <v>7</v>
@@ -16275,25 +16275,25 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N199" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O199" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P199" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16302,11 +16302,11 @@
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S199" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="T199" t="n">
         <v>18</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44333</v>
+        <v>44419</v>
       </c>
       <c r="E200" t="n">
         <v>7</v>
@@ -16355,7 +16355,7 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
@@ -16364,16 +16364,16 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="N200" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O200" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P200" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T200" t="n">
         <v>18</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44277</v>
+        <v>44419</v>
       </c>
       <c r="E201" t="n">
         <v>7</v>
@@ -16435,25 +16435,25 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M201" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="N201" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O201" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P201" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16462,11 +16462,11 @@
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S201" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T201" t="n">
         <v>18</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44309</v>
+        <v>44419</v>
       </c>
       <c r="E202" t="n">
         <v>7</v>
@@ -16515,25 +16515,25 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M202" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="N202" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O202" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P202" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16542,11 +16542,11 @@
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S202" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T202" t="n">
         <v>18</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44309</v>
+        <v>44420</v>
       </c>
       <c r="E203" t="n">
         <v>7</v>
@@ -16595,25 +16595,25 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M203" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N203" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O203" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P203" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T203" t="n">
         <v>18</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44309</v>
+        <v>44420</v>
       </c>
       <c r="E204" t="n">
         <v>7</v>
@@ -16680,20 +16680,20 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M204" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="N204" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O204" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P204" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T204" t="n">
         <v>18</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44309</v>
+        <v>44420</v>
       </c>
       <c r="E205" t="n">
         <v>7</v>
@@ -16760,20 +16760,20 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N205" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O205" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P205" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T205" t="n">
         <v>18</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44344</v>
+        <v>44369</v>
       </c>
       <c r="E206" t="n">
         <v>7</v>
@@ -16844,7 +16844,7 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N206" t="n">
         <v>7000</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44344</v>
+        <v>44369</v>
       </c>
       <c r="E207" t="n">
         <v>7</v>
@@ -16924,16 +16924,16 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N207" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O207" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P207" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T207" t="n">
         <v>18</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44344</v>
+        <v>44265</v>
       </c>
       <c r="E208" t="n">
         <v>7</v>
@@ -16995,25 +16995,25 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N208" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O208" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P208" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T208" t="n">
         <v>18</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44344</v>
+        <v>44265</v>
       </c>
       <c r="E209" t="n">
         <v>7</v>
@@ -17084,7 +17084,7 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="N209" t="n">
         <v>9000</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44319</v>
+        <v>44265</v>
       </c>
       <c r="E210" t="n">
         <v>7</v>
@@ -17155,25 +17155,25 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="N210" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O210" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P210" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T210" t="n">
         <v>18</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44319</v>
+        <v>44333</v>
       </c>
       <c r="E211" t="n">
         <v>7</v>
@@ -17235,25 +17235,25 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N211" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O211" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P211" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17262,11 +17262,11 @@
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S211" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="T211" t="n">
         <v>18</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44319</v>
+        <v>44333</v>
       </c>
       <c r="E212" t="n">
         <v>7</v>
@@ -17320,11 +17320,11 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N212" t="n">
         <v>10000</v>
@@ -17342,7 +17342,7 @@
       </c>
       <c r="R212" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S212" t="n">
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44319</v>
+        <v>44277</v>
       </c>
       <c r="E213" t="n">
         <v>7</v>
@@ -17395,7 +17395,7 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
@@ -17404,16 +17404,16 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N213" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O213" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P213" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T213" t="n">
         <v>18</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E214" t="n">
         <v>7</v>
@@ -17475,25 +17475,25 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="N214" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O214" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P214" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T214" t="n">
         <v>18</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E215" t="n">
         <v>7</v>
@@ -17560,20 +17560,20 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N215" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O215" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P215" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T215" t="n">
         <v>18</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44316</v>
+        <v>44309</v>
       </c>
       <c r="E216" t="n">
         <v>7</v>
@@ -17635,25 +17635,25 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N216" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O216" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P216" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T216" t="n">
         <v>18</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44253</v>
+        <v>44309</v>
       </c>
       <c r="E217" t="n">
         <v>7</v>
@@ -17724,7 +17724,7 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N217" t="n">
         <v>8000</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44253</v>
+        <v>44309</v>
       </c>
       <c r="E218" t="n">
         <v>7</v>
@@ -17795,25 +17795,25 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N218" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O218" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P218" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T218" t="n">
         <v>18</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44253</v>
+        <v>44309</v>
       </c>
       <c r="E219" t="n">
         <v>7</v>
@@ -17875,25 +17875,25 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N219" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O219" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P219" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="T219" t="n">
         <v>18</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44281</v>
+        <v>44344</v>
       </c>
       <c r="E220" t="n">
         <v>7</v>
@@ -17955,25 +17955,25 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="N220" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O220" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P220" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T220" t="n">
         <v>18</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44281</v>
+        <v>44344</v>
       </c>
       <c r="E221" t="n">
         <v>7</v>
@@ -18040,20 +18040,20 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N221" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O221" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P221" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T221" t="n">
         <v>18</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44211</v>
+        <v>44344</v>
       </c>
       <c r="E222" t="n">
         <v>7</v>
@@ -18115,25 +18115,25 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="N222" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O222" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P222" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="T222" t="n">
         <v>18</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44272</v>
+        <v>44344</v>
       </c>
       <c r="E223" t="n">
         <v>7</v>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -18204,16 +18204,16 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="N223" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O223" t="n">
         <v>9000</v>
       </c>
       <c r="P223" t="n">
-        <v>8435</v>
+        <v>9000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="T223" t="n">
         <v>18</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44272</v>
+        <v>44319</v>
       </c>
       <c r="E224" t="n">
         <v>7</v>
@@ -18275,7 +18275,7 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
@@ -18284,16 +18284,16 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="N224" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O224" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P224" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T224" t="n">
         <v>18</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44272</v>
+        <v>44319</v>
       </c>
       <c r="E225" t="n">
         <v>7</v>
@@ -18355,7 +18355,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -18364,16 +18364,16 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="N225" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O225" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P225" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T225" t="n">
         <v>18</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44272</v>
+        <v>44319</v>
       </c>
       <c r="E226" t="n">
         <v>7</v>
@@ -18440,20 +18440,20 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M226" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N226" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O226" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P226" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T226" t="n">
         <v>18</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44326</v>
+        <v>44319</v>
       </c>
       <c r="E227" t="n">
         <v>7</v>
@@ -18515,7 +18515,7 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
@@ -18524,16 +18524,16 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N227" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O227" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P227" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18542,11 +18542,11 @@
       </c>
       <c r="R227" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S227" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T227" t="n">
         <v>18</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44326</v>
+        <v>44316</v>
       </c>
       <c r="E228" t="n">
         <v>7</v>
@@ -18595,7 +18595,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -18604,7 +18604,7 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="N228" t="n">
         <v>8000</v>
@@ -18622,7 +18622,7 @@
       </c>
       <c r="R228" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S228" t="n">
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44326</v>
+        <v>44316</v>
       </c>
       <c r="E229" t="n">
         <v>7</v>
@@ -18675,25 +18675,25 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N229" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O229" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P229" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18702,11 +18702,11 @@
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S229" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="T229" t="n">
         <v>18</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44382</v>
+        <v>44316</v>
       </c>
       <c r="E230" t="n">
         <v>7</v>
@@ -18760,20 +18760,20 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M230" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N230" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O230" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P230" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18782,11 +18782,11 @@
       </c>
       <c r="R230" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S230" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T230" t="n">
         <v>18</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44382</v>
+        <v>44253</v>
       </c>
       <c r="E231" t="n">
         <v>7</v>
@@ -18835,7 +18835,7 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N231" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O231" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P231" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18862,11 +18862,11 @@
       </c>
       <c r="R231" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S231" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T231" t="n">
         <v>18</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44398</v>
+        <v>44253</v>
       </c>
       <c r="E232" t="n">
         <v>7</v>
@@ -18915,25 +18915,25 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M232" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N232" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O232" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P232" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T232" t="n">
         <v>18</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44398</v>
+        <v>44253</v>
       </c>
       <c r="E233" t="n">
         <v>7</v>
@@ -18995,25 +18995,25 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N233" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O233" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P233" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="T233" t="n">
         <v>18</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44398</v>
+        <v>44281</v>
       </c>
       <c r="E234" t="n">
         <v>7</v>
@@ -19080,20 +19080,20 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="N234" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O234" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P234" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T234" t="n">
         <v>18</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44270</v>
+        <v>44281</v>
       </c>
       <c r="E235" t="n">
         <v>7</v>
@@ -19155,7 +19155,7 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
@@ -19164,7 +19164,7 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="N235" t="n">
         <v>8000</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44270</v>
+        <v>44211</v>
       </c>
       <c r="E236" t="n">
         <v>7</v>
@@ -19235,25 +19235,25 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>340</v>
+        <v>110</v>
       </c>
       <c r="N236" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O236" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P236" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T236" t="n">
         <v>18</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44270</v>
+        <v>44272</v>
       </c>
       <c r="E237" t="n">
         <v>7</v>
@@ -19315,7 +19315,7 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
@@ -19324,16 +19324,16 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="N237" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O237" t="n">
         <v>9000</v>
       </c>
-      <c r="O237" t="n">
-        <v>10000</v>
-      </c>
       <c r="P237" t="n">
-        <v>9400</v>
+        <v>8435</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>522</v>
+        <v>469</v>
       </c>
       <c r="T237" t="n">
         <v>18</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44286</v>
+        <v>44272</v>
       </c>
       <c r="E238" t="n">
         <v>7</v>
@@ -19395,25 +19395,25 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N238" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O238" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P238" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="T238" t="n">
         <v>18</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44286</v>
+        <v>44272</v>
       </c>
       <c r="E239" t="n">
         <v>7</v>
@@ -19475,7 +19475,7 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
@@ -19484,16 +19484,16 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N239" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O239" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P239" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T239" t="n">
         <v>18</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44217</v>
+        <v>44272</v>
       </c>
       <c r="E240" t="n">
         <v>7</v>
@@ -19555,16 +19555,16 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="N240" t="n">
         <v>8000</v>
@@ -19577,7 +19577,7 @@
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R240" t="inlineStr">
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44343</v>
+        <v>44326</v>
       </c>
       <c r="E241" t="n">
         <v>7</v>
@@ -19635,29 +19635,29 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N241" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O241" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P241" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R241" t="inlineStr">
@@ -19666,10 +19666,10 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>600</v>
+        <v>389</v>
       </c>
       <c r="T241" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="242">
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44343</v>
+        <v>44326</v>
       </c>
       <c r="E242" t="n">
         <v>7</v>
@@ -19715,29 +19715,29 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N242" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O242" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P242" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R242" t="inlineStr">
@@ -19746,10 +19746,10 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T242" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="243">
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44376</v>
+        <v>44326</v>
       </c>
       <c r="E243" t="n">
         <v>7</v>
@@ -19795,25 +19795,25 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N243" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O243" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P243" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19822,11 +19822,11 @@
       </c>
       <c r="R243" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S243" t="n">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="T243" t="n">
         <v>18</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44376</v>
+        <v>44382</v>
       </c>
       <c r="E244" t="n">
         <v>7</v>
@@ -19884,16 +19884,16 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="N244" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O244" t="n">
         <v>10000</v>
       </c>
       <c r="P244" t="n">
-        <v>9714</v>
+        <v>10000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19902,11 +19902,11 @@
       </c>
       <c r="R244" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S244" t="n">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="T244" t="n">
         <v>18</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44376</v>
+        <v>44382</v>
       </c>
       <c r="E245" t="n">
         <v>7</v>
@@ -19964,16 +19964,16 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N245" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O245" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P245" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19982,11 +19982,11 @@
       </c>
       <c r="R245" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S245" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T245" t="n">
         <v>18</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44284</v>
+        <v>44398</v>
       </c>
       <c r="E246" t="n">
         <v>7</v>
@@ -20044,16 +20044,16 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N246" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O246" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P246" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T246" t="n">
         <v>18</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44334</v>
+        <v>44398</v>
       </c>
       <c r="E247" t="n">
         <v>7</v>
@@ -20124,16 +20124,16 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>540</v>
+        <v>240</v>
       </c>
       <c r="N247" t="n">
         <v>9000</v>
       </c>
       <c r="O247" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P247" t="n">
-        <v>9481</v>
+        <v>9000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20142,11 +20142,11 @@
       </c>
       <c r="R247" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S247" t="n">
-        <v>527</v>
+        <v>500</v>
       </c>
       <c r="T247" t="n">
         <v>18</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44418</v>
+        <v>44398</v>
       </c>
       <c r="E248" t="n">
         <v>7</v>
@@ -20200,20 +20200,20 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="N248" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O248" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P248" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T248" t="n">
         <v>18</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44418</v>
+        <v>44270</v>
       </c>
       <c r="E249" t="n">
         <v>7</v>
@@ -20275,25 +20275,25 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N249" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O249" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P249" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20302,11 +20302,11 @@
       </c>
       <c r="R249" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S249" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T249" t="n">
         <v>18</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44418</v>
+        <v>44270</v>
       </c>
       <c r="E250" t="n">
         <v>7</v>
@@ -20360,20 +20360,20 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="N250" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O250" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P250" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T250" t="n">
         <v>18</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44418</v>
+        <v>44270</v>
       </c>
       <c r="E251" t="n">
         <v>7</v>
@@ -20444,16 +20444,16 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N251" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O251" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P251" t="n">
-        <v>8000</v>
+        <v>9400</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20462,11 +20462,11 @@
       </c>
       <c r="R251" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S251" t="n">
-        <v>444</v>
+        <v>522</v>
       </c>
       <c r="T251" t="n">
         <v>18</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44418</v>
+        <v>44286</v>
       </c>
       <c r="E252" t="n">
         <v>7</v>
@@ -20515,16 +20515,16 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N252" t="n">
         <v>7000</v>
@@ -20549,6 +20549,1286 @@
         <v>389</v>
       </c>
       <c r="T252" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>5</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D253" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E253" t="n">
+        <v>7</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G253" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>Forelle</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M253" t="n">
+        <v>200</v>
+      </c>
+      <c r="N253" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O253" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P253" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S253" t="n">
+        <v>444</v>
+      </c>
+      <c r="T253" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>5</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D254" s="2" t="n">
+        <v>44217</v>
+      </c>
+      <c r="E254" t="n">
+        <v>7</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G254" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>Carmen</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M254" t="n">
+        <v>350</v>
+      </c>
+      <c r="N254" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O254" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P254" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S254" t="n">
+        <v>444</v>
+      </c>
+      <c r="T254" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>5</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D255" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E255" t="n">
+        <v>7</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G255" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M255" t="n">
+        <v>200</v>
+      </c>
+      <c r="N255" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O255" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P255" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S255" t="n">
+        <v>600</v>
+      </c>
+      <c r="T255" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>5</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D256" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E256" t="n">
+        <v>7</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G256" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M256" t="n">
+        <v>230</v>
+      </c>
+      <c r="N256" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O256" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P256" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S256" t="n">
+        <v>667</v>
+      </c>
+      <c r="T256" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>5</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D257" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E257" t="n">
+        <v>7</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G257" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>Abate Fettel</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M257" t="n">
+        <v>250</v>
+      </c>
+      <c r="N257" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O257" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P257" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S257" t="n">
+        <v>389</v>
+      </c>
+      <c r="T257" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>5</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D258" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E258" t="n">
+        <v>7</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G258" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M258" t="n">
+        <v>350</v>
+      </c>
+      <c r="N258" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O258" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P258" t="n">
+        <v>9714</v>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S258" t="n">
+        <v>540</v>
+      </c>
+      <c r="T258" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>5</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D259" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E259" t="n">
+        <v>7</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G259" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M259" t="n">
+        <v>300</v>
+      </c>
+      <c r="N259" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O259" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P259" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S259" t="n">
+        <v>444</v>
+      </c>
+      <c r="T259" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>5</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D260" s="2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="E260" t="n">
+        <v>7</v>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G260" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M260" t="n">
+        <v>250</v>
+      </c>
+      <c r="N260" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O260" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P260" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S260" t="n">
+        <v>500</v>
+      </c>
+      <c r="T260" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>5</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D261" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E261" t="n">
+        <v>7</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G261" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M261" t="n">
+        <v>540</v>
+      </c>
+      <c r="N261" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O261" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P261" t="n">
+        <v>9481</v>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S261" t="n">
+        <v>527</v>
+      </c>
+      <c r="T261" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>5</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D262" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E262" t="n">
+        <v>7</v>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G262" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M262" t="n">
+        <v>230</v>
+      </c>
+      <c r="N262" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O262" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P262" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S262" t="n">
+        <v>500</v>
+      </c>
+      <c r="T262" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>5</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D263" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E263" t="n">
+        <v>7</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G263" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M263" t="n">
+        <v>250</v>
+      </c>
+      <c r="N263" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O263" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P263" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S263" t="n">
+        <v>556</v>
+      </c>
+      <c r="T263" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>5</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D264" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E264" t="n">
+        <v>7</v>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G264" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M264" t="n">
+        <v>150</v>
+      </c>
+      <c r="N264" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O264" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P264" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S264" t="n">
+        <v>444</v>
+      </c>
+      <c r="T264" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>5</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D265" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E265" t="n">
+        <v>7</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G265" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M265" t="n">
+        <v>200</v>
+      </c>
+      <c r="N265" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O265" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P265" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S265" t="n">
+        <v>444</v>
+      </c>
+      <c r="T265" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>5</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D266" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E266" t="n">
+        <v>7</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G266" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M266" t="n">
+        <v>160</v>
+      </c>
+      <c r="N266" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O266" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P266" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S266" t="n">
+        <v>389</v>
+      </c>
+      <c r="T266" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>5</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D267" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E267" t="n">
+        <v>7</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G267" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>Abate Fettel</t>
+        </is>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M267" t="n">
+        <v>180</v>
+      </c>
+      <c r="N267" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O267" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P267" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S267" t="n">
+        <v>389</v>
+      </c>
+      <c r="T267" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>5</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E268" t="n">
+        <v>7</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G268" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M268" t="n">
+        <v>250</v>
+      </c>
+      <c r="N268" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O268" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P268" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S268" t="n">
+        <v>556</v>
+      </c>
+      <c r="T268" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T268"/>
+  <dimension ref="A1:T270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44327</v>
+        <v>44438</v>
       </c>
       <c r="E169" t="n">
         <v>7</v>
@@ -13875,25 +13875,25 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="N169" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O169" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P169" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13902,11 +13902,11 @@
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S169" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T169" t="n">
         <v>18</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44327</v>
+        <v>44438</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -13964,16 +13964,16 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="N170" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O170" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P170" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T170" t="n">
         <v>18</v>
@@ -14035,7 +14035,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -14044,16 +14044,16 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>220</v>
+        <v>360</v>
       </c>
       <c r="N171" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O171" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P171" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T171" t="n">
         <v>18</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44231</v>
+        <v>44327</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -14115,7 +14115,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -14124,16 +14124,16 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="N172" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O172" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P172" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14142,11 +14142,11 @@
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S172" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T172" t="n">
         <v>18</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44231</v>
+        <v>44327</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14195,25 +14195,25 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="N173" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O173" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P173" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T173" t="n">
         <v>18</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44330</v>
+        <v>44231</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14275,7 +14275,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -14284,16 +14284,16 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N174" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O174" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P174" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14302,11 +14302,11 @@
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S174" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="T174" t="n">
         <v>18</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44330</v>
+        <v>44231</v>
       </c>
       <c r="E175" t="n">
         <v>7</v>
@@ -14355,25 +14355,25 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N175" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O175" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P175" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14382,11 +14382,11 @@
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S175" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T175" t="n">
         <v>18</v>
@@ -14435,25 +14435,25 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N176" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O176" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P176" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T176" t="n">
         <v>18</v>
@@ -14515,7 +14515,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -14524,16 +14524,16 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N177" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O177" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P177" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T177" t="n">
         <v>18</v>
@@ -14600,20 +14600,20 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M178" t="n">
         <v>200</v>
       </c>
       <c r="N178" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O178" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P178" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T178" t="n">
         <v>18</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -14680,20 +14680,20 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N179" t="n">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="O179" t="n">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="P179" t="n">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>56</v>
+        <v>500</v>
       </c>
       <c r="T179" t="n">
         <v>18</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E180" t="n">
         <v>7</v>
@@ -14760,20 +14760,20 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M180" t="n">
         <v>200</v>
       </c>
       <c r="N180" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O180" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P180" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T180" t="n">
         <v>18</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E181" t="n">
         <v>7</v>
@@ -14835,25 +14835,25 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N181" t="n">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="O181" t="n">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="P181" t="n">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14862,11 +14862,11 @@
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S181" t="n">
-        <v>389</v>
+        <v>56</v>
       </c>
       <c r="T181" t="n">
         <v>18</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E182" t="n">
         <v>7</v>
@@ -14924,7 +14924,7 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N182" t="n">
         <v>9000</v>
@@ -14942,7 +14942,7 @@
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S182" t="n">
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44278</v>
+        <v>44350</v>
       </c>
       <c r="E183" t="n">
         <v>7</v>
@@ -14995,7 +14995,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -15004,7 +15004,7 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N183" t="n">
         <v>7000</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E184" t="n">
         <v>7</v>
@@ -15075,7 +15075,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -15087,13 +15087,13 @@
         <v>260</v>
       </c>
       <c r="N184" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O184" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P184" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T184" t="n">
         <v>18</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E185" t="n">
         <v>7</v>
@@ -15160,20 +15160,20 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M185" t="n">
         <v>230</v>
       </c>
       <c r="N185" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O185" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P185" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T185" t="n">
         <v>18</v>
@@ -15235,7 +15235,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -15244,16 +15244,16 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="N186" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O186" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P186" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T186" t="n">
         <v>18</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E187" t="n">
         <v>7</v>
@@ -15324,7 +15324,7 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="N187" t="n">
         <v>10000</v>
@@ -15342,7 +15342,7 @@
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S187" t="n">
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E188" t="n">
         <v>7</v>
@@ -15404,7 +15404,7 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N188" t="n">
         <v>9000</v>
@@ -15422,7 +15422,7 @@
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S188" t="n">
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E189" t="n">
         <v>7</v>
@@ -15475,25 +15475,25 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N189" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O189" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P189" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15502,11 +15502,11 @@
       </c>
       <c r="R189" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S189" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T189" t="n">
         <v>18</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E190" t="n">
         <v>7</v>
@@ -15560,20 +15560,20 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N190" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O190" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P190" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T190" t="n">
         <v>18</v>
@@ -15635,7 +15635,7 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -15644,7 +15644,7 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N191" t="n">
         <v>8000</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44250</v>
+        <v>44399</v>
       </c>
       <c r="E192" t="n">
         <v>7</v>
@@ -15715,25 +15715,25 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M192" t="n">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="N192" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O192" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P192" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15742,11 +15742,11 @@
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S192" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T192" t="n">
         <v>18</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44292</v>
+        <v>44399</v>
       </c>
       <c r="E193" t="n">
         <v>7</v>
@@ -15795,16 +15795,16 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="N193" t="n">
         <v>8000</v>
@@ -15822,7 +15822,7 @@
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S193" t="n">
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E194" t="n">
         <v>7</v>
@@ -15875,25 +15875,25 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M194" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="N194" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O194" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P194" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15902,11 +15902,11 @@
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S194" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T194" t="n">
         <v>18</v>
@@ -15955,16 +15955,16 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="N195" t="n">
         <v>8000</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E196" t="n">
         <v>7</v>
@@ -16040,11 +16040,11 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N196" t="n">
         <v>10000</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="E197" t="n">
         <v>7</v>
@@ -16120,20 +16120,20 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="N197" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O197" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P197" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16142,11 +16142,11 @@
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S197" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T197" t="n">
         <v>18</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E198" t="n">
         <v>7</v>
@@ -16204,7 +16204,7 @@
         </is>
       </c>
       <c r="M198" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="N198" t="n">
         <v>10000</v>
@@ -16222,7 +16222,7 @@
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S198" t="n">
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E199" t="n">
         <v>7</v>
@@ -16275,25 +16275,25 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N199" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O199" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P199" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16302,11 +16302,11 @@
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S199" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="T199" t="n">
         <v>18</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44419</v>
+        <v>44294</v>
       </c>
       <c r="E200" t="n">
         <v>7</v>
@@ -16355,7 +16355,7 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
@@ -16364,16 +16364,16 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="N200" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O200" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P200" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T200" t="n">
         <v>18</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E201" t="n">
         <v>7</v>
@@ -16435,25 +16435,25 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M201" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N201" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O201" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P201" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16462,11 +16462,11 @@
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S201" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T201" t="n">
         <v>18</v>
@@ -16515,7 +16515,7 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
@@ -16524,7 +16524,7 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="N202" t="n">
         <v>8000</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E203" t="n">
         <v>7</v>
@@ -16604,7 +16604,7 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N203" t="n">
         <v>10000</v>
@@ -16622,7 +16622,7 @@
       </c>
       <c r="R203" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S203" t="n">
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E204" t="n">
         <v>7</v>
@@ -16684,7 +16684,7 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="N204" t="n">
         <v>8000</v>
@@ -16702,7 +16702,7 @@
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S204" t="n">
@@ -16760,20 +16760,20 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="N205" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O205" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P205" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T205" t="n">
         <v>18</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44369</v>
+        <v>44420</v>
       </c>
       <c r="E206" t="n">
         <v>7</v>
@@ -16835,7 +16835,7 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
@@ -16844,16 +16844,16 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="N206" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O206" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P206" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T206" t="n">
         <v>18</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44369</v>
+        <v>44420</v>
       </c>
       <c r="E207" t="n">
         <v>7</v>
@@ -16920,20 +16920,20 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M207" t="n">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="N207" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O207" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P207" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T207" t="n">
         <v>18</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44265</v>
+        <v>44369</v>
       </c>
       <c r="E208" t="n">
         <v>7</v>
@@ -17004,16 +17004,16 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="N208" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O208" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P208" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T208" t="n">
         <v>18</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44265</v>
+        <v>44369</v>
       </c>
       <c r="E209" t="n">
         <v>7</v>
@@ -17080,11 +17080,11 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="N209" t="n">
         <v>9000</v>
@@ -17155,25 +17155,25 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="N210" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O210" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P210" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T210" t="n">
         <v>18</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44333</v>
+        <v>44265</v>
       </c>
       <c r="E211" t="n">
         <v>7</v>
@@ -17240,20 +17240,20 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N211" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O211" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P211" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17262,11 +17262,11 @@
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S211" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="T211" t="n">
         <v>18</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44333</v>
+        <v>44265</v>
       </c>
       <c r="E212" t="n">
         <v>7</v>
@@ -17320,20 +17320,20 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="N212" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O212" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P212" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17342,11 +17342,11 @@
       </c>
       <c r="R212" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S212" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T212" t="n">
         <v>18</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E213" t="n">
         <v>7</v>
@@ -17395,25 +17395,25 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N213" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O213" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P213" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17422,11 +17422,11 @@
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S213" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="T213" t="n">
         <v>18</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44433</v>
+        <v>44333</v>
       </c>
       <c r="E214" t="n">
         <v>7</v>
@@ -17480,11 +17480,11 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="N214" t="n">
         <v>10000</v>
@@ -17502,7 +17502,7 @@
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S214" t="n">
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44433</v>
+        <v>44277</v>
       </c>
       <c r="E215" t="n">
         <v>7</v>
@@ -17555,7 +17555,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -17564,7 +17564,7 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="N215" t="n">
         <v>8000</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E216" t="n">
         <v>7</v>
@@ -17635,7 +17635,7 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -17644,16 +17644,16 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="N216" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O216" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P216" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T216" t="n">
         <v>18</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E217" t="n">
         <v>7</v>
@@ -17715,7 +17715,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -17724,7 +17724,7 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N217" t="n">
         <v>8000</v>
@@ -17795,7 +17795,7 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
@@ -17804,16 +17804,16 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N218" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O218" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P218" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T218" t="n">
         <v>18</v>
@@ -17875,7 +17875,7 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
@@ -17884,16 +17884,16 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N219" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O219" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P219" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T219" t="n">
         <v>18</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E220" t="n">
         <v>7</v>
@@ -17955,25 +17955,25 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N220" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O220" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P220" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T220" t="n">
         <v>18</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E221" t="n">
         <v>7</v>
@@ -18040,20 +18040,20 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N221" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O221" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P221" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T221" t="n">
         <v>18</v>
@@ -18115,25 +18115,25 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="N222" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O222" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P222" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="T222" t="n">
         <v>18</v>
@@ -18200,20 +18200,20 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N223" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O223" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P223" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T223" t="n">
         <v>18</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E224" t="n">
         <v>7</v>
@@ -18275,25 +18275,25 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M224" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="N224" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O224" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P224" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T224" t="n">
         <v>18</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E225" t="n">
         <v>7</v>
@@ -18355,7 +18355,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -18364,16 +18364,16 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="N225" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O225" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P225" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T225" t="n">
         <v>18</v>
@@ -18435,7 +18435,7 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -18444,16 +18444,16 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N226" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O226" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P226" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T226" t="n">
         <v>18</v>
@@ -18515,7 +18515,7 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
@@ -18524,16 +18524,16 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N227" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O227" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P227" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T227" t="n">
         <v>18</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E228" t="n">
         <v>7</v>
@@ -18595,25 +18595,25 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M228" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N228" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O228" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P228" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T228" t="n">
         <v>18</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E229" t="n">
         <v>7</v>
@@ -18680,20 +18680,20 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N229" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O229" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P229" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T229" t="n">
         <v>18</v>
@@ -18755,7 +18755,7 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
@@ -18764,7 +18764,7 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="N230" t="n">
         <v>8000</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E231" t="n">
         <v>7</v>
@@ -18835,25 +18835,25 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N231" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O231" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P231" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T231" t="n">
         <v>18</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E232" t="n">
         <v>7</v>
@@ -18915,7 +18915,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
@@ -18924,7 +18924,7 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N232" t="n">
         <v>8000</v>
@@ -18995,25 +18995,25 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M233" t="n">
         <v>180</v>
       </c>
       <c r="N233" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O233" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P233" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T233" t="n">
         <v>18</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E234" t="n">
         <v>7</v>
@@ -19075,25 +19075,25 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="N234" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O234" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P234" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T234" t="n">
         <v>18</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E235" t="n">
         <v>7</v>
@@ -19155,25 +19155,25 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N235" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O235" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P235" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="T235" t="n">
         <v>18</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44211</v>
+        <v>44281</v>
       </c>
       <c r="E236" t="n">
         <v>7</v>
@@ -19235,25 +19235,25 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="N236" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O236" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P236" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T236" t="n">
         <v>18</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44272</v>
+        <v>44281</v>
       </c>
       <c r="E237" t="n">
         <v>7</v>
@@ -19315,7 +19315,7 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
@@ -19324,16 +19324,16 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N237" t="n">
         <v>8000</v>
       </c>
       <c r="O237" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P237" t="n">
-        <v>8435</v>
+        <v>8000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="T237" t="n">
         <v>18</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44272</v>
+        <v>44211</v>
       </c>
       <c r="E238" t="n">
         <v>7</v>
@@ -19395,25 +19395,25 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="N238" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O238" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P238" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T238" t="n">
         <v>18</v>
@@ -19475,7 +19475,7 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
@@ -19484,16 +19484,16 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="N239" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O239" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P239" t="n">
-        <v>10000</v>
+        <v>8435</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>556</v>
+        <v>469</v>
       </c>
       <c r="T239" t="n">
         <v>18</v>
@@ -19560,20 +19560,20 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N240" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O240" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P240" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T240" t="n">
         <v>18</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44326</v>
+        <v>44272</v>
       </c>
       <c r="E241" t="n">
         <v>7</v>
@@ -19635,7 +19635,7 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
@@ -19644,16 +19644,16 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N241" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O241" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P241" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19662,11 +19662,11 @@
       </c>
       <c r="R241" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S241" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T241" t="n">
         <v>18</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44326</v>
+        <v>44272</v>
       </c>
       <c r="E242" t="n">
         <v>7</v>
@@ -19715,16 +19715,16 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N242" t="n">
         <v>8000</v>
@@ -19742,7 +19742,7 @@
       </c>
       <c r="R242" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S242" t="n">
@@ -19795,25 +19795,25 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N243" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O243" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P243" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="T243" t="n">
         <v>18</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E244" t="n">
         <v>7</v>
@@ -19875,25 +19875,25 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N244" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O244" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P244" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T244" t="n">
         <v>18</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E245" t="n">
         <v>7</v>
@@ -19955,25 +19955,25 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N245" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O245" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P245" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="T245" t="n">
         <v>18</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E246" t="n">
         <v>7</v>
@@ -20044,7 +20044,7 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N246" t="n">
         <v>10000</v>
@@ -20062,7 +20062,7 @@
       </c>
       <c r="R246" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S246" t="n">
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E247" t="n">
         <v>7</v>
@@ -20124,7 +20124,7 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N247" t="n">
         <v>9000</v>
@@ -20142,7 +20142,7 @@
       </c>
       <c r="R247" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S247" t="n">
@@ -20200,20 +20200,20 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N248" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O248" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P248" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T248" t="n">
         <v>18</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E249" t="n">
         <v>7</v>
@@ -20275,7 +20275,7 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
@@ -20284,16 +20284,16 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="N249" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O249" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P249" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T249" t="n">
         <v>18</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E250" t="n">
         <v>7</v>
@@ -20360,20 +20360,20 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>340</v>
+        <v>190</v>
       </c>
       <c r="N250" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O250" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P250" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T250" t="n">
         <v>18</v>
@@ -20435,7 +20435,7 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
@@ -20444,16 +20444,16 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="N251" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O251" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P251" t="n">
-        <v>9400</v>
+        <v>8000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>522</v>
+        <v>444</v>
       </c>
       <c r="T251" t="n">
         <v>18</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44286</v>
+        <v>44270</v>
       </c>
       <c r="E252" t="n">
         <v>7</v>
@@ -20515,25 +20515,25 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="N252" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O252" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P252" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="T252" t="n">
         <v>18</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44286</v>
+        <v>44270</v>
       </c>
       <c r="E253" t="n">
         <v>7</v>
@@ -20595,7 +20595,7 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
@@ -20604,16 +20604,16 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N253" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O253" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P253" t="n">
-        <v>8000</v>
+        <v>9400</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>444</v>
+        <v>522</v>
       </c>
       <c r="T253" t="n">
         <v>18</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E254" t="n">
         <v>7</v>
@@ -20675,7 +20675,7 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
@@ -20684,20 +20684,20 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N254" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O254" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P254" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R254" t="inlineStr">
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T254" t="n">
         <v>18</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44343</v>
+        <v>44286</v>
       </c>
       <c r="E255" t="n">
         <v>7</v>
@@ -20755,41 +20755,41 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M255" t="n">
         <v>200</v>
       </c>
       <c r="N255" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O255" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P255" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R255" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S255" t="n">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="T255" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="256">
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E256" t="n">
         <v>7</v>
@@ -20835,41 +20835,41 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="N256" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O256" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P256" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R256" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S256" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T256" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="257">
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E257" t="n">
         <v>7</v>
@@ -20915,41 +20915,41 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N257" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O257" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P257" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R257" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S257" t="n">
-        <v>389</v>
+        <v>600</v>
       </c>
       <c r="T257" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="258">
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E258" t="n">
         <v>7</v>
@@ -21000,36 +21000,36 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="N258" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O258" t="n">
         <v>10000</v>
       </c>
       <c r="P258" t="n">
-        <v>9714</v>
+        <v>10000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R258" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S258" t="n">
-        <v>540</v>
+        <v>667</v>
       </c>
       <c r="T258" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="259">
@@ -21075,7 +21075,7 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
@@ -21084,16 +21084,16 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N259" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O259" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P259" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T259" t="n">
         <v>18</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44284</v>
+        <v>44376</v>
       </c>
       <c r="E260" t="n">
         <v>7</v>
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N260" t="n">
         <v>9000</v>
       </c>
       <c r="O260" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P260" t="n">
-        <v>9000</v>
+        <v>9714</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="T260" t="n">
         <v>18</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E261" t="n">
         <v>7</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="N261" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O261" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P261" t="n">
-        <v>9481</v>
+        <v>8000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21262,11 +21262,11 @@
       </c>
       <c r="R261" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S261" t="n">
-        <v>527</v>
+        <v>444</v>
       </c>
       <c r="T261" t="n">
         <v>18</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44418</v>
+        <v>44284</v>
       </c>
       <c r="E262" t="n">
         <v>7</v>
@@ -21324,7 +21324,7 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N262" t="n">
         <v>9000</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44418</v>
+        <v>44334</v>
       </c>
       <c r="E263" t="n">
         <v>7</v>
@@ -21400,20 +21400,20 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>250</v>
+        <v>540</v>
       </c>
       <c r="N263" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O263" t="n">
         <v>10000</v>
       </c>
       <c r="P263" t="n">
-        <v>10000</v>
+        <v>9481</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="T263" t="n">
         <v>18</v>
@@ -21480,20 +21480,20 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N264" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O264" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P264" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T264" t="n">
         <v>18</v>
@@ -21560,20 +21560,20 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N265" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O265" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P265" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T265" t="n">
         <v>18</v>
@@ -21640,20 +21640,20 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N266" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O266" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P266" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T266" t="n">
         <v>18</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E267" t="n">
         <v>7</v>
@@ -21715,7 +21715,7 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -21724,16 +21724,16 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N267" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O267" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P267" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21742,11 +21742,11 @@
       </c>
       <c r="R267" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S267" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T267" t="n">
         <v>18</v>
@@ -21767,68 +21767,228 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E268" t="n">
+        <v>7</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G268" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M268" t="n">
+        <v>160</v>
+      </c>
+      <c r="N268" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O268" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P268" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S268" t="n">
+        <v>389</v>
+      </c>
+      <c r="T268" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>5</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D269" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E268" t="n">
-        <v>7</v>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G268" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I268" t="n">
-        <v>100104005</v>
-      </c>
-      <c r="J268" t="inlineStr">
-        <is>
-          <t>Pera</t>
-        </is>
-      </c>
-      <c r="K268" t="inlineStr">
+      <c r="E269" t="n">
+        <v>7</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G269" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I269" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>Abate Fettel</t>
+        </is>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M269" t="n">
+        <v>180</v>
+      </c>
+      <c r="N269" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O269" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P269" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S269" t="n">
+        <v>389</v>
+      </c>
+      <c r="T269" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>5</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E270" t="n">
+        <v>7</v>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G270" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I270" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K270" t="inlineStr">
         <is>
           <t>Packham's Triumph</t>
         </is>
       </c>
-      <c r="L268" t="inlineStr">
+      <c r="L270" t="inlineStr">
         <is>
           <t>Especial</t>
         </is>
       </c>
-      <c r="M268" t="n">
+      <c r="M270" t="n">
         <v>250</v>
       </c>
-      <c r="N268" t="n">
+      <c r="N270" t="n">
         <v>10000</v>
       </c>
-      <c r="O268" t="n">
+      <c r="O270" t="n">
         <v>10000</v>
       </c>
-      <c r="P268" t="n">
+      <c r="P270" t="n">
         <v>10000</v>
       </c>
-      <c r="Q268" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos granel</t>
-        </is>
-      </c>
-      <c r="R268" t="inlineStr">
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R270" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S268" t="n">
+      <c r="S270" t="n">
         <v>556</v>
       </c>
-      <c r="T268" t="n">
+      <c r="T270" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T283"/>
+  <dimension ref="A1:T285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -11315,7 +11315,7 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -11324,7 +11324,7 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N137" t="n">
         <v>8000</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11395,7 +11395,7 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -11404,20 +11404,20 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="N138" t="n">
-        <v>130000</v>
+        <v>8000</v>
       </c>
       <c r="O138" t="n">
-        <v>130000</v>
+        <v>8000</v>
       </c>
       <c r="P138" t="n">
-        <v>130000</v>
+        <v>8000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -11426,10 +11426,10 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="T138" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139">
@@ -11475,7 +11475,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -11484,7 +11484,7 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N139" t="n">
         <v>8000</v>
@@ -11502,7 +11502,7 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S139" t="n">
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44292</v>
+        <v>44267</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11560,36 +11560,36 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="N140" t="n">
-        <v>8000</v>
+        <v>130000</v>
       </c>
       <c r="O140" t="n">
-        <v>8000</v>
+        <v>130000</v>
       </c>
       <c r="P140" t="n">
-        <v>8000</v>
+        <v>130000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S140" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T140" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="141">
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44292</v>
+        <v>44267</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11640,20 +11640,20 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N141" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O141" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P141" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T141" t="n">
         <v>18</v>
@@ -11715,16 +11715,16 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="N142" t="n">
         <v>8000</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44300</v>
+        <v>44292</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11795,7 +11795,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -11804,16 +11804,16 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="N143" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O143" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P143" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T143" t="n">
         <v>18</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44300</v>
+        <v>44292</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11875,7 +11875,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -11884,7 +11884,7 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N144" t="n">
         <v>8000</v>
@@ -11955,16 +11955,16 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="N145" t="n">
         <v>9000</v>
@@ -12035,25 +12035,25 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="N146" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O146" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P146" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T146" t="n">
         <v>18</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44277</v>
+        <v>44300</v>
       </c>
       <c r="E147" t="n">
         <v>7</v>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -12124,16 +12124,16 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="N147" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O147" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P147" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T147" t="n">
         <v>18</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44392</v>
+        <v>44300</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12200,20 +12200,20 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="N148" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O148" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P148" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12222,11 +12222,11 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S148" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T148" t="n">
         <v>18</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44392</v>
+        <v>44277</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12275,7 +12275,7 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -12284,16 +12284,16 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N149" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="O149" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="P149" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12302,11 +12302,11 @@
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S149" t="n">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="T149" t="n">
         <v>18</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44217</v>
+        <v>44392</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -12355,38 +12355,38 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N150" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O150" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P150" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S150" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T150" t="n">
         <v>18</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44295</v>
+        <v>44392</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -12435,25 +12435,25 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N151" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="O151" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="P151" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12462,11 +12462,11 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S151" t="n">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="T151" t="n">
         <v>18</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44295</v>
+        <v>44217</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -12515,7 +12515,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -12524,20 +12524,20 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="N152" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O152" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P152" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T152" t="n">
         <v>18</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44362</v>
+        <v>44295</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -12595,7 +12595,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -12604,7 +12604,7 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N153" t="n">
         <v>9000</v>
@@ -12622,7 +12622,7 @@
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S153" t="n">
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44362</v>
+        <v>44295</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -12675,7 +12675,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -12684,16 +12684,16 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N154" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O154" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P154" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12702,11 +12702,11 @@
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S154" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T154" t="n">
         <v>18</v>
@@ -12760,20 +12760,20 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N155" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O155" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P155" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T155" t="n">
         <v>18</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44249</v>
+        <v>44362</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
@@ -12835,7 +12835,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -12844,16 +12844,16 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N156" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O156" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P156" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T156" t="n">
         <v>18</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44309</v>
+        <v>44362</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12915,25 +12915,25 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N157" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O157" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P157" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12942,11 +12942,11 @@
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S157" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T157" t="n">
         <v>18</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44309</v>
+        <v>44249</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -13004,16 +13004,16 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N158" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O158" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P158" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13022,11 +13022,11 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S158" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T158" t="n">
         <v>18</v>
@@ -13075,7 +13075,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -13084,16 +13084,16 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N159" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O159" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P159" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T159" t="n">
         <v>18</v>
@@ -13155,7 +13155,7 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -13164,16 +13164,16 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N160" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O160" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P160" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T160" t="n">
         <v>18</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -13244,7 +13244,7 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N161" t="n">
         <v>10000</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N162" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O162" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P162" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T162" t="n">
         <v>18</v>
@@ -13400,20 +13400,20 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="N163" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O163" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P163" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="T163" t="n">
         <v>18</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44322</v>
+        <v>44384</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
@@ -13475,25 +13475,25 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N164" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O164" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P164" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T164" t="n">
         <v>18</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44322</v>
+        <v>44384</v>
       </c>
       <c r="E165" t="n">
         <v>7</v>
@@ -13555,25 +13555,25 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>320</v>
+        <v>130</v>
       </c>
       <c r="N165" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O165" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P165" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="T165" t="n">
         <v>18</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -13640,20 +13640,20 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="N166" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O166" t="n">
         <v>9000</v>
       </c>
       <c r="P166" t="n">
-        <v>8435</v>
+        <v>9000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="T166" t="n">
         <v>18</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E167" t="n">
         <v>7</v>
@@ -13715,25 +13715,25 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="N167" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O167" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P167" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T167" t="n">
         <v>18</v>
@@ -13795,7 +13795,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="N168" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O168" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P168" t="n">
-        <v>10000</v>
+        <v>8435</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>556</v>
+        <v>469</v>
       </c>
       <c r="T168" t="n">
         <v>18</v>
@@ -13880,20 +13880,20 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N169" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O169" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P169" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T169" t="n">
         <v>18</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44365</v>
+        <v>44272</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -13955,7 +13955,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -13964,16 +13964,16 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N170" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O170" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P170" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13982,11 +13982,11 @@
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S170" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T170" t="n">
         <v>18</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44365</v>
+        <v>44272</v>
       </c>
       <c r="E171" t="n">
         <v>7</v>
@@ -14040,20 +14040,20 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="N171" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O171" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P171" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T171" t="n">
         <v>18</v>
@@ -14115,7 +14115,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -14124,16 +14124,16 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N172" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O172" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P172" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14142,11 +14142,11 @@
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S172" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T172" t="n">
         <v>18</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14195,25 +14195,25 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M173" t="n">
         <v>260</v>
       </c>
       <c r="N173" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O173" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P173" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14222,11 +14222,11 @@
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S173" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T173" t="n">
         <v>18</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14280,20 +14280,20 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="N174" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O174" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P174" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14302,11 +14302,11 @@
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S174" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T174" t="n">
         <v>18</v>
@@ -14355,7 +14355,7 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -14364,16 +14364,16 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="N175" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O175" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P175" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T175" t="n">
         <v>18</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E176" t="n">
         <v>7</v>
@@ -14444,7 +14444,7 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="N176" t="n">
         <v>10000</v>
@@ -14462,7 +14462,7 @@
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S176" t="n">
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E177" t="n">
         <v>7</v>
@@ -14524,16 +14524,16 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="N177" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O177" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P177" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14542,11 +14542,11 @@
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S177" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T177" t="n">
         <v>18</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E178" t="n">
         <v>7</v>
@@ -14595,25 +14595,25 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N178" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O178" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P178" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T178" t="n">
         <v>18</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -14684,16 +14684,16 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="N179" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O179" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P179" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T179" t="n">
         <v>18</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E180" t="n">
         <v>7</v>
@@ -14755,25 +14755,25 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N180" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O180" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P180" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T180" t="n">
         <v>18</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E181" t="n">
         <v>7</v>
@@ -14844,7 +14844,7 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N181" t="n">
         <v>9000</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E182" t="n">
         <v>7</v>
@@ -14915,7 +14915,7 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -14924,16 +14924,16 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="N182" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O182" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P182" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T182" t="n">
         <v>18</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E183" t="n">
         <v>7</v>
@@ -14995,7 +14995,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -15004,16 +15004,16 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N183" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O183" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P183" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T183" t="n">
         <v>18</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E184" t="n">
         <v>7</v>
@@ -15075,7 +15075,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -15084,16 +15084,16 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N184" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O184" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P184" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T184" t="n">
         <v>18</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E185" t="n">
         <v>7</v>
@@ -15155,7 +15155,7 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -15167,13 +15167,13 @@
         <v>100</v>
       </c>
       <c r="N185" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O185" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P185" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T185" t="n">
         <v>18</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E186" t="n">
         <v>7</v>
@@ -15235,25 +15235,25 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M186" t="n">
         <v>200</v>
       </c>
       <c r="N186" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O186" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P186" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15262,11 +15262,11 @@
       </c>
       <c r="R186" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S186" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T186" t="n">
         <v>18</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E187" t="n">
         <v>7</v>
@@ -15315,7 +15315,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -15324,7 +15324,7 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N187" t="n">
         <v>8000</v>
@@ -15342,7 +15342,7 @@
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S187" t="n">
@@ -15395,25 +15395,25 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N188" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O188" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P188" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T188" t="n">
         <v>18</v>
@@ -15475,7 +15475,7 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -15484,7 +15484,7 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="N189" t="n">
         <v>8000</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E190" t="n">
         <v>7</v>
@@ -15555,25 +15555,25 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N190" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O190" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P190" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15582,11 +15582,11 @@
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S190" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T190" t="n">
         <v>18</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E191" t="n">
         <v>7</v>
@@ -15640,20 +15640,20 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M191" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N191" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O191" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P191" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15662,11 +15662,11 @@
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S191" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T191" t="n">
         <v>18</v>
@@ -15715,7 +15715,7 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
@@ -15724,16 +15724,16 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N192" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O192" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P192" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15742,11 +15742,11 @@
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S192" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T192" t="n">
         <v>18</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E193" t="n">
         <v>7</v>
@@ -15804,16 +15804,16 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N193" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O193" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P193" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T193" t="n">
         <v>18</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E194" t="n">
         <v>7</v>
@@ -15884,16 +15884,16 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N194" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O194" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P194" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15902,11 +15902,11 @@
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S194" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T194" t="n">
         <v>18</v>
@@ -15960,20 +15960,20 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N195" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O195" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P195" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T195" t="n">
         <v>18</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E196" t="n">
         <v>7</v>
@@ -16040,20 +16040,20 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M196" t="n">
         <v>240</v>
       </c>
       <c r="N196" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O196" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P196" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T196" t="n">
         <v>18</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E197" t="n">
         <v>7</v>
@@ -16120,20 +16120,20 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="N197" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O197" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P197" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T197" t="n">
         <v>18</v>
@@ -16200,20 +16200,20 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="N198" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O198" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P198" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T198" t="n">
         <v>18</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44263</v>
+        <v>44420</v>
       </c>
       <c r="E199" t="n">
         <v>7</v>
@@ -16275,7 +16275,7 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
@@ -16284,7 +16284,7 @@
         </is>
       </c>
       <c r="M199" t="n">
-        <v>310</v>
+        <v>170</v>
       </c>
       <c r="N199" t="n">
         <v>8000</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44263</v>
+        <v>44420</v>
       </c>
       <c r="E200" t="n">
         <v>7</v>
@@ -16355,25 +16355,25 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="N200" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O200" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P200" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T200" t="n">
         <v>18</v>
@@ -16435,7 +16435,7 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
@@ -16444,7 +16444,7 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="N201" t="n">
         <v>8000</v>
@@ -16515,25 +16515,25 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M202" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="N202" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O202" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P202" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T202" t="n">
         <v>18</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E203" t="n">
         <v>7</v>
@@ -16595,7 +16595,7 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
@@ -16604,7 +16604,7 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="N203" t="n">
         <v>8000</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E204" t="n">
         <v>7</v>
@@ -16680,20 +16680,20 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M204" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N204" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O204" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P204" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T204" t="n">
         <v>18</v>
@@ -16755,7 +16755,7 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
@@ -16764,7 +16764,7 @@
         </is>
       </c>
       <c r="M205" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="N205" t="n">
         <v>8000</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E206" t="n">
         <v>7</v>
@@ -16835,12 +16835,12 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M206" t="n">
@@ -16857,7 +16857,7 @@
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R206" t="inlineStr">
@@ -16866,10 +16866,10 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T206" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207">
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E207" t="n">
         <v>7</v>
@@ -16915,7 +16915,7 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
@@ -16924,7 +16924,7 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N207" t="n">
         <v>8000</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E208" t="n">
         <v>7</v>
@@ -16995,7 +16995,7 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
@@ -17004,20 +17004,20 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N208" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O208" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P208" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R208" t="inlineStr">
@@ -17026,10 +17026,10 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T208" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="209">
@@ -17075,25 +17075,25 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M209" t="n">
         <v>180</v>
       </c>
       <c r="N209" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O209" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P209" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T209" t="n">
         <v>18</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E210" t="n">
         <v>7</v>
@@ -17155,25 +17155,25 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N210" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O210" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P210" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T210" t="n">
         <v>18</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E211" t="n">
         <v>7</v>
@@ -17235,25 +17235,25 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N211" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O211" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P211" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="T211" t="n">
         <v>18</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E212" t="n">
         <v>7</v>
@@ -17315,25 +17315,25 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="N212" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O212" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P212" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17342,11 +17342,11 @@
       </c>
       <c r="R212" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S212" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T212" t="n">
         <v>18</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E213" t="n">
         <v>7</v>
@@ -17400,20 +17400,20 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N213" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O213" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P213" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17422,11 +17422,11 @@
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S213" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T213" t="n">
         <v>18</v>
@@ -17475,7 +17475,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -17484,16 +17484,16 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N214" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O214" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P214" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T214" t="n">
         <v>18</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E215" t="n">
         <v>7</v>
@@ -17555,25 +17555,25 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N215" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O215" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P215" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17582,11 +17582,11 @@
       </c>
       <c r="R215" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S215" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T215" t="n">
         <v>18</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E216" t="n">
         <v>7</v>
@@ -17640,11 +17640,11 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N216" t="n">
         <v>9000</v>
@@ -17662,7 +17662,7 @@
       </c>
       <c r="R216" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S216" t="n">
@@ -17715,7 +17715,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -17724,16 +17724,16 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N217" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O217" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P217" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T217" t="n">
         <v>18</v>
@@ -17800,20 +17800,20 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="N218" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O218" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P218" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T218" t="n">
         <v>18</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44417</v>
+        <v>44414</v>
       </c>
       <c r="E219" t="n">
         <v>7</v>
@@ -17875,7 +17875,7 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
@@ -17884,16 +17884,16 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N219" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O219" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P219" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T219" t="n">
         <v>18</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44441</v>
+        <v>44414</v>
       </c>
       <c r="E220" t="n">
         <v>7</v>
@@ -17960,20 +17960,20 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="N220" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O220" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P220" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17982,11 +17982,11 @@
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S220" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T220" t="n">
         <v>18</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E221" t="n">
         <v>7</v>
@@ -18035,7 +18035,7 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -18044,16 +18044,16 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="N221" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O221" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P221" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18062,11 +18062,11 @@
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S221" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T221" t="n">
         <v>18</v>
@@ -18120,20 +18120,20 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="N222" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O222" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P222" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="T222" t="n">
         <v>18</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E223" t="n">
         <v>7</v>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -18204,16 +18204,16 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="N223" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O223" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P223" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18222,11 +18222,11 @@
       </c>
       <c r="R223" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S223" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T223" t="n">
         <v>18</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E224" t="n">
         <v>7</v>
@@ -18280,20 +18280,20 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M224" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N224" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O224" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P224" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18302,11 +18302,11 @@
       </c>
       <c r="R224" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S224" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="T224" t="n">
         <v>18</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44369</v>
+        <v>44432</v>
       </c>
       <c r="E225" t="n">
         <v>7</v>
@@ -18364,7 +18364,7 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N225" t="n">
         <v>7000</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44369</v>
+        <v>44432</v>
       </c>
       <c r="E226" t="n">
         <v>7</v>
@@ -18444,16 +18444,16 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N226" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O226" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P226" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T226" t="n">
         <v>18</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E227" t="n">
         <v>7</v>
@@ -18524,16 +18524,16 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N227" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O227" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P227" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18542,11 +18542,11 @@
       </c>
       <c r="R227" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S227" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T227" t="n">
         <v>18</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E228" t="n">
         <v>7</v>
@@ -18595,25 +18595,25 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M228" t="n">
         <v>260</v>
       </c>
       <c r="N228" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O228" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P228" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18622,11 +18622,11 @@
       </c>
       <c r="R228" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S228" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T228" t="n">
         <v>18</v>
@@ -18675,7 +18675,7 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
@@ -18684,16 +18684,16 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N229" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O229" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P229" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18702,11 +18702,11 @@
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S229" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T229" t="n">
         <v>18</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E230" t="n">
         <v>7</v>
@@ -18755,25 +18755,25 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M230" t="n">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="N230" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O230" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P230" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18782,11 +18782,11 @@
       </c>
       <c r="R230" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S230" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T230" t="n">
         <v>18</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E231" t="n">
         <v>7</v>
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N231" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O231" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P231" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T231" t="n">
         <v>18</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E232" t="n">
         <v>7</v>
@@ -18915,7 +18915,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
@@ -18924,16 +18924,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="N232" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O232" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P232" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T232" t="n">
         <v>18</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E233" t="n">
         <v>7</v>
@@ -19000,20 +19000,20 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="N233" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O233" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P233" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19022,11 +19022,11 @@
       </c>
       <c r="R233" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S233" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T233" t="n">
         <v>18</v>
@@ -19075,7 +19075,7 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
@@ -19084,16 +19084,16 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N234" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O234" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P234" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19102,11 +19102,11 @@
       </c>
       <c r="R234" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S234" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T234" t="n">
         <v>18</v>
@@ -19160,20 +19160,20 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N235" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O235" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P235" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T235" t="n">
         <v>18</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E236" t="n">
         <v>7</v>
@@ -19240,20 +19240,20 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="N236" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O236" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P236" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="T236" t="n">
         <v>18</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E237" t="n">
         <v>7</v>
@@ -19320,20 +19320,20 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N237" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O237" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P237" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T237" t="n">
         <v>18</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E238" t="n">
         <v>7</v>
@@ -19404,16 +19404,16 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="N238" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O238" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P238" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19422,11 +19422,11 @@
       </c>
       <c r="R238" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S238" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T238" t="n">
         <v>18</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E239" t="n">
         <v>7</v>
@@ -19484,16 +19484,16 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="N239" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O239" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P239" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19502,11 +19502,11 @@
       </c>
       <c r="R239" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S239" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T239" t="n">
         <v>18</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44391</v>
+        <v>44379</v>
       </c>
       <c r="E240" t="n">
         <v>7</v>
@@ -19564,16 +19564,16 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N240" t="n">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="O240" t="n">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="P240" t="n">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>56</v>
+        <v>500</v>
       </c>
       <c r="T240" t="n">
         <v>18</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44391</v>
+        <v>44379</v>
       </c>
       <c r="E241" t="n">
         <v>7</v>
@@ -19644,16 +19644,16 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N241" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O241" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P241" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T241" t="n">
         <v>18</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E242" t="n">
         <v>7</v>
@@ -19724,16 +19724,16 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N242" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="O242" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P242" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>556</v>
+        <v>56</v>
       </c>
       <c r="T242" t="n">
         <v>18</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E243" t="n">
         <v>7</v>
@@ -19804,7 +19804,7 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N243" t="n">
         <v>9000</v>
@@ -19880,20 +19880,20 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="N244" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O244" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P244" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T244" t="n">
         <v>18</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E245" t="n">
         <v>7</v>
@@ -19960,20 +19960,20 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N245" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O245" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P245" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19982,11 +19982,11 @@
       </c>
       <c r="R245" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S245" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T245" t="n">
         <v>18</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44329</v>
+        <v>44446</v>
       </c>
       <c r="E246" t="n">
         <v>7</v>
@@ -20040,20 +20040,20 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N246" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O246" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P246" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20062,11 +20062,11 @@
       </c>
       <c r="R246" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S246" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T246" t="n">
         <v>18</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44329</v>
+        <v>44411</v>
       </c>
       <c r="E247" t="n">
         <v>7</v>
@@ -20120,11 +20120,11 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N247" t="n">
         <v>10000</v>
@@ -20142,7 +20142,7 @@
       </c>
       <c r="R247" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S247" t="n">
@@ -20200,24 +20200,24 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="N248" t="n">
-        <v>170000</v>
+        <v>11000</v>
       </c>
       <c r="O248" t="n">
-        <v>170000</v>
+        <v>11000</v>
       </c>
       <c r="P248" t="n">
-        <v>170000</v>
+        <v>11000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -20226,10 +20226,10 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>378</v>
+        <v>611</v>
       </c>
       <c r="T248" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="249">
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44438</v>
+        <v>44329</v>
       </c>
       <c r="E249" t="n">
         <v>7</v>
@@ -20280,11 +20280,11 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N249" t="n">
         <v>10000</v>
@@ -20302,7 +20302,7 @@
       </c>
       <c r="R249" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S249" t="n">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44438</v>
+        <v>44329</v>
       </c>
       <c r="E250" t="n">
         <v>7</v>
@@ -20364,32 +20364,32 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="N250" t="n">
-        <v>8000</v>
+        <v>170000</v>
       </c>
       <c r="O250" t="n">
-        <v>8000</v>
+        <v>170000</v>
       </c>
       <c r="P250" t="n">
-        <v>8000</v>
+        <v>170000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R250" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S250" t="n">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="T250" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="251">
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E251" t="n">
         <v>7</v>
@@ -20435,25 +20435,25 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N251" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O251" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P251" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20462,11 +20462,11 @@
       </c>
       <c r="R251" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S251" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T251" t="n">
         <v>18</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E252" t="n">
         <v>7</v>
@@ -20520,20 +20520,20 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M252" t="n">
         <v>240</v>
       </c>
       <c r="N252" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O252" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P252" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20542,11 +20542,11 @@
       </c>
       <c r="R252" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S252" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T252" t="n">
         <v>18</v>
@@ -20595,7 +20595,7 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
@@ -20604,7 +20604,7 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="N253" t="n">
         <v>8000</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E254" t="n">
         <v>7</v>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N254" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O254" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P254" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20702,11 +20702,11 @@
       </c>
       <c r="R254" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S254" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T254" t="n">
         <v>18</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E255" t="n">
         <v>7</v>
@@ -20760,20 +20760,20 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="N255" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O255" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P255" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20782,11 +20782,11 @@
       </c>
       <c r="R255" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S255" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T255" t="n">
         <v>18</v>
@@ -20835,25 +20835,25 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N256" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O256" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P256" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T256" t="n">
         <v>18</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E257" t="n">
         <v>7</v>
@@ -20915,16 +20915,16 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>590</v>
+        <v>240</v>
       </c>
       <c r="N257" t="n">
         <v>7000</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E258" t="n">
         <v>7</v>
@@ -20995,7 +20995,7 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
@@ -21004,7 +21004,7 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N258" t="n">
         <v>8000</v>
@@ -21022,7 +21022,7 @@
       </c>
       <c r="R258" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S258" t="n">
@@ -21075,25 +21075,25 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>970</v>
+        <v>590</v>
       </c>
       <c r="N259" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O259" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P259" t="n">
-        <v>9485</v>
+        <v>7000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>527</v>
+        <v>389</v>
       </c>
       <c r="T259" t="n">
         <v>18</v>
@@ -21155,7 +21155,7 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
@@ -21164,7 +21164,7 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="N260" t="n">
         <v>8000</v>
@@ -21182,7 +21182,7 @@
       </c>
       <c r="R260" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S260" t="n">
@@ -21240,20 +21240,20 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>300</v>
+        <v>970</v>
       </c>
       <c r="N261" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O261" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P261" t="n">
-        <v>8000</v>
+        <v>9485</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21262,11 +21262,11 @@
       </c>
       <c r="R261" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S261" t="n">
-        <v>444</v>
+        <v>527</v>
       </c>
       <c r="T261" t="n">
         <v>18</v>
@@ -21324,32 +21324,32 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>15</v>
+        <v>480</v>
       </c>
       <c r="N262" t="n">
-        <v>170000</v>
+        <v>8000</v>
       </c>
       <c r="O262" t="n">
-        <v>170000</v>
+        <v>8000</v>
       </c>
       <c r="P262" t="n">
-        <v>170000</v>
+        <v>8000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R262" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S262" t="n">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="T262" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="263">
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E263" t="n">
         <v>7</v>
@@ -21395,25 +21395,25 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="N263" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O263" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P263" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21422,11 +21422,11 @@
       </c>
       <c r="R263" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S263" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T263" t="n">
         <v>18</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E264" t="n">
         <v>7</v>
@@ -21475,7 +21475,7 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
@@ -21484,32 +21484,32 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="N264" t="n">
-        <v>8000</v>
+        <v>170000</v>
       </c>
       <c r="O264" t="n">
-        <v>8000</v>
+        <v>170000</v>
       </c>
       <c r="P264" t="n">
-        <v>8000</v>
+        <v>170000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R264" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S264" t="n">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="T264" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="265">
@@ -21555,7 +21555,7 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
@@ -21564,16 +21564,16 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N265" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O265" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P265" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T265" t="n">
         <v>18</v>
@@ -21635,7 +21635,7 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N266" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O266" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P266" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T266" t="n">
         <v>18</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E267" t="n">
         <v>7</v>
@@ -21715,25 +21715,25 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N267" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O267" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P267" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T267" t="n">
         <v>18</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E268" t="n">
         <v>7</v>
@@ -21800,20 +21800,20 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="N268" t="n">
         <v>9000</v>
       </c>
       <c r="O268" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P268" t="n">
-        <v>9714</v>
+        <v>9000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="T268" t="n">
         <v>18</v>
@@ -21875,7 +21875,7 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
@@ -21884,16 +21884,16 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N269" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O269" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P269" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T269" t="n">
         <v>18</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E270" t="n">
         <v>7</v>
@@ -21955,25 +21955,25 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="N270" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O270" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P270" t="n">
-        <v>7000</v>
+        <v>9714</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21982,11 +21982,11 @@
       </c>
       <c r="R270" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S270" t="n">
-        <v>389</v>
+        <v>540</v>
       </c>
       <c r="T270" t="n">
         <v>18</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E271" t="n">
         <v>7</v>
@@ -22040,11 +22040,11 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N271" t="n">
         <v>8000</v>
@@ -22062,7 +22062,7 @@
       </c>
       <c r="R271" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S271" t="n">
@@ -22115,7 +22115,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -22124,7 +22124,7 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N272" t="n">
         <v>7000</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E273" t="n">
         <v>7</v>
@@ -22195,7 +22195,7 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
@@ -22204,16 +22204,16 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N273" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O273" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P273" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22222,11 +22222,11 @@
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S273" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T273" t="n">
         <v>18</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E274" t="n">
         <v>7</v>
@@ -22275,7 +22275,7 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -22284,7 +22284,7 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N274" t="n">
         <v>7000</v>
@@ -22302,7 +22302,7 @@
       </c>
       <c r="R274" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S274" t="n">
@@ -22355,7 +22355,7 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N275" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O275" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P275" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T275" t="n">
         <v>18</v>
@@ -22435,7 +22435,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -22444,16 +22444,16 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N276" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O276" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P276" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T276" t="n">
         <v>18</v>
@@ -22520,20 +22520,20 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N277" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O277" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P277" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="T277" t="n">
         <v>18</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E278" t="n">
         <v>7</v>
@@ -22600,20 +22600,20 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N278" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O278" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P278" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T278" t="n">
         <v>18</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E279" t="n">
         <v>7</v>
@@ -22680,20 +22680,20 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N279" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O279" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P279" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="T279" t="n">
         <v>18</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44238</v>
+        <v>44314</v>
       </c>
       <c r="E280" t="n">
         <v>7</v>
@@ -22755,38 +22755,38 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="N280" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O280" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P280" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S280" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T280" t="n">
         <v>18</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44399</v>
+        <v>44314</v>
       </c>
       <c r="E281" t="n">
         <v>7</v>
@@ -22835,7 +22835,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -22844,16 +22844,16 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N281" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O281" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P281" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22862,11 +22862,11 @@
       </c>
       <c r="R281" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S281" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T281" t="n">
         <v>18</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E282" t="n">
         <v>7</v>
@@ -22915,38 +22915,38 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="N282" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O282" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P282" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S282" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T282" t="n">
         <v>18</v>
@@ -22995,7 +22995,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -23004,7 +23004,7 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N283" t="n">
         <v>8000</v>
@@ -23029,6 +23029,166 @@
         <v>444</v>
       </c>
       <c r="T283" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>5</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D284" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E284" t="n">
+        <v>7</v>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G284" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M284" t="n">
+        <v>280</v>
+      </c>
+      <c r="N284" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O284" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P284" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S284" t="n">
+        <v>556</v>
+      </c>
+      <c r="T284" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>5</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D285" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E285" t="n">
+        <v>7</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G285" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I285" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M285" t="n">
+        <v>260</v>
+      </c>
+      <c r="N285" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O285" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P285" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S285" t="n">
+        <v>444</v>
+      </c>
+      <c r="T285" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T285"/>
+  <dimension ref="A1:T289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E282" t="n">
         <v>7</v>
@@ -22915,38 +22915,38 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N282" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O282" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P282" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S282" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T282" t="n">
         <v>18</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E283" t="n">
         <v>7</v>
@@ -22995,7 +22995,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N283" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O283" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P283" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23022,11 +23022,11 @@
       </c>
       <c r="R283" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S283" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T283" t="n">
         <v>18</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E284" t="n">
         <v>7</v>
@@ -23080,20 +23080,20 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N284" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O284" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P284" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23102,11 +23102,11 @@
       </c>
       <c r="R284" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S284" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T284" t="n">
         <v>18</v>
@@ -23127,68 +23127,388 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
+        <v>44448</v>
+      </c>
+      <c r="E285" t="n">
+        <v>7</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G285" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I285" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M285" t="n">
+        <v>170</v>
+      </c>
+      <c r="N285" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O285" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P285" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S285" t="n">
+        <v>389</v>
+      </c>
+      <c r="T285" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>5</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D286" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E286" t="n">
+        <v>7</v>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G286" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I286" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>Bartlett de verano</t>
+        </is>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M286" t="n">
+        <v>400</v>
+      </c>
+      <c r="N286" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O286" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P286" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S286" t="n">
+        <v>444</v>
+      </c>
+      <c r="T286" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>5</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D287" s="2" t="n">
         <v>44399</v>
       </c>
-      <c r="E285" t="n">
-        <v>7</v>
-      </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G285" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I285" t="n">
-        <v>100104005</v>
-      </c>
-      <c r="J285" t="inlineStr">
-        <is>
-          <t>Pera</t>
-        </is>
-      </c>
-      <c r="K285" t="inlineStr">
+      <c r="E287" t="n">
+        <v>7</v>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G287" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I287" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>Forelle</t>
+        </is>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M287" t="n">
+        <v>300</v>
+      </c>
+      <c r="N287" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O287" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P287" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S287" t="n">
+        <v>444</v>
+      </c>
+      <c r="T287" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>5</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D288" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E288" t="n">
+        <v>7</v>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G288" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I288" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K288" t="inlineStr">
         <is>
           <t>Packham's Triumph</t>
         </is>
       </c>
-      <c r="L285" t="inlineStr">
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M288" t="n">
+        <v>280</v>
+      </c>
+      <c r="N288" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O288" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P288" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R288" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S288" t="n">
+        <v>556</v>
+      </c>
+      <c r="T288" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>5</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D289" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E289" t="n">
+        <v>7</v>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G289" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I289" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L289" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M285" t="n">
+      <c r="M289" t="n">
         <v>260</v>
       </c>
-      <c r="N285" t="n">
-        <v>8000</v>
-      </c>
-      <c r="O285" t="n">
-        <v>8000</v>
-      </c>
-      <c r="P285" t="n">
-        <v>8000</v>
-      </c>
-      <c r="Q285" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos granel</t>
-        </is>
-      </c>
-      <c r="R285" t="inlineStr">
+      <c r="N289" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O289" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P289" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R289" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S285" t="n">
+      <c r="S289" t="n">
         <v>444</v>
       </c>
-      <c r="T285" t="n">
+      <c r="T289" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T289"/>
+  <dimension ref="A1:T291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E251" t="n">
         <v>7</v>
@@ -20435,7 +20435,7 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
@@ -20447,13 +20447,13 @@
         <v>250</v>
       </c>
       <c r="N251" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O251" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P251" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T251" t="n">
         <v>18</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E252" t="n">
         <v>7</v>
@@ -20515,7 +20515,7 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
@@ -20524,16 +20524,16 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N252" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O252" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P252" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T252" t="n">
         <v>18</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E253" t="n">
         <v>7</v>
@@ -20595,25 +20595,25 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N253" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O253" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P253" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20622,11 +20622,11 @@
       </c>
       <c r="R253" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S253" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T253" t="n">
         <v>18</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E254" t="n">
         <v>7</v>
@@ -20680,20 +20680,20 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M254" t="n">
         <v>240</v>
       </c>
       <c r="N254" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O254" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P254" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20702,11 +20702,11 @@
       </c>
       <c r="R254" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S254" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T254" t="n">
         <v>18</v>
@@ -20755,7 +20755,7 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
@@ -20764,7 +20764,7 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="N255" t="n">
         <v>8000</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E256" t="n">
         <v>7</v>
@@ -20844,16 +20844,16 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N256" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O256" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P256" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20862,11 +20862,11 @@
       </c>
       <c r="R256" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S256" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T256" t="n">
         <v>18</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E257" t="n">
         <v>7</v>
@@ -20920,20 +20920,20 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="N257" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O257" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P257" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20942,11 +20942,11 @@
       </c>
       <c r="R257" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S257" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T257" t="n">
         <v>18</v>
@@ -20995,25 +20995,25 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N258" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O258" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P258" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T258" t="n">
         <v>18</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E259" t="n">
         <v>7</v>
@@ -21075,16 +21075,16 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>590</v>
+        <v>240</v>
       </c>
       <c r="N259" t="n">
         <v>7000</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E260" t="n">
         <v>7</v>
@@ -21155,7 +21155,7 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
@@ -21164,7 +21164,7 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N260" t="n">
         <v>8000</v>
@@ -21182,7 +21182,7 @@
       </c>
       <c r="R260" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S260" t="n">
@@ -21235,25 +21235,25 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>970</v>
+        <v>590</v>
       </c>
       <c r="N261" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O261" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P261" t="n">
-        <v>9485</v>
+        <v>7000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>527</v>
+        <v>389</v>
       </c>
       <c r="T261" t="n">
         <v>18</v>
@@ -21315,7 +21315,7 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
@@ -21324,7 +21324,7 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="N262" t="n">
         <v>8000</v>
@@ -21342,7 +21342,7 @@
       </c>
       <c r="R262" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S262" t="n">
@@ -21400,20 +21400,20 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>300</v>
+        <v>970</v>
       </c>
       <c r="N263" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O263" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P263" t="n">
-        <v>8000</v>
+        <v>9485</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21422,11 +21422,11 @@
       </c>
       <c r="R263" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S263" t="n">
-        <v>444</v>
+        <v>527</v>
       </c>
       <c r="T263" t="n">
         <v>18</v>
@@ -21484,32 +21484,32 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>15</v>
+        <v>480</v>
       </c>
       <c r="N264" t="n">
-        <v>170000</v>
+        <v>8000</v>
       </c>
       <c r="O264" t="n">
-        <v>170000</v>
+        <v>8000</v>
       </c>
       <c r="P264" t="n">
-        <v>170000</v>
+        <v>8000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R264" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S264" t="n">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="T264" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="265">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E265" t="n">
         <v>7</v>
@@ -21555,25 +21555,25 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="N265" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O265" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P265" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21582,11 +21582,11 @@
       </c>
       <c r="R265" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S265" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T265" t="n">
         <v>18</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E266" t="n">
         <v>7</v>
@@ -21635,7 +21635,7 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
@@ -21644,32 +21644,32 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="N266" t="n">
-        <v>8000</v>
+        <v>170000</v>
       </c>
       <c r="O266" t="n">
-        <v>8000</v>
+        <v>170000</v>
       </c>
       <c r="P266" t="n">
-        <v>8000</v>
+        <v>170000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R266" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S266" t="n">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="T266" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="267">
@@ -21715,7 +21715,7 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -21724,16 +21724,16 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N267" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O267" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P267" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T267" t="n">
         <v>18</v>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
@@ -21804,16 +21804,16 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N268" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O268" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P268" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T268" t="n">
         <v>18</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E269" t="n">
         <v>7</v>
@@ -21875,25 +21875,25 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N269" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O269" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P269" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T269" t="n">
         <v>18</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E270" t="n">
         <v>7</v>
@@ -21960,20 +21960,20 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="N270" t="n">
         <v>9000</v>
       </c>
       <c r="O270" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P270" t="n">
-        <v>9714</v>
+        <v>9000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="T270" t="n">
         <v>18</v>
@@ -22035,7 +22035,7 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -22044,16 +22044,16 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N271" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O271" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P271" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T271" t="n">
         <v>18</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E272" t="n">
         <v>7</v>
@@ -22115,25 +22115,25 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="N272" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O272" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P272" t="n">
-        <v>7000</v>
+        <v>9714</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22142,11 +22142,11 @@
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S272" t="n">
-        <v>389</v>
+        <v>540</v>
       </c>
       <c r="T272" t="n">
         <v>18</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E273" t="n">
         <v>7</v>
@@ -22200,11 +22200,11 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N273" t="n">
         <v>8000</v>
@@ -22222,7 +22222,7 @@
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S273" t="n">
@@ -22275,7 +22275,7 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -22284,7 +22284,7 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N274" t="n">
         <v>7000</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E275" t="n">
         <v>7</v>
@@ -22355,7 +22355,7 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N275" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O275" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P275" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22382,11 +22382,11 @@
       </c>
       <c r="R275" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S275" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T275" t="n">
         <v>18</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E276" t="n">
         <v>7</v>
@@ -22435,7 +22435,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -22444,7 +22444,7 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N276" t="n">
         <v>7000</v>
@@ -22462,7 +22462,7 @@
       </c>
       <c r="R276" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S276" t="n">
@@ -22515,7 +22515,7 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N277" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O277" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P277" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T277" t="n">
         <v>18</v>
@@ -22595,7 +22595,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N278" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O278" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P278" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T278" t="n">
         <v>18</v>
@@ -22680,20 +22680,20 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N279" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O279" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P279" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="T279" t="n">
         <v>18</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E280" t="n">
         <v>7</v>
@@ -22760,20 +22760,20 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N280" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O280" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P280" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T280" t="n">
         <v>18</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E281" t="n">
         <v>7</v>
@@ -22840,20 +22840,20 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N281" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O281" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P281" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="T281" t="n">
         <v>18</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E282" t="n">
         <v>7</v>
@@ -22924,7 +22924,7 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="N282" t="n">
         <v>10000</v>
@@ -22942,7 +22942,7 @@
       </c>
       <c r="R282" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S282" t="n">
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E283" t="n">
         <v>7</v>
@@ -23004,7 +23004,7 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N283" t="n">
         <v>9000</v>
@@ -23080,20 +23080,20 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="N284" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O284" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P284" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T284" t="n">
         <v>18</v>
@@ -23160,20 +23160,20 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="N285" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O285" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P285" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T285" t="n">
         <v>18</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E286" t="n">
         <v>7</v>
@@ -23235,7 +23235,7 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
@@ -23244,7 +23244,7 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="N286" t="n">
         <v>8000</v>
@@ -23257,12 +23257,12 @@
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R286" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S286" t="n">
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E287" t="n">
         <v>7</v>
@@ -23315,25 +23315,25 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="N287" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O287" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P287" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23342,11 +23342,11 @@
       </c>
       <c r="R287" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S287" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T287" t="n">
         <v>18</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E288" t="n">
         <v>7</v>
@@ -23395,38 +23395,38 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="N288" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O288" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P288" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R288" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S288" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T288" t="n">
         <v>18</v>
@@ -23475,7 +23475,7 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -23484,7 +23484,7 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N289" t="n">
         <v>8000</v>
@@ -23509,6 +23509,166 @@
         <v>444</v>
       </c>
       <c r="T289" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>5</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D290" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E290" t="n">
+        <v>7</v>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G290" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I290" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M290" t="n">
+        <v>280</v>
+      </c>
+      <c r="N290" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O290" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P290" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S290" t="n">
+        <v>556</v>
+      </c>
+      <c r="T290" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>5</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D291" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E291" t="n">
+        <v>7</v>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G291" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M291" t="n">
+        <v>260</v>
+      </c>
+      <c r="N291" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O291" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P291" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S291" t="n">
+        <v>444</v>
+      </c>
+      <c r="T291" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T291"/>
+  <dimension ref="A1:T293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44413</v>
+        <v>44453</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N69" t="n">
         <v>8000</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44413</v>
+        <v>44453</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="N70" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O70" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P70" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T70" t="n">
         <v>18</v>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N71" t="n">
         <v>8000</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44323</v>
+        <v>44413</v>
       </c>
       <c r="E72" t="n">
         <v>7</v>
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N72" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O72" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P72" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6142,11 +6142,11 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T72" t="n">
         <v>18</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44405</v>
+        <v>44413</v>
       </c>
       <c r="E73" t="n">
         <v>7</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N73" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O73" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P73" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6222,11 +6222,11 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T73" t="n">
         <v>18</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44405</v>
+        <v>44323</v>
       </c>
       <c r="E74" t="n">
         <v>7</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N74" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O74" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P74" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T74" t="n">
         <v>18</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N75" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O75" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P75" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T75" t="n">
         <v>18</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44281</v>
+        <v>44405</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -6440,11 +6440,11 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="N76" t="n">
         <v>9000</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44281</v>
+        <v>44405</v>
       </c>
       <c r="E77" t="n">
         <v>7</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N77" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O77" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P77" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T77" t="n">
         <v>18</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44271</v>
+        <v>44281</v>
       </c>
       <c r="E78" t="n">
         <v>7</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="N78" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O78" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P78" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T78" t="n">
         <v>18</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44363</v>
+        <v>44281</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
@@ -6684,16 +6684,16 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="N79" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O79" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P79" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T79" t="n">
         <v>18</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44229</v>
+        <v>44271</v>
       </c>
       <c r="E80" t="n">
         <v>7</v>
@@ -6755,16 +6755,16 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N80" t="n">
         <v>8000</v>
@@ -6777,19 +6777,19 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="T80" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44231</v>
+        <v>44363</v>
       </c>
       <c r="E81" t="n">
         <v>7</v>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6844,16 +6844,16 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="N81" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O81" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P81" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6862,11 +6862,11 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S81" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T81" t="n">
         <v>18</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44231</v>
+        <v>44229</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -6920,24 +6920,24 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
         <v>210</v>
       </c>
       <c r="N82" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O82" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P82" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="T82" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44418</v>
+        <v>44231</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -6995,25 +6995,25 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
         <v>230</v>
       </c>
       <c r="N83" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O83" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P83" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7022,11 +7022,11 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T83" t="n">
         <v>18</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44418</v>
+        <v>44231</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -7075,16 +7075,16 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N84" t="n">
         <v>10000</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N85" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O85" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P85" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T85" t="n">
         <v>18</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N86" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O86" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P86" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T86" t="n">
         <v>18</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N87" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O87" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P87" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T87" t="n">
         <v>18</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44312</v>
+        <v>44418</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -7404,7 +7404,7 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N88" t="n">
         <v>8000</v>
@@ -7422,7 +7422,7 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S88" t="n">
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44312</v>
+        <v>44418</v>
       </c>
       <c r="E89" t="n">
         <v>7</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N89" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O89" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P89" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T89" t="n">
         <v>18</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44407</v>
+        <v>44312</v>
       </c>
       <c r="E90" t="n">
         <v>7</v>
@@ -7555,25 +7555,25 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N90" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O90" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P90" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7582,11 +7582,11 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T90" t="n">
         <v>18</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44407</v>
+        <v>44312</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
@@ -7644,7 +7644,7 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N91" t="n">
         <v>9000</v>
@@ -7662,7 +7662,7 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S91" t="n">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44410</v>
+        <v>44407</v>
       </c>
       <c r="E92" t="n">
         <v>7</v>
@@ -7724,16 +7724,16 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N92" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O92" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P92" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7742,11 +7742,11 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T92" t="n">
         <v>18</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44410</v>
+        <v>44407</v>
       </c>
       <c r="E93" t="n">
         <v>7</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N93" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O93" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P93" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7822,11 +7822,11 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S93" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T93" t="n">
         <v>18</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44284</v>
+        <v>44410</v>
       </c>
       <c r="E94" t="n">
         <v>7</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44330</v>
+        <v>44410</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
@@ -7955,16 +7955,16 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N95" t="n">
         <v>7000</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44330</v>
+        <v>44284</v>
       </c>
       <c r="E96" t="n">
         <v>7</v>
@@ -8035,25 +8035,25 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M96" t="n">
         <v>250</v>
       </c>
       <c r="N96" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O96" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P96" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T96" t="n">
         <v>18</v>
@@ -8115,25 +8115,25 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N97" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O97" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P97" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T97" t="n">
         <v>18</v>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -8204,16 +8204,16 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N98" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O98" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P98" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T98" t="n">
         <v>18</v>
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M99" t="n">
         <v>200</v>
       </c>
       <c r="N99" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O99" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P99" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T99" t="n">
         <v>18</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44328</v>
+        <v>44330</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
@@ -8364,7 +8364,7 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="N100" t="n">
         <v>9000</v>
@@ -8382,7 +8382,7 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S100" t="n">
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44328</v>
+        <v>44330</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S101" t="n">
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44343</v>
+        <v>44328</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
@@ -8520,11 +8520,11 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="N102" t="n">
         <v>9000</v>
@@ -8537,7 +8537,7 @@
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -8546,10 +8546,10 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T102" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103">
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44343</v>
+        <v>44328</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
@@ -8600,24 +8600,24 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N103" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O103" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P103" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -8626,10 +8626,10 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T103" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104">
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44293</v>
+        <v>44343</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
@@ -8675,7 +8675,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -8684,7 +8684,7 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="N104" t="n">
         <v>9000</v>
@@ -8697,19 +8697,19 @@
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S104" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T104" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105">
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44293</v>
+        <v>44343</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
@@ -8755,41 +8755,41 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N105" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O105" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P105" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S105" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="T105" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106">
@@ -8835,7 +8835,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -8844,7 +8844,7 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="N106" t="n">
         <v>9000</v>
@@ -8915,7 +8915,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -8924,16 +8924,16 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N107" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O107" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P107" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T107" t="n">
         <v>18</v>
@@ -9000,20 +9000,20 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="N108" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O108" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P108" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T108" t="n">
         <v>18</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44344</v>
+        <v>44293</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -9075,7 +9075,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -9084,16 +9084,16 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="N109" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O109" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P109" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T109" t="n">
         <v>18</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44344</v>
+        <v>44293</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -9160,20 +9160,20 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N110" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O110" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P110" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T110" t="n">
         <v>18</v>
@@ -9235,25 +9235,25 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="N111" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O111" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P111" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="T111" t="n">
         <v>18</v>
@@ -9320,20 +9320,20 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N112" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O112" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P112" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T112" t="n">
         <v>18</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44320</v>
+        <v>44344</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -9395,25 +9395,25 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="N113" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O113" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P113" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>333</v>
+        <v>611</v>
       </c>
       <c r="T113" t="n">
         <v>18</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44320</v>
+        <v>44344</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -9480,20 +9480,20 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N114" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O114" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P114" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9502,11 +9502,11 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T114" t="n">
         <v>18</v>
@@ -9555,25 +9555,25 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N115" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O115" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P115" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9582,11 +9582,11 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="T115" t="n">
         <v>18</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44396</v>
+        <v>44320</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -9644,7 +9644,7 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N116" t="n">
         <v>10000</v>
@@ -9662,7 +9662,7 @@
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S116" t="n">
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44396</v>
+        <v>44320</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -9724,16 +9724,16 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N117" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O117" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P117" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T117" t="n">
         <v>18</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44278</v>
+        <v>44396</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -9800,20 +9800,20 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N118" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O118" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P118" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9822,11 +9822,11 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S118" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T118" t="n">
         <v>18</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44406</v>
+        <v>44396</v>
       </c>
       <c r="E119" t="n">
         <v>7</v>
@@ -9884,7 +9884,7 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N119" t="n">
         <v>8000</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44385</v>
+        <v>44278</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N120" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O120" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P120" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T120" t="n">
         <v>18</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44385</v>
+        <v>44406</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -10044,16 +10044,16 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N121" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O121" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P121" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T121" t="n">
         <v>18</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44250</v>
+        <v>44385</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -10115,25 +10115,25 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="N122" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O122" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P122" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T122" t="n">
         <v>18</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44221</v>
+        <v>44385</v>
       </c>
       <c r="E123" t="n">
         <v>7</v>
@@ -10195,7 +10195,7 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -10204,7 +10204,7 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N123" t="n">
         <v>9000</v>
@@ -10222,7 +10222,7 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S123" t="n">
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44334</v>
+        <v>44250</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -10275,7 +10275,7 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -10284,16 +10284,16 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>540</v>
+        <v>130</v>
       </c>
       <c r="N124" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O124" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P124" t="n">
-        <v>9481</v>
+        <v>8000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>527</v>
+        <v>444</v>
       </c>
       <c r="T124" t="n">
         <v>18</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44299</v>
+        <v>44221</v>
       </c>
       <c r="E125" t="n">
         <v>7</v>
@@ -10355,7 +10355,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -10364,7 +10364,7 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N125" t="n">
         <v>9000</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44340</v>
+        <v>44334</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -10440,20 +10440,20 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="N126" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O126" t="n">
         <v>10000</v>
       </c>
       <c r="P126" t="n">
-        <v>10000</v>
+        <v>9481</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10462,11 +10462,11 @@
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S126" t="n">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="T126" t="n">
         <v>18</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44340</v>
+        <v>44299</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -10524,7 +10524,7 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N127" t="n">
         <v>9000</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44265</v>
+        <v>44340</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -10595,25 +10595,25 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>190</v>
+        <v>360</v>
       </c>
       <c r="N128" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O128" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P128" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T128" t="n">
         <v>18</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44265</v>
+        <v>44340</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
@@ -10684,7 +10684,7 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N129" t="n">
         <v>9000</v>
@@ -10755,25 +10755,25 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="N130" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O130" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P130" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T130" t="n">
         <v>18</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44252</v>
+        <v>44265</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
@@ -10835,7 +10835,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -10844,16 +10844,16 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="N131" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O131" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P131" t="n">
-        <v>7370</v>
+        <v>9000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>409</v>
+        <v>500</v>
       </c>
       <c r="T131" t="n">
         <v>18</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44371</v>
+        <v>44265</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
@@ -10920,20 +10920,20 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N132" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O132" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P132" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10942,11 +10942,11 @@
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S132" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T132" t="n">
         <v>18</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44371</v>
+        <v>44252</v>
       </c>
       <c r="E133" t="n">
         <v>7</v>
@@ -10995,7 +10995,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -11004,16 +11004,16 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="N133" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O133" t="n">
         <v>8000</v>
       </c>
       <c r="P133" t="n">
-        <v>8000</v>
+        <v>7370</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11022,11 +11022,11 @@
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S133" t="n">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="T133" t="n">
         <v>18</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44419</v>
+        <v>44371</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -11075,25 +11075,25 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N134" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O134" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P134" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T134" t="n">
         <v>18</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44419</v>
+        <v>44371</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11160,20 +11160,20 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N135" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O135" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P135" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T135" t="n">
         <v>18</v>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -11244,7 +11244,7 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="N136" t="n">
         <v>8000</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44447</v>
+        <v>44419</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -11315,25 +11315,25 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N137" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O137" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P137" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T137" t="n">
         <v>18</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44447</v>
+        <v>44419</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11404,7 +11404,7 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="N138" t="n">
         <v>8000</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
@@ -11475,7 +11475,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -11484,7 +11484,7 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N139" t="n">
         <v>8000</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11555,7 +11555,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -11564,20 +11564,20 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="N140" t="n">
-        <v>130000</v>
+        <v>8000</v>
       </c>
       <c r="O140" t="n">
-        <v>130000</v>
+        <v>8000</v>
       </c>
       <c r="P140" t="n">
-        <v>130000</v>
+        <v>8000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
@@ -11586,10 +11586,10 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="T140" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141">
@@ -11635,7 +11635,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -11644,7 +11644,7 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N141" t="n">
         <v>8000</v>
@@ -11662,7 +11662,7 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S141" t="n">
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44292</v>
+        <v>44267</v>
       </c>
       <c r="E142" t="n">
         <v>7</v>
@@ -11720,36 +11720,36 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="N142" t="n">
-        <v>8000</v>
+        <v>130000</v>
       </c>
       <c r="O142" t="n">
-        <v>8000</v>
+        <v>130000</v>
       </c>
       <c r="P142" t="n">
-        <v>8000</v>
+        <v>130000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S142" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T142" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="143">
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44292</v>
+        <v>44267</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11800,20 +11800,20 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N143" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O143" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P143" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T143" t="n">
         <v>18</v>
@@ -11875,16 +11875,16 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="N144" t="n">
         <v>8000</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44300</v>
+        <v>44292</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -11955,7 +11955,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -11964,16 +11964,16 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="N145" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O145" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P145" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T145" t="n">
         <v>18</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44300</v>
+        <v>44292</v>
       </c>
       <c r="E146" t="n">
         <v>7</v>
@@ -12035,7 +12035,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -12044,7 +12044,7 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N146" t="n">
         <v>8000</v>
@@ -12115,16 +12115,16 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="N147" t="n">
         <v>9000</v>
@@ -12195,25 +12195,25 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="N148" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O148" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P148" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T148" t="n">
         <v>18</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44277</v>
+        <v>44300</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12275,7 +12275,7 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -12284,16 +12284,16 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="N149" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O149" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P149" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T149" t="n">
         <v>18</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44392</v>
+        <v>44300</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -12360,20 +12360,20 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="N150" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O150" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P150" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12382,11 +12382,11 @@
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S150" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T150" t="n">
         <v>18</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44392</v>
+        <v>44277</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -12435,7 +12435,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -12444,16 +12444,16 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N151" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="O151" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="P151" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12462,11 +12462,11 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S151" t="n">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="T151" t="n">
         <v>18</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44217</v>
+        <v>44392</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -12515,38 +12515,38 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N152" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O152" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P152" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S152" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T152" t="n">
         <v>18</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44295</v>
+        <v>44392</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -12595,25 +12595,25 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N153" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="O153" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="P153" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12622,11 +12622,11 @@
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S153" t="n">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="T153" t="n">
         <v>18</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44295</v>
+        <v>44217</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -12675,7 +12675,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -12684,20 +12684,20 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="N154" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O154" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P154" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T154" t="n">
         <v>18</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44362</v>
+        <v>44295</v>
       </c>
       <c r="E155" t="n">
         <v>7</v>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -12764,7 +12764,7 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N155" t="n">
         <v>9000</v>
@@ -12782,7 +12782,7 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S155" t="n">
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44362</v>
+        <v>44295</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
@@ -12835,7 +12835,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -12844,16 +12844,16 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N156" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O156" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P156" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12862,11 +12862,11 @@
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S156" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T156" t="n">
         <v>18</v>
@@ -12920,20 +12920,20 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N157" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O157" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P157" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T157" t="n">
         <v>18</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44249</v>
+        <v>44362</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -12995,7 +12995,7 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
@@ -13004,16 +13004,16 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N158" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O158" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P158" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T158" t="n">
         <v>18</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44309</v>
+        <v>44362</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13075,25 +13075,25 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N159" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O159" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P159" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13102,11 +13102,11 @@
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S159" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T159" t="n">
         <v>18</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44309</v>
+        <v>44249</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13164,16 +13164,16 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N160" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O160" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P160" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13182,11 +13182,11 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S160" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T160" t="n">
         <v>18</v>
@@ -13235,7 +13235,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -13244,16 +13244,16 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N161" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O161" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P161" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T161" t="n">
         <v>18</v>
@@ -13315,7 +13315,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N162" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O162" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P162" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T162" t="n">
         <v>18</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E163" t="n">
         <v>7</v>
@@ -13404,7 +13404,7 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N163" t="n">
         <v>10000</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
@@ -13484,16 +13484,16 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N164" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O164" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P164" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T164" t="n">
         <v>18</v>
@@ -13560,20 +13560,20 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="N165" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O165" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P165" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="T165" t="n">
         <v>18</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44322</v>
+        <v>44384</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -13635,25 +13635,25 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N166" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O166" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P166" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T166" t="n">
         <v>18</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44322</v>
+        <v>44384</v>
       </c>
       <c r="E167" t="n">
         <v>7</v>
@@ -13715,25 +13715,25 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>320</v>
+        <v>130</v>
       </c>
       <c r="N167" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O167" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P167" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="T167" t="n">
         <v>18</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -13800,20 +13800,20 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="N168" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O168" t="n">
         <v>9000</v>
       </c>
       <c r="P168" t="n">
-        <v>8435</v>
+        <v>9000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="T168" t="n">
         <v>18</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E169" t="n">
         <v>7</v>
@@ -13875,25 +13875,25 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="N169" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O169" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P169" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T169" t="n">
         <v>18</v>
@@ -13955,7 +13955,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -13964,16 +13964,16 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="N170" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O170" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P170" t="n">
-        <v>10000</v>
+        <v>8435</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>556</v>
+        <v>469</v>
       </c>
       <c r="T170" t="n">
         <v>18</v>
@@ -14040,20 +14040,20 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N171" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O171" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P171" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T171" t="n">
         <v>18</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44365</v>
+        <v>44272</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -14115,7 +14115,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -14124,16 +14124,16 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N172" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O172" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P172" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14142,11 +14142,11 @@
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S172" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T172" t="n">
         <v>18</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44365</v>
+        <v>44272</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14200,20 +14200,20 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="N173" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O173" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P173" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T173" t="n">
         <v>18</v>
@@ -14275,7 +14275,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -14284,16 +14284,16 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N174" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O174" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P174" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14302,11 +14302,11 @@
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S174" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T174" t="n">
         <v>18</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E175" t="n">
         <v>7</v>
@@ -14355,25 +14355,25 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M175" t="n">
         <v>260</v>
       </c>
       <c r="N175" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O175" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P175" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14382,11 +14382,11 @@
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S175" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T175" t="n">
         <v>18</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E176" t="n">
         <v>7</v>
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="N176" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O176" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P176" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14462,11 +14462,11 @@
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S176" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T176" t="n">
         <v>18</v>
@@ -14515,7 +14515,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -14524,16 +14524,16 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="N177" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O177" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P177" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T177" t="n">
         <v>18</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E178" t="n">
         <v>7</v>
@@ -14604,7 +14604,7 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="N178" t="n">
         <v>10000</v>
@@ -14622,7 +14622,7 @@
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S178" t="n">
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -14684,16 +14684,16 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="N179" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O179" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P179" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14702,11 +14702,11 @@
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S179" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T179" t="n">
         <v>18</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E180" t="n">
         <v>7</v>
@@ -14755,25 +14755,25 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N180" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O180" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P180" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T180" t="n">
         <v>18</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E181" t="n">
         <v>7</v>
@@ -14844,16 +14844,16 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="N181" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O181" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P181" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T181" t="n">
         <v>18</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E182" t="n">
         <v>7</v>
@@ -14915,25 +14915,25 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N182" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O182" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P182" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T182" t="n">
         <v>18</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E183" t="n">
         <v>7</v>
@@ -15004,7 +15004,7 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N183" t="n">
         <v>9000</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E184" t="n">
         <v>7</v>
@@ -15075,7 +15075,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -15084,16 +15084,16 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="N184" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O184" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P184" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T184" t="n">
         <v>18</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E185" t="n">
         <v>7</v>
@@ -15155,7 +15155,7 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -15164,16 +15164,16 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N185" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O185" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P185" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T185" t="n">
         <v>18</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E186" t="n">
         <v>7</v>
@@ -15235,7 +15235,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -15244,16 +15244,16 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N186" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O186" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P186" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T186" t="n">
         <v>18</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E187" t="n">
         <v>7</v>
@@ -15315,7 +15315,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -15327,13 +15327,13 @@
         <v>100</v>
       </c>
       <c r="N187" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O187" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P187" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T187" t="n">
         <v>18</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E188" t="n">
         <v>7</v>
@@ -15395,25 +15395,25 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M188" t="n">
         <v>200</v>
       </c>
       <c r="N188" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O188" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P188" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15422,11 +15422,11 @@
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S188" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T188" t="n">
         <v>18</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E189" t="n">
         <v>7</v>
@@ -15475,7 +15475,7 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -15484,7 +15484,7 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N189" t="n">
         <v>8000</v>
@@ -15502,7 +15502,7 @@
       </c>
       <c r="R189" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S189" t="n">
@@ -15555,25 +15555,25 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N190" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O190" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P190" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T190" t="n">
         <v>18</v>
@@ -15635,7 +15635,7 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -15644,7 +15644,7 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="N191" t="n">
         <v>8000</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E192" t="n">
         <v>7</v>
@@ -15715,25 +15715,25 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M192" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N192" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O192" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P192" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15742,11 +15742,11 @@
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S192" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T192" t="n">
         <v>18</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E193" t="n">
         <v>7</v>
@@ -15800,20 +15800,20 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N193" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O193" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P193" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15822,11 +15822,11 @@
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S193" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T193" t="n">
         <v>18</v>
@@ -15875,7 +15875,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
@@ -15884,16 +15884,16 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N194" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O194" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P194" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15902,11 +15902,11 @@
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S194" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T194" t="n">
         <v>18</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E195" t="n">
         <v>7</v>
@@ -15964,16 +15964,16 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N195" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O195" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P195" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T195" t="n">
         <v>18</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E196" t="n">
         <v>7</v>
@@ -16044,16 +16044,16 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N196" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O196" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P196" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16062,11 +16062,11 @@
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S196" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T196" t="n">
         <v>18</v>
@@ -16120,20 +16120,20 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N197" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O197" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P197" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T197" t="n">
         <v>18</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E198" t="n">
         <v>7</v>
@@ -16200,20 +16200,20 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M198" t="n">
         <v>240</v>
       </c>
       <c r="N198" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O198" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P198" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T198" t="n">
         <v>18</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E199" t="n">
         <v>7</v>
@@ -16280,20 +16280,20 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="N199" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O199" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P199" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T199" t="n">
         <v>18</v>
@@ -16360,20 +16360,20 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="N200" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O200" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P200" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T200" t="n">
         <v>18</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44263</v>
+        <v>44420</v>
       </c>
       <c r="E201" t="n">
         <v>7</v>
@@ -16435,7 +16435,7 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
@@ -16444,7 +16444,7 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>310</v>
+        <v>170</v>
       </c>
       <c r="N201" t="n">
         <v>8000</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44263</v>
+        <v>44420</v>
       </c>
       <c r="E202" t="n">
         <v>7</v>
@@ -16515,25 +16515,25 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M202" t="n">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="N202" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O202" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P202" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T202" t="n">
         <v>18</v>
@@ -16595,7 +16595,7 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
@@ -16604,7 +16604,7 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="N203" t="n">
         <v>8000</v>
@@ -16675,25 +16675,25 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M204" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="N204" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O204" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P204" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T204" t="n">
         <v>18</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E205" t="n">
         <v>7</v>
@@ -16755,7 +16755,7 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
@@ -16764,7 +16764,7 @@
         </is>
       </c>
       <c r="M205" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="N205" t="n">
         <v>8000</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E206" t="n">
         <v>7</v>
@@ -16840,20 +16840,20 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N206" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O206" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P206" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T206" t="n">
         <v>18</v>
@@ -16915,7 +16915,7 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
@@ -16924,7 +16924,7 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="N207" t="n">
         <v>8000</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E208" t="n">
         <v>7</v>
@@ -16995,12 +16995,12 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M208" t="n">
@@ -17017,7 +17017,7 @@
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R208" t="inlineStr">
@@ -17026,10 +17026,10 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T208" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209">
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E209" t="n">
         <v>7</v>
@@ -17075,7 +17075,7 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
@@ -17084,7 +17084,7 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N209" t="n">
         <v>8000</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E210" t="n">
         <v>7</v>
@@ -17155,7 +17155,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -17164,20 +17164,20 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N210" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O210" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P210" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R210" t="inlineStr">
@@ -17186,10 +17186,10 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T210" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211">
@@ -17235,25 +17235,25 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M211" t="n">
         <v>180</v>
       </c>
       <c r="N211" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O211" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P211" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T211" t="n">
         <v>18</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E212" t="n">
         <v>7</v>
@@ -17315,25 +17315,25 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N212" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O212" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P212" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T212" t="n">
         <v>18</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E213" t="n">
         <v>7</v>
@@ -17395,25 +17395,25 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N213" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O213" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P213" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="T213" t="n">
         <v>18</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E214" t="n">
         <v>7</v>
@@ -17475,25 +17475,25 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="N214" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O214" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P214" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17502,11 +17502,11 @@
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S214" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T214" t="n">
         <v>18</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E215" t="n">
         <v>7</v>
@@ -17560,20 +17560,20 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N215" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O215" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P215" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17582,11 +17582,11 @@
       </c>
       <c r="R215" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S215" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T215" t="n">
         <v>18</v>
@@ -17635,7 +17635,7 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -17644,16 +17644,16 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N216" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O216" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P216" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T216" t="n">
         <v>18</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E217" t="n">
         <v>7</v>
@@ -17715,25 +17715,25 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N217" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O217" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P217" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17742,11 +17742,11 @@
       </c>
       <c r="R217" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S217" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T217" t="n">
         <v>18</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E218" t="n">
         <v>7</v>
@@ -17800,11 +17800,11 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N218" t="n">
         <v>9000</v>
@@ -17822,7 +17822,7 @@
       </c>
       <c r="R218" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S218" t="n">
@@ -17875,7 +17875,7 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
@@ -17884,16 +17884,16 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N219" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O219" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P219" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T219" t="n">
         <v>18</v>
@@ -17960,20 +17960,20 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="N220" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O220" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P220" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T220" t="n">
         <v>18</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44417</v>
+        <v>44414</v>
       </c>
       <c r="E221" t="n">
         <v>7</v>
@@ -18035,7 +18035,7 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -18044,16 +18044,16 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N221" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O221" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P221" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T221" t="n">
         <v>18</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44441</v>
+        <v>44414</v>
       </c>
       <c r="E222" t="n">
         <v>7</v>
@@ -18120,20 +18120,20 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="N222" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O222" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P222" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18142,11 +18142,11 @@
       </c>
       <c r="R222" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S222" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T222" t="n">
         <v>18</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E223" t="n">
         <v>7</v>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -18204,16 +18204,16 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="N223" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O223" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P223" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18222,11 +18222,11 @@
       </c>
       <c r="R223" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S223" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T223" t="n">
         <v>18</v>
@@ -18280,20 +18280,20 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M224" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="N224" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O224" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P224" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="T224" t="n">
         <v>18</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E225" t="n">
         <v>7</v>
@@ -18355,7 +18355,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -18364,16 +18364,16 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="N225" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O225" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P225" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18382,11 +18382,11 @@
       </c>
       <c r="R225" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S225" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T225" t="n">
         <v>18</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E226" t="n">
         <v>7</v>
@@ -18440,20 +18440,20 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M226" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N226" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O226" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P226" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18462,11 +18462,11 @@
       </c>
       <c r="R226" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S226" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="T226" t="n">
         <v>18</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44369</v>
+        <v>44432</v>
       </c>
       <c r="E227" t="n">
         <v>7</v>
@@ -18524,7 +18524,7 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N227" t="n">
         <v>7000</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44369</v>
+        <v>44432</v>
       </c>
       <c r="E228" t="n">
         <v>7</v>
@@ -18604,16 +18604,16 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N228" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O228" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P228" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T228" t="n">
         <v>18</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E229" t="n">
         <v>7</v>
@@ -18684,16 +18684,16 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N229" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O229" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P229" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18702,11 +18702,11 @@
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S229" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T229" t="n">
         <v>18</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E230" t="n">
         <v>7</v>
@@ -18755,25 +18755,25 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M230" t="n">
         <v>260</v>
       </c>
       <c r="N230" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O230" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P230" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18782,11 +18782,11 @@
       </c>
       <c r="R230" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S230" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T230" t="n">
         <v>18</v>
@@ -18835,7 +18835,7 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N231" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O231" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P231" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18862,11 +18862,11 @@
       </c>
       <c r="R231" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S231" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T231" t="n">
         <v>18</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E232" t="n">
         <v>7</v>
@@ -18915,25 +18915,25 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M232" t="n">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="N232" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O232" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P232" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18942,11 +18942,11 @@
       </c>
       <c r="R232" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S232" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T232" t="n">
         <v>18</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E233" t="n">
         <v>7</v>
@@ -19004,16 +19004,16 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N233" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O233" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P233" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T233" t="n">
         <v>18</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E234" t="n">
         <v>7</v>
@@ -19075,7 +19075,7 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
@@ -19084,16 +19084,16 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="N234" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O234" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P234" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T234" t="n">
         <v>18</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E235" t="n">
         <v>7</v>
@@ -19160,20 +19160,20 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="N235" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O235" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P235" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19182,11 +19182,11 @@
       </c>
       <c r="R235" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S235" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T235" t="n">
         <v>18</v>
@@ -19235,7 +19235,7 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
@@ -19244,16 +19244,16 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N236" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O236" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P236" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19262,11 +19262,11 @@
       </c>
       <c r="R236" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S236" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T236" t="n">
         <v>18</v>
@@ -19320,20 +19320,20 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N237" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O237" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P237" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T237" t="n">
         <v>18</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E238" t="n">
         <v>7</v>
@@ -19400,20 +19400,20 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="N238" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O238" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P238" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="T238" t="n">
         <v>18</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E239" t="n">
         <v>7</v>
@@ -19480,20 +19480,20 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N239" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O239" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P239" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T239" t="n">
         <v>18</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E240" t="n">
         <v>7</v>
@@ -19564,16 +19564,16 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="N240" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O240" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P240" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19582,11 +19582,11 @@
       </c>
       <c r="R240" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S240" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T240" t="n">
         <v>18</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E241" t="n">
         <v>7</v>
@@ -19644,16 +19644,16 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="N241" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O241" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P241" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19662,11 +19662,11 @@
       </c>
       <c r="R241" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S241" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T241" t="n">
         <v>18</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44391</v>
+        <v>44379</v>
       </c>
       <c r="E242" t="n">
         <v>7</v>
@@ -19724,16 +19724,16 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N242" t="n">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="O242" t="n">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="P242" t="n">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>56</v>
+        <v>500</v>
       </c>
       <c r="T242" t="n">
         <v>18</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44391</v>
+        <v>44379</v>
       </c>
       <c r="E243" t="n">
         <v>7</v>
@@ -19804,16 +19804,16 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N243" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O243" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P243" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T243" t="n">
         <v>18</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E244" t="n">
         <v>7</v>
@@ -19884,16 +19884,16 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N244" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="O244" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P244" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>556</v>
+        <v>56</v>
       </c>
       <c r="T244" t="n">
         <v>18</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E245" t="n">
         <v>7</v>
@@ -19964,7 +19964,7 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N245" t="n">
         <v>9000</v>
@@ -20040,20 +20040,20 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="N246" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O246" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P246" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T246" t="n">
         <v>18</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E247" t="n">
         <v>7</v>
@@ -20120,20 +20120,20 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N247" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O247" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P247" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20142,11 +20142,11 @@
       </c>
       <c r="R247" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S247" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T247" t="n">
         <v>18</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44329</v>
+        <v>44446</v>
       </c>
       <c r="E248" t="n">
         <v>7</v>
@@ -20200,20 +20200,20 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N248" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O248" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P248" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20222,11 +20222,11 @@
       </c>
       <c r="R248" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S248" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T248" t="n">
         <v>18</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44329</v>
+        <v>44411</v>
       </c>
       <c r="E249" t="n">
         <v>7</v>
@@ -20280,11 +20280,11 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N249" t="n">
         <v>10000</v>
@@ -20302,7 +20302,7 @@
       </c>
       <c r="R249" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S249" t="n">
@@ -20360,24 +20360,24 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="N250" t="n">
-        <v>170000</v>
+        <v>11000</v>
       </c>
       <c r="O250" t="n">
-        <v>170000</v>
+        <v>11000</v>
       </c>
       <c r="P250" t="n">
-        <v>170000</v>
+        <v>11000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R250" t="inlineStr">
@@ -20386,10 +20386,10 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>378</v>
+        <v>611</v>
       </c>
       <c r="T250" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="251">
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E251" t="n">
         <v>7</v>
@@ -20435,25 +20435,25 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N251" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O251" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P251" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20462,11 +20462,11 @@
       </c>
       <c r="R251" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S251" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T251" t="n">
         <v>18</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E252" t="n">
         <v>7</v>
@@ -20515,7 +20515,7 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
@@ -20524,32 +20524,32 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="N252" t="n">
-        <v>7000</v>
+        <v>170000</v>
       </c>
       <c r="O252" t="n">
-        <v>7000</v>
+        <v>170000</v>
       </c>
       <c r="P252" t="n">
-        <v>7000</v>
+        <v>170000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R252" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S252" t="n">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="T252" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="253">
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E253" t="n">
         <v>7</v>
@@ -20595,7 +20595,7 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
@@ -20607,13 +20607,13 @@
         <v>250</v>
       </c>
       <c r="N253" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O253" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P253" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T253" t="n">
         <v>18</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E254" t="n">
         <v>7</v>
@@ -20675,7 +20675,7 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N254" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O254" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P254" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T254" t="n">
         <v>18</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E255" t="n">
         <v>7</v>
@@ -20755,25 +20755,25 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N255" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O255" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P255" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20782,11 +20782,11 @@
       </c>
       <c r="R255" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S255" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T255" t="n">
         <v>18</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E256" t="n">
         <v>7</v>
@@ -20840,20 +20840,20 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M256" t="n">
         <v>240</v>
       </c>
       <c r="N256" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O256" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P256" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20862,11 +20862,11 @@
       </c>
       <c r="R256" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S256" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T256" t="n">
         <v>18</v>
@@ -20915,7 +20915,7 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
@@ -20924,7 +20924,7 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="N257" t="n">
         <v>8000</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E258" t="n">
         <v>7</v>
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N258" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O258" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P258" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21022,11 +21022,11 @@
       </c>
       <c r="R258" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S258" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T258" t="n">
         <v>18</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E259" t="n">
         <v>7</v>
@@ -21080,20 +21080,20 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="N259" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O259" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P259" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21102,11 +21102,11 @@
       </c>
       <c r="R259" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S259" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T259" t="n">
         <v>18</v>
@@ -21155,25 +21155,25 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N260" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O260" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P260" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T260" t="n">
         <v>18</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E261" t="n">
         <v>7</v>
@@ -21235,16 +21235,16 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>590</v>
+        <v>240</v>
       </c>
       <c r="N261" t="n">
         <v>7000</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E262" t="n">
         <v>7</v>
@@ -21315,7 +21315,7 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
@@ -21324,7 +21324,7 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N262" t="n">
         <v>8000</v>
@@ -21342,7 +21342,7 @@
       </c>
       <c r="R262" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S262" t="n">
@@ -21395,25 +21395,25 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>970</v>
+        <v>590</v>
       </c>
       <c r="N263" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O263" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P263" t="n">
-        <v>9485</v>
+        <v>7000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>527</v>
+        <v>389</v>
       </c>
       <c r="T263" t="n">
         <v>18</v>
@@ -21475,7 +21475,7 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
@@ -21484,7 +21484,7 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="N264" t="n">
         <v>8000</v>
@@ -21502,7 +21502,7 @@
       </c>
       <c r="R264" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S264" t="n">
@@ -21560,20 +21560,20 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>300</v>
+        <v>970</v>
       </c>
       <c r="N265" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O265" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P265" t="n">
-        <v>8000</v>
+        <v>9485</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21582,11 +21582,11 @@
       </c>
       <c r="R265" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S265" t="n">
-        <v>444</v>
+        <v>527</v>
       </c>
       <c r="T265" t="n">
         <v>18</v>
@@ -21644,32 +21644,32 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>15</v>
+        <v>480</v>
       </c>
       <c r="N266" t="n">
-        <v>170000</v>
+        <v>8000</v>
       </c>
       <c r="O266" t="n">
-        <v>170000</v>
+        <v>8000</v>
       </c>
       <c r="P266" t="n">
-        <v>170000</v>
+        <v>8000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R266" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S266" t="n">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="T266" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="267">
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E267" t="n">
         <v>7</v>
@@ -21715,25 +21715,25 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="N267" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O267" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P267" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21742,11 +21742,11 @@
       </c>
       <c r="R267" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S267" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T267" t="n">
         <v>18</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E268" t="n">
         <v>7</v>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
@@ -21804,32 +21804,32 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="N268" t="n">
-        <v>8000</v>
+        <v>170000</v>
       </c>
       <c r="O268" t="n">
-        <v>8000</v>
+        <v>170000</v>
       </c>
       <c r="P268" t="n">
-        <v>8000</v>
+        <v>170000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R268" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S268" t="n">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="T268" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="269">
@@ -21875,7 +21875,7 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
@@ -21884,16 +21884,16 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N269" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O269" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P269" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T269" t="n">
         <v>18</v>
@@ -21955,7 +21955,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -21964,16 +21964,16 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N270" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O270" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P270" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T270" t="n">
         <v>18</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E271" t="n">
         <v>7</v>
@@ -22035,25 +22035,25 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N271" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O271" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P271" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T271" t="n">
         <v>18</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E272" t="n">
         <v>7</v>
@@ -22120,20 +22120,20 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="N272" t="n">
         <v>9000</v>
       </c>
       <c r="O272" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P272" t="n">
-        <v>9714</v>
+        <v>9000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="T272" t="n">
         <v>18</v>
@@ -22195,7 +22195,7 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
@@ -22204,16 +22204,16 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N273" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O273" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P273" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T273" t="n">
         <v>18</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E274" t="n">
         <v>7</v>
@@ -22275,25 +22275,25 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="N274" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O274" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P274" t="n">
-        <v>7000</v>
+        <v>9714</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22302,11 +22302,11 @@
       </c>
       <c r="R274" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S274" t="n">
-        <v>389</v>
+        <v>540</v>
       </c>
       <c r="T274" t="n">
         <v>18</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E275" t="n">
         <v>7</v>
@@ -22360,11 +22360,11 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N275" t="n">
         <v>8000</v>
@@ -22382,7 +22382,7 @@
       </c>
       <c r="R275" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S275" t="n">
@@ -22435,7 +22435,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -22444,7 +22444,7 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N276" t="n">
         <v>7000</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E277" t="n">
         <v>7</v>
@@ -22515,7 +22515,7 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N277" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O277" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P277" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22542,11 +22542,11 @@
       </c>
       <c r="R277" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S277" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T277" t="n">
         <v>18</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E278" t="n">
         <v>7</v>
@@ -22595,7 +22595,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -22604,7 +22604,7 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N278" t="n">
         <v>7000</v>
@@ -22622,7 +22622,7 @@
       </c>
       <c r="R278" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S278" t="n">
@@ -22675,7 +22675,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N279" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O279" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P279" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T279" t="n">
         <v>18</v>
@@ -22755,7 +22755,7 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N280" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O280" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P280" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T280" t="n">
         <v>18</v>
@@ -22840,20 +22840,20 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N281" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O281" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P281" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="T281" t="n">
         <v>18</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E282" t="n">
         <v>7</v>
@@ -22920,20 +22920,20 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N282" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O282" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P282" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T282" t="n">
         <v>18</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E283" t="n">
         <v>7</v>
@@ -23000,20 +23000,20 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N283" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O283" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P283" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="T283" t="n">
         <v>18</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E284" t="n">
         <v>7</v>
@@ -23084,7 +23084,7 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="N284" t="n">
         <v>10000</v>
@@ -23102,7 +23102,7 @@
       </c>
       <c r="R284" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S284" t="n">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E285" t="n">
         <v>7</v>
@@ -23164,7 +23164,7 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N285" t="n">
         <v>9000</v>
@@ -23240,20 +23240,20 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="N286" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O286" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P286" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T286" t="n">
         <v>18</v>
@@ -23320,20 +23320,20 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="N287" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O287" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P287" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T287" t="n">
         <v>18</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E288" t="n">
         <v>7</v>
@@ -23395,7 +23395,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -23404,7 +23404,7 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="N288" t="n">
         <v>8000</v>
@@ -23417,12 +23417,12 @@
       </c>
       <c r="Q288" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R288" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S288" t="n">
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E289" t="n">
         <v>7</v>
@@ -23475,25 +23475,25 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="N289" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O289" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P289" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23502,11 +23502,11 @@
       </c>
       <c r="R289" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S289" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T289" t="n">
         <v>18</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E290" t="n">
         <v>7</v>
@@ -23555,38 +23555,38 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="N290" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O290" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P290" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S290" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T290" t="n">
         <v>18</v>
@@ -23635,7 +23635,7 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
@@ -23644,7 +23644,7 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N291" t="n">
         <v>8000</v>
@@ -23669,6 +23669,166 @@
         <v>444</v>
       </c>
       <c r="T291" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>5</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D292" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E292" t="n">
+        <v>7</v>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G292" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M292" t="n">
+        <v>280</v>
+      </c>
+      <c r="N292" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O292" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P292" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S292" t="n">
+        <v>556</v>
+      </c>
+      <c r="T292" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>5</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D293" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E293" t="n">
+        <v>7</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G293" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M293" t="n">
+        <v>260</v>
+      </c>
+      <c r="N293" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O293" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P293" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S293" t="n">
+        <v>444</v>
+      </c>
+      <c r="T293" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T297"/>
+  <dimension ref="A1:T299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E208" t="n">
         <v>7</v>
@@ -16995,7 +16995,7 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
@@ -17004,16 +17004,16 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="N208" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O208" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P208" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17022,11 +17022,11 @@
       </c>
       <c r="R208" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S208" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T208" t="n">
         <v>18</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E209" t="n">
         <v>7</v>
@@ -17080,20 +17080,20 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N209" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O209" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P209" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17102,11 +17102,11 @@
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S209" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T209" t="n">
         <v>18</v>
@@ -17155,7 +17155,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -17164,16 +17164,16 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N210" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O210" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P210" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T210" t="n">
         <v>18</v>
@@ -17240,20 +17240,20 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="N211" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O211" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P211" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T211" t="n">
         <v>18</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E212" t="n">
         <v>7</v>
@@ -17320,20 +17320,20 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="N212" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O212" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P212" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T212" t="n">
         <v>18</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E213" t="n">
         <v>7</v>
@@ -17400,20 +17400,20 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="N213" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O213" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P213" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T213" t="n">
         <v>18</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E214" t="n">
         <v>7</v>
@@ -17484,7 +17484,7 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="N214" t="n">
         <v>10000</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E215" t="n">
         <v>7</v>
@@ -17564,16 +17564,16 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N215" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O215" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P215" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T215" t="n">
         <v>18</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E216" t="n">
         <v>7</v>
@@ -17635,25 +17635,25 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N216" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O216" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P216" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17662,11 +17662,11 @@
       </c>
       <c r="R216" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S216" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T216" t="n">
         <v>18</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E217" t="n">
         <v>7</v>
@@ -17715,7 +17715,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -17724,16 +17724,16 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="N217" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O217" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P217" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T217" t="n">
         <v>18</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E218" t="n">
         <v>7</v>
@@ -17795,7 +17795,7 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
@@ -17804,7 +17804,7 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="N218" t="n">
         <v>9000</v>
@@ -17822,7 +17822,7 @@
       </c>
       <c r="R218" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S218" t="n">
@@ -17875,25 +17875,25 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="N219" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O219" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P219" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T219" t="n">
         <v>18</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E220" t="n">
         <v>7</v>
@@ -17960,11 +17960,11 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N220" t="n">
         <v>9000</v>
@@ -17977,19 +17977,19 @@
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S220" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T220" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="221">
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E221" t="n">
         <v>7</v>
@@ -18040,36 +18040,36 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N221" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O221" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P221" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S221" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T221" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="222">
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E222" t="n">
         <v>7</v>
@@ -18127,17 +18127,17 @@
         <v>200</v>
       </c>
       <c r="N222" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O222" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P222" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R222" t="inlineStr">
@@ -18146,10 +18146,10 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T222" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223">
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E223" t="n">
         <v>7</v>
@@ -18200,24 +18200,24 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N223" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O223" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P223" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R223" t="inlineStr">
@@ -18226,10 +18226,10 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T223" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224">
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E224" t="n">
         <v>7</v>
@@ -18275,25 +18275,25 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M224" t="n">
         <v>200</v>
       </c>
       <c r="N224" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O224" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P224" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T224" t="n">
         <v>18</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E225" t="n">
         <v>7</v>
@@ -18367,13 +18367,13 @@
         <v>150</v>
       </c>
       <c r="N225" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O225" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P225" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T225" t="n">
         <v>18</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E226" t="n">
         <v>7</v>
@@ -18435,7 +18435,7 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -18444,7 +18444,7 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N226" t="n">
         <v>8000</v>
@@ -18462,7 +18462,7 @@
       </c>
       <c r="R226" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S226" t="n">
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E227" t="n">
         <v>7</v>
@@ -18520,20 +18520,20 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="N227" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O227" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P227" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18542,11 +18542,11 @@
       </c>
       <c r="R227" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S227" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T227" t="n">
         <v>18</v>
@@ -18595,7 +18595,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -18604,16 +18604,16 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="N228" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O228" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P228" t="n">
-        <v>9400</v>
+        <v>8000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>522</v>
+        <v>444</v>
       </c>
       <c r="T228" t="n">
         <v>18</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="E229" t="n">
         <v>7</v>
@@ -18675,25 +18675,25 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="N229" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O229" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P229" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18702,11 +18702,11 @@
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S229" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T229" t="n">
         <v>18</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="E230" t="n">
         <v>7</v>
@@ -18755,7 +18755,7 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
@@ -18764,32 +18764,32 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="N230" t="n">
-        <v>130000</v>
+        <v>9000</v>
       </c>
       <c r="O230" t="n">
-        <v>130000</v>
+        <v>10000</v>
       </c>
       <c r="P230" t="n">
-        <v>130000</v>
+        <v>9400</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R230" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S230" t="n">
-        <v>289</v>
+        <v>522</v>
       </c>
       <c r="T230" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="231">
@@ -18835,7 +18835,7 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
@@ -18844,7 +18844,7 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N231" t="n">
         <v>8000</v>
@@ -18862,7 +18862,7 @@
       </c>
       <c r="R231" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S231" t="n">
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E232" t="n">
         <v>7</v>
@@ -18924,32 +18924,32 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="N232" t="n">
-        <v>8000</v>
+        <v>130000</v>
       </c>
       <c r="O232" t="n">
-        <v>8000</v>
+        <v>130000</v>
       </c>
       <c r="P232" t="n">
-        <v>8000</v>
+        <v>130000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R232" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S232" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T232" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="233">
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E233" t="n">
         <v>7</v>
@@ -19004,16 +19004,16 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N233" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O233" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P233" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T233" t="n">
         <v>18</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E234" t="n">
         <v>7</v>
@@ -19075,25 +19075,25 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N234" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O234" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P234" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T234" t="n">
         <v>18</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E235" t="n">
         <v>7</v>
@@ -19167,13 +19167,13 @@
         <v>300</v>
       </c>
       <c r="N235" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="O235" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="P235" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="T235" t="n">
         <v>18</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E236" t="n">
         <v>7</v>
@@ -19235,25 +19235,25 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="N236" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O236" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P236" t="n">
-        <v>7474</v>
+        <v>10000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>415</v>
+        <v>556</v>
       </c>
       <c r="T236" t="n">
         <v>18</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E237" t="n">
         <v>7</v>
@@ -19315,25 +19315,25 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N237" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="O237" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="P237" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>333</v>
+        <v>472</v>
       </c>
       <c r="T237" t="n">
         <v>18</v>
@@ -19395,25 +19395,25 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>260</v>
+        <v>380</v>
       </c>
       <c r="N238" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O238" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P238" t="n">
-        <v>10000</v>
+        <v>7474</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>556</v>
+        <v>415</v>
       </c>
       <c r="T238" t="n">
         <v>18</v>
@@ -19475,25 +19475,25 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N239" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O239" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P239" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="T239" t="n">
         <v>18</v>
@@ -19560,20 +19560,20 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N240" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O240" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P240" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T240" t="n">
         <v>18</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44243</v>
+        <v>44386</v>
       </c>
       <c r="E241" t="n">
         <v>7</v>
@@ -19635,7 +19635,7 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
@@ -19644,7 +19644,7 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="N241" t="n">
         <v>9000</v>
@@ -19662,7 +19662,7 @@
       </c>
       <c r="R241" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S241" t="n">
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44252</v>
+        <v>44386</v>
       </c>
       <c r="E242" t="n">
         <v>7</v>
@@ -19715,25 +19715,25 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="N242" t="n">
         <v>7000</v>
       </c>
       <c r="O242" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P242" t="n">
-        <v>7370</v>
+        <v>7000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="T242" t="n">
         <v>18</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44369</v>
+        <v>44243</v>
       </c>
       <c r="E243" t="n">
         <v>7</v>
@@ -19795,7 +19795,7 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
@@ -19804,16 +19804,16 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N243" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O243" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P243" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19822,11 +19822,11 @@
       </c>
       <c r="R243" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S243" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T243" t="n">
         <v>18</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44369</v>
+        <v>44252</v>
       </c>
       <c r="E244" t="n">
         <v>7</v>
@@ -19875,25 +19875,25 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="N244" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O244" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P244" t="n">
-        <v>9000</v>
+        <v>7370</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>500</v>
+        <v>409</v>
       </c>
       <c r="T244" t="n">
         <v>18</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E245" t="n">
         <v>7</v>
@@ -19955,25 +19955,25 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N245" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O245" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P245" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T245" t="n">
         <v>18</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E246" t="n">
         <v>7</v>
@@ -20040,20 +20040,20 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="N246" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O246" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P246" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T246" t="n">
         <v>18</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E247" t="n">
         <v>7</v>
@@ -20115,25 +20115,25 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N247" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O247" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P247" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T247" t="n">
         <v>18</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E248" t="n">
         <v>7</v>
@@ -20200,20 +20200,20 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N248" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O248" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P248" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20222,11 +20222,11 @@
       </c>
       <c r="R248" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S248" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T248" t="n">
         <v>18</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E249" t="n">
         <v>7</v>
@@ -20275,7 +20275,7 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
@@ -20284,16 +20284,16 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N249" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O249" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P249" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20302,11 +20302,11 @@
       </c>
       <c r="R249" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S249" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T249" t="n">
         <v>18</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E250" t="n">
         <v>7</v>
@@ -20355,25 +20355,25 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N250" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O250" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P250" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20382,11 +20382,11 @@
       </c>
       <c r="R250" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S250" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T250" t="n">
         <v>18</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E251" t="n">
         <v>7</v>
@@ -20440,20 +20440,20 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N251" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O251" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P251" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20462,11 +20462,11 @@
       </c>
       <c r="R251" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S251" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T251" t="n">
         <v>18</v>
@@ -20515,7 +20515,7 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
@@ -20524,7 +20524,7 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="N252" t="n">
         <v>8000</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E253" t="n">
         <v>7</v>
@@ -20595,25 +20595,25 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N253" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O253" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P253" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20622,11 +20622,11 @@
       </c>
       <c r="R253" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S253" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T253" t="n">
         <v>18</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E254" t="n">
         <v>7</v>
@@ -20680,11 +20680,11 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N254" t="n">
         <v>8000</v>
@@ -20702,7 +20702,7 @@
       </c>
       <c r="R254" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S254" t="n">
@@ -20755,7 +20755,7 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
@@ -20764,7 +20764,7 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N255" t="n">
         <v>7000</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E256" t="n">
         <v>7</v>
@@ -20835,25 +20835,25 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N256" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O256" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P256" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20862,11 +20862,11 @@
       </c>
       <c r="R256" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S256" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T256" t="n">
         <v>18</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E257" t="n">
         <v>7</v>
@@ -20924,16 +20924,16 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N257" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O257" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P257" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20942,11 +20942,11 @@
       </c>
       <c r="R257" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S257" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T257" t="n">
         <v>18</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E258" t="n">
         <v>7</v>
@@ -20995,7 +20995,7 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N258" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O258" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P258" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T258" t="n">
         <v>18</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E259" t="n">
         <v>7</v>
@@ -21075,7 +21075,7 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
@@ -21084,16 +21084,16 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="N259" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O259" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P259" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T259" t="n">
         <v>18</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E260" t="n">
         <v>7</v>
@@ -21155,25 +21155,25 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="N260" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O260" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P260" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T260" t="n">
         <v>18</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E261" t="n">
         <v>7</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N261" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O261" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P261" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T261" t="n">
         <v>18</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E262" t="n">
         <v>7</v>
@@ -21315,16 +21315,16 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="N262" t="n">
         <v>8000</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E263" t="n">
         <v>7</v>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N263" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O263" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P263" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T263" t="n">
         <v>18</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E264" t="n">
         <v>7</v>
@@ -21475,25 +21475,25 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="N264" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O264" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P264" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T264" t="n">
         <v>18</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E265" t="n">
         <v>7</v>
@@ -21564,7 +21564,7 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="N265" t="n">
         <v>8000</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E266" t="n">
         <v>7</v>
@@ -21635,25 +21635,25 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N266" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O266" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P266" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T266" t="n">
         <v>18</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E267" t="n">
         <v>7</v>
@@ -21715,7 +21715,7 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -21724,7 +21724,7 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N267" t="n">
         <v>8000</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E268" t="n">
         <v>7</v>
@@ -21804,7 +21804,7 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N268" t="n">
         <v>7000</v>
@@ -21822,7 +21822,7 @@
       </c>
       <c r="R268" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S268" t="n">
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44365</v>
+        <v>44286</v>
       </c>
       <c r="E269" t="n">
         <v>7</v>
@@ -21887,13 +21887,13 @@
         <v>200</v>
       </c>
       <c r="N269" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O269" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P269" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21902,11 +21902,11 @@
       </c>
       <c r="R269" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S269" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T269" t="n">
         <v>18</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E270" t="n">
         <v>7</v>
@@ -21955,25 +21955,25 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="N270" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O270" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P270" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21982,11 +21982,11 @@
       </c>
       <c r="R270" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S270" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T270" t="n">
         <v>18</v>
@@ -22035,7 +22035,7 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -22044,16 +22044,16 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N271" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O271" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P271" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22062,11 +22062,11 @@
       </c>
       <c r="R271" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S271" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T271" t="n">
         <v>18</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E272" t="n">
         <v>7</v>
@@ -22115,25 +22115,25 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N272" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O272" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P272" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22142,11 +22142,11 @@
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S272" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T272" t="n">
         <v>18</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E273" t="n">
         <v>7</v>
@@ -22200,20 +22200,20 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="N273" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O273" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P273" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22222,11 +22222,11 @@
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S273" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T273" t="n">
         <v>18</v>
@@ -22275,7 +22275,7 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -22284,16 +22284,16 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N274" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O274" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P274" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T274" t="n">
         <v>18</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E275" t="n">
         <v>7</v>
@@ -22355,25 +22355,25 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M275" t="n">
         <v>210</v>
       </c>
       <c r="N275" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O275" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P275" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22382,11 +22382,11 @@
       </c>
       <c r="R275" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S275" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T275" t="n">
         <v>18</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E276" t="n">
         <v>7</v>
@@ -22440,20 +22440,20 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>560</v>
+        <v>200</v>
       </c>
       <c r="N276" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O276" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P276" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="T276" t="n">
         <v>18</v>
@@ -22515,7 +22515,7 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N277" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O277" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P277" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22542,11 +22542,11 @@
       </c>
       <c r="R277" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S277" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T277" t="n">
         <v>18</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E278" t="n">
         <v>7</v>
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>250</v>
+        <v>560</v>
       </c>
       <c r="N278" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O278" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P278" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22622,11 +22622,11 @@
       </c>
       <c r="R278" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S278" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T278" t="n">
         <v>18</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E279" t="n">
         <v>7</v>
@@ -22680,20 +22680,20 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N279" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O279" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P279" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22702,11 +22702,11 @@
       </c>
       <c r="R279" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S279" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T279" t="n">
         <v>18</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E280" t="n">
         <v>7</v>
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N280" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O280" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P280" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22782,11 +22782,11 @@
       </c>
       <c r="R280" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S280" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T280" t="n">
         <v>18</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E281" t="n">
         <v>7</v>
@@ -22835,25 +22835,25 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N281" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O281" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P281" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22862,11 +22862,11 @@
       </c>
       <c r="R281" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S281" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T281" t="n">
         <v>18</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E282" t="n">
         <v>7</v>
@@ -22915,25 +22915,25 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="N282" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O282" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P282" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22942,11 +22942,11 @@
       </c>
       <c r="R282" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S282" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T282" t="n">
         <v>18</v>
@@ -22995,7 +22995,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N283" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O283" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P283" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23022,11 +23022,11 @@
       </c>
       <c r="R283" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S283" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T283" t="n">
         <v>18</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44376</v>
+        <v>44257</v>
       </c>
       <c r="E284" t="n">
         <v>7</v>
@@ -23075,16 +23075,16 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N284" t="n">
         <v>7000</v>
@@ -23102,7 +23102,7 @@
       </c>
       <c r="R284" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S284" t="n">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44376</v>
+        <v>44257</v>
       </c>
       <c r="E285" t="n">
         <v>7</v>
@@ -23160,20 +23160,20 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N285" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O285" t="n">
         <v>10000</v>
       </c>
       <c r="P285" t="n">
-        <v>9714</v>
+        <v>10000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="T285" t="n">
         <v>18</v>
@@ -23235,7 +23235,7 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
@@ -23244,16 +23244,16 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N286" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O286" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P286" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T286" t="n">
         <v>18</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E287" t="n">
         <v>7</v>
@@ -23315,7 +23315,7 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
@@ -23324,16 +23324,16 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="N287" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O287" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P287" t="n">
-        <v>8000</v>
+        <v>9714</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>444</v>
+        <v>540</v>
       </c>
       <c r="T287" t="n">
         <v>18</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E288" t="n">
         <v>7</v>
@@ -23400,20 +23400,20 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N288" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O288" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P288" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T288" t="n">
         <v>18</v>
@@ -23475,16 +23475,16 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="N289" t="n">
         <v>8000</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E290" t="n">
         <v>7</v>
@@ -23555,25 +23555,25 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N290" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O290" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P290" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23582,11 +23582,11 @@
       </c>
       <c r="R290" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S290" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T290" t="n">
         <v>18</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E291" t="n">
         <v>7</v>
@@ -23640,20 +23640,20 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N291" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O291" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P291" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23662,11 +23662,11 @@
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S291" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T291" t="n">
         <v>18</v>
@@ -23715,7 +23715,7 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
@@ -23724,16 +23724,16 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="N292" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O292" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P292" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T292" t="n">
         <v>18</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E293" t="n">
         <v>7</v>
@@ -23795,25 +23795,25 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="N293" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O293" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P293" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23822,11 +23822,11 @@
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S293" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T293" t="n">
         <v>18</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E294" t="n">
         <v>7</v>
@@ -23875,7 +23875,7 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -23884,16 +23884,16 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="N294" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O294" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P294" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23902,11 +23902,11 @@
       </c>
       <c r="R294" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S294" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T294" t="n">
         <v>18</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E295" t="n">
         <v>7</v>
@@ -23955,25 +23955,25 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N295" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O295" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P295" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23982,11 +23982,11 @@
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S295" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T295" t="n">
         <v>18</v>
@@ -24035,7 +24035,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -24047,13 +24047,13 @@
         <v>210</v>
       </c>
       <c r="N296" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O296" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P296" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24062,11 +24062,11 @@
       </c>
       <c r="R296" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S296" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T296" t="n">
         <v>18</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E297" t="n">
         <v>7</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N297" t="n">
         <v>10000</v>
@@ -24142,13 +24142,173 @@
       </c>
       <c r="R297" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S297" t="n">
         <v>556</v>
       </c>
       <c r="T297" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>5</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D298" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E298" t="n">
+        <v>7</v>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G298" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I298" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M298" t="n">
+        <v>210</v>
+      </c>
+      <c r="N298" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O298" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P298" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R298" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S298" t="n">
+        <v>444</v>
+      </c>
+      <c r="T298" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>5</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D299" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E299" t="n">
+        <v>7</v>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G299" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I299" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M299" t="n">
+        <v>300</v>
+      </c>
+      <c r="N299" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O299" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P299" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R299" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S299" t="n">
+        <v>556</v>
+      </c>
+      <c r="T299" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T299"/>
+  <dimension ref="A1:T301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E277" t="n">
         <v>7</v>
@@ -22515,25 +22515,25 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="N277" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O277" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P277" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T277" t="n">
         <v>18</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E278" t="n">
         <v>7</v>
@@ -22600,20 +22600,20 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>560</v>
+        <v>200</v>
       </c>
       <c r="N278" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O278" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P278" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22622,11 +22622,11 @@
       </c>
       <c r="R278" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S278" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T278" t="n">
         <v>18</v>
@@ -22675,7 +22675,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N279" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O279" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P279" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22702,11 +22702,11 @@
       </c>
       <c r="R279" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S279" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T279" t="n">
         <v>18</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E280" t="n">
         <v>7</v>
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>250</v>
+        <v>560</v>
       </c>
       <c r="N280" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O280" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P280" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22782,11 +22782,11 @@
       </c>
       <c r="R280" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S280" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T280" t="n">
         <v>18</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E281" t="n">
         <v>7</v>
@@ -22840,20 +22840,20 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N281" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O281" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P281" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22862,11 +22862,11 @@
       </c>
       <c r="R281" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S281" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T281" t="n">
         <v>18</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E282" t="n">
         <v>7</v>
@@ -22924,16 +22924,16 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N282" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O282" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P282" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22942,11 +22942,11 @@
       </c>
       <c r="R282" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S282" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T282" t="n">
         <v>18</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E283" t="n">
         <v>7</v>
@@ -22995,25 +22995,25 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N283" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O283" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P283" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23022,11 +23022,11 @@
       </c>
       <c r="R283" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S283" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T283" t="n">
         <v>18</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E284" t="n">
         <v>7</v>
@@ -23075,25 +23075,25 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="N284" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O284" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P284" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23102,11 +23102,11 @@
       </c>
       <c r="R284" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S284" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T284" t="n">
         <v>18</v>
@@ -23155,7 +23155,7 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
@@ -23164,16 +23164,16 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N285" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O285" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P285" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23182,11 +23182,11 @@
       </c>
       <c r="R285" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S285" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T285" t="n">
         <v>18</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44376</v>
+        <v>44257</v>
       </c>
       <c r="E286" t="n">
         <v>7</v>
@@ -23235,16 +23235,16 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N286" t="n">
         <v>7000</v>
@@ -23262,7 +23262,7 @@
       </c>
       <c r="R286" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S286" t="n">
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44376</v>
+        <v>44257</v>
       </c>
       <c r="E287" t="n">
         <v>7</v>
@@ -23320,20 +23320,20 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N287" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O287" t="n">
         <v>10000</v>
       </c>
       <c r="P287" t="n">
-        <v>9714</v>
+        <v>10000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="T287" t="n">
         <v>18</v>
@@ -23395,7 +23395,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -23404,16 +23404,16 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N288" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O288" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P288" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T288" t="n">
         <v>18</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E289" t="n">
         <v>7</v>
@@ -23475,7 +23475,7 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -23484,16 +23484,16 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="N289" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O289" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P289" t="n">
-        <v>8000</v>
+        <v>9714</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>444</v>
+        <v>540</v>
       </c>
       <c r="T289" t="n">
         <v>18</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E290" t="n">
         <v>7</v>
@@ -23560,20 +23560,20 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N290" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O290" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P290" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T290" t="n">
         <v>18</v>
@@ -23635,16 +23635,16 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="N291" t="n">
         <v>8000</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E292" t="n">
         <v>7</v>
@@ -23715,25 +23715,25 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N292" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O292" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P292" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23742,11 +23742,11 @@
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S292" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T292" t="n">
         <v>18</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E293" t="n">
         <v>7</v>
@@ -23800,20 +23800,20 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N293" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O293" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P293" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23822,11 +23822,11 @@
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S293" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T293" t="n">
         <v>18</v>
@@ -23875,7 +23875,7 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -23884,16 +23884,16 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="N294" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O294" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P294" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T294" t="n">
         <v>18</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E295" t="n">
         <v>7</v>
@@ -23955,25 +23955,25 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="N295" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O295" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P295" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23982,11 +23982,11 @@
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S295" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T295" t="n">
         <v>18</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E296" t="n">
         <v>7</v>
@@ -24035,7 +24035,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -24044,16 +24044,16 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="N296" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O296" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P296" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24062,11 +24062,11 @@
       </c>
       <c r="R296" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S296" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T296" t="n">
         <v>18</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E297" t="n">
         <v>7</v>
@@ -24115,25 +24115,25 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N297" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O297" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P297" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24142,11 +24142,11 @@
       </c>
       <c r="R297" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S297" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T297" t="n">
         <v>18</v>
@@ -24195,7 +24195,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -24207,13 +24207,13 @@
         <v>210</v>
       </c>
       <c r="N298" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O298" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P298" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24222,11 +24222,11 @@
       </c>
       <c r="R298" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S298" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T298" t="n">
         <v>18</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E299" t="n">
         <v>7</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N299" t="n">
         <v>10000</v>
@@ -24302,13 +24302,173 @@
       </c>
       <c r="R299" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S299" t="n">
         <v>556</v>
       </c>
       <c r="T299" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>5</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D300" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E300" t="n">
+        <v>7</v>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G300" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I300" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M300" t="n">
+        <v>210</v>
+      </c>
+      <c r="N300" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O300" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P300" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R300" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S300" t="n">
+        <v>444</v>
+      </c>
+      <c r="T300" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>5</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D301" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E301" t="n">
+        <v>7</v>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G301" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I301" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M301" t="n">
+        <v>300</v>
+      </c>
+      <c r="N301" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O301" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P301" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q301" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S301" t="n">
+        <v>556</v>
+      </c>
+      <c r="T301" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T303"/>
+  <dimension ref="A1:T304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44243</v>
+        <v>44463</v>
       </c>
       <c r="E245" t="n">
         <v>7</v>
@@ -19955,25 +19955,25 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N245" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O245" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P245" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19982,11 +19982,11 @@
       </c>
       <c r="R245" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S245" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T245" t="n">
         <v>18</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E246" t="n">
         <v>7</v>
@@ -20035,7 +20035,7 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
@@ -20044,16 +20044,16 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="N246" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O246" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P246" t="n">
-        <v>7370</v>
+        <v>9000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20062,11 +20062,11 @@
       </c>
       <c r="R246" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S246" t="n">
-        <v>409</v>
+        <v>500</v>
       </c>
       <c r="T246" t="n">
         <v>18</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44369</v>
+        <v>44252</v>
       </c>
       <c r="E247" t="n">
         <v>7</v>
@@ -20124,16 +20124,16 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N247" t="n">
         <v>7000</v>
       </c>
       <c r="O247" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P247" t="n">
-        <v>7000</v>
+        <v>7370</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="T247" t="n">
         <v>18</v>
@@ -20195,25 +20195,25 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N248" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O248" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P248" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T248" t="n">
         <v>18</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E249" t="n">
         <v>7</v>
@@ -20284,16 +20284,16 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="N249" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O249" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P249" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T249" t="n">
         <v>18</v>
@@ -20360,20 +20360,20 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N250" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O250" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P250" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T250" t="n">
         <v>18</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E251" t="n">
         <v>7</v>
@@ -20435,7 +20435,7 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
@@ -20444,16 +20444,16 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N251" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O251" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P251" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T251" t="n">
         <v>18</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E252" t="n">
         <v>7</v>
@@ -20515,16 +20515,16 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N252" t="n">
         <v>9000</v>
@@ -20542,7 +20542,7 @@
       </c>
       <c r="R252" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S252" t="n">
@@ -20600,20 +20600,20 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N253" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O253" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P253" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T253" t="n">
         <v>18</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E254" t="n">
         <v>7</v>
@@ -20675,7 +20675,7 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
@@ -20684,7 +20684,7 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="N254" t="n">
         <v>8000</v>
@@ -20702,7 +20702,7 @@
       </c>
       <c r="R254" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S254" t="n">
@@ -20755,25 +20755,25 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N255" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O255" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P255" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T255" t="n">
         <v>18</v>
@@ -20840,20 +20840,20 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N256" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O256" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P256" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T256" t="n">
         <v>18</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E257" t="n">
         <v>7</v>
@@ -20915,7 +20915,7 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
@@ -20924,16 +20924,16 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N257" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O257" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P257" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20942,11 +20942,11 @@
       </c>
       <c r="R257" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S257" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T257" t="n">
         <v>18</v>
@@ -20995,25 +20995,25 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N258" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O258" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P258" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T258" t="n">
         <v>18</v>
@@ -21080,20 +21080,20 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N259" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O259" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P259" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T259" t="n">
         <v>18</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E260" t="n">
         <v>7</v>
@@ -21155,7 +21155,7 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
@@ -21182,7 +21182,7 @@
       </c>
       <c r="R260" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S260" t="n">
@@ -21235,7 +21235,7 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N261" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O261" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P261" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T261" t="n">
         <v>18</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E262" t="n">
         <v>7</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E263" t="n">
         <v>7</v>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="N263" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O263" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P263" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T263" t="n">
         <v>18</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E264" t="n">
         <v>7</v>
@@ -21480,11 +21480,11 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="N264" t="n">
         <v>8000</v>
@@ -21560,20 +21560,20 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N265" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O265" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P265" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T265" t="n">
         <v>18</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E266" t="n">
         <v>7</v>
@@ -21635,7 +21635,7 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="N266" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O266" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P266" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T266" t="n">
         <v>18</v>
@@ -21715,7 +21715,7 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -21724,7 +21724,7 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="N267" t="n">
         <v>8000</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E268" t="n">
         <v>7</v>
@@ -21800,20 +21800,20 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N268" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O268" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P268" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T268" t="n">
         <v>18</v>
@@ -21880,20 +21880,20 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N269" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O269" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P269" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T269" t="n">
         <v>18</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E270" t="n">
         <v>7</v>
@@ -21955,7 +21955,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -21964,16 +21964,16 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N270" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O270" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P270" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T270" t="n">
         <v>18</v>
@@ -22035,7 +22035,7 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -22047,13 +22047,13 @@
         <v>200</v>
       </c>
       <c r="N271" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O271" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P271" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T271" t="n">
         <v>18</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E272" t="n">
         <v>7</v>
@@ -22115,7 +22115,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N272" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O272" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P272" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22142,11 +22142,11 @@
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S272" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T272" t="n">
         <v>18</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E273" t="n">
         <v>7</v>
@@ -22195,7 +22195,7 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
@@ -22204,7 +22204,7 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N273" t="n">
         <v>7000</v>
@@ -22275,25 +22275,25 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N274" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O274" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P274" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22302,11 +22302,11 @@
       </c>
       <c r="R274" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S274" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T274" t="n">
         <v>18</v>
@@ -22360,20 +22360,20 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="N275" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O275" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P275" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T275" t="n">
         <v>18</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E276" t="n">
         <v>7</v>
@@ -22435,7 +22435,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -22444,7 +22444,7 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="N276" t="n">
         <v>8000</v>
@@ -22462,7 +22462,7 @@
       </c>
       <c r="R276" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S276" t="n">
@@ -22515,25 +22515,25 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N277" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O277" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P277" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T277" t="n">
         <v>18</v>
@@ -22600,20 +22600,20 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N278" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O278" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P278" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T278" t="n">
         <v>18</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E279" t="n">
         <v>7</v>
@@ -22680,11 +22680,11 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N279" t="n">
         <v>9000</v>
@@ -22702,7 +22702,7 @@
       </c>
       <c r="R279" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S279" t="n">
@@ -22760,20 +22760,20 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N280" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O280" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P280" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T280" t="n">
         <v>18</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E281" t="n">
         <v>7</v>
@@ -22835,7 +22835,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -22844,16 +22844,16 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N281" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O281" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P281" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T281" t="n">
         <v>18</v>
@@ -22915,25 +22915,25 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>560</v>
+        <v>210</v>
       </c>
       <c r="N282" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O282" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P282" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22942,11 +22942,11 @@
       </c>
       <c r="R282" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S282" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="T282" t="n">
         <v>18</v>
@@ -23000,20 +23000,20 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>230</v>
+        <v>560</v>
       </c>
       <c r="N283" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O283" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P283" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T283" t="n">
         <v>18</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E284" t="n">
         <v>7</v>
@@ -23080,11 +23080,11 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N284" t="n">
         <v>9000</v>
@@ -23102,7 +23102,7 @@
       </c>
       <c r="R284" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S284" t="n">
@@ -23160,20 +23160,20 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N285" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O285" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P285" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T285" t="n">
         <v>18</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E286" t="n">
         <v>7</v>
@@ -23240,20 +23240,20 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N286" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O286" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P286" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23262,11 +23262,11 @@
       </c>
       <c r="R286" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S286" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T286" t="n">
         <v>18</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E287" t="n">
         <v>7</v>
@@ -23315,25 +23315,25 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="N287" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O287" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P287" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23342,11 +23342,11 @@
       </c>
       <c r="R287" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S287" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T287" t="n">
         <v>18</v>
@@ -23395,25 +23395,25 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M288" t="n">
         <v>260</v>
       </c>
       <c r="N288" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O288" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P288" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T288" t="n">
         <v>18</v>
@@ -23475,25 +23475,25 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N289" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O289" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P289" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23502,11 +23502,11 @@
       </c>
       <c r="R289" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S289" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T289" t="n">
         <v>18</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44376</v>
+        <v>44257</v>
       </c>
       <c r="E290" t="n">
         <v>7</v>
@@ -23555,7 +23555,7 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
@@ -23564,16 +23564,16 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N290" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O290" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P290" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T290" t="n">
         <v>18</v>
@@ -23635,25 +23635,25 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N291" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O291" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P291" t="n">
-        <v>9714</v>
+        <v>7000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>540</v>
+        <v>389</v>
       </c>
       <c r="T291" t="n">
         <v>18</v>
@@ -23720,20 +23720,20 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N292" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O292" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P292" t="n">
-        <v>8000</v>
+        <v>9714</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>444</v>
+        <v>540</v>
       </c>
       <c r="T292" t="n">
         <v>18</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E293" t="n">
         <v>7</v>
@@ -23795,16 +23795,16 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N293" t="n">
         <v>8000</v>
@@ -23875,7 +23875,7 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -23884,16 +23884,16 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N294" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O294" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P294" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T294" t="n">
         <v>18</v>
@@ -23960,20 +23960,20 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N295" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O295" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P295" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T295" t="n">
         <v>18</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E296" t="n">
         <v>7</v>
@@ -24035,7 +24035,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -24044,16 +24044,16 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="N296" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O296" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P296" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24062,11 +24062,11 @@
       </c>
       <c r="R296" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S296" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T296" t="n">
         <v>18</v>
@@ -24115,25 +24115,25 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="N297" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O297" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P297" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T297" t="n">
         <v>18</v>
@@ -24200,20 +24200,20 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="N298" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O298" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P298" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T298" t="n">
         <v>18</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E299" t="n">
         <v>7</v>
@@ -24275,25 +24275,25 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>110</v>
+        <v>360</v>
       </c>
       <c r="N299" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O299" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P299" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24302,11 +24302,11 @@
       </c>
       <c r="R299" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S299" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T299" t="n">
         <v>18</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E300" t="n">
         <v>7</v>
@@ -24355,25 +24355,25 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="N300" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O300" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P300" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T300" t="n">
         <v>18</v>
@@ -24435,25 +24435,25 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N301" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O301" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P301" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24462,11 +24462,11 @@
       </c>
       <c r="R301" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S301" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T301" t="n">
         <v>18</v>
@@ -24520,20 +24520,20 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N302" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O302" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P302" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T302" t="n">
         <v>18</v>
@@ -24567,68 +24567,148 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E303" t="n">
+        <v>7</v>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G303" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I303" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M303" t="n">
+        <v>210</v>
+      </c>
+      <c r="N303" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O303" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P303" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q303" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R303" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S303" t="n">
+        <v>444</v>
+      </c>
+      <c r="T303" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>5</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D304" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E303" t="n">
-        <v>7</v>
-      </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G303" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I303" t="n">
-        <v>100104005</v>
-      </c>
-      <c r="J303" t="inlineStr">
-        <is>
-          <t>Pera</t>
-        </is>
-      </c>
-      <c r="K303" t="inlineStr">
+      <c r="E304" t="n">
+        <v>7</v>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G304" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I304" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K304" t="inlineStr">
         <is>
           <t>Packham's Triumph</t>
         </is>
       </c>
-      <c r="L303" t="inlineStr">
+      <c r="L304" t="inlineStr">
         <is>
           <t>Especial</t>
         </is>
       </c>
-      <c r="M303" t="n">
+      <c r="M304" t="n">
         <v>300</v>
       </c>
-      <c r="N303" t="n">
+      <c r="N304" t="n">
         <v>10000</v>
       </c>
-      <c r="O303" t="n">
+      <c r="O304" t="n">
         <v>10000</v>
       </c>
-      <c r="P303" t="n">
+      <c r="P304" t="n">
         <v>10000</v>
       </c>
-      <c r="Q303" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos granel</t>
-        </is>
-      </c>
-      <c r="R303" t="inlineStr">
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R304" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S303" t="n">
+      <c r="S304" t="n">
         <v>556</v>
       </c>
-      <c r="T303" t="n">
+      <c r="T304" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T304"/>
+  <dimension ref="A1:T306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E218" t="n">
         <v>7</v>
@@ -17800,20 +17800,20 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N218" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O218" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P218" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T218" t="n">
         <v>18</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E219" t="n">
         <v>7</v>
@@ -17880,20 +17880,20 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N219" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O219" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P219" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T219" t="n">
         <v>18</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E220" t="n">
         <v>7</v>
@@ -17955,25 +17955,25 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N220" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O220" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P220" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17982,11 +17982,11 @@
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S220" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T220" t="n">
         <v>18</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E221" t="n">
         <v>7</v>
@@ -18035,7 +18035,7 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -18044,16 +18044,16 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="N221" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O221" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P221" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T221" t="n">
         <v>18</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E222" t="n">
         <v>7</v>
@@ -18115,7 +18115,7 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -18124,7 +18124,7 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="N222" t="n">
         <v>9000</v>
@@ -18142,7 +18142,7 @@
       </c>
       <c r="R222" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S222" t="n">
@@ -18195,25 +18195,25 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="N223" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O223" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P223" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T223" t="n">
         <v>18</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E224" t="n">
         <v>7</v>
@@ -18280,11 +18280,11 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M224" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N224" t="n">
         <v>9000</v>
@@ -18297,19 +18297,19 @@
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R224" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S224" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T224" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="225">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E225" t="n">
         <v>7</v>
@@ -18360,36 +18360,36 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N225" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O225" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P225" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R225" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S225" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T225" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="226">
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E226" t="n">
         <v>7</v>
@@ -18447,17 +18447,17 @@
         <v>200</v>
       </c>
       <c r="N226" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O226" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P226" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R226" t="inlineStr">
@@ -18466,10 +18466,10 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T226" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="227">
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E227" t="n">
         <v>7</v>
@@ -18520,24 +18520,24 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N227" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O227" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P227" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R227" t="inlineStr">
@@ -18546,10 +18546,10 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T227" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228">
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E228" t="n">
         <v>7</v>
@@ -18595,25 +18595,25 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M228" t="n">
         <v>200</v>
       </c>
       <c r="N228" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O228" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P228" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T228" t="n">
         <v>18</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E229" t="n">
         <v>7</v>
@@ -18687,13 +18687,13 @@
         <v>150</v>
       </c>
       <c r="N229" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O229" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P229" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T229" t="n">
         <v>18</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E230" t="n">
         <v>7</v>
@@ -18755,7 +18755,7 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
@@ -18764,7 +18764,7 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N230" t="n">
         <v>8000</v>
@@ -18782,7 +18782,7 @@
       </c>
       <c r="R230" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S230" t="n">
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E231" t="n">
         <v>7</v>
@@ -18840,20 +18840,20 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="N231" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O231" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P231" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18862,11 +18862,11 @@
       </c>
       <c r="R231" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S231" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T231" t="n">
         <v>18</v>
@@ -18915,7 +18915,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
@@ -18924,16 +18924,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="N232" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O232" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P232" t="n">
-        <v>9400</v>
+        <v>8000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>522</v>
+        <v>444</v>
       </c>
       <c r="T232" t="n">
         <v>18</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="E233" t="n">
         <v>7</v>
@@ -18995,25 +18995,25 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="N233" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O233" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P233" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19022,11 +19022,11 @@
       </c>
       <c r="R233" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S233" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T233" t="n">
         <v>18</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="E234" t="n">
         <v>7</v>
@@ -19075,7 +19075,7 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
@@ -19084,32 +19084,32 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="N234" t="n">
-        <v>130000</v>
+        <v>9000</v>
       </c>
       <c r="O234" t="n">
-        <v>130000</v>
+        <v>10000</v>
       </c>
       <c r="P234" t="n">
-        <v>130000</v>
+        <v>9400</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R234" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S234" t="n">
-        <v>289</v>
+        <v>522</v>
       </c>
       <c r="T234" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="235">
@@ -19155,7 +19155,7 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
@@ -19164,7 +19164,7 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N235" t="n">
         <v>8000</v>
@@ -19182,7 +19182,7 @@
       </c>
       <c r="R235" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S235" t="n">
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E236" t="n">
         <v>7</v>
@@ -19244,32 +19244,32 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="N236" t="n">
-        <v>8000</v>
+        <v>130000</v>
       </c>
       <c r="O236" t="n">
-        <v>8000</v>
+        <v>130000</v>
       </c>
       <c r="P236" t="n">
-        <v>8000</v>
+        <v>130000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R236" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S236" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T236" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="237">
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E237" t="n">
         <v>7</v>
@@ -19324,16 +19324,16 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N237" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O237" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P237" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T237" t="n">
         <v>18</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E238" t="n">
         <v>7</v>
@@ -19395,25 +19395,25 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N238" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O238" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P238" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T238" t="n">
         <v>18</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E239" t="n">
         <v>7</v>
@@ -19487,13 +19487,13 @@
         <v>300</v>
       </c>
       <c r="N239" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="O239" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="P239" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="T239" t="n">
         <v>18</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E240" t="n">
         <v>7</v>
@@ -19555,25 +19555,25 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="N240" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O240" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P240" t="n">
-        <v>7474</v>
+        <v>10000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>415</v>
+        <v>556</v>
       </c>
       <c r="T240" t="n">
         <v>18</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E241" t="n">
         <v>7</v>
@@ -19635,25 +19635,25 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N241" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="O241" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="P241" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>333</v>
+        <v>472</v>
       </c>
       <c r="T241" t="n">
         <v>18</v>
@@ -19715,25 +19715,25 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>260</v>
+        <v>380</v>
       </c>
       <c r="N242" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O242" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P242" t="n">
-        <v>10000</v>
+        <v>7474</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>556</v>
+        <v>415</v>
       </c>
       <c r="T242" t="n">
         <v>18</v>
@@ -19795,25 +19795,25 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N243" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O243" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P243" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="T243" t="n">
         <v>18</v>
@@ -19880,20 +19880,20 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N244" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O244" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P244" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T244" t="n">
         <v>18</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E245" t="n">
         <v>7</v>
@@ -19960,20 +19960,20 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N245" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O245" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P245" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19982,11 +19982,11 @@
       </c>
       <c r="R245" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S245" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T245" t="n">
         <v>18</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44243</v>
+        <v>44386</v>
       </c>
       <c r="E246" t="n">
         <v>7</v>
@@ -20035,25 +20035,25 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N246" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O246" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P246" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20062,11 +20062,11 @@
       </c>
       <c r="R246" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S246" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T246" t="n">
         <v>18</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44252</v>
+        <v>44463</v>
       </c>
       <c r="E247" t="n">
         <v>7</v>
@@ -20115,25 +20115,25 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N247" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O247" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P247" t="n">
-        <v>7370</v>
+        <v>12000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20142,11 +20142,11 @@
       </c>
       <c r="R247" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S247" t="n">
-        <v>409</v>
+        <v>667</v>
       </c>
       <c r="T247" t="n">
         <v>18</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44369</v>
+        <v>44243</v>
       </c>
       <c r="E248" t="n">
         <v>7</v>
@@ -20195,7 +20195,7 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -20204,16 +20204,16 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N248" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O248" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P248" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20222,11 +20222,11 @@
       </c>
       <c r="R248" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S248" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T248" t="n">
         <v>18</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44369</v>
+        <v>44252</v>
       </c>
       <c r="E249" t="n">
         <v>7</v>
@@ -20275,25 +20275,25 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="N249" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O249" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P249" t="n">
-        <v>9000</v>
+        <v>7370</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>500</v>
+        <v>409</v>
       </c>
       <c r="T249" t="n">
         <v>18</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E250" t="n">
         <v>7</v>
@@ -20355,25 +20355,25 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N250" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O250" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P250" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T250" t="n">
         <v>18</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E251" t="n">
         <v>7</v>
@@ -20440,20 +20440,20 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="N251" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O251" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P251" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T251" t="n">
         <v>18</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E252" t="n">
         <v>7</v>
@@ -20515,25 +20515,25 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N252" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O252" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P252" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T252" t="n">
         <v>18</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E253" t="n">
         <v>7</v>
@@ -20600,20 +20600,20 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N253" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O253" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P253" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20622,11 +20622,11 @@
       </c>
       <c r="R253" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S253" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T253" t="n">
         <v>18</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E254" t="n">
         <v>7</v>
@@ -20675,7 +20675,7 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N254" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O254" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P254" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20702,11 +20702,11 @@
       </c>
       <c r="R254" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S254" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T254" t="n">
         <v>18</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E255" t="n">
         <v>7</v>
@@ -20755,25 +20755,25 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N255" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O255" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P255" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20782,11 +20782,11 @@
       </c>
       <c r="R255" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S255" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T255" t="n">
         <v>18</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E256" t="n">
         <v>7</v>
@@ -20840,20 +20840,20 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N256" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O256" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P256" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20862,11 +20862,11 @@
       </c>
       <c r="R256" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S256" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T256" t="n">
         <v>18</v>
@@ -20915,7 +20915,7 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
@@ -20924,7 +20924,7 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="N257" t="n">
         <v>8000</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E258" t="n">
         <v>7</v>
@@ -20995,25 +20995,25 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N258" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O258" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P258" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21022,11 +21022,11 @@
       </c>
       <c r="R258" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S258" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T258" t="n">
         <v>18</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E259" t="n">
         <v>7</v>
@@ -21080,11 +21080,11 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N259" t="n">
         <v>8000</v>
@@ -21102,7 +21102,7 @@
       </c>
       <c r="R259" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S259" t="n">
@@ -21155,7 +21155,7 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
@@ -21164,7 +21164,7 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N260" t="n">
         <v>7000</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E261" t="n">
         <v>7</v>
@@ -21235,25 +21235,25 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N261" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O261" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P261" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21262,11 +21262,11 @@
       </c>
       <c r="R261" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S261" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T261" t="n">
         <v>18</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E262" t="n">
         <v>7</v>
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N262" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O262" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P262" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21342,11 +21342,11 @@
       </c>
       <c r="R262" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S262" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T262" t="n">
         <v>18</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E263" t="n">
         <v>7</v>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N263" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O263" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P263" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T263" t="n">
         <v>18</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E264" t="n">
         <v>7</v>
@@ -21475,7 +21475,7 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="N264" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O264" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P264" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T264" t="n">
         <v>18</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E265" t="n">
         <v>7</v>
@@ -21555,25 +21555,25 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="N265" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O265" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P265" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T265" t="n">
         <v>18</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E266" t="n">
         <v>7</v>
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N266" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O266" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P266" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T266" t="n">
         <v>18</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E267" t="n">
         <v>7</v>
@@ -21715,16 +21715,16 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="N267" t="n">
         <v>8000</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E268" t="n">
         <v>7</v>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
@@ -21804,16 +21804,16 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N268" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O268" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P268" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T268" t="n">
         <v>18</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E269" t="n">
         <v>7</v>
@@ -21875,25 +21875,25 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="N269" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O269" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P269" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T269" t="n">
         <v>18</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E270" t="n">
         <v>7</v>
@@ -21964,7 +21964,7 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="N270" t="n">
         <v>8000</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E271" t="n">
         <v>7</v>
@@ -22035,25 +22035,25 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N271" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O271" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P271" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T271" t="n">
         <v>18</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E272" t="n">
         <v>7</v>
@@ -22115,7 +22115,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -22124,7 +22124,7 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N272" t="n">
         <v>8000</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E273" t="n">
         <v>7</v>
@@ -22204,7 +22204,7 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N273" t="n">
         <v>7000</v>
@@ -22222,7 +22222,7 @@
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S273" t="n">
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44365</v>
+        <v>44286</v>
       </c>
       <c r="E274" t="n">
         <v>7</v>
@@ -22287,13 +22287,13 @@
         <v>200</v>
       </c>
       <c r="N274" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O274" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P274" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22302,11 +22302,11 @@
       </c>
       <c r="R274" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S274" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T274" t="n">
         <v>18</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E275" t="n">
         <v>7</v>
@@ -22355,25 +22355,25 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="N275" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O275" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P275" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22382,11 +22382,11 @@
       </c>
       <c r="R275" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S275" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T275" t="n">
         <v>18</v>
@@ -22435,7 +22435,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -22444,16 +22444,16 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N276" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O276" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P276" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22462,11 +22462,11 @@
       </c>
       <c r="R276" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S276" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T276" t="n">
         <v>18</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E277" t="n">
         <v>7</v>
@@ -22515,25 +22515,25 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N277" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O277" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P277" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22542,11 +22542,11 @@
       </c>
       <c r="R277" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S277" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T277" t="n">
         <v>18</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E278" t="n">
         <v>7</v>
@@ -22600,20 +22600,20 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="N278" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O278" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P278" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22622,11 +22622,11 @@
       </c>
       <c r="R278" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S278" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T278" t="n">
         <v>18</v>
@@ -22675,7 +22675,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N279" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O279" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P279" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T279" t="n">
         <v>18</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E280" t="n">
         <v>7</v>
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>360</v>
+        <v>210</v>
       </c>
       <c r="N280" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O280" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P280" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22782,11 +22782,11 @@
       </c>
       <c r="R280" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S280" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T280" t="n">
         <v>18</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E281" t="n">
         <v>7</v>
@@ -22847,13 +22847,13 @@
         <v>200</v>
       </c>
       <c r="N281" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O281" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P281" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22862,11 +22862,11 @@
       </c>
       <c r="R281" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S281" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T281" t="n">
         <v>18</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E282" t="n">
         <v>7</v>
@@ -22915,25 +22915,25 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="N282" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O282" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P282" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T282" t="n">
         <v>18</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E283" t="n">
         <v>7</v>
@@ -23000,20 +23000,20 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>560</v>
+        <v>200</v>
       </c>
       <c r="N283" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O283" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P283" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23022,11 +23022,11 @@
       </c>
       <c r="R283" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S283" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T283" t="n">
         <v>18</v>
@@ -23075,7 +23075,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -23084,16 +23084,16 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N284" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O284" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P284" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23102,11 +23102,11 @@
       </c>
       <c r="R284" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S284" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T284" t="n">
         <v>18</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E285" t="n">
         <v>7</v>
@@ -23164,16 +23164,16 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>250</v>
+        <v>560</v>
       </c>
       <c r="N285" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O285" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P285" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23182,11 +23182,11 @@
       </c>
       <c r="R285" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S285" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T285" t="n">
         <v>18</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E286" t="n">
         <v>7</v>
@@ -23240,20 +23240,20 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N286" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O286" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P286" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23262,11 +23262,11 @@
       </c>
       <c r="R286" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S286" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T286" t="n">
         <v>18</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E287" t="n">
         <v>7</v>
@@ -23324,16 +23324,16 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N287" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O287" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P287" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23342,11 +23342,11 @@
       </c>
       <c r="R287" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S287" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T287" t="n">
         <v>18</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E288" t="n">
         <v>7</v>
@@ -23395,25 +23395,25 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N288" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O288" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P288" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23422,11 +23422,11 @@
       </c>
       <c r="R288" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S288" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T288" t="n">
         <v>18</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E289" t="n">
         <v>7</v>
@@ -23475,25 +23475,25 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="N289" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O289" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P289" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23502,11 +23502,11 @@
       </c>
       <c r="R289" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S289" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T289" t="n">
         <v>18</v>
@@ -23555,7 +23555,7 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
@@ -23564,16 +23564,16 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N290" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O290" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P290" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23582,11 +23582,11 @@
       </c>
       <c r="R290" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S290" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T290" t="n">
         <v>18</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44376</v>
+        <v>44257</v>
       </c>
       <c r="E291" t="n">
         <v>7</v>
@@ -23635,16 +23635,16 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N291" t="n">
         <v>7000</v>
@@ -23662,7 +23662,7 @@
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S291" t="n">
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44376</v>
+        <v>44257</v>
       </c>
       <c r="E292" t="n">
         <v>7</v>
@@ -23720,20 +23720,20 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N292" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O292" t="n">
         <v>10000</v>
       </c>
       <c r="P292" t="n">
-        <v>9714</v>
+        <v>10000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="T292" t="n">
         <v>18</v>
@@ -23795,7 +23795,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -23804,16 +23804,16 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N293" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O293" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P293" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T293" t="n">
         <v>18</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E294" t="n">
         <v>7</v>
@@ -23875,7 +23875,7 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -23884,16 +23884,16 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="N294" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O294" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P294" t="n">
-        <v>8000</v>
+        <v>9714</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>444</v>
+        <v>540</v>
       </c>
       <c r="T294" t="n">
         <v>18</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E295" t="n">
         <v>7</v>
@@ -23960,20 +23960,20 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N295" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O295" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P295" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T295" t="n">
         <v>18</v>
@@ -24035,16 +24035,16 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="N296" t="n">
         <v>8000</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E297" t="n">
         <v>7</v>
@@ -24115,25 +24115,25 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N297" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O297" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P297" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24142,11 +24142,11 @@
       </c>
       <c r="R297" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S297" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T297" t="n">
         <v>18</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E298" t="n">
         <v>7</v>
@@ -24200,20 +24200,20 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N298" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O298" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P298" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24222,11 +24222,11 @@
       </c>
       <c r="R298" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S298" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T298" t="n">
         <v>18</v>
@@ -24275,7 +24275,7 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="N299" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O299" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P299" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T299" t="n">
         <v>18</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E300" t="n">
         <v>7</v>
@@ -24355,25 +24355,25 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="N300" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O300" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P300" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24382,11 +24382,11 @@
       </c>
       <c r="R300" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S300" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T300" t="n">
         <v>18</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E301" t="n">
         <v>7</v>
@@ -24435,7 +24435,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -24444,16 +24444,16 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="N301" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O301" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P301" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24462,11 +24462,11 @@
       </c>
       <c r="R301" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S301" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T301" t="n">
         <v>18</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E302" t="n">
         <v>7</v>
@@ -24515,25 +24515,25 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N302" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O302" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P302" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24542,11 +24542,11 @@
       </c>
       <c r="R302" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S302" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T302" t="n">
         <v>18</v>
@@ -24595,7 +24595,7 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
@@ -24607,13 +24607,13 @@
         <v>210</v>
       </c>
       <c r="N303" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O303" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P303" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24622,11 +24622,11 @@
       </c>
       <c r="R303" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S303" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T303" t="n">
         <v>18</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E304" t="n">
         <v>7</v>
@@ -24684,7 +24684,7 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N304" t="n">
         <v>10000</v>
@@ -24702,13 +24702,173 @@
       </c>
       <c r="R304" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S304" t="n">
         <v>556</v>
       </c>
       <c r="T304" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>5</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D305" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E305" t="n">
+        <v>7</v>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G305" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I305" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M305" t="n">
+        <v>210</v>
+      </c>
+      <c r="N305" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O305" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P305" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S305" t="n">
+        <v>444</v>
+      </c>
+      <c r="T305" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>5</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D306" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E306" t="n">
+        <v>7</v>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G306" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I306" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M306" t="n">
+        <v>300</v>
+      </c>
+      <c r="N306" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O306" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P306" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q306" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R306" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S306" t="n">
+        <v>556</v>
+      </c>
+      <c r="T306" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T306"/>
+  <dimension ref="A1:T308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E133" t="n">
         <v>7</v>
@@ -10995,25 +10995,25 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N133" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O133" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P133" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11022,11 +11022,11 @@
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S133" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T133" t="n">
         <v>18</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -11080,20 +11080,20 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N134" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O134" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P134" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11102,11 +11102,11 @@
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S134" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T134" t="n">
         <v>18</v>
@@ -11155,7 +11155,7 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -11164,16 +11164,16 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N135" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O135" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P135" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11182,11 +11182,11 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S135" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T135" t="n">
         <v>18</v>
@@ -11240,20 +11240,20 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N136" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O136" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P136" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T136" t="n">
         <v>18</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44434</v>
+        <v>44342</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -11315,7 +11315,7 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -11324,16 +11324,16 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N137" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O137" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P137" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11342,11 +11342,11 @@
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S137" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T137" t="n">
         <v>18</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44434</v>
+        <v>44342</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11400,20 +11400,20 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N138" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O138" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P138" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11422,11 +11422,11 @@
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S138" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T138" t="n">
         <v>18</v>
@@ -11475,7 +11475,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N139" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O139" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P139" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11502,11 +11502,11 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S139" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T139" t="n">
         <v>18</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11555,25 +11555,25 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="N140" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O140" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P140" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11582,11 +11582,11 @@
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S140" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T140" t="n">
         <v>18</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11644,16 +11644,16 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N141" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O141" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P141" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11662,11 +11662,11 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S141" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T141" t="n">
         <v>18</v>
@@ -11715,7 +11715,7 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -11724,16 +11724,16 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>220</v>
+        <v>360</v>
       </c>
       <c r="N142" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O142" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P142" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T142" t="n">
         <v>18</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11800,20 +11800,20 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="N143" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O143" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P143" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T143" t="n">
         <v>18</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11884,7 +11884,7 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N144" t="n">
         <v>9000</v>
@@ -11902,7 +11902,7 @@
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S144" t="n">
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -11955,7 +11955,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -11964,16 +11964,16 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="N145" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O145" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P145" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T145" t="n">
         <v>18</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E146" t="n">
         <v>7</v>
@@ -12035,7 +12035,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -12044,16 +12044,16 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N146" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O146" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P146" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T146" t="n">
         <v>18</v>
@@ -12115,16 +12115,16 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="N147" t="n">
         <v>9000</v>
@@ -12195,25 +12195,25 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="N148" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O148" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P148" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T148" t="n">
         <v>18</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12275,7 +12275,7 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -12284,16 +12284,16 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N149" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O149" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P149" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12302,11 +12302,11 @@
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S149" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T149" t="n">
         <v>18</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -12360,20 +12360,20 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="N150" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O150" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P150" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T150" t="n">
         <v>18</v>
@@ -12435,7 +12435,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -12444,7 +12444,7 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N151" t="n">
         <v>8000</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44383</v>
+        <v>44399</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -12515,25 +12515,25 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N152" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O152" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P152" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T152" t="n">
         <v>18</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44383</v>
+        <v>44399</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -12600,20 +12600,20 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="N153" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O153" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P153" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T153" t="n">
         <v>18</v>
@@ -12675,7 +12675,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -12684,16 +12684,16 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N154" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O154" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P154" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12702,11 +12702,11 @@
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S154" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T154" t="n">
         <v>18</v>
@@ -12760,20 +12760,20 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N155" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O155" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P155" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>278</v>
+        <v>556</v>
       </c>
       <c r="T155" t="n">
         <v>18</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
@@ -12840,11 +12840,11 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="N156" t="n">
         <v>9000</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12920,20 +12920,20 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="N157" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O157" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P157" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>444</v>
+        <v>278</v>
       </c>
       <c r="T157" t="n">
         <v>18</v>
@@ -13000,20 +13000,20 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="N158" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O158" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P158" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="T158" t="n">
         <v>18</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13080,20 +13080,20 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N159" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O159" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P159" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13102,11 +13102,11 @@
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S159" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T159" t="n">
         <v>18</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13160,20 +13160,20 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N160" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O160" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P160" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13182,11 +13182,11 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S160" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="T160" t="n">
         <v>18</v>
@@ -13240,20 +13240,20 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N161" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O161" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P161" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T161" t="n">
         <v>18</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
@@ -13320,20 +13320,20 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N162" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O162" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P162" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13342,11 +13342,11 @@
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S162" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T162" t="n">
         <v>18</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="E163" t="n">
         <v>7</v>
@@ -13400,20 +13400,20 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="N163" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O163" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P163" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13422,11 +13422,11 @@
       </c>
       <c r="R163" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S163" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T163" t="n">
         <v>18</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44336</v>
+        <v>44407</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
@@ -13475,25 +13475,25 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N164" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O164" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P164" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13502,11 +13502,11 @@
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S164" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T164" t="n">
         <v>18</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44336</v>
+        <v>44407</v>
       </c>
       <c r="E165" t="n">
         <v>7</v>
@@ -13560,20 +13560,20 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N165" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O165" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P165" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T165" t="n">
         <v>18</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -13644,7 +13644,7 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="N166" t="n">
         <v>7000</v>
@@ -13662,7 +13662,7 @@
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S166" t="n">
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E167" t="n">
         <v>7</v>
@@ -13724,7 +13724,7 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N167" t="n">
         <v>10000</v>
@@ -13795,7 +13795,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N168" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O168" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P168" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T168" t="n">
         <v>18</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44426</v>
+        <v>44341</v>
       </c>
       <c r="E169" t="n">
         <v>7</v>
@@ -13887,13 +13887,13 @@
         <v>200</v>
       </c>
       <c r="N169" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O169" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P169" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13902,11 +13902,11 @@
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S169" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T169" t="n">
         <v>18</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44426</v>
+        <v>44341</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -13964,16 +13964,16 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N170" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O170" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P170" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13982,11 +13982,11 @@
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S170" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T170" t="n">
         <v>18</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E171" t="n">
         <v>7</v>
@@ -14040,11 +14040,11 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="N171" t="n">
         <v>9000</v>
@@ -14062,7 +14062,7 @@
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S171" t="n">
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -14120,20 +14120,20 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N172" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O172" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P172" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14142,11 +14142,11 @@
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S172" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T172" t="n">
         <v>18</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44392</v>
+        <v>44328</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14200,20 +14200,20 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="N173" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O173" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P173" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T173" t="n">
         <v>18</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44392</v>
+        <v>44328</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14280,20 +14280,20 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N174" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="O174" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="P174" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>472</v>
+        <v>389</v>
       </c>
       <c r="T174" t="n">
         <v>18</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E175" t="n">
         <v>7</v>
@@ -14382,7 +14382,7 @@
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S175" t="n">
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E176" t="n">
         <v>7</v>
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N176" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="O176" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="P176" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14462,11 +14462,11 @@
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S176" t="n">
-        <v>389</v>
+        <v>472</v>
       </c>
       <c r="T176" t="n">
         <v>18</v>
@@ -14515,25 +14515,25 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N177" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O177" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P177" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T177" t="n">
         <v>18</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E178" t="n">
         <v>7</v>
@@ -14595,25 +14595,25 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N178" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O178" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P178" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14622,11 +14622,11 @@
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S178" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T178" t="n">
         <v>18</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -14675,7 +14675,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
@@ -14684,7 +14684,7 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N179" t="n">
         <v>8000</v>
@@ -14702,7 +14702,7 @@
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S179" t="n">
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E180" t="n">
         <v>7</v>
@@ -14755,25 +14755,25 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N180" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O180" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P180" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14782,11 +14782,11 @@
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S180" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T180" t="n">
         <v>18</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E181" t="n">
         <v>7</v>
@@ -14835,7 +14835,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -14844,7 +14844,7 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N181" t="n">
         <v>8000</v>
@@ -14862,7 +14862,7 @@
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S181" t="n">
@@ -14915,7 +14915,7 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -14924,16 +14924,16 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N182" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O182" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P182" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T182" t="n">
         <v>18</v>
@@ -14995,7 +14995,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -15004,16 +15004,16 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N183" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O183" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P183" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T183" t="n">
         <v>18</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44448</v>
+        <v>44309</v>
       </c>
       <c r="E184" t="n">
         <v>7</v>
@@ -15084,7 +15084,7 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N184" t="n">
         <v>10000</v>
@@ -15102,7 +15102,7 @@
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S184" t="n">
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44448</v>
+        <v>44309</v>
       </c>
       <c r="E185" t="n">
         <v>7</v>
@@ -15164,7 +15164,7 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N185" t="n">
         <v>9000</v>
@@ -15240,20 +15240,20 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="N186" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O186" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P186" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T186" t="n">
         <v>18</v>
@@ -15320,20 +15320,20 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="N187" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O187" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P187" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T187" t="n">
         <v>18</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44354</v>
+        <v>44448</v>
       </c>
       <c r="E188" t="n">
         <v>7</v>
@@ -15395,7 +15395,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -15404,16 +15404,16 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N188" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O188" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P188" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15422,11 +15422,11 @@
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S188" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T188" t="n">
         <v>18</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44354</v>
+        <v>44448</v>
       </c>
       <c r="E189" t="n">
         <v>7</v>
@@ -15480,20 +15480,20 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="N189" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O189" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P189" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T189" t="n">
         <v>18</v>
@@ -15555,7 +15555,7 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -15564,16 +15564,16 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="N190" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O190" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P190" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T190" t="n">
         <v>18</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E191" t="n">
         <v>7</v>
@@ -15644,7 +15644,7 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N191" t="n">
         <v>10000</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E192" t="n">
         <v>7</v>
@@ -15724,16 +15724,16 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="N192" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O192" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P192" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15742,11 +15742,11 @@
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S192" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T192" t="n">
         <v>18</v>
@@ -15800,20 +15800,20 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="N193" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O193" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P193" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T193" t="n">
         <v>18</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44285</v>
+        <v>44420</v>
       </c>
       <c r="E194" t="n">
         <v>7</v>
@@ -15880,20 +15880,20 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M194" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="N194" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O194" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P194" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T194" t="n">
         <v>18</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44210</v>
+        <v>44420</v>
       </c>
       <c r="E195" t="n">
         <v>7</v>
@@ -15955,29 +15955,29 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N195" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O195" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P195" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
@@ -15986,10 +15986,10 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T195" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="196">
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44344</v>
+        <v>44285</v>
       </c>
       <c r="E196" t="n">
         <v>7</v>
@@ -16035,25 +16035,25 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N196" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O196" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P196" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T196" t="n">
         <v>18</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E197" t="n">
         <v>7</v>
@@ -16115,12 +16115,12 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M197" t="n">
@@ -16137,7 +16137,7 @@
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R197" t="inlineStr">
@@ -16146,10 +16146,10 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T197" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198">
@@ -16195,25 +16195,25 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="N198" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O198" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P198" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="T198" t="n">
         <v>18</v>
@@ -16280,20 +16280,20 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N199" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O199" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P199" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T199" t="n">
         <v>18</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E200" t="n">
         <v>7</v>
@@ -16355,29 +16355,29 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N200" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O200" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P200" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R200" t="inlineStr">
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="T200" t="n">
         <v>18</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44266</v>
+        <v>44344</v>
       </c>
       <c r="E201" t="n">
         <v>7</v>
@@ -16440,20 +16440,20 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M201" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="N201" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O201" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P201" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T201" t="n">
         <v>18</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E202" t="n">
         <v>7</v>
@@ -16515,7 +16515,7 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
@@ -16524,7 +16524,7 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="N202" t="n">
         <v>8000</v>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R202" t="inlineStr">
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E203" t="n">
         <v>7</v>
@@ -16595,25 +16595,25 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M203" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N203" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O203" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P203" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16622,11 +16622,11 @@
       </c>
       <c r="R203" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S203" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T203" t="n">
         <v>18</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E204" t="n">
         <v>7</v>
@@ -16684,16 +16684,16 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>260</v>
+        <v>430</v>
       </c>
       <c r="N204" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O204" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P204" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16702,11 +16702,11 @@
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S204" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T204" t="n">
         <v>18</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44418</v>
+        <v>44350</v>
       </c>
       <c r="E205" t="n">
         <v>7</v>
@@ -16755,25 +16755,25 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N205" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O205" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P205" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16782,11 +16782,11 @@
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S205" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T205" t="n">
         <v>18</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44418</v>
+        <v>44350</v>
       </c>
       <c r="E206" t="n">
         <v>7</v>
@@ -16840,20 +16840,20 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N206" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O206" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P206" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T206" t="n">
         <v>18</v>
@@ -16920,20 +16920,20 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M207" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N207" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O207" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P207" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T207" t="n">
         <v>18</v>
@@ -17000,20 +17000,20 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N208" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O208" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P208" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T208" t="n">
         <v>18</v>
@@ -17080,20 +17080,20 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N209" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O209" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P209" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T209" t="n">
         <v>18</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E210" t="n">
         <v>7</v>
@@ -17155,7 +17155,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -17164,7 +17164,7 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N210" t="n">
         <v>8000</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E211" t="n">
         <v>7</v>
@@ -17240,20 +17240,20 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="N211" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O211" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P211" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17262,11 +17262,11 @@
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S211" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T211" t="n">
         <v>18</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E212" t="n">
         <v>7</v>
@@ -17315,7 +17315,7 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -17324,16 +17324,16 @@
         </is>
       </c>
       <c r="M212" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="N212" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O212" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P212" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17342,11 +17342,11 @@
       </c>
       <c r="R212" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S212" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T212" t="n">
         <v>18</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E213" t="n">
         <v>7</v>
@@ -17400,20 +17400,20 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N213" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O213" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P213" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17422,11 +17422,11 @@
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S213" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T213" t="n">
         <v>18</v>
@@ -17475,7 +17475,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -17484,16 +17484,16 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N214" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O214" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P214" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T214" t="n">
         <v>18</v>
@@ -17560,20 +17560,20 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="N215" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O215" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P215" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T215" t="n">
         <v>18</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E216" t="n">
         <v>7</v>
@@ -17640,20 +17640,20 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="N216" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O216" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P216" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T216" t="n">
         <v>18</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E217" t="n">
         <v>7</v>
@@ -17720,20 +17720,20 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="N217" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O217" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P217" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T217" t="n">
         <v>18</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44466</v>
+        <v>44427</v>
       </c>
       <c r="E218" t="n">
         <v>7</v>
@@ -17800,20 +17800,20 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="N218" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O218" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P218" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T218" t="n">
         <v>18</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44466</v>
+        <v>44427</v>
       </c>
       <c r="E219" t="n">
         <v>7</v>
@@ -17880,20 +17880,20 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N219" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O219" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P219" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T219" t="n">
         <v>18</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E220" t="n">
         <v>7</v>
@@ -17960,20 +17960,20 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N220" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O220" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P220" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T220" t="n">
         <v>18</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E221" t="n">
         <v>7</v>
@@ -18040,20 +18040,20 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N221" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O221" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P221" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T221" t="n">
         <v>18</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E222" t="n">
         <v>7</v>
@@ -18115,25 +18115,25 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N222" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O222" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P222" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18142,11 +18142,11 @@
       </c>
       <c r="R222" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S222" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T222" t="n">
         <v>18</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E223" t="n">
         <v>7</v>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -18204,16 +18204,16 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="N223" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O223" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P223" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T223" t="n">
         <v>18</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E224" t="n">
         <v>7</v>
@@ -18275,7 +18275,7 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
@@ -18284,7 +18284,7 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="N224" t="n">
         <v>9000</v>
@@ -18302,7 +18302,7 @@
       </c>
       <c r="R224" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S224" t="n">
@@ -18355,25 +18355,25 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="N225" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O225" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P225" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T225" t="n">
         <v>18</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E226" t="n">
         <v>7</v>
@@ -18440,11 +18440,11 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M226" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N226" t="n">
         <v>9000</v>
@@ -18457,19 +18457,19 @@
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R226" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S226" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T226" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="227">
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E227" t="n">
         <v>7</v>
@@ -18520,36 +18520,36 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N227" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O227" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P227" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R227" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S227" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T227" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="228">
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E228" t="n">
         <v>7</v>
@@ -18607,17 +18607,17 @@
         <v>200</v>
       </c>
       <c r="N228" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O228" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P228" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R228" t="inlineStr">
@@ -18626,10 +18626,10 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T228" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="229">
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E229" t="n">
         <v>7</v>
@@ -18680,24 +18680,24 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N229" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O229" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P229" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R229" t="inlineStr">
@@ -18706,10 +18706,10 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T229" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="230">
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E230" t="n">
         <v>7</v>
@@ -18755,25 +18755,25 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M230" t="n">
         <v>200</v>
       </c>
       <c r="N230" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O230" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P230" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T230" t="n">
         <v>18</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E231" t="n">
         <v>7</v>
@@ -18847,13 +18847,13 @@
         <v>150</v>
       </c>
       <c r="N231" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O231" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P231" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T231" t="n">
         <v>18</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E232" t="n">
         <v>7</v>
@@ -18915,7 +18915,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
@@ -18924,7 +18924,7 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N232" t="n">
         <v>8000</v>
@@ -18942,7 +18942,7 @@
       </c>
       <c r="R232" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S232" t="n">
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E233" t="n">
         <v>7</v>
@@ -19000,20 +19000,20 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="N233" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O233" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P233" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19022,11 +19022,11 @@
       </c>
       <c r="R233" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S233" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T233" t="n">
         <v>18</v>
@@ -19075,7 +19075,7 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
@@ -19084,16 +19084,16 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="N234" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O234" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P234" t="n">
-        <v>9400</v>
+        <v>8000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>522</v>
+        <v>444</v>
       </c>
       <c r="T234" t="n">
         <v>18</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="E235" t="n">
         <v>7</v>
@@ -19155,25 +19155,25 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="N235" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O235" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P235" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19182,11 +19182,11 @@
       </c>
       <c r="R235" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S235" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T235" t="n">
         <v>18</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="E236" t="n">
         <v>7</v>
@@ -19235,7 +19235,7 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
@@ -19244,32 +19244,32 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="N236" t="n">
-        <v>130000</v>
+        <v>9000</v>
       </c>
       <c r="O236" t="n">
-        <v>130000</v>
+        <v>10000</v>
       </c>
       <c r="P236" t="n">
-        <v>130000</v>
+        <v>9400</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R236" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S236" t="n">
-        <v>289</v>
+        <v>522</v>
       </c>
       <c r="T236" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="237">
@@ -19315,7 +19315,7 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
@@ -19324,7 +19324,7 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N237" t="n">
         <v>8000</v>
@@ -19342,7 +19342,7 @@
       </c>
       <c r="R237" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S237" t="n">
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E238" t="n">
         <v>7</v>
@@ -19404,32 +19404,32 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="N238" t="n">
-        <v>8000</v>
+        <v>130000</v>
       </c>
       <c r="O238" t="n">
-        <v>8000</v>
+        <v>130000</v>
       </c>
       <c r="P238" t="n">
-        <v>8000</v>
+        <v>130000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R238" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S238" t="n">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="T238" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="239">
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E239" t="n">
         <v>7</v>
@@ -19484,16 +19484,16 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N239" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O239" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P239" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T239" t="n">
         <v>18</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E240" t="n">
         <v>7</v>
@@ -19555,25 +19555,25 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N240" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O240" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P240" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T240" t="n">
         <v>18</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E241" t="n">
         <v>7</v>
@@ -19647,13 +19647,13 @@
         <v>300</v>
       </c>
       <c r="N241" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="O241" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="P241" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="T241" t="n">
         <v>18</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E242" t="n">
         <v>7</v>
@@ -19715,25 +19715,25 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="N242" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O242" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P242" t="n">
-        <v>7474</v>
+        <v>10000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>415</v>
+        <v>556</v>
       </c>
       <c r="T242" t="n">
         <v>18</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E243" t="n">
         <v>7</v>
@@ -19795,25 +19795,25 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N243" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="O243" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="P243" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>333</v>
+        <v>472</v>
       </c>
       <c r="T243" t="n">
         <v>18</v>
@@ -19875,25 +19875,25 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>260</v>
+        <v>380</v>
       </c>
       <c r="N244" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O244" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P244" t="n">
-        <v>10000</v>
+        <v>7474</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>556</v>
+        <v>415</v>
       </c>
       <c r="T244" t="n">
         <v>18</v>
@@ -19955,25 +19955,25 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N245" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O245" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P245" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="T245" t="n">
         <v>18</v>
@@ -20040,20 +20040,20 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N246" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O246" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P246" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T246" t="n">
         <v>18</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E247" t="n">
         <v>7</v>
@@ -20120,20 +20120,20 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N247" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O247" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P247" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20142,11 +20142,11 @@
       </c>
       <c r="R247" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S247" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T247" t="n">
         <v>18</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44243</v>
+        <v>44386</v>
       </c>
       <c r="E248" t="n">
         <v>7</v>
@@ -20195,25 +20195,25 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N248" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O248" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P248" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20222,11 +20222,11 @@
       </c>
       <c r="R248" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S248" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T248" t="n">
         <v>18</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44252</v>
+        <v>44463</v>
       </c>
       <c r="E249" t="n">
         <v>7</v>
@@ -20275,25 +20275,25 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N249" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O249" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P249" t="n">
-        <v>7370</v>
+        <v>12000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20302,11 +20302,11 @@
       </c>
       <c r="R249" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S249" t="n">
-        <v>409</v>
+        <v>667</v>
       </c>
       <c r="T249" t="n">
         <v>18</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44369</v>
+        <v>44243</v>
       </c>
       <c r="E250" t="n">
         <v>7</v>
@@ -20355,7 +20355,7 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
@@ -20364,16 +20364,16 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N250" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O250" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P250" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20382,11 +20382,11 @@
       </c>
       <c r="R250" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S250" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T250" t="n">
         <v>18</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44369</v>
+        <v>44252</v>
       </c>
       <c r="E251" t="n">
         <v>7</v>
@@ -20435,25 +20435,25 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="N251" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O251" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P251" t="n">
-        <v>9000</v>
+        <v>7370</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>500</v>
+        <v>409</v>
       </c>
       <c r="T251" t="n">
         <v>18</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E252" t="n">
         <v>7</v>
@@ -20515,25 +20515,25 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N252" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O252" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P252" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T252" t="n">
         <v>18</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E253" t="n">
         <v>7</v>
@@ -20600,20 +20600,20 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="N253" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O253" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P253" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T253" t="n">
         <v>18</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E254" t="n">
         <v>7</v>
@@ -20675,25 +20675,25 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N254" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O254" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P254" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T254" t="n">
         <v>18</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E255" t="n">
         <v>7</v>
@@ -20760,20 +20760,20 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N255" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O255" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P255" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20782,11 +20782,11 @@
       </c>
       <c r="R255" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S255" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T255" t="n">
         <v>18</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E256" t="n">
         <v>7</v>
@@ -20835,7 +20835,7 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
@@ -20844,16 +20844,16 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N256" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O256" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P256" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20862,11 +20862,11 @@
       </c>
       <c r="R256" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S256" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T256" t="n">
         <v>18</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E257" t="n">
         <v>7</v>
@@ -20915,25 +20915,25 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N257" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O257" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P257" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20942,11 +20942,11 @@
       </c>
       <c r="R257" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S257" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T257" t="n">
         <v>18</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E258" t="n">
         <v>7</v>
@@ -21000,20 +21000,20 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N258" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O258" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P258" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21022,11 +21022,11 @@
       </c>
       <c r="R258" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S258" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T258" t="n">
         <v>18</v>
@@ -21075,7 +21075,7 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
@@ -21084,7 +21084,7 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="N259" t="n">
         <v>8000</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E260" t="n">
         <v>7</v>
@@ -21155,25 +21155,25 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N260" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O260" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P260" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21182,11 +21182,11 @@
       </c>
       <c r="R260" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S260" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T260" t="n">
         <v>18</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E261" t="n">
         <v>7</v>
@@ -21240,11 +21240,11 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N261" t="n">
         <v>8000</v>
@@ -21262,7 +21262,7 @@
       </c>
       <c r="R261" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S261" t="n">
@@ -21315,7 +21315,7 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
@@ -21324,7 +21324,7 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N262" t="n">
         <v>7000</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E263" t="n">
         <v>7</v>
@@ -21395,25 +21395,25 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N263" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O263" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P263" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21422,11 +21422,11 @@
       </c>
       <c r="R263" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S263" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T263" t="n">
         <v>18</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E264" t="n">
         <v>7</v>
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N264" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O264" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P264" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21502,11 +21502,11 @@
       </c>
       <c r="R264" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S264" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T264" t="n">
         <v>18</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E265" t="n">
         <v>7</v>
@@ -21555,7 +21555,7 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
@@ -21564,16 +21564,16 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N265" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O265" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P265" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T265" t="n">
         <v>18</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E266" t="n">
         <v>7</v>
@@ -21635,7 +21635,7 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="N266" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O266" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P266" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T266" t="n">
         <v>18</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E267" t="n">
         <v>7</v>
@@ -21715,25 +21715,25 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="N267" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O267" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P267" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T267" t="n">
         <v>18</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E268" t="n">
         <v>7</v>
@@ -21804,16 +21804,16 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N268" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O268" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P268" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T268" t="n">
         <v>18</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E269" t="n">
         <v>7</v>
@@ -21875,16 +21875,16 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="N269" t="n">
         <v>8000</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E270" t="n">
         <v>7</v>
@@ -21955,7 +21955,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -21964,16 +21964,16 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N270" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O270" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P270" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T270" t="n">
         <v>18</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E271" t="n">
         <v>7</v>
@@ -22035,25 +22035,25 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="N271" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O271" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P271" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T271" t="n">
         <v>18</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E272" t="n">
         <v>7</v>
@@ -22124,7 +22124,7 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="N272" t="n">
         <v>8000</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E273" t="n">
         <v>7</v>
@@ -22195,25 +22195,25 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N273" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O273" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P273" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T273" t="n">
         <v>18</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E274" t="n">
         <v>7</v>
@@ -22275,7 +22275,7 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -22284,7 +22284,7 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N274" t="n">
         <v>8000</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E275" t="n">
         <v>7</v>
@@ -22364,7 +22364,7 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N275" t="n">
         <v>7000</v>
@@ -22382,7 +22382,7 @@
       </c>
       <c r="R275" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S275" t="n">
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44365</v>
+        <v>44286</v>
       </c>
       <c r="E276" t="n">
         <v>7</v>
@@ -22447,13 +22447,13 @@
         <v>200</v>
       </c>
       <c r="N276" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O276" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P276" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22462,11 +22462,11 @@
       </c>
       <c r="R276" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S276" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T276" t="n">
         <v>18</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E277" t="n">
         <v>7</v>
@@ -22515,25 +22515,25 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="N277" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O277" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P277" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22542,11 +22542,11 @@
       </c>
       <c r="R277" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S277" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T277" t="n">
         <v>18</v>
@@ -22595,7 +22595,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N278" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O278" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P278" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22622,11 +22622,11 @@
       </c>
       <c r="R278" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S278" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T278" t="n">
         <v>18</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E279" t="n">
         <v>7</v>
@@ -22675,25 +22675,25 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N279" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O279" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P279" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22702,11 +22702,11 @@
       </c>
       <c r="R279" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S279" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T279" t="n">
         <v>18</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E280" t="n">
         <v>7</v>
@@ -22760,20 +22760,20 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="N280" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O280" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P280" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22782,11 +22782,11 @@
       </c>
       <c r="R280" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S280" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T280" t="n">
         <v>18</v>
@@ -22835,7 +22835,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -22844,16 +22844,16 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N281" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O281" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P281" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T281" t="n">
         <v>18</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E282" t="n">
         <v>7</v>
@@ -22924,16 +22924,16 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>360</v>
+        <v>210</v>
       </c>
       <c r="N282" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O282" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P282" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22942,11 +22942,11 @@
       </c>
       <c r="R282" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S282" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T282" t="n">
         <v>18</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E283" t="n">
         <v>7</v>
@@ -23007,13 +23007,13 @@
         <v>200</v>
       </c>
       <c r="N283" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O283" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P283" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23022,11 +23022,11 @@
       </c>
       <c r="R283" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S283" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T283" t="n">
         <v>18</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E284" t="n">
         <v>7</v>
@@ -23075,25 +23075,25 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="N284" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O284" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P284" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T284" t="n">
         <v>18</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E285" t="n">
         <v>7</v>
@@ -23160,20 +23160,20 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>560</v>
+        <v>200</v>
       </c>
       <c r="N285" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O285" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P285" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23182,11 +23182,11 @@
       </c>
       <c r="R285" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S285" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T285" t="n">
         <v>18</v>
@@ -23235,7 +23235,7 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
@@ -23244,16 +23244,16 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N286" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O286" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P286" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23262,11 +23262,11 @@
       </c>
       <c r="R286" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S286" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T286" t="n">
         <v>18</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E287" t="n">
         <v>7</v>
@@ -23324,16 +23324,16 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>250</v>
+        <v>560</v>
       </c>
       <c r="N287" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O287" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P287" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23342,11 +23342,11 @@
       </c>
       <c r="R287" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S287" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T287" t="n">
         <v>18</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E288" t="n">
         <v>7</v>
@@ -23400,20 +23400,20 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N288" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O288" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P288" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23422,11 +23422,11 @@
       </c>
       <c r="R288" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S288" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T288" t="n">
         <v>18</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E289" t="n">
         <v>7</v>
@@ -23484,16 +23484,16 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N289" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O289" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P289" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23502,11 +23502,11 @@
       </c>
       <c r="R289" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S289" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T289" t="n">
         <v>18</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E290" t="n">
         <v>7</v>
@@ -23555,25 +23555,25 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N290" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O290" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P290" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23582,11 +23582,11 @@
       </c>
       <c r="R290" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S290" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T290" t="n">
         <v>18</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E291" t="n">
         <v>7</v>
@@ -23635,25 +23635,25 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="N291" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O291" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P291" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23662,11 +23662,11 @@
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S291" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T291" t="n">
         <v>18</v>
@@ -23715,7 +23715,7 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
@@ -23724,16 +23724,16 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N292" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O292" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P292" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23742,11 +23742,11 @@
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S292" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T292" t="n">
         <v>18</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44376</v>
+        <v>44257</v>
       </c>
       <c r="E293" t="n">
         <v>7</v>
@@ -23795,16 +23795,16 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N293" t="n">
         <v>7000</v>
@@ -23822,7 +23822,7 @@
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S293" t="n">
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44376</v>
+        <v>44257</v>
       </c>
       <c r="E294" t="n">
         <v>7</v>
@@ -23880,20 +23880,20 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N294" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O294" t="n">
         <v>10000</v>
       </c>
       <c r="P294" t="n">
-        <v>9714</v>
+        <v>10000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="T294" t="n">
         <v>18</v>
@@ -23955,7 +23955,7 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -23964,16 +23964,16 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N295" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O295" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P295" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T295" t="n">
         <v>18</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E296" t="n">
         <v>7</v>
@@ -24035,7 +24035,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -24044,16 +24044,16 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="N296" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O296" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P296" t="n">
-        <v>8000</v>
+        <v>9714</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>444</v>
+        <v>540</v>
       </c>
       <c r="T296" t="n">
         <v>18</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E297" t="n">
         <v>7</v>
@@ -24120,20 +24120,20 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N297" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O297" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P297" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T297" t="n">
         <v>18</v>
@@ -24195,16 +24195,16 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="N298" t="n">
         <v>8000</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E299" t="n">
         <v>7</v>
@@ -24275,25 +24275,25 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N299" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O299" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P299" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24302,11 +24302,11 @@
       </c>
       <c r="R299" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S299" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T299" t="n">
         <v>18</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E300" t="n">
         <v>7</v>
@@ -24360,20 +24360,20 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N300" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O300" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P300" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24382,11 +24382,11 @@
       </c>
       <c r="R300" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S300" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T300" t="n">
         <v>18</v>
@@ -24435,7 +24435,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -24444,16 +24444,16 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="N301" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O301" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P301" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T301" t="n">
         <v>18</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E302" t="n">
         <v>7</v>
@@ -24515,25 +24515,25 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="N302" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O302" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P302" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24542,11 +24542,11 @@
       </c>
       <c r="R302" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S302" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T302" t="n">
         <v>18</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E303" t="n">
         <v>7</v>
@@ -24595,7 +24595,7 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
@@ -24604,16 +24604,16 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="N303" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O303" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P303" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24622,11 +24622,11 @@
       </c>
       <c r="R303" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S303" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T303" t="n">
         <v>18</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E304" t="n">
         <v>7</v>
@@ -24675,25 +24675,25 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M304" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N304" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O304" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P304" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24702,11 +24702,11 @@
       </c>
       <c r="R304" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S304" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T304" t="n">
         <v>18</v>
@@ -24755,7 +24755,7 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
@@ -24767,13 +24767,13 @@
         <v>210</v>
       </c>
       <c r="N305" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O305" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P305" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24782,11 +24782,11 @@
       </c>
       <c r="R305" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S305" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T305" t="n">
         <v>18</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E306" t="n">
         <v>7</v>
@@ -24844,7 +24844,7 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N306" t="n">
         <v>10000</v>
@@ -24862,13 +24862,173 @@
       </c>
       <c r="R306" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S306" t="n">
         <v>556</v>
       </c>
       <c r="T306" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>5</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D307" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E307" t="n">
+        <v>7</v>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G307" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I307" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M307" t="n">
+        <v>210</v>
+      </c>
+      <c r="N307" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O307" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P307" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R307" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S307" t="n">
+        <v>444</v>
+      </c>
+      <c r="T307" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>5</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D308" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E308" t="n">
+        <v>7</v>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G308" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I308" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M308" t="n">
+        <v>300</v>
+      </c>
+      <c r="N308" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O308" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P308" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S308" t="n">
+        <v>556</v>
+      </c>
+      <c r="T308" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T308"/>
+  <dimension ref="A1:T313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E240" t="n">
         <v>7</v>
@@ -19564,16 +19564,16 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N240" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O240" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P240" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19582,11 +19582,11 @@
       </c>
       <c r="R240" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S240" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T240" t="n">
         <v>18</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E241" t="n">
         <v>7</v>
@@ -19635,7 +19635,7 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
@@ -19647,13 +19647,13 @@
         <v>300</v>
       </c>
       <c r="N241" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O241" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P241" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19662,11 +19662,11 @@
       </c>
       <c r="R241" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S241" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T241" t="n">
         <v>18</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E242" t="n">
         <v>7</v>
@@ -19724,7 +19724,7 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="N242" t="n">
         <v>10000</v>
@@ -19742,7 +19742,7 @@
       </c>
       <c r="R242" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S242" t="n">
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E243" t="n">
         <v>7</v>
@@ -19804,16 +19804,16 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N243" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="O243" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="P243" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19822,11 +19822,11 @@
       </c>
       <c r="R243" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S243" t="n">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="T243" t="n">
         <v>18</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E244" t="n">
         <v>7</v>
@@ -19875,7 +19875,7 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -19884,32 +19884,32 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>380</v>
+        <v>16</v>
       </c>
       <c r="N244" t="n">
-        <v>7000</v>
+        <v>200000</v>
       </c>
       <c r="O244" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="P244" t="n">
-        <v>7474</v>
+        <v>200000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R244" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S244" t="n">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="T244" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="245">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44386</v>
+        <v>44312</v>
       </c>
       <c r="E245" t="n">
         <v>7</v>
@@ -19960,20 +19960,20 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N245" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O245" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P245" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T245" t="n">
         <v>18</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44386</v>
+        <v>44312</v>
       </c>
       <c r="E246" t="n">
         <v>7</v>
@@ -20040,20 +20040,20 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N246" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O246" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P246" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T246" t="n">
         <v>18</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E247" t="n">
         <v>7</v>
@@ -20120,20 +20120,20 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="N247" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O247" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P247" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T247" t="n">
         <v>18</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E248" t="n">
         <v>7</v>
@@ -20200,20 +20200,20 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N248" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="O248" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="P248" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>389</v>
+        <v>472</v>
       </c>
       <c r="T248" t="n">
         <v>18</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E249" t="n">
         <v>7</v>
@@ -20275,25 +20275,25 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="N249" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O249" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P249" t="n">
-        <v>12000</v>
+        <v>7474</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20302,11 +20302,11 @@
       </c>
       <c r="R249" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S249" t="n">
-        <v>667</v>
+        <v>415</v>
       </c>
       <c r="T249" t="n">
         <v>18</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44243</v>
+        <v>44386</v>
       </c>
       <c r="E250" t="n">
         <v>7</v>
@@ -20355,25 +20355,25 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N250" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O250" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P250" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20382,11 +20382,11 @@
       </c>
       <c r="R250" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S250" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="T250" t="n">
         <v>18</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44252</v>
+        <v>44386</v>
       </c>
       <c r="E251" t="n">
         <v>7</v>
@@ -20435,25 +20435,25 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="N251" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O251" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P251" t="n">
-        <v>7370</v>
+        <v>10000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>409</v>
+        <v>556</v>
       </c>
       <c r="T251" t="n">
         <v>18</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44369</v>
+        <v>44386</v>
       </c>
       <c r="E252" t="n">
         <v>7</v>
@@ -20515,7 +20515,7 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
@@ -20524,16 +20524,16 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N252" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O252" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P252" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T252" t="n">
         <v>18</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44369</v>
+        <v>44386</v>
       </c>
       <c r="E253" t="n">
         <v>7</v>
@@ -20600,20 +20600,20 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="N253" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O253" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P253" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T253" t="n">
         <v>18</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44433</v>
+        <v>44463</v>
       </c>
       <c r="E254" t="n">
         <v>7</v>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N254" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O254" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P254" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20702,11 +20702,11 @@
       </c>
       <c r="R254" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S254" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T254" t="n">
         <v>18</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44433</v>
+        <v>44243</v>
       </c>
       <c r="E255" t="n">
         <v>7</v>
@@ -20755,7 +20755,7 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
@@ -20764,16 +20764,16 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="N255" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O255" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P255" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20782,11 +20782,11 @@
       </c>
       <c r="R255" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S255" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T255" t="n">
         <v>18</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44221</v>
+        <v>44252</v>
       </c>
       <c r="E256" t="n">
         <v>7</v>
@@ -20835,7 +20835,7 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
@@ -20844,16 +20844,16 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N256" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O256" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P256" t="n">
-        <v>9000</v>
+        <v>7370</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>500</v>
+        <v>409</v>
       </c>
       <c r="T256" t="n">
         <v>18</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E257" t="n">
         <v>7</v>
@@ -20915,25 +20915,25 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N257" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O257" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P257" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20942,11 +20942,11 @@
       </c>
       <c r="R257" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S257" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T257" t="n">
         <v>18</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E258" t="n">
         <v>7</v>
@@ -21000,20 +21000,20 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="N258" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O258" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P258" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21022,11 +21022,11 @@
       </c>
       <c r="R258" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S258" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T258" t="n">
         <v>18</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E259" t="n">
         <v>7</v>
@@ -21075,25 +21075,25 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="N259" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O259" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P259" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T259" t="n">
         <v>18</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E260" t="n">
         <v>7</v>
@@ -21160,20 +21160,20 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N260" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O260" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P260" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T260" t="n">
         <v>18</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E261" t="n">
         <v>7</v>
@@ -21235,7 +21235,7 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N261" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O261" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P261" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T261" t="n">
         <v>18</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E262" t="n">
         <v>7</v>
@@ -21315,25 +21315,25 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N262" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O262" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P262" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T262" t="n">
         <v>18</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E263" t="n">
         <v>7</v>
@@ -21400,11 +21400,11 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N263" t="n">
         <v>8000</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E264" t="n">
         <v>7</v>
@@ -21475,7 +21475,7 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N264" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O264" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P264" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21502,11 +21502,11 @@
       </c>
       <c r="R264" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S264" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T264" t="n">
         <v>18</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E265" t="n">
         <v>7</v>
@@ -21555,25 +21555,25 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M265" t="n">
         <v>200</v>
       </c>
       <c r="N265" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O265" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P265" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T265" t="n">
         <v>18</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E266" t="n">
         <v>7</v>
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N266" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O266" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P266" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T266" t="n">
         <v>18</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E267" t="n">
         <v>7</v>
@@ -21715,7 +21715,7 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -21724,16 +21724,16 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="N267" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O267" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P267" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21742,11 +21742,11 @@
       </c>
       <c r="R267" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S267" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T267" t="n">
         <v>18</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E268" t="n">
         <v>7</v>
@@ -21795,16 +21795,16 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N268" t="n">
         <v>8000</v>
@@ -21822,7 +21822,7 @@
       </c>
       <c r="R268" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S268" t="n">
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44291</v>
+        <v>44279</v>
       </c>
       <c r="E269" t="n">
         <v>7</v>
@@ -21875,25 +21875,25 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N269" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O269" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P269" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21902,11 +21902,11 @@
       </c>
       <c r="R269" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S269" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T269" t="n">
         <v>18</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44291</v>
+        <v>44397</v>
       </c>
       <c r="E270" t="n">
         <v>7</v>
@@ -21964,7 +21964,7 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N270" t="n">
         <v>7000</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E271" t="n">
         <v>7</v>
@@ -22035,7 +22035,7 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -22044,16 +22044,16 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="N271" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O271" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P271" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T271" t="n">
         <v>18</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E272" t="n">
         <v>7</v>
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="N272" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O272" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P272" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T272" t="n">
         <v>18</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44438</v>
+        <v>44277</v>
       </c>
       <c r="E273" t="n">
         <v>7</v>
@@ -22195,25 +22195,25 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N273" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O273" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P273" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T273" t="n">
         <v>18</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E274" t="n">
         <v>7</v>
@@ -22275,16 +22275,16 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="N274" t="n">
         <v>8000</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44286</v>
+        <v>44291</v>
       </c>
       <c r="E275" t="n">
         <v>7</v>
@@ -22364,7 +22364,7 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N275" t="n">
         <v>7000</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E276" t="n">
         <v>7</v>
@@ -22444,7 +22444,7 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="N276" t="n">
         <v>8000</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44356</v>
+        <v>44273</v>
       </c>
       <c r="E277" t="n">
         <v>7</v>
@@ -22515,7 +22515,7 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="N277" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O277" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P277" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22542,11 +22542,11 @@
       </c>
       <c r="R277" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S277" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T277" t="n">
         <v>18</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44365</v>
+        <v>44438</v>
       </c>
       <c r="E278" t="n">
         <v>7</v>
@@ -22595,25 +22595,25 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N278" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O278" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P278" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22622,11 +22622,11 @@
       </c>
       <c r="R278" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S278" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T278" t="n">
         <v>18</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44365</v>
+        <v>44438</v>
       </c>
       <c r="E279" t="n">
         <v>7</v>
@@ -22680,20 +22680,20 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="N279" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O279" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P279" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T279" t="n">
         <v>18</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44365</v>
+        <v>44286</v>
       </c>
       <c r="E280" t="n">
         <v>7</v>
@@ -22755,7 +22755,7 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N280" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O280" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P280" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T280" t="n">
         <v>18</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44306</v>
+        <v>44286</v>
       </c>
       <c r="E281" t="n">
         <v>7</v>
@@ -22835,7 +22835,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -22844,7 +22844,7 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N281" t="n">
         <v>8000</v>
@@ -22862,7 +22862,7 @@
       </c>
       <c r="R281" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S281" t="n">
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44306</v>
+        <v>44356</v>
       </c>
       <c r="E282" t="n">
         <v>7</v>
@@ -22915,25 +22915,25 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="N282" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O282" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P282" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T282" t="n">
         <v>18</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E283" t="n">
         <v>7</v>
@@ -22995,7 +22995,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -23007,13 +23007,13 @@
         <v>200</v>
       </c>
       <c r="N283" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O283" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P283" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T283" t="n">
         <v>18</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E284" t="n">
         <v>7</v>
@@ -23084,7 +23084,7 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="N284" t="n">
         <v>9000</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E285" t="n">
         <v>7</v>
@@ -23164,7 +23164,7 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N285" t="n">
         <v>8000</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E286" t="n">
         <v>7</v>
@@ -23244,16 +23244,16 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N286" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O286" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P286" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23262,11 +23262,11 @@
       </c>
       <c r="R286" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S286" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T286" t="n">
         <v>18</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E287" t="n">
         <v>7</v>
@@ -23324,16 +23324,16 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>560</v>
+        <v>210</v>
       </c>
       <c r="N287" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O287" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P287" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T287" t="n">
         <v>18</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E288" t="n">
         <v>7</v>
@@ -23404,7 +23404,7 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N288" t="n">
         <v>9000</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44410</v>
+        <v>44461</v>
       </c>
       <c r="E289" t="n">
         <v>7</v>
@@ -23484,7 +23484,7 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="N289" t="n">
         <v>9000</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44410</v>
+        <v>44461</v>
       </c>
       <c r="E290" t="n">
         <v>7</v>
@@ -23560,20 +23560,20 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M290" t="n">
         <v>200</v>
       </c>
       <c r="N290" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O290" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P290" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T290" t="n">
         <v>18</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E291" t="n">
         <v>7</v>
@@ -23635,25 +23635,25 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M291" t="n">
         <v>210</v>
       </c>
       <c r="N291" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O291" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P291" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23662,11 +23662,11 @@
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S291" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T291" t="n">
         <v>18</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44257</v>
+        <v>44357</v>
       </c>
       <c r="E292" t="n">
         <v>7</v>
@@ -23715,25 +23715,25 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>260</v>
+        <v>560</v>
       </c>
       <c r="N292" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O292" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P292" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="T292" t="n">
         <v>18</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44257</v>
+        <v>44357</v>
       </c>
       <c r="E293" t="n">
         <v>7</v>
@@ -23795,25 +23795,25 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N293" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O293" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P293" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T293" t="n">
         <v>18</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E294" t="n">
         <v>7</v>
@@ -23880,20 +23880,20 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N294" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O294" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P294" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T294" t="n">
         <v>18</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44376</v>
+        <v>44410</v>
       </c>
       <c r="E295" t="n">
         <v>7</v>
@@ -23955,16 +23955,16 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N295" t="n">
         <v>7000</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E296" t="n">
         <v>7</v>
@@ -24044,16 +24044,16 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>350</v>
+        <v>210</v>
       </c>
       <c r="N296" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O296" t="n">
         <v>10000</v>
       </c>
       <c r="P296" t="n">
-        <v>9714</v>
+        <v>10000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24062,11 +24062,11 @@
       </c>
       <c r="R296" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S296" t="n">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="T296" t="n">
         <v>18</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44376</v>
+        <v>44257</v>
       </c>
       <c r="E297" t="n">
         <v>7</v>
@@ -24115,7 +24115,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N297" t="n">
         <v>8000</v>
@@ -24142,7 +24142,7 @@
       </c>
       <c r="R297" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S297" t="n">
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44292</v>
+        <v>44257</v>
       </c>
       <c r="E298" t="n">
         <v>7</v>
@@ -24195,25 +24195,25 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="N298" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O298" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P298" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24222,11 +24222,11 @@
       </c>
       <c r="R298" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S298" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T298" t="n">
         <v>18</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44292</v>
+        <v>44257</v>
       </c>
       <c r="E299" t="n">
         <v>7</v>
@@ -24280,11 +24280,11 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N299" t="n">
         <v>10000</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E300" t="n">
         <v>7</v>
@@ -24355,7 +24355,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N300" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O300" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P300" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T300" t="n">
         <v>18</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E301" t="n">
         <v>7</v>
@@ -24435,25 +24435,25 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="N301" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O301" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P301" t="n">
-        <v>7000</v>
+        <v>9714</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24462,11 +24462,11 @@
       </c>
       <c r="R301" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S301" t="n">
-        <v>389</v>
+        <v>540</v>
       </c>
       <c r="T301" t="n">
         <v>18</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E302" t="n">
         <v>7</v>
@@ -24520,20 +24520,20 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N302" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O302" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P302" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24542,11 +24542,11 @@
       </c>
       <c r="R302" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S302" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T302" t="n">
         <v>18</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E303" t="n">
         <v>7</v>
@@ -24595,25 +24595,25 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>360</v>
+        <v>220</v>
       </c>
       <c r="N303" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O303" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P303" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24622,11 +24622,11 @@
       </c>
       <c r="R303" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S303" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T303" t="n">
         <v>18</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E304" t="n">
         <v>7</v>
@@ -24675,25 +24675,25 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M304" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="N304" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O304" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P304" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T304" t="n">
         <v>18</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44425</v>
+        <v>44292</v>
       </c>
       <c r="E305" t="n">
         <v>7</v>
@@ -24755,7 +24755,7 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
@@ -24767,13 +24767,13 @@
         <v>210</v>
       </c>
       <c r="N305" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O305" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P305" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T305" t="n">
         <v>18</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E306" t="n">
         <v>7</v>
@@ -24835,25 +24835,25 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N306" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O306" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P306" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T306" t="n">
         <v>18</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E307" t="n">
         <v>7</v>
@@ -24920,20 +24920,20 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="N307" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O307" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P307" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T307" t="n">
         <v>18</v>
@@ -24967,68 +24967,468 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E308" t="n">
+        <v>7</v>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G308" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I308" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M308" t="n">
+        <v>360</v>
+      </c>
+      <c r="N308" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O308" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P308" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S308" t="n">
+        <v>500</v>
+      </c>
+      <c r="T308" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>5</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D309" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E309" t="n">
+        <v>7</v>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G309" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I309" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>Carmen</t>
+        </is>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M309" t="n">
+        <v>110</v>
+      </c>
+      <c r="N309" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O309" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P309" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q309" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R309" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S309" t="n">
+        <v>444</v>
+      </c>
+      <c r="T309" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>5</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D310" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E310" t="n">
+        <v>7</v>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G310" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I310" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>Abate Fettel</t>
+        </is>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M310" t="n">
+        <v>210</v>
+      </c>
+      <c r="N310" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O310" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P310" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R310" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S310" t="n">
+        <v>389</v>
+      </c>
+      <c r="T310" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>5</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D311" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E311" t="n">
+        <v>7</v>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G311" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M311" t="n">
+        <v>200</v>
+      </c>
+      <c r="N311" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O311" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P311" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R311" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S311" t="n">
+        <v>556</v>
+      </c>
+      <c r="T311" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>5</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D312" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E312" t="n">
+        <v>7</v>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G312" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I312" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M312" t="n">
+        <v>210</v>
+      </c>
+      <c r="N312" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O312" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P312" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R312" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S312" t="n">
+        <v>444</v>
+      </c>
+      <c r="T312" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>5</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D313" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E308" t="n">
-        <v>7</v>
-      </c>
-      <c r="F308" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G308" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I308" t="n">
-        <v>100104005</v>
-      </c>
-      <c r="J308" t="inlineStr">
-        <is>
-          <t>Pera</t>
-        </is>
-      </c>
-      <c r="K308" t="inlineStr">
+      <c r="E313" t="n">
+        <v>7</v>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G313" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
         <is>
           <t>Packham's Triumph</t>
         </is>
       </c>
-      <c r="L308" t="inlineStr">
+      <c r="L313" t="inlineStr">
         <is>
           <t>Especial</t>
         </is>
       </c>
-      <c r="M308" t="n">
+      <c r="M313" t="n">
         <v>300</v>
       </c>
-      <c r="N308" t="n">
+      <c r="N313" t="n">
         <v>10000</v>
       </c>
-      <c r="O308" t="n">
+      <c r="O313" t="n">
         <v>10000</v>
       </c>
-      <c r="P308" t="n">
+      <c r="P313" t="n">
         <v>10000</v>
       </c>
-      <c r="Q308" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos granel</t>
-        </is>
-      </c>
-      <c r="R308" t="inlineStr">
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R313" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S308" t="n">
+      <c r="S313" t="n">
         <v>556</v>
       </c>
-      <c r="T308" t="n">
+      <c r="T313" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T313"/>
+  <dimension ref="A1:T317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44299</v>
+        <v>44469</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -9155,16 +9155,16 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N110" t="n">
         <v>9000</v>
@@ -9182,7 +9182,7 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S110" t="n">
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44320</v>
+        <v>44469</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -9235,25 +9235,25 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="N111" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O111" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P111" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9262,11 +9262,11 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T111" t="n">
         <v>18</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44320</v>
+        <v>44469</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -9324,16 +9324,16 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N112" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O112" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P112" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T112" t="n">
         <v>18</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44320</v>
+        <v>44469</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -9404,16 +9404,16 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N113" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O113" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P113" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T113" t="n">
         <v>18</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44385</v>
+        <v>44299</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -9480,20 +9480,20 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N114" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O114" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P114" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9502,11 +9502,11 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T114" t="n">
         <v>18</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44385</v>
+        <v>44320</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -9555,25 +9555,25 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>350</v>
+        <v>210</v>
       </c>
       <c r="N115" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O115" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P115" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9582,11 +9582,11 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="T115" t="n">
         <v>18</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44284</v>
+        <v>44320</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N116" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O116" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P116" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9662,11 +9662,11 @@
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S116" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T116" t="n">
         <v>18</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44391</v>
+        <v>44320</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -9720,20 +9720,20 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N117" t="n">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="O117" t="n">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="P117" t="n">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9742,11 +9742,11 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S117" t="n">
-        <v>56</v>
+        <v>500</v>
       </c>
       <c r="T117" t="n">
         <v>18</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -9800,20 +9800,20 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N118" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O118" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P118" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9822,11 +9822,11 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S118" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T118" t="n">
         <v>18</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44417</v>
+        <v>44385</v>
       </c>
       <c r="E119" t="n">
         <v>7</v>
@@ -9875,7 +9875,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -9884,16 +9884,16 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N119" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O119" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P119" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9902,11 +9902,11 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S119" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T119" t="n">
         <v>18</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44340</v>
+        <v>44284</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -9964,16 +9964,16 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="N120" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O120" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P120" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T120" t="n">
         <v>18</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44340</v>
+        <v>44391</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N121" t="n">
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="O121" t="n">
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="P121" t="n">
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>500</v>
+        <v>56</v>
       </c>
       <c r="T121" t="n">
         <v>18</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44229</v>
+        <v>44391</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -10115,7 +10115,7 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -10124,32 +10124,32 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N122" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O122" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P122" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S122" t="n">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="T122" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123">
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44253</v>
+        <v>44417</v>
       </c>
       <c r="E123" t="n">
         <v>7</v>
@@ -10204,16 +10204,16 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N123" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O123" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P123" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T123" t="n">
         <v>18</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44253</v>
+        <v>44340</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -10275,25 +10275,25 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="N124" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O124" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P124" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T124" t="n">
         <v>18</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44253</v>
+        <v>44340</v>
       </c>
       <c r="E125" t="n">
         <v>7</v>
@@ -10355,25 +10355,25 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N125" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O125" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P125" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="T125" t="n">
         <v>18</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44334</v>
+        <v>44229</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -10435,7 +10435,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -10444,20 +10444,20 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>540</v>
+        <v>210</v>
       </c>
       <c r="N126" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O126" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P126" t="n">
-        <v>9481</v>
+        <v>8000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -10466,10 +10466,10 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="T126" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127">
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44419</v>
+        <v>44253</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -10515,7 +10515,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -10524,7 +10524,7 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N127" t="n">
         <v>8000</v>
@@ -10542,7 +10542,7 @@
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S127" t="n">
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44419</v>
+        <v>44253</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -10595,25 +10595,25 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N128" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O128" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P128" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10622,11 +10622,11 @@
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S128" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T128" t="n">
         <v>18</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44419</v>
+        <v>44253</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
@@ -10675,25 +10675,25 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="N129" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O129" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P129" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10702,11 +10702,11 @@
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S129" t="n">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="T129" t="n">
         <v>18</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44250</v>
+        <v>44334</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -10764,16 +10764,16 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>130</v>
+        <v>540</v>
       </c>
       <c r="N130" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O130" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P130" t="n">
-        <v>8000</v>
+        <v>9481</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>444</v>
+        <v>527</v>
       </c>
       <c r="T130" t="n">
         <v>18</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44281</v>
+        <v>44419</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
@@ -10835,25 +10835,25 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="N131" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O131" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P131" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10862,11 +10862,11 @@
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S131" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T131" t="n">
         <v>18</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44281</v>
+        <v>44419</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
@@ -10920,20 +10920,20 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N132" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O132" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P132" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10942,11 +10942,11 @@
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S132" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T132" t="n">
         <v>18</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44467</v>
+        <v>44419</v>
       </c>
       <c r="E133" t="n">
         <v>7</v>
@@ -11000,20 +11000,20 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="N133" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O133" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P133" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11022,11 +11022,11 @@
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S133" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T133" t="n">
         <v>18</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44467</v>
+        <v>44250</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -11075,7 +11075,7 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -11084,7 +11084,7 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="N134" t="n">
         <v>8000</v>
@@ -11102,7 +11102,7 @@
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S134" t="n">
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44342</v>
+        <v>44281</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11155,25 +11155,25 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="N135" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O135" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P135" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T135" t="n">
         <v>18</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44342</v>
+        <v>44281</v>
       </c>
       <c r="E136" t="n">
         <v>7</v>
@@ -11240,20 +11240,20 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="N136" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O136" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P136" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11262,11 +11262,11 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S136" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T136" t="n">
         <v>18</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -11320,20 +11320,20 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="N137" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O137" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P137" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11342,11 +11342,11 @@
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S137" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T137" t="n">
         <v>18</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11400,11 +11400,11 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N138" t="n">
         <v>8000</v>
@@ -11422,7 +11422,7 @@
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S138" t="n">
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44434</v>
+        <v>44342</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
@@ -11484,7 +11484,7 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N139" t="n">
         <v>7000</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44434</v>
+        <v>44342</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11564,16 +11564,16 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N140" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O140" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P140" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11582,11 +11582,11 @@
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S140" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T140" t="n">
         <v>18</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44434</v>
+        <v>44342</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11644,16 +11644,16 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N141" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O141" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P141" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T141" t="n">
         <v>18</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44327</v>
+        <v>44342</v>
       </c>
       <c r="E142" t="n">
         <v>7</v>
@@ -11715,25 +11715,25 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="N142" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O142" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P142" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T142" t="n">
         <v>18</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11795,7 +11795,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -11804,16 +11804,16 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N143" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O143" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P143" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T143" t="n">
         <v>18</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11880,11 +11880,11 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N144" t="n">
         <v>9000</v>
@@ -11902,7 +11902,7 @@
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S144" t="n">
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44321</v>
+        <v>44434</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -11960,20 +11960,20 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N145" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O145" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P145" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11982,11 +11982,11 @@
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S145" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T145" t="n">
         <v>18</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E146" t="n">
         <v>7</v>
@@ -12035,7 +12035,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -12044,16 +12044,16 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="N146" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O146" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P146" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12062,11 +12062,11 @@
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S146" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T146" t="n">
         <v>18</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44300</v>
+        <v>44327</v>
       </c>
       <c r="E147" t="n">
         <v>7</v>
@@ -12115,16 +12115,16 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="N147" t="n">
         <v>9000</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44300</v>
+        <v>44327</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12195,7 +12195,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -12204,16 +12204,16 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N148" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O148" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P148" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12222,11 +12222,11 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S148" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T148" t="n">
         <v>18</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12280,20 +12280,20 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="N149" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O149" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P149" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T149" t="n">
         <v>18</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -12360,20 +12360,20 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="N150" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O150" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P150" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T150" t="n">
         <v>18</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -12435,25 +12435,25 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="N151" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O151" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P151" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12462,11 +12462,11 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S151" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T151" t="n">
         <v>18</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -12515,25 +12515,25 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="N152" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O152" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P152" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T152" t="n">
         <v>18</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -12604,16 +12604,16 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="N153" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O153" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P153" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12622,11 +12622,11 @@
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S153" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T153" t="n">
         <v>18</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44383</v>
+        <v>44300</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -12675,16 +12675,16 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="N154" t="n">
         <v>7000</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44383</v>
+        <v>44399</v>
       </c>
       <c r="E155" t="n">
         <v>7</v>
@@ -12755,25 +12755,25 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N155" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O155" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P155" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T155" t="n">
         <v>18</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44383</v>
+        <v>44399</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
@@ -12840,20 +12840,20 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="N156" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O156" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P156" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12862,11 +12862,11 @@
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S156" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T156" t="n">
         <v>18</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44383</v>
+        <v>44399</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12920,20 +12920,20 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N157" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O157" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P157" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>278</v>
+        <v>444</v>
       </c>
       <c r="T157" t="n">
         <v>18</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -12995,25 +12995,25 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N158" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O158" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P158" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13022,11 +13022,11 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S158" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T158" t="n">
         <v>18</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13080,20 +13080,20 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="N159" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O159" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P159" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T159" t="n">
         <v>18</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13160,20 +13160,20 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N160" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O160" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P160" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="T160" t="n">
         <v>18</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44405</v>
+        <v>44383</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -13240,20 +13240,20 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N161" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O161" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P161" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13262,11 +13262,11 @@
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S161" t="n">
-        <v>556</v>
+        <v>278</v>
       </c>
       <c r="T161" t="n">
         <v>18</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
@@ -13320,11 +13320,11 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="N162" t="n">
         <v>9000</v>
@@ -13342,7 +13342,7 @@
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S162" t="n">
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E163" t="n">
         <v>7</v>
@@ -13400,20 +13400,20 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="N163" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O163" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P163" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13422,11 +13422,11 @@
       </c>
       <c r="R163" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S163" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T163" t="n">
         <v>18</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44407</v>
+        <v>44441</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
@@ -13480,20 +13480,20 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N164" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O164" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P164" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="T164" t="n">
         <v>18</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="E165" t="n">
         <v>7</v>
@@ -13560,20 +13560,20 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N165" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O165" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P165" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13582,11 +13582,11 @@
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S165" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T165" t="n">
         <v>18</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44336</v>
+        <v>44405</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -13635,7 +13635,7 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -13644,16 +13644,16 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="N166" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O166" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P166" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T166" t="n">
         <v>18</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44336</v>
+        <v>44405</v>
       </c>
       <c r="E167" t="n">
         <v>7</v>
@@ -13720,20 +13720,20 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N167" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O167" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P167" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13742,11 +13742,11 @@
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S167" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T167" t="n">
         <v>18</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44341</v>
+        <v>44407</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -13795,25 +13795,25 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N168" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O168" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P168" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T168" t="n">
         <v>18</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44341</v>
+        <v>44407</v>
       </c>
       <c r="E169" t="n">
         <v>7</v>
@@ -13880,20 +13880,20 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N169" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O169" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P169" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T169" t="n">
         <v>18</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -13955,7 +13955,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -13964,16 +13964,16 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N170" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O170" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P170" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13982,11 +13982,11 @@
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S170" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T170" t="n">
         <v>18</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44426</v>
+        <v>44336</v>
       </c>
       <c r="E171" t="n">
         <v>7</v>
@@ -14044,16 +14044,16 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N171" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O171" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P171" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14062,11 +14062,11 @@
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S171" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T171" t="n">
         <v>18</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44426</v>
+        <v>44341</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -14115,7 +14115,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -14124,16 +14124,16 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N172" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O172" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P172" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14142,11 +14142,11 @@
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S172" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T172" t="n">
         <v>18</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44328</v>
+        <v>44341</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14200,20 +14200,20 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="N173" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O173" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P173" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T173" t="n">
         <v>18</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44328</v>
+        <v>44341</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14280,20 +14280,20 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N174" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O174" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P174" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T174" t="n">
         <v>18</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44392</v>
+        <v>44426</v>
       </c>
       <c r="E175" t="n">
         <v>7</v>
@@ -14364,16 +14364,16 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N175" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O175" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P175" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14382,11 +14382,11 @@
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S175" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T175" t="n">
         <v>18</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44392</v>
+        <v>44426</v>
       </c>
       <c r="E176" t="n">
         <v>7</v>
@@ -14444,16 +14444,16 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N176" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="O176" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="P176" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14462,11 +14462,11 @@
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S176" t="n">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="T176" t="n">
         <v>18</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44442</v>
+        <v>44328</v>
       </c>
       <c r="E177" t="n">
         <v>7</v>
@@ -14520,20 +14520,20 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="N177" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O177" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P177" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14542,11 +14542,11 @@
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S177" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T177" t="n">
         <v>18</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44442</v>
+        <v>44328</v>
       </c>
       <c r="E178" t="n">
         <v>7</v>
@@ -14604,7 +14604,7 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N178" t="n">
         <v>7000</v>
@@ -14622,7 +14622,7 @@
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S178" t="n">
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -14675,25 +14675,25 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N179" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O179" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P179" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14702,11 +14702,11 @@
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S179" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T179" t="n">
         <v>18</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44453</v>
+        <v>44392</v>
       </c>
       <c r="E180" t="n">
         <v>7</v>
@@ -14755,7 +14755,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
@@ -14764,16 +14764,16 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N180" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O180" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="P180" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="T180" t="n">
         <v>18</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E181" t="n">
         <v>7</v>
@@ -14840,20 +14840,20 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N181" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O181" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P181" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14862,11 +14862,11 @@
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S181" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T181" t="n">
         <v>18</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44309</v>
+        <v>44442</v>
       </c>
       <c r="E182" t="n">
         <v>7</v>
@@ -14915,25 +14915,25 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="N182" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O182" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P182" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T182" t="n">
         <v>18</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44309</v>
+        <v>44442</v>
       </c>
       <c r="E183" t="n">
         <v>7</v>
@@ -14995,7 +14995,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E184" t="n">
         <v>7</v>
@@ -15075,25 +15075,25 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N184" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O184" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P184" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15102,11 +15102,11 @@
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S184" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T184" t="n">
         <v>18</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E185" t="n">
         <v>7</v>
@@ -15164,16 +15164,16 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="N185" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O185" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P185" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15182,11 +15182,11 @@
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S185" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T185" t="n">
         <v>18</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44448</v>
+        <v>44309</v>
       </c>
       <c r="E186" t="n">
         <v>7</v>
@@ -15235,7 +15235,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -15244,16 +15244,16 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="N186" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O186" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P186" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15262,11 +15262,11 @@
       </c>
       <c r="R186" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S186" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T186" t="n">
         <v>18</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44448</v>
+        <v>44309</v>
       </c>
       <c r="E187" t="n">
         <v>7</v>
@@ -15315,7 +15315,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -15324,16 +15324,16 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N187" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O187" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P187" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T187" t="n">
         <v>18</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44448</v>
+        <v>44309</v>
       </c>
       <c r="E188" t="n">
         <v>7</v>
@@ -15400,20 +15400,20 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N188" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O188" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P188" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15422,11 +15422,11 @@
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S188" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T188" t="n">
         <v>18</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44448</v>
+        <v>44309</v>
       </c>
       <c r="E189" t="n">
         <v>7</v>
@@ -15480,20 +15480,20 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="N189" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O189" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P189" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T189" t="n">
         <v>18</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44354</v>
+        <v>44448</v>
       </c>
       <c r="E190" t="n">
         <v>7</v>
@@ -15555,25 +15555,25 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N190" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O190" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P190" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15582,11 +15582,11 @@
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S190" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T190" t="n">
         <v>18</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44354</v>
+        <v>44448</v>
       </c>
       <c r="E191" t="n">
         <v>7</v>
@@ -15640,20 +15640,20 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M191" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N191" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O191" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P191" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T191" t="n">
         <v>18</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44354</v>
+        <v>44448</v>
       </c>
       <c r="E192" t="n">
         <v>7</v>
@@ -15724,16 +15724,16 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="N192" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O192" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P192" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15742,11 +15742,11 @@
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S192" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T192" t="n">
         <v>18</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E193" t="n">
         <v>7</v>
@@ -15800,20 +15800,20 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="N193" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O193" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P193" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T193" t="n">
         <v>18</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E194" t="n">
         <v>7</v>
@@ -15875,7 +15875,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
@@ -15884,16 +15884,16 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="N194" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O194" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P194" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15902,11 +15902,11 @@
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S194" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T194" t="n">
         <v>18</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E195" t="n">
         <v>7</v>
@@ -15960,20 +15960,20 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N195" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O195" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P195" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T195" t="n">
         <v>18</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44285</v>
+        <v>44354</v>
       </c>
       <c r="E196" t="n">
         <v>7</v>
@@ -16040,11 +16040,11 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N196" t="n">
         <v>9000</v>
@@ -16062,7 +16062,7 @@
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S196" t="n">
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44210</v>
+        <v>44420</v>
       </c>
       <c r="E197" t="n">
         <v>7</v>
@@ -16115,16 +16115,16 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N197" t="n">
         <v>10000</v>
@@ -16137,7 +16137,7 @@
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R197" t="inlineStr">
@@ -16146,10 +16146,10 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T197" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198">
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44344</v>
+        <v>44420</v>
       </c>
       <c r="E198" t="n">
         <v>7</v>
@@ -16195,7 +16195,7 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
@@ -16204,16 +16204,16 @@
         </is>
       </c>
       <c r="M198" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="N198" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O198" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P198" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T198" t="n">
         <v>18</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44344</v>
+        <v>44420</v>
       </c>
       <c r="E199" t="n">
         <v>7</v>
@@ -16280,20 +16280,20 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N199" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O199" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P199" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T199" t="n">
         <v>18</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44344</v>
+        <v>44285</v>
       </c>
       <c r="E200" t="n">
         <v>7</v>
@@ -16360,20 +16360,20 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N200" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O200" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P200" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="T200" t="n">
         <v>18</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E201" t="n">
         <v>7</v>
@@ -16435,7 +16435,7 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
@@ -16444,20 +16444,20 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N201" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O201" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P201" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R201" t="inlineStr">
@@ -16466,10 +16466,10 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T201" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202">
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E202" t="n">
         <v>7</v>
@@ -16515,7 +16515,7 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
@@ -16524,20 +16524,20 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>350</v>
+        <v>210</v>
       </c>
       <c r="N202" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O202" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P202" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R202" t="inlineStr">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T202" t="n">
         <v>18</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44266</v>
+        <v>44344</v>
       </c>
       <c r="E203" t="n">
         <v>7</v>
@@ -16604,7 +16604,7 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N203" t="n">
         <v>10000</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44266</v>
+        <v>44344</v>
       </c>
       <c r="E204" t="n">
         <v>7</v>
@@ -16680,20 +16680,20 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M204" t="n">
-        <v>430</v>
+        <v>150</v>
       </c>
       <c r="N204" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O204" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P204" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="T204" t="n">
         <v>18</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44350</v>
+        <v>44344</v>
       </c>
       <c r="E205" t="n">
         <v>7</v>
@@ -16755,7 +16755,7 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
@@ -16764,16 +16764,16 @@
         </is>
       </c>
       <c r="M205" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N205" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O205" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P205" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16782,11 +16782,11 @@
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S205" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T205" t="n">
         <v>18</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44350</v>
+        <v>44217</v>
       </c>
       <c r="E206" t="n">
         <v>7</v>
@@ -16835,7 +16835,7 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
@@ -16844,29 +16844,29 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="N206" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O206" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P206" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S206" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T206" t="n">
         <v>18</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44418</v>
+        <v>44266</v>
       </c>
       <c r="E207" t="n">
         <v>7</v>
@@ -16927,13 +16927,13 @@
         <v>230</v>
       </c>
       <c r="N207" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O207" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P207" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T207" t="n">
         <v>18</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44418</v>
+        <v>44266</v>
       </c>
       <c r="E208" t="n">
         <v>7</v>
@@ -17000,20 +17000,20 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="N208" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O208" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P208" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17022,11 +17022,11 @@
       </c>
       <c r="R208" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S208" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T208" t="n">
         <v>18</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44418</v>
+        <v>44350</v>
       </c>
       <c r="E209" t="n">
         <v>7</v>
@@ -17075,7 +17075,7 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
@@ -17084,16 +17084,16 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N209" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O209" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P209" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17102,11 +17102,11 @@
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S209" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T209" t="n">
         <v>18</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44418</v>
+        <v>44350</v>
       </c>
       <c r="E210" t="n">
         <v>7</v>
@@ -17164,16 +17164,16 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N210" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O210" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P210" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T210" t="n">
         <v>18</v>
@@ -17240,20 +17240,20 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="N211" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O211" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P211" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T211" t="n">
         <v>18</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E212" t="n">
         <v>7</v>
@@ -17315,25 +17315,25 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N212" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O212" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P212" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T212" t="n">
         <v>18</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E213" t="n">
         <v>7</v>
@@ -17404,7 +17404,7 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="N213" t="n">
         <v>8000</v>
@@ -17422,7 +17422,7 @@
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S213" t="n">
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E214" t="n">
         <v>7</v>
@@ -17475,7 +17475,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -17484,16 +17484,16 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N214" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O214" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P214" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17502,11 +17502,11 @@
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S214" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T214" t="n">
         <v>18</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E215" t="n">
         <v>7</v>
@@ -17560,20 +17560,20 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="N215" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O215" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P215" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T215" t="n">
         <v>18</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E216" t="n">
         <v>7</v>
@@ -17635,7 +17635,7 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -17644,7 +17644,7 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N216" t="n">
         <v>8000</v>
@@ -17662,7 +17662,7 @@
       </c>
       <c r="R216" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S216" t="n">
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E217" t="n">
         <v>7</v>
@@ -17720,20 +17720,20 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="N217" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O217" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P217" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17742,11 +17742,11 @@
       </c>
       <c r="R217" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S217" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T217" t="n">
         <v>18</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E218" t="n">
         <v>7</v>
@@ -17795,25 +17795,25 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M218" t="n">
         <v>260</v>
       </c>
       <c r="N218" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O218" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P218" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T218" t="n">
         <v>18</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E219" t="n">
         <v>7</v>
@@ -17880,20 +17880,20 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N219" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O219" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P219" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T219" t="n">
         <v>18</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44466</v>
+        <v>44414</v>
       </c>
       <c r="E220" t="n">
         <v>7</v>
@@ -17964,16 +17964,16 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="N220" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O220" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P220" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T220" t="n">
         <v>18</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44466</v>
+        <v>44414</v>
       </c>
       <c r="E221" t="n">
         <v>7</v>
@@ -18044,7 +18044,7 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="N221" t="n">
         <v>7000</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E222" t="n">
         <v>7</v>
@@ -18124,7 +18124,7 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="N222" t="n">
         <v>10000</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E223" t="n">
         <v>7</v>
@@ -18204,16 +18204,16 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N223" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O223" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P223" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T223" t="n">
         <v>18</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44249</v>
+        <v>44466</v>
       </c>
       <c r="E224" t="n">
         <v>7</v>
@@ -18275,7 +18275,7 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
@@ -18284,7 +18284,7 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="N224" t="n">
         <v>9000</v>
@@ -18302,7 +18302,7 @@
       </c>
       <c r="R224" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S224" t="n">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44265</v>
+        <v>44466</v>
       </c>
       <c r="E225" t="n">
         <v>7</v>
@@ -18355,25 +18355,25 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N225" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O225" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P225" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T225" t="n">
         <v>18</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E226" t="n">
         <v>7</v>
@@ -18440,20 +18440,20 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M226" t="n">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="N226" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O226" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P226" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T226" t="n">
         <v>18</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E227" t="n">
         <v>7</v>
@@ -18520,20 +18520,20 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N227" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O227" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P227" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T227" t="n">
         <v>18</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E228" t="n">
         <v>7</v>
@@ -18595,16 +18595,16 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M228" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N228" t="n">
         <v>9000</v>
@@ -18617,7 +18617,7 @@
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R228" t="inlineStr">
@@ -18626,10 +18626,10 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T228" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="229">
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E229" t="n">
         <v>7</v>
@@ -18675,41 +18675,41 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="N229" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O229" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P229" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S229" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T229" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="230">
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44280</v>
+        <v>44265</v>
       </c>
       <c r="E230" t="n">
         <v>7</v>
@@ -18760,20 +18760,20 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M230" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N230" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O230" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P230" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18782,11 +18782,11 @@
       </c>
       <c r="R230" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S230" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T230" t="n">
         <v>18</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44280</v>
+        <v>44265</v>
       </c>
       <c r="E231" t="n">
         <v>7</v>
@@ -18840,20 +18840,20 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N231" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O231" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P231" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18862,11 +18862,11 @@
       </c>
       <c r="R231" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S231" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T231" t="n">
         <v>18</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E232" t="n">
         <v>7</v>
@@ -18915,29 +18915,29 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M232" t="n">
         <v>200</v>
       </c>
       <c r="N232" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O232" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P232" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R232" t="inlineStr">
@@ -18946,10 +18946,10 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="T232" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233">
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E233" t="n">
         <v>7</v>
@@ -19000,24 +19000,24 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N233" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O233" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P233" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R233" t="inlineStr">
@@ -19026,10 +19026,10 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T233" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="234">
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E234" t="n">
         <v>7</v>
@@ -19075,25 +19075,25 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N234" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O234" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P234" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19102,11 +19102,11 @@
       </c>
       <c r="R234" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S234" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T234" t="n">
         <v>18</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E235" t="n">
         <v>7</v>
@@ -19160,20 +19160,20 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="N235" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O235" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P235" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19182,11 +19182,11 @@
       </c>
       <c r="R235" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S235" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T235" t="n">
         <v>18</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E236" t="n">
         <v>7</v>
@@ -19235,7 +19235,7 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
@@ -19244,16 +19244,16 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N236" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O236" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P236" t="n">
-        <v>9400</v>
+        <v>8000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19262,11 +19262,11 @@
       </c>
       <c r="R236" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S236" t="n">
-        <v>522</v>
+        <v>444</v>
       </c>
       <c r="T236" t="n">
         <v>18</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E237" t="n">
         <v>7</v>
@@ -19315,7 +19315,7 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
@@ -19324,7 +19324,7 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N237" t="n">
         <v>8000</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="E238" t="n">
         <v>7</v>
@@ -19404,32 +19404,32 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="N238" t="n">
-        <v>130000</v>
+        <v>8000</v>
       </c>
       <c r="O238" t="n">
-        <v>130000</v>
+        <v>8000</v>
       </c>
       <c r="P238" t="n">
-        <v>130000</v>
+        <v>8000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R238" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S238" t="n">
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="T238" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="239">
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="E239" t="n">
         <v>7</v>
@@ -19480,20 +19480,20 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="N239" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O239" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P239" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T239" t="n">
         <v>18</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44468</v>
+        <v>44270</v>
       </c>
       <c r="E240" t="n">
         <v>7</v>
@@ -19555,7 +19555,7 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
@@ -19564,16 +19564,16 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N240" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O240" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P240" t="n">
-        <v>7000</v>
+        <v>9400</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19582,11 +19582,11 @@
       </c>
       <c r="R240" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S240" t="n">
-        <v>389</v>
+        <v>522</v>
       </c>
       <c r="T240" t="n">
         <v>18</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44468</v>
+        <v>44267</v>
       </c>
       <c r="E241" t="n">
         <v>7</v>
@@ -19635,7 +19635,7 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
@@ -19644,7 +19644,7 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N241" t="n">
         <v>8000</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44468</v>
+        <v>44267</v>
       </c>
       <c r="E242" t="n">
         <v>7</v>
@@ -19715,29 +19715,29 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>280</v>
+        <v>5</v>
       </c>
       <c r="N242" t="n">
-        <v>10000</v>
+        <v>130000</v>
       </c>
       <c r="O242" t="n">
-        <v>10000</v>
+        <v>130000</v>
       </c>
       <c r="P242" t="n">
-        <v>10000</v>
+        <v>130000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R242" t="inlineStr">
@@ -19746,10 +19746,10 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>556</v>
+        <v>289</v>
       </c>
       <c r="T242" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="243">
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44468</v>
+        <v>44267</v>
       </c>
       <c r="E243" t="n">
         <v>7</v>
@@ -19804,7 +19804,7 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="N243" t="n">
         <v>8000</v>
@@ -19822,7 +19822,7 @@
       </c>
       <c r="R243" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S243" t="n">
@@ -19875,7 +19875,7 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -19884,20 +19884,20 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="N244" t="n">
-        <v>200000</v>
+        <v>7000</v>
       </c>
       <c r="O244" t="n">
-        <v>200000</v>
+        <v>7000</v>
       </c>
       <c r="P244" t="n">
-        <v>200000</v>
+        <v>7000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R244" t="inlineStr">
@@ -19906,10 +19906,10 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T244" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="245">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E245" t="n">
         <v>7</v>
@@ -19955,7 +19955,7 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
@@ -19964,7 +19964,7 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N245" t="n">
         <v>8000</v>
@@ -19982,7 +19982,7 @@
       </c>
       <c r="R245" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S245" t="n">
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E246" t="n">
         <v>7</v>
@@ -20040,20 +20040,20 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N246" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O246" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P246" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20062,11 +20062,11 @@
       </c>
       <c r="R246" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S246" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T246" t="n">
         <v>18</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E247" t="n">
         <v>7</v>
@@ -20120,20 +20120,20 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N247" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O247" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P247" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20142,11 +20142,11 @@
       </c>
       <c r="R247" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S247" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T247" t="n">
         <v>18</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E248" t="n">
         <v>7</v>
@@ -20204,32 +20204,32 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>300</v>
+        <v>16</v>
       </c>
       <c r="N248" t="n">
-        <v>8500</v>
+        <v>200000</v>
       </c>
       <c r="O248" t="n">
-        <v>8500</v>
+        <v>200000</v>
       </c>
       <c r="P248" t="n">
-        <v>8500</v>
+        <v>200000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S248" t="n">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="T248" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="249">
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44386</v>
+        <v>44312</v>
       </c>
       <c r="E249" t="n">
         <v>7</v>
@@ -20284,16 +20284,16 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="N249" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O249" t="n">
         <v>8000</v>
       </c>
       <c r="P249" t="n">
-        <v>7474</v>
+        <v>8000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="T249" t="n">
         <v>18</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44386</v>
+        <v>44312</v>
       </c>
       <c r="E250" t="n">
         <v>7</v>
@@ -20355,25 +20355,25 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N250" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O250" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P250" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="T250" t="n">
         <v>18</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E251" t="n">
         <v>7</v>
@@ -20444,7 +20444,7 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="N251" t="n">
         <v>10000</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E252" t="n">
         <v>7</v>
@@ -20524,16 +20524,16 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N252" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="O252" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="P252" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="T252" t="n">
         <v>18</v>
@@ -20595,25 +20595,25 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="N253" t="n">
         <v>7000</v>
       </c>
       <c r="O253" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P253" t="n">
-        <v>7000</v>
+        <v>7474</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="T253" t="n">
         <v>18</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E254" t="n">
         <v>7</v>
@@ -20675,25 +20675,25 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N254" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O254" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P254" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20702,11 +20702,11 @@
       </c>
       <c r="R254" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S254" t="n">
-        <v>667</v>
+        <v>333</v>
       </c>
       <c r="T254" t="n">
         <v>18</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44243</v>
+        <v>44386</v>
       </c>
       <c r="E255" t="n">
         <v>7</v>
@@ -20755,25 +20755,25 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="N255" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O255" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P255" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20782,11 +20782,11 @@
       </c>
       <c r="R255" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S255" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T255" t="n">
         <v>18</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44252</v>
+        <v>44386</v>
       </c>
       <c r="E256" t="n">
         <v>7</v>
@@ -20835,7 +20835,7 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
@@ -20844,16 +20844,16 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="N256" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O256" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P256" t="n">
-        <v>7370</v>
+        <v>9000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>409</v>
+        <v>500</v>
       </c>
       <c r="T256" t="n">
         <v>18</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44369</v>
+        <v>44386</v>
       </c>
       <c r="E257" t="n">
         <v>7</v>
@@ -20915,16 +20915,16 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N257" t="n">
         <v>7000</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44369</v>
+        <v>44463</v>
       </c>
       <c r="E258" t="n">
         <v>7</v>
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N258" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O258" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P258" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21022,11 +21022,11 @@
       </c>
       <c r="R258" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S258" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T258" t="n">
         <v>18</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44433</v>
+        <v>44243</v>
       </c>
       <c r="E259" t="n">
         <v>7</v>
@@ -21075,25 +21075,25 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="N259" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O259" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P259" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21102,11 +21102,11 @@
       </c>
       <c r="R259" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S259" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T259" t="n">
         <v>18</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44433</v>
+        <v>44252</v>
       </c>
       <c r="E260" t="n">
         <v>7</v>
@@ -21155,7 +21155,7 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="N260" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O260" t="n">
         <v>8000</v>
       </c>
       <c r="P260" t="n">
-        <v>8000</v>
+        <v>7370</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="T260" t="n">
         <v>18</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E261" t="n">
         <v>7</v>
@@ -21235,7 +21235,7 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N261" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O261" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P261" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T261" t="n">
         <v>18</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E262" t="n">
         <v>7</v>
@@ -21324,7 +21324,7 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N262" t="n">
         <v>9000</v>
@@ -21342,7 +21342,7 @@
       </c>
       <c r="R262" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S262" t="n">
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E263" t="n">
         <v>7</v>
@@ -21400,20 +21400,20 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="N263" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O263" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P263" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21422,11 +21422,11 @@
       </c>
       <c r="R263" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S263" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T263" t="n">
         <v>18</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E264" t="n">
         <v>7</v>
@@ -21475,7 +21475,7 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
@@ -21484,7 +21484,7 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="N264" t="n">
         <v>8000</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E265" t="n">
         <v>7</v>
@@ -21555,25 +21555,25 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M265" t="n">
         <v>200</v>
       </c>
       <c r="N265" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O265" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P265" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T265" t="n">
         <v>18</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E266" t="n">
         <v>7</v>
@@ -21640,20 +21640,20 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N266" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O266" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P266" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21662,11 +21662,11 @@
       </c>
       <c r="R266" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S266" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T266" t="n">
         <v>18</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E267" t="n">
         <v>7</v>
@@ -21715,7 +21715,7 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -21724,16 +21724,16 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N267" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O267" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P267" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T267" t="n">
         <v>18</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E268" t="n">
         <v>7</v>
@@ -21795,16 +21795,16 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N268" t="n">
         <v>8000</v>
@@ -21822,7 +21822,7 @@
       </c>
       <c r="R268" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S268" t="n">
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E269" t="n">
         <v>7</v>
@@ -21880,20 +21880,20 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M269" t="n">
         <v>200</v>
       </c>
       <c r="N269" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O269" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P269" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21902,11 +21902,11 @@
       </c>
       <c r="R269" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S269" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T269" t="n">
         <v>18</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E270" t="n">
         <v>7</v>
@@ -21955,7 +21955,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -21964,16 +21964,16 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N270" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O270" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P270" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T270" t="n">
         <v>18</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E271" t="n">
         <v>7</v>
@@ -22035,7 +22035,7 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -22044,16 +22044,16 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="N271" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O271" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P271" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22062,11 +22062,11 @@
       </c>
       <c r="R271" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S271" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T271" t="n">
         <v>18</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E272" t="n">
         <v>7</v>
@@ -22120,20 +22120,20 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N272" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O272" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P272" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22142,11 +22142,11 @@
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S272" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T272" t="n">
         <v>18</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E273" t="n">
         <v>7</v>
@@ -22195,7 +22195,7 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
@@ -22204,16 +22204,16 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N273" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O273" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P273" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22222,11 +22222,11 @@
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S273" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T273" t="n">
         <v>18</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44291</v>
+        <v>44397</v>
       </c>
       <c r="E274" t="n">
         <v>7</v>
@@ -22280,20 +22280,20 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N274" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O274" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P274" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T274" t="n">
         <v>18</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44291</v>
+        <v>44397</v>
       </c>
       <c r="E275" t="n">
         <v>7</v>
@@ -22355,7 +22355,7 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N275" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O275" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P275" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T275" t="n">
         <v>18</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E276" t="n">
         <v>7</v>
@@ -22435,7 +22435,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -22444,16 +22444,16 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="N276" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O276" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P276" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T276" t="n">
         <v>18</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E277" t="n">
         <v>7</v>
@@ -22515,7 +22515,7 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
@@ -22524,7 +22524,7 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N277" t="n">
         <v>8000</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E278" t="n">
         <v>7</v>
@@ -22595,7 +22595,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="N278" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O278" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P278" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T278" t="n">
         <v>18</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E279" t="n">
         <v>7</v>
@@ -22675,7 +22675,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="N279" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O279" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P279" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T279" t="n">
         <v>18</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E280" t="n">
         <v>7</v>
@@ -22755,7 +22755,7 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="N280" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O280" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P280" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T280" t="n">
         <v>18</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E281" t="n">
         <v>7</v>
@@ -22835,7 +22835,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -22844,7 +22844,7 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N281" t="n">
         <v>8000</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44356</v>
+        <v>44438</v>
       </c>
       <c r="E282" t="n">
         <v>7</v>
@@ -22915,25 +22915,25 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N282" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O282" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P282" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22942,11 +22942,11 @@
       </c>
       <c r="R282" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S282" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T282" t="n">
         <v>18</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44365</v>
+        <v>44438</v>
       </c>
       <c r="E283" t="n">
         <v>7</v>
@@ -22995,7 +22995,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N283" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O283" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P283" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23022,11 +23022,11 @@
       </c>
       <c r="R283" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S283" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T283" t="n">
         <v>18</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44365</v>
+        <v>44286</v>
       </c>
       <c r="E284" t="n">
         <v>7</v>
@@ -23075,25 +23075,25 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N284" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O284" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P284" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T284" t="n">
         <v>18</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44365</v>
+        <v>44286</v>
       </c>
       <c r="E285" t="n">
         <v>7</v>
@@ -23155,7 +23155,7 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
@@ -23164,7 +23164,7 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N285" t="n">
         <v>8000</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44306</v>
+        <v>44356</v>
       </c>
       <c r="E286" t="n">
         <v>7</v>
@@ -23244,16 +23244,16 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N286" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O286" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P286" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T286" t="n">
         <v>18</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E287" t="n">
         <v>7</v>
@@ -23315,25 +23315,25 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N287" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O287" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P287" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T287" t="n">
         <v>18</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E288" t="n">
         <v>7</v>
@@ -23400,11 +23400,11 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N288" t="n">
         <v>9000</v>
@@ -23422,7 +23422,7 @@
       </c>
       <c r="R288" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S288" t="n">
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E289" t="n">
         <v>7</v>
@@ -23480,20 +23480,20 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>360</v>
+        <v>190</v>
       </c>
       <c r="N289" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O289" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P289" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T289" t="n">
         <v>18</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E290" t="n">
         <v>7</v>
@@ -23555,7 +23555,7 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
@@ -23564,7 +23564,7 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N290" t="n">
         <v>8000</v>
@@ -23582,7 +23582,7 @@
       </c>
       <c r="R290" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S290" t="n">
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E291" t="n">
         <v>7</v>
@@ -23635,25 +23635,25 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M291" t="n">
         <v>210</v>
       </c>
       <c r="N291" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O291" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P291" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23662,11 +23662,11 @@
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S291" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T291" t="n">
         <v>18</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E292" t="n">
         <v>7</v>
@@ -23720,20 +23720,20 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>560</v>
+        <v>200</v>
       </c>
       <c r="N292" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O292" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P292" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="T292" t="n">
         <v>18</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E293" t="n">
         <v>7</v>
@@ -23800,11 +23800,11 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="N293" t="n">
         <v>9000</v>
@@ -23822,7 +23822,7 @@
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S293" t="n">
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44410</v>
+        <v>44461</v>
       </c>
       <c r="E294" t="n">
         <v>7</v>
@@ -23880,20 +23880,20 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N294" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O294" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P294" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T294" t="n">
         <v>18</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E295" t="n">
         <v>7</v>
@@ -23955,16 +23955,16 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N295" t="n">
         <v>7000</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E296" t="n">
         <v>7</v>
@@ -24044,16 +24044,16 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>210</v>
+        <v>560</v>
       </c>
       <c r="N296" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O296" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P296" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24062,11 +24062,11 @@
       </c>
       <c r="R296" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S296" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T296" t="n">
         <v>18</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44257</v>
+        <v>44357</v>
       </c>
       <c r="E297" t="n">
         <v>7</v>
@@ -24115,7 +24115,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N297" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O297" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P297" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T297" t="n">
         <v>18</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E298" t="n">
         <v>7</v>
@@ -24195,25 +24195,25 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N298" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O298" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P298" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24222,11 +24222,11 @@
       </c>
       <c r="R298" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S298" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T298" t="n">
         <v>18</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E299" t="n">
         <v>7</v>
@@ -24280,20 +24280,20 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N299" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O299" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P299" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T299" t="n">
         <v>18</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E300" t="n">
         <v>7</v>
@@ -24355,25 +24355,25 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N300" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O300" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P300" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24382,11 +24382,11 @@
       </c>
       <c r="R300" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S300" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T300" t="n">
         <v>18</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44376</v>
+        <v>44257</v>
       </c>
       <c r="E301" t="n">
         <v>7</v>
@@ -24435,25 +24435,25 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="N301" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O301" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P301" t="n">
-        <v>9714</v>
+        <v>8000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24462,11 +24462,11 @@
       </c>
       <c r="R301" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S301" t="n">
-        <v>540</v>
+        <v>444</v>
       </c>
       <c r="T301" t="n">
         <v>18</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44376</v>
+        <v>44257</v>
       </c>
       <c r="E302" t="n">
         <v>7</v>
@@ -24515,25 +24515,25 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N302" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O302" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P302" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24542,11 +24542,11 @@
       </c>
       <c r="R302" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S302" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T302" t="n">
         <v>18</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44292</v>
+        <v>44257</v>
       </c>
       <c r="E303" t="n">
         <v>7</v>
@@ -24595,25 +24595,25 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N303" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O303" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P303" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T303" t="n">
         <v>18</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E304" t="n">
         <v>7</v>
@@ -24675,25 +24675,25 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M304" t="n">
         <v>250</v>
       </c>
       <c r="N304" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O304" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P304" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T304" t="n">
         <v>18</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E305" t="n">
         <v>7</v>
@@ -24760,20 +24760,20 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>210</v>
+        <v>350</v>
       </c>
       <c r="N305" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O305" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P305" t="n">
-        <v>8000</v>
+        <v>9714</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>444</v>
+        <v>540</v>
       </c>
       <c r="T305" t="n">
         <v>18</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E306" t="n">
         <v>7</v>
@@ -24835,7 +24835,7 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
@@ -24844,16 +24844,16 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N306" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O306" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P306" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24862,11 +24862,11 @@
       </c>
       <c r="R306" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S306" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T306" t="n">
         <v>18</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E307" t="n">
         <v>7</v>
@@ -24915,7 +24915,7 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -24924,16 +24924,16 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="N307" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O307" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P307" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24942,11 +24942,11 @@
       </c>
       <c r="R307" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S307" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T307" t="n">
         <v>18</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E308" t="n">
         <v>7</v>
@@ -25000,20 +25000,20 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="N308" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O308" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P308" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25022,11 +25022,11 @@
       </c>
       <c r="R308" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S308" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T308" t="n">
         <v>18</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E309" t="n">
         <v>7</v>
@@ -25075,16 +25075,16 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="N309" t="n">
         <v>8000</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E310" t="n">
         <v>7</v>
@@ -25164,7 +25164,7 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="N310" t="n">
         <v>7000</v>
@@ -25182,7 +25182,7 @@
       </c>
       <c r="R310" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S310" t="n">
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E311" t="n">
         <v>7</v>
@@ -25244,7 +25244,7 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N311" t="n">
         <v>10000</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E312" t="n">
         <v>7</v>
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="N312" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O312" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P312" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T312" t="n">
         <v>18</v>
@@ -25367,68 +25367,388 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E313" t="n">
+        <v>7</v>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G313" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>Carmen</t>
+        </is>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M313" t="n">
+        <v>110</v>
+      </c>
+      <c r="N313" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O313" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P313" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R313" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S313" t="n">
+        <v>444</v>
+      </c>
+      <c r="T313" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>5</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D314" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E314" t="n">
+        <v>7</v>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G314" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>Abate Fettel</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M314" t="n">
+        <v>210</v>
+      </c>
+      <c r="N314" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O314" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P314" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S314" t="n">
+        <v>389</v>
+      </c>
+      <c r="T314" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>5</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D315" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E315" t="n">
+        <v>7</v>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G315" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M315" t="n">
+        <v>200</v>
+      </c>
+      <c r="N315" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O315" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P315" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S315" t="n">
+        <v>556</v>
+      </c>
+      <c r="T315" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>5</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D316" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E316" t="n">
+        <v>7</v>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G316" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I316" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M316" t="n">
+        <v>210</v>
+      </c>
+      <c r="N316" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O316" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P316" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S316" t="n">
+        <v>444</v>
+      </c>
+      <c r="T316" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>5</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D317" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E313" t="n">
-        <v>7</v>
-      </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G313" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I313" t="n">
-        <v>100104005</v>
-      </c>
-      <c r="J313" t="inlineStr">
-        <is>
-          <t>Pera</t>
-        </is>
-      </c>
-      <c r="K313" t="inlineStr">
+      <c r="E317" t="n">
+        <v>7</v>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G317" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I317" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr">
         <is>
           <t>Packham's Triumph</t>
         </is>
       </c>
-      <c r="L313" t="inlineStr">
+      <c r="L317" t="inlineStr">
         <is>
           <t>Especial</t>
         </is>
       </c>
-      <c r="M313" t="n">
+      <c r="M317" t="n">
         <v>300</v>
       </c>
-      <c r="N313" t="n">
+      <c r="N317" t="n">
         <v>10000</v>
       </c>
-      <c r="O313" t="n">
+      <c r="O317" t="n">
         <v>10000</v>
       </c>
-      <c r="P313" t="n">
+      <c r="P317" t="n">
         <v>10000</v>
       </c>
-      <c r="Q313" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos granel</t>
-        </is>
-      </c>
-      <c r="R313" t="inlineStr">
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R317" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S313" t="n">
+      <c r="S317" t="n">
         <v>556</v>
       </c>
-      <c r="T313" t="n">
+      <c r="T317" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T322"/>
+  <dimension ref="A1:T324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E287" t="n">
         <v>7</v>
@@ -23324,16 +23324,16 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N287" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O287" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P287" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23342,11 +23342,11 @@
       </c>
       <c r="R287" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S287" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T287" t="n">
         <v>18</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E288" t="n">
         <v>7</v>
@@ -23404,7 +23404,7 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N288" t="n">
         <v>8000</v>
@@ -23422,7 +23422,7 @@
       </c>
       <c r="R288" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S288" t="n">
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E289" t="n">
         <v>7</v>
@@ -23475,25 +23475,25 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N289" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O289" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P289" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T289" t="n">
         <v>18</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E290" t="n">
         <v>7</v>
@@ -23555,7 +23555,7 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
@@ -23564,7 +23564,7 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N290" t="n">
         <v>8000</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E291" t="n">
         <v>7</v>
@@ -23644,7 +23644,7 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N291" t="n">
         <v>7000</v>
@@ -23662,7 +23662,7 @@
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S291" t="n">
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44365</v>
+        <v>44286</v>
       </c>
       <c r="E292" t="n">
         <v>7</v>
@@ -23727,13 +23727,13 @@
         <v>200</v>
       </c>
       <c r="N292" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O292" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P292" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23742,11 +23742,11 @@
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S292" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T292" t="n">
         <v>18</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E293" t="n">
         <v>7</v>
@@ -23795,25 +23795,25 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="N293" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O293" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P293" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23822,11 +23822,11 @@
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S293" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T293" t="n">
         <v>18</v>
@@ -23875,7 +23875,7 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -23884,16 +23884,16 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N294" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O294" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P294" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23902,11 +23902,11 @@
       </c>
       <c r="R294" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S294" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T294" t="n">
         <v>18</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E295" t="n">
         <v>7</v>
@@ -23955,25 +23955,25 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N295" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O295" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P295" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23982,11 +23982,11 @@
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S295" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T295" t="n">
         <v>18</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E296" t="n">
         <v>7</v>
@@ -24040,20 +24040,20 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="N296" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O296" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P296" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24062,11 +24062,11 @@
       </c>
       <c r="R296" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S296" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T296" t="n">
         <v>18</v>
@@ -24115,7 +24115,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N297" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O297" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P297" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T297" t="n">
         <v>18</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E298" t="n">
         <v>7</v>
@@ -24204,16 +24204,16 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>360</v>
+        <v>210</v>
       </c>
       <c r="N298" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O298" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P298" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24222,11 +24222,11 @@
       </c>
       <c r="R298" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S298" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T298" t="n">
         <v>18</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E299" t="n">
         <v>7</v>
@@ -24287,13 +24287,13 @@
         <v>200</v>
       </c>
       <c r="N299" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O299" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P299" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24302,11 +24302,11 @@
       </c>
       <c r="R299" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S299" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T299" t="n">
         <v>18</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E300" t="n">
         <v>7</v>
@@ -24355,25 +24355,25 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="N300" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O300" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P300" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T300" t="n">
         <v>18</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E301" t="n">
         <v>7</v>
@@ -24440,20 +24440,20 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>560</v>
+        <v>200</v>
       </c>
       <c r="N301" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O301" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P301" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24462,11 +24462,11 @@
       </c>
       <c r="R301" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S301" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T301" t="n">
         <v>18</v>
@@ -24515,7 +24515,7 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
@@ -24524,16 +24524,16 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N302" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O302" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P302" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24542,11 +24542,11 @@
       </c>
       <c r="R302" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S302" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T302" t="n">
         <v>18</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E303" t="n">
         <v>7</v>
@@ -24604,16 +24604,16 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>250</v>
+        <v>560</v>
       </c>
       <c r="N303" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O303" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P303" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24622,11 +24622,11 @@
       </c>
       <c r="R303" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S303" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T303" t="n">
         <v>18</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E304" t="n">
         <v>7</v>
@@ -24680,20 +24680,20 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M304" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N304" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O304" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P304" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24702,11 +24702,11 @@
       </c>
       <c r="R304" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S304" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T304" t="n">
         <v>18</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E305" t="n">
         <v>7</v>
@@ -24764,16 +24764,16 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N305" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O305" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P305" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24782,11 +24782,11 @@
       </c>
       <c r="R305" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S305" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T305" t="n">
         <v>18</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E306" t="n">
         <v>7</v>
@@ -24835,25 +24835,25 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N306" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O306" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P306" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24862,11 +24862,11 @@
       </c>
       <c r="R306" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S306" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T306" t="n">
         <v>18</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E307" t="n">
         <v>7</v>
@@ -24915,25 +24915,25 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="N307" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O307" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P307" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24942,11 +24942,11 @@
       </c>
       <c r="R307" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S307" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T307" t="n">
         <v>18</v>
@@ -24995,7 +24995,7 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
@@ -25004,16 +25004,16 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N308" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O308" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P308" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25022,11 +25022,11 @@
       </c>
       <c r="R308" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S308" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T308" t="n">
         <v>18</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44376</v>
+        <v>44257</v>
       </c>
       <c r="E309" t="n">
         <v>7</v>
@@ -25075,16 +25075,16 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N309" t="n">
         <v>7000</v>
@@ -25102,7 +25102,7 @@
       </c>
       <c r="R309" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S309" t="n">
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44376</v>
+        <v>44257</v>
       </c>
       <c r="E310" t="n">
         <v>7</v>
@@ -25160,20 +25160,20 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N310" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O310" t="n">
         <v>10000</v>
       </c>
       <c r="P310" t="n">
-        <v>9714</v>
+        <v>10000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="T310" t="n">
         <v>18</v>
@@ -25235,7 +25235,7 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -25244,16 +25244,16 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N311" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O311" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P311" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T311" t="n">
         <v>18</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E312" t="n">
         <v>7</v>
@@ -25315,7 +25315,7 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="N312" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O312" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P312" t="n">
-        <v>8000</v>
+        <v>9714</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>444</v>
+        <v>540</v>
       </c>
       <c r="T312" t="n">
         <v>18</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E313" t="n">
         <v>7</v>
@@ -25400,20 +25400,20 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N313" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O313" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P313" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T313" t="n">
         <v>18</v>
@@ -25475,16 +25475,16 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="N314" t="n">
         <v>8000</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E315" t="n">
         <v>7</v>
@@ -25555,25 +25555,25 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N315" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O315" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P315" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25582,11 +25582,11 @@
       </c>
       <c r="R315" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S315" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T315" t="n">
         <v>18</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E316" t="n">
         <v>7</v>
@@ -25640,20 +25640,20 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N316" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O316" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P316" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25662,11 +25662,11 @@
       </c>
       <c r="R316" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S316" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T316" t="n">
         <v>18</v>
@@ -25715,7 +25715,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -25724,16 +25724,16 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="N317" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O317" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P317" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T317" t="n">
         <v>18</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E318" t="n">
         <v>7</v>
@@ -25795,25 +25795,25 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="N318" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O318" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P318" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25822,11 +25822,11 @@
       </c>
       <c r="R318" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S318" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T318" t="n">
         <v>18</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E319" t="n">
         <v>7</v>
@@ -25875,7 +25875,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -25884,16 +25884,16 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="N319" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O319" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P319" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25902,11 +25902,11 @@
       </c>
       <c r="R319" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S319" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T319" t="n">
         <v>18</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E320" t="n">
         <v>7</v>
@@ -25955,25 +25955,25 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N320" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O320" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P320" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25982,11 +25982,11 @@
       </c>
       <c r="R320" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S320" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T320" t="n">
         <v>18</v>
@@ -26035,7 +26035,7 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
@@ -26047,13 +26047,13 @@
         <v>210</v>
       </c>
       <c r="N321" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O321" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P321" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26062,11 +26062,11 @@
       </c>
       <c r="R321" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S321" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T321" t="n">
         <v>18</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E322" t="n">
         <v>7</v>
@@ -26124,7 +26124,7 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N322" t="n">
         <v>10000</v>
@@ -26142,13 +26142,173 @@
       </c>
       <c r="R322" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S322" t="n">
         <v>556</v>
       </c>
       <c r="T322" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>5</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D323" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E323" t="n">
+        <v>7</v>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G323" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I323" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M323" t="n">
+        <v>210</v>
+      </c>
+      <c r="N323" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O323" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P323" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q323" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R323" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S323" t="n">
+        <v>444</v>
+      </c>
+      <c r="T323" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>5</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D324" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E324" t="n">
+        <v>7</v>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G324" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I324" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M324" t="n">
+        <v>300</v>
+      </c>
+      <c r="N324" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O324" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P324" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q324" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R324" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S324" t="n">
+        <v>556</v>
+      </c>
+      <c r="T324" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T328"/>
+  <dimension ref="A1:T332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E258" t="n">
         <v>7</v>
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N258" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O258" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P258" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T258" t="n">
         <v>18</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E259" t="n">
         <v>7</v>
@@ -21084,7 +21084,7 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N259" t="n">
         <v>8000</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E260" t="n">
         <v>7</v>
@@ -21160,20 +21160,20 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N260" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O260" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P260" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T260" t="n">
         <v>18</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E261" t="n">
         <v>7</v>
@@ -21235,7 +21235,7 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
@@ -21244,7 +21244,7 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="N261" t="n">
         <v>8000</v>
@@ -21315,7 +21315,7 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
@@ -21324,20 +21324,20 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="N262" t="n">
-        <v>200000</v>
+        <v>7000</v>
       </c>
       <c r="O262" t="n">
-        <v>200000</v>
+        <v>7000</v>
       </c>
       <c r="P262" t="n">
-        <v>200000</v>
+        <v>7000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R262" t="inlineStr">
@@ -21346,10 +21346,10 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T262" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="263">
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E263" t="n">
         <v>7</v>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="N263" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O263" t="n">
         <v>8000</v>
       </c>
       <c r="P263" t="n">
-        <v>7474</v>
+        <v>8000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21422,11 +21422,11 @@
       </c>
       <c r="R263" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S263" t="n">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="T263" t="n">
         <v>18</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E264" t="n">
         <v>7</v>
@@ -21475,25 +21475,25 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N264" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O264" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P264" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21502,11 +21502,11 @@
       </c>
       <c r="R264" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S264" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="T264" t="n">
         <v>18</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E265" t="n">
         <v>7</v>
@@ -21560,20 +21560,20 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="N265" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O265" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P265" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21582,11 +21582,11 @@
       </c>
       <c r="R265" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S265" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T265" t="n">
         <v>18</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E266" t="n">
         <v>7</v>
@@ -21644,32 +21644,32 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="N266" t="n">
-        <v>9000</v>
+        <v>200000</v>
       </c>
       <c r="O266" t="n">
-        <v>9000</v>
+        <v>200000</v>
       </c>
       <c r="P266" t="n">
-        <v>9000</v>
+        <v>200000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R266" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S266" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T266" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="267">
@@ -21715,25 +21715,25 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="N267" t="n">
         <v>7000</v>
       </c>
       <c r="O267" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P267" t="n">
-        <v>7000</v>
+        <v>7474</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="T267" t="n">
         <v>18</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E268" t="n">
         <v>7</v>
@@ -21795,25 +21795,25 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N268" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O268" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P268" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="T268" t="n">
         <v>18</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E269" t="n">
         <v>7</v>
@@ -21880,20 +21880,20 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N269" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O269" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P269" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T269" t="n">
         <v>18</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E270" t="n">
         <v>7</v>
@@ -21960,20 +21960,20 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="N270" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O270" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P270" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="T270" t="n">
         <v>18</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E271" t="n">
         <v>7</v>
@@ -22035,25 +22035,25 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="N271" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O271" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P271" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T271" t="n">
         <v>18</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E272" t="n">
         <v>7</v>
@@ -22115,7 +22115,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -22124,7 +22124,7 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N272" t="n">
         <v>10000</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E273" t="n">
         <v>7</v>
@@ -22195,7 +22195,7 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
@@ -22204,7 +22204,7 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N273" t="n">
         <v>8000</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E274" t="n">
         <v>7</v>
@@ -22280,20 +22280,20 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="N274" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O274" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P274" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="T274" t="n">
         <v>18</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E275" t="n">
         <v>7</v>
@@ -22355,7 +22355,7 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="N275" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O275" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P275" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T275" t="n">
         <v>18</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E276" t="n">
         <v>7</v>
@@ -22435,25 +22435,25 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N276" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O276" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P276" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22462,11 +22462,11 @@
       </c>
       <c r="R276" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S276" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T276" t="n">
         <v>18</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E277" t="n">
         <v>7</v>
@@ -22515,25 +22515,25 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M277" t="n">
         <v>210</v>
       </c>
       <c r="N277" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O277" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P277" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22542,11 +22542,11 @@
       </c>
       <c r="R277" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S277" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T277" t="n">
         <v>18</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E278" t="n">
         <v>7</v>
@@ -22604,7 +22604,7 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N278" t="n">
         <v>9000</v>
@@ -22622,7 +22622,7 @@
       </c>
       <c r="R278" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S278" t="n">
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E279" t="n">
         <v>7</v>
@@ -22675,7 +22675,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N279" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O279" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P279" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T279" t="n">
         <v>18</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E280" t="n">
         <v>7</v>
@@ -22755,25 +22755,25 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N280" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O280" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P280" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22782,11 +22782,11 @@
       </c>
       <c r="R280" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S280" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T280" t="n">
         <v>18</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E281" t="n">
         <v>7</v>
@@ -22835,25 +22835,25 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M281" t="n">
         <v>210</v>
       </c>
       <c r="N281" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O281" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P281" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22862,11 +22862,11 @@
       </c>
       <c r="R281" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S281" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T281" t="n">
         <v>18</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E282" t="n">
         <v>7</v>
@@ -22920,20 +22920,20 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>560</v>
+        <v>200</v>
       </c>
       <c r="N282" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O282" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P282" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="T282" t="n">
         <v>18</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E283" t="n">
         <v>7</v>
@@ -22995,7 +22995,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N283" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O283" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P283" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23022,11 +23022,11 @@
       </c>
       <c r="R283" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S283" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T283" t="n">
         <v>18</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44328</v>
+        <v>44369</v>
       </c>
       <c r="E284" t="n">
         <v>7</v>
@@ -23080,11 +23080,11 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="N284" t="n">
         <v>9000</v>
@@ -23102,7 +23102,7 @@
       </c>
       <c r="R284" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S284" t="n">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E285" t="n">
         <v>7</v>
@@ -23155,16 +23155,16 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N285" t="n">
         <v>7000</v>
@@ -23182,7 +23182,7 @@
       </c>
       <c r="R285" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S285" t="n">
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E286" t="n">
         <v>7</v>
@@ -23244,16 +23244,16 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>210</v>
+        <v>560</v>
       </c>
       <c r="N286" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O286" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P286" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23262,11 +23262,11 @@
       </c>
       <c r="R286" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S286" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T286" t="n">
         <v>18</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E287" t="n">
         <v>7</v>
@@ -23324,7 +23324,7 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N287" t="n">
         <v>9000</v>
@@ -23342,7 +23342,7 @@
       </c>
       <c r="R287" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S287" t="n">
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="E288" t="n">
         <v>7</v>
@@ -23395,7 +23395,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -23404,16 +23404,16 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>530</v>
+        <v>380</v>
       </c>
       <c r="N288" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O288" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P288" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23422,11 +23422,11 @@
       </c>
       <c r="R288" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S288" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T288" t="n">
         <v>18</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="E289" t="n">
         <v>7</v>
@@ -23480,20 +23480,20 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N289" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O289" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P289" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23502,11 +23502,11 @@
       </c>
       <c r="R289" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S289" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T289" t="n">
         <v>18</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E290" t="n">
         <v>7</v>
@@ -23560,20 +23560,20 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N290" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O290" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P290" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23582,11 +23582,11 @@
       </c>
       <c r="R290" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S290" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T290" t="n">
         <v>18</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E291" t="n">
         <v>7</v>
@@ -23635,7 +23635,7 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
@@ -23644,16 +23644,16 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N291" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O291" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P291" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T291" t="n">
         <v>18</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E292" t="n">
         <v>7</v>
@@ -23715,7 +23715,7 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
@@ -23724,16 +23724,16 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>260</v>
+        <v>530</v>
       </c>
       <c r="N292" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O292" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P292" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T292" t="n">
         <v>18</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E293" t="n">
         <v>7</v>
@@ -23795,7 +23795,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -23804,16 +23804,16 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N293" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O293" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P293" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T293" t="n">
         <v>18</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E294" t="n">
         <v>7</v>
@@ -23880,11 +23880,11 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N294" t="n">
         <v>9000</v>
@@ -23902,7 +23902,7 @@
       </c>
       <c r="R294" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S294" t="n">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E295" t="n">
         <v>7</v>
@@ -23955,7 +23955,7 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -23964,16 +23964,16 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N295" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O295" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P295" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T295" t="n">
         <v>18</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E296" t="n">
         <v>7</v>
@@ -24040,20 +24040,20 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="N296" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O296" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P296" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T296" t="n">
         <v>18</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E297" t="n">
         <v>7</v>
@@ -24115,25 +24115,25 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N297" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O297" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P297" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24142,11 +24142,11 @@
       </c>
       <c r="R297" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S297" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="T297" t="n">
         <v>18</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E298" t="n">
         <v>7</v>
@@ -24200,20 +24200,20 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="N298" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O298" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P298" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24222,11 +24222,11 @@
       </c>
       <c r="R298" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S298" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T298" t="n">
         <v>18</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E299" t="n">
         <v>7</v>
@@ -24280,20 +24280,20 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N299" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O299" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P299" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T299" t="n">
         <v>18</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E300" t="n">
         <v>7</v>
@@ -24360,20 +24360,20 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="N300" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O300" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P300" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T300" t="n">
         <v>18</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E301" t="n">
         <v>7</v>
@@ -24444,16 +24444,16 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N301" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O301" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P301" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T301" t="n">
         <v>18</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E302" t="n">
         <v>7</v>
@@ -24524,16 +24524,16 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N302" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O302" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P302" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>472</v>
+        <v>556</v>
       </c>
       <c r="T302" t="n">
         <v>18</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E303" t="n">
         <v>7</v>
@@ -24595,25 +24595,25 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="N303" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O303" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P303" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T303" t="n">
         <v>18</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E304" t="n">
         <v>7</v>
@@ -24680,20 +24680,20 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M304" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N304" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O304" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P304" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24702,11 +24702,11 @@
       </c>
       <c r="R304" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S304" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T304" t="n">
         <v>18</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E305" t="n">
         <v>7</v>
@@ -24760,20 +24760,20 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N305" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O305" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P305" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T305" t="n">
         <v>18</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E306" t="n">
         <v>7</v>
@@ -24840,20 +24840,20 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N306" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="O306" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P306" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24862,11 +24862,11 @@
       </c>
       <c r="R306" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S306" t="n">
-        <v>556</v>
+        <v>472</v>
       </c>
       <c r="T306" t="n">
         <v>18</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E307" t="n">
         <v>7</v>
@@ -24915,7 +24915,7 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -24924,16 +24924,16 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N307" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="O307" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="P307" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>472</v>
+        <v>389</v>
       </c>
       <c r="T307" t="n">
         <v>18</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E308" t="n">
         <v>7</v>
@@ -25000,20 +25000,20 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N308" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O308" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P308" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25022,11 +25022,11 @@
       </c>
       <c r="R308" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S308" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T308" t="n">
         <v>18</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E309" t="n">
         <v>7</v>
@@ -25080,20 +25080,20 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N309" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O309" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P309" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25102,11 +25102,11 @@
       </c>
       <c r="R309" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S309" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T309" t="n">
         <v>18</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44270</v>
+        <v>44390</v>
       </c>
       <c r="E310" t="n">
         <v>7</v>
@@ -25155,25 +25155,25 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="N310" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O310" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P310" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T310" t="n">
         <v>18</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44270</v>
+        <v>44390</v>
       </c>
       <c r="E311" t="n">
         <v>7</v>
@@ -25240,20 +25240,20 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="N311" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O311" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P311" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>667</v>
+        <v>472</v>
       </c>
       <c r="T311" t="n">
         <v>18</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E312" t="n">
         <v>7</v>
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N312" t="n">
         <v>9000</v>
       </c>
       <c r="O312" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P312" t="n">
-        <v>9400</v>
+        <v>9000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="T312" t="n">
         <v>18</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E313" t="n">
         <v>7</v>
@@ -25395,25 +25395,25 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N313" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O313" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P313" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25422,11 +25422,11 @@
       </c>
       <c r="R313" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S313" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T313" t="n">
         <v>18</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E314" t="n">
         <v>7</v>
@@ -25475,25 +25475,25 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N314" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O314" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P314" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T314" t="n">
         <v>18</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E315" t="n">
         <v>7</v>
@@ -25560,20 +25560,20 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="N315" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O315" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P315" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T315" t="n">
         <v>18</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44461</v>
+        <v>44270</v>
       </c>
       <c r="E316" t="n">
         <v>7</v>
@@ -25640,20 +25640,20 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="N316" t="n">
         <v>9000</v>
       </c>
       <c r="O316" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P316" t="n">
-        <v>9000</v>
+        <v>9400</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="T316" t="n">
         <v>18</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44461</v>
+        <v>44250</v>
       </c>
       <c r="E317" t="n">
         <v>7</v>
@@ -25715,7 +25715,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -25724,7 +25724,7 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="N317" t="n">
         <v>8000</v>
@@ -25742,7 +25742,7 @@
       </c>
       <c r="R317" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S317" t="n">
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E318" t="n">
         <v>7</v>
@@ -25795,25 +25795,25 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N318" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O318" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P318" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T318" t="n">
         <v>18</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E319" t="n">
         <v>7</v>
@@ -25875,7 +25875,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -25884,7 +25884,7 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N319" t="n">
         <v>8000</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E320" t="n">
         <v>7</v>
@@ -25964,16 +25964,16 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="N320" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O320" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P320" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T320" t="n">
         <v>18</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E321" t="n">
         <v>7</v>
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N321" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O321" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P321" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T321" t="n">
         <v>18</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E322" t="n">
         <v>7</v>
@@ -26124,16 +26124,16 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N322" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O322" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P322" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T322" t="n">
         <v>18</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E323" t="n">
         <v>7</v>
@@ -26195,7 +26195,7 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N323" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O323" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P323" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T323" t="n">
         <v>18</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E324" t="n">
         <v>7</v>
@@ -26275,25 +26275,25 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N324" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O324" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P324" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26302,11 +26302,11 @@
       </c>
       <c r="R324" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S324" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T324" t="n">
         <v>18</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E325" t="n">
         <v>7</v>
@@ -26355,7 +26355,7 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -26364,16 +26364,16 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N325" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O325" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P325" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26382,11 +26382,11 @@
       </c>
       <c r="R325" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S325" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T325" t="n">
         <v>18</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E326" t="n">
         <v>7</v>
@@ -26435,25 +26435,25 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N326" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O326" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P326" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26462,11 +26462,11 @@
       </c>
       <c r="R326" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S326" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T326" t="n">
         <v>18</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E327" t="n">
         <v>7</v>
@@ -26515,7 +26515,7 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
@@ -26524,16 +26524,16 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N327" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O327" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P327" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T327" t="n">
         <v>18</v>
@@ -26567,68 +26567,388 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E328" t="n">
+        <v>7</v>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G328" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I328" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>Abate Fettel</t>
+        </is>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M328" t="n">
+        <v>300</v>
+      </c>
+      <c r="N328" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O328" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P328" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q328" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R328" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S328" t="n">
+        <v>389</v>
+      </c>
+      <c r="T328" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>5</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D329" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E329" t="n">
+        <v>7</v>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G329" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I329" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>Forelle</t>
+        </is>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M329" t="n">
+        <v>150</v>
+      </c>
+      <c r="N329" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O329" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P329" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q329" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R329" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S329" t="n">
+        <v>444</v>
+      </c>
+      <c r="T329" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>5</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D330" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E330" t="n">
+        <v>7</v>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G330" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I330" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>Forelle</t>
+        </is>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M330" t="n">
+        <v>100</v>
+      </c>
+      <c r="N330" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O330" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P330" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R330" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S330" t="n">
+        <v>333</v>
+      </c>
+      <c r="T330" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>5</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D331" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E328" t="n">
-        <v>7</v>
-      </c>
-      <c r="F328" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G328" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I328" t="n">
-        <v>100104005</v>
-      </c>
-      <c r="J328" t="inlineStr">
-        <is>
-          <t>Pera</t>
-        </is>
-      </c>
-      <c r="K328" t="inlineStr">
+      <c r="E331" t="n">
+        <v>7</v>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G331" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I331" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>Abate Fettel</t>
+        </is>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M331" t="n">
+        <v>180</v>
+      </c>
+      <c r="N331" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O331" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P331" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q331" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R331" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S331" t="n">
+        <v>389</v>
+      </c>
+      <c r="T331" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>5</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D332" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E332" t="n">
+        <v>7</v>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G332" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
         <is>
           <t>Packham's Triumph</t>
         </is>
       </c>
-      <c r="L328" t="inlineStr">
+      <c r="L332" t="inlineStr">
         <is>
           <t>Especial</t>
         </is>
       </c>
-      <c r="M328" t="n">
+      <c r="M332" t="n">
         <v>250</v>
       </c>
-      <c r="N328" t="n">
+      <c r="N332" t="n">
         <v>10000</v>
       </c>
-      <c r="O328" t="n">
+      <c r="O332" t="n">
         <v>10000</v>
       </c>
-      <c r="P328" t="n">
+      <c r="P332" t="n">
         <v>10000</v>
       </c>
-      <c r="Q328" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos granel</t>
-        </is>
-      </c>
-      <c r="R328" t="inlineStr">
+      <c r="Q332" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R332" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S328" t="n">
+      <c r="S332" t="n">
         <v>556</v>
       </c>
-      <c r="T328" t="n">
+      <c r="T332" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T345"/>
+  <dimension ref="A1:T348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44330</v>
+        <v>44483</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -11315,25 +11315,25 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="N137" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O137" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P137" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11342,11 +11342,11 @@
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S137" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="T137" t="n">
         <v>18</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44330</v>
+        <v>44483</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11395,7 +11395,7 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -11404,16 +11404,16 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N138" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O138" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P138" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11422,11 +11422,11 @@
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S138" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T138" t="n">
         <v>18</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44330</v>
+        <v>44483</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
@@ -11480,20 +11480,20 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="N139" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O139" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P139" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11502,11 +11502,11 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S139" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T139" t="n">
         <v>18</v>
@@ -11555,7 +11555,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -11564,16 +11564,16 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N140" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O140" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P140" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T140" t="n">
         <v>18</v>
@@ -11635,16 +11635,16 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N141" t="n">
         <v>7000</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E142" t="n">
         <v>7</v>
@@ -11724,16 +11724,16 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N142" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O142" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P142" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11742,11 +11742,11 @@
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S142" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T142" t="n">
         <v>18</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11795,16 +11795,16 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="N143" t="n">
         <v>9000</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11875,25 +11875,25 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="N144" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O144" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P144" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T144" t="n">
         <v>18</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44265</v>
+        <v>44463</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -11955,25 +11955,25 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="N145" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O145" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P145" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11982,11 +11982,11 @@
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S145" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T145" t="n">
         <v>18</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E146" t="n">
         <v>7</v>
@@ -12035,16 +12035,16 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="N146" t="n">
         <v>9000</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E147" t="n">
         <v>7</v>
@@ -12115,25 +12115,25 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="N147" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O147" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P147" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T147" t="n">
         <v>18</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44428</v>
+        <v>44265</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12204,7 +12204,7 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N148" t="n">
         <v>8000</v>
@@ -12222,7 +12222,7 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S148" t="n">
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44428</v>
+        <v>44265</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12280,11 +12280,11 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="N149" t="n">
         <v>9000</v>
@@ -12302,7 +12302,7 @@
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S149" t="n">
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44428</v>
+        <v>44265</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -12360,20 +12360,20 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="N150" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O150" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P150" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12382,11 +12382,11 @@
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S150" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T150" t="n">
         <v>18</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44293</v>
+        <v>44428</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -12440,20 +12440,20 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="N151" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O151" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P151" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12462,11 +12462,11 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S151" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T151" t="n">
         <v>18</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44293</v>
+        <v>44428</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -12515,25 +12515,25 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N152" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O152" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P152" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12542,11 +12542,11 @@
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S152" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T152" t="n">
         <v>18</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44293</v>
+        <v>44428</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -12600,20 +12600,20 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N153" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O153" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P153" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12622,11 +12622,11 @@
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S153" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T153" t="n">
         <v>18</v>
@@ -12675,25 +12675,25 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="N154" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O154" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P154" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T154" t="n">
         <v>18</v>
@@ -12755,16 +12755,16 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N155" t="n">
         <v>7000</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
@@ -12844,7 +12844,7 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N156" t="n">
         <v>9000</v>
@@ -12857,19 +12857,19 @@
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S156" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T156" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157">
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12920,36 +12920,36 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N157" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O157" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P157" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S157" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T157" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158">
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44447</v>
+        <v>44293</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -12995,25 +12995,25 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N158" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O158" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P158" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13022,11 +13022,11 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S158" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T158" t="n">
         <v>18</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13080,24 +13080,24 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N159" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O159" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P159" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R159" t="inlineStr">
@@ -13106,10 +13106,10 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="T159" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160">
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44421</v>
+        <v>44343</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13155,29 +13155,29 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N160" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O160" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P160" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
@@ -13186,10 +13186,10 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="T160" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161">
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -13244,7 +13244,7 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N161" t="n">
         <v>8000</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
@@ -13320,20 +13320,20 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N162" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O162" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P162" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T162" t="n">
         <v>18</v>
@@ -13395,7 +13395,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -13404,16 +13404,16 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N163" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O163" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P163" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T163" t="n">
         <v>18</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
@@ -13475,25 +13475,25 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N164" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O164" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P164" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T164" t="n">
         <v>18</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E165" t="n">
         <v>7</v>
@@ -13560,11 +13560,11 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="N165" t="n">
         <v>10000</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44316</v>
+        <v>44421</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -13635,7 +13635,7 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -13644,7 +13644,7 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="N166" t="n">
         <v>8000</v>
@@ -13662,7 +13662,7 @@
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S166" t="n">
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44316</v>
+        <v>44294</v>
       </c>
       <c r="E167" t="n">
         <v>7</v>
@@ -13724,16 +13724,16 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N167" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O167" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P167" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13742,11 +13742,11 @@
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S167" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T167" t="n">
         <v>18</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44316</v>
+        <v>44294</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="N168" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O168" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P168" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13822,11 +13822,11 @@
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S168" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T168" t="n">
         <v>18</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E169" t="n">
         <v>7</v>
@@ -13884,16 +13884,16 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="N169" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O169" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P169" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13902,11 +13902,11 @@
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S169" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T169" t="n">
         <v>18</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44454</v>
+        <v>44316</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -13964,16 +13964,16 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N170" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O170" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P170" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T170" t="n">
         <v>18</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44454</v>
+        <v>44316</v>
       </c>
       <c r="E171" t="n">
         <v>7</v>
@@ -14044,16 +14044,16 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="N171" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O171" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P171" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T171" t="n">
         <v>18</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -14115,7 +14115,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -14124,16 +14124,16 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N172" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O172" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P172" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14142,11 +14142,11 @@
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S172" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T172" t="n">
         <v>18</v>
@@ -14195,25 +14195,25 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M173" t="n">
         <v>250</v>
       </c>
       <c r="N173" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O173" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P173" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="T173" t="n">
         <v>18</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44410</v>
+        <v>44454</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14280,11 +14280,11 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N174" t="n">
         <v>9000</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44410</v>
+        <v>44454</v>
       </c>
       <c r="E175" t="n">
         <v>7</v>
@@ -14355,25 +14355,25 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M175" t="n">
         <v>200</v>
       </c>
       <c r="N175" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O175" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P175" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T175" t="n">
         <v>18</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44467</v>
+        <v>44454</v>
       </c>
       <c r="E176" t="n">
         <v>7</v>
@@ -14435,25 +14435,25 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N176" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O176" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P176" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14462,11 +14462,11 @@
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S176" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="T176" t="n">
         <v>18</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44467</v>
+        <v>44410</v>
       </c>
       <c r="E177" t="n">
         <v>7</v>
@@ -14520,20 +14520,20 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N177" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O177" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P177" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14542,11 +14542,11 @@
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S177" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T177" t="n">
         <v>18</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44427</v>
+        <v>44410</v>
       </c>
       <c r="E178" t="n">
         <v>7</v>
@@ -14600,20 +14600,20 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N178" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O178" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P178" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T178" t="n">
         <v>18</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -14680,20 +14680,20 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="N179" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O179" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P179" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14702,11 +14702,11 @@
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S179" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T179" t="n">
         <v>18</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44319</v>
+        <v>44467</v>
       </c>
       <c r="E180" t="n">
         <v>7</v>
@@ -14755,25 +14755,25 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N180" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O180" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P180" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14782,11 +14782,11 @@
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S180" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T180" t="n">
         <v>18</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E181" t="n">
         <v>7</v>
@@ -14835,25 +14835,25 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="N181" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O181" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P181" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T181" t="n">
         <v>18</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E182" t="n">
         <v>7</v>
@@ -14920,20 +14920,20 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N182" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O182" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P182" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T182" t="n">
         <v>18</v>
@@ -14995,16 +14995,16 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N183" t="n">
         <v>9000</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E184" t="n">
         <v>7</v>
@@ -15075,7 +15075,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -15084,7 +15084,7 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="N184" t="n">
         <v>8000</v>
@@ -15102,7 +15102,7 @@
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S184" t="n">
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E185" t="n">
         <v>7</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E186" t="n">
         <v>7</v>
@@ -15240,20 +15240,20 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N186" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O186" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P186" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15262,11 +15262,11 @@
       </c>
       <c r="R186" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S186" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T186" t="n">
         <v>18</v>
@@ -15315,25 +15315,25 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="N187" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O187" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P187" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15342,11 +15342,11 @@
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S187" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T187" t="n">
         <v>18</v>
@@ -15400,20 +15400,20 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M188" t="n">
         <v>200</v>
       </c>
       <c r="N188" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O188" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P188" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15422,11 +15422,11 @@
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S188" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T188" t="n">
         <v>18</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E189" t="n">
         <v>7</v>
@@ -15475,25 +15475,25 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="N189" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O189" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P189" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15502,11 +15502,11 @@
       </c>
       <c r="R189" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S189" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T189" t="n">
         <v>18</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E190" t="n">
         <v>7</v>
@@ -15560,20 +15560,20 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M190" t="n">
         <v>230</v>
       </c>
       <c r="N190" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O190" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P190" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T190" t="n">
         <v>18</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44411</v>
+        <v>44473</v>
       </c>
       <c r="E191" t="n">
         <v>7</v>
@@ -15640,20 +15640,20 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M191" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N191" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O191" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P191" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15662,11 +15662,11 @@
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S191" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T191" t="n">
         <v>18</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44403</v>
+        <v>44273</v>
       </c>
       <c r="E192" t="n">
         <v>7</v>
@@ -15715,7 +15715,7 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
@@ -15724,16 +15724,16 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="N192" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O192" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P192" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15742,11 +15742,11 @@
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S192" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T192" t="n">
         <v>18</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44413</v>
+        <v>44273</v>
       </c>
       <c r="E193" t="n">
         <v>7</v>
@@ -15795,7 +15795,7 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
@@ -15804,7 +15804,7 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="N193" t="n">
         <v>8000</v>
@@ -15822,7 +15822,7 @@
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S193" t="n">
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44413</v>
+        <v>44411</v>
       </c>
       <c r="E194" t="n">
         <v>7</v>
@@ -15884,16 +15884,16 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N194" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O194" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P194" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15902,11 +15902,11 @@
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S194" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T194" t="n">
         <v>18</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44413</v>
+        <v>44403</v>
       </c>
       <c r="E195" t="n">
         <v>7</v>
@@ -15964,16 +15964,16 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="N195" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O195" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P195" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T195" t="n">
         <v>18</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E196" t="n">
         <v>7</v>
@@ -16035,16 +16035,16 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="N196" t="n">
         <v>8000</v>
@@ -16062,7 +16062,7 @@
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S196" t="n">
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E197" t="n">
         <v>7</v>
@@ -16115,25 +16115,25 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N197" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O197" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P197" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16142,11 +16142,11 @@
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S197" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T197" t="n">
         <v>18</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E198" t="n">
         <v>7</v>
@@ -16200,20 +16200,20 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N198" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O198" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P198" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16222,11 +16222,11 @@
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S198" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T198" t="n">
         <v>18</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E199" t="n">
         <v>7</v>
@@ -16275,16 +16275,16 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N199" t="n">
         <v>8000</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E200" t="n">
         <v>7</v>
@@ -16360,20 +16360,20 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N200" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O200" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P200" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16382,11 +16382,11 @@
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S200" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T200" t="n">
         <v>18</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E201" t="n">
         <v>7</v>
@@ -16435,25 +16435,25 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M201" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N201" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O201" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P201" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16462,11 +16462,11 @@
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S201" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T201" t="n">
         <v>18</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E202" t="n">
         <v>7</v>
@@ -16520,20 +16520,20 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M202" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N202" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O202" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P202" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16542,11 +16542,11 @@
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S202" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T202" t="n">
         <v>18</v>
@@ -16595,25 +16595,25 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M203" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N203" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O203" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P203" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T203" t="n">
         <v>18</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E204" t="n">
         <v>7</v>
@@ -16684,16 +16684,16 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N204" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O204" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P204" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16702,11 +16702,11 @@
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S204" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T204" t="n">
         <v>18</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E205" t="n">
         <v>7</v>
@@ -16782,7 +16782,7 @@
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S205" t="n">
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E206" t="n">
         <v>7</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E207" t="n">
         <v>7</v>
@@ -16920,20 +16920,20 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M207" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N207" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O207" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P207" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T207" t="n">
         <v>18</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E208" t="n">
         <v>7</v>
@@ -17007,13 +17007,13 @@
         <v>250</v>
       </c>
       <c r="N208" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O208" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P208" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T208" t="n">
         <v>18</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E209" t="n">
         <v>7</v>
@@ -17084,7 +17084,7 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N209" t="n">
         <v>8000</v>
@@ -17102,7 +17102,7 @@
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S209" t="n">
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44280</v>
+        <v>44292</v>
       </c>
       <c r="E210" t="n">
         <v>7</v>
@@ -17155,7 +17155,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -17164,16 +17164,16 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N210" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O210" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P210" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17182,11 +17182,11 @@
       </c>
       <c r="R210" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S210" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T210" t="n">
         <v>18</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44280</v>
+        <v>44292</v>
       </c>
       <c r="E211" t="n">
         <v>7</v>
@@ -17240,20 +17240,20 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N211" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O211" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P211" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17262,11 +17262,11 @@
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S211" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T211" t="n">
         <v>18</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44445</v>
+        <v>44292</v>
       </c>
       <c r="E212" t="n">
         <v>7</v>
@@ -17315,7 +17315,7 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -17324,7 +17324,7 @@
         </is>
       </c>
       <c r="M212" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N212" t="n">
         <v>8000</v>
@@ -17342,7 +17342,7 @@
       </c>
       <c r="R212" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S212" t="n">
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44445</v>
+        <v>44280</v>
       </c>
       <c r="E213" t="n">
         <v>7</v>
@@ -17404,7 +17404,7 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N213" t="n">
         <v>10000</v>
@@ -17422,7 +17422,7 @@
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S213" t="n">
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44445</v>
+        <v>44280</v>
       </c>
       <c r="E214" t="n">
         <v>7</v>
@@ -17480,20 +17480,20 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N214" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O214" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P214" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17502,11 +17502,11 @@
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S214" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T214" t="n">
         <v>18</v>
@@ -17555,7 +17555,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -17564,16 +17564,16 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="N215" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="O215" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="P215" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17582,11 +17582,11 @@
       </c>
       <c r="R215" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S215" t="n">
-        <v>528</v>
+        <v>444</v>
       </c>
       <c r="T215" t="n">
         <v>18</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E216" t="n">
         <v>7</v>
@@ -17635,41 +17635,41 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="N216" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O216" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P216" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S216" t="n">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="T216" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217">
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44344</v>
+        <v>44445</v>
       </c>
       <c r="E217" t="n">
         <v>7</v>
@@ -17715,25 +17715,25 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N217" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O217" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P217" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17742,11 +17742,11 @@
       </c>
       <c r="R217" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S217" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T217" t="n">
         <v>18</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44344</v>
+        <v>44445</v>
       </c>
       <c r="E218" t="n">
         <v>7</v>
@@ -17800,20 +17800,20 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N218" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="O218" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="P218" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>556</v>
+        <v>528</v>
       </c>
       <c r="T218" t="n">
         <v>18</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E219" t="n">
         <v>7</v>
@@ -17875,41 +17875,41 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="N219" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O219" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P219" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R219" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S219" t="n">
-        <v>611</v>
+        <v>533</v>
       </c>
       <c r="T219" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="220">
@@ -17955,7 +17955,7 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
@@ -17964,16 +17964,16 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="N220" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O220" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P220" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T220" t="n">
         <v>18</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E221" t="n">
         <v>7</v>
@@ -18062,7 +18062,7 @@
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S221" t="n">
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E222" t="n">
         <v>7</v>
@@ -18120,20 +18120,20 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N222" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O222" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P222" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18142,11 +18142,11 @@
       </c>
       <c r="R222" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S222" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T222" t="n">
         <v>18</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44358</v>
+        <v>44344</v>
       </c>
       <c r="E223" t="n">
         <v>7</v>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -18204,16 +18204,16 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="N223" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O223" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P223" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18222,11 +18222,11 @@
       </c>
       <c r="R223" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S223" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T223" t="n">
         <v>18</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E224" t="n">
         <v>7</v>
@@ -18284,7 +18284,7 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N224" t="n">
         <v>10000</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E225" t="n">
         <v>7</v>
@@ -18364,7 +18364,7 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="N225" t="n">
         <v>9000</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E226" t="n">
         <v>7</v>
@@ -18435,25 +18435,25 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M226" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N226" t="n">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="O226" t="n">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="P226" t="n">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18462,11 +18462,11 @@
       </c>
       <c r="R226" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S226" t="n">
-        <v>56</v>
+        <v>389</v>
       </c>
       <c r="T226" t="n">
         <v>18</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E227" t="n">
         <v>7</v>
@@ -18520,20 +18520,20 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N227" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O227" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P227" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18542,11 +18542,11 @@
       </c>
       <c r="R227" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S227" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T227" t="n">
         <v>18</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44231</v>
+        <v>44358</v>
       </c>
       <c r="E228" t="n">
         <v>7</v>
@@ -18595,7 +18595,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -18604,16 +18604,16 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="N228" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O228" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P228" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T228" t="n">
         <v>18</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44231</v>
+        <v>44391</v>
       </c>
       <c r="E229" t="n">
         <v>7</v>
@@ -18675,25 +18675,25 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N229" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="O229" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P229" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18702,11 +18702,11 @@
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S229" t="n">
-        <v>556</v>
+        <v>56</v>
       </c>
       <c r="T229" t="n">
         <v>18</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44320</v>
+        <v>44391</v>
       </c>
       <c r="E230" t="n">
         <v>7</v>
@@ -18755,25 +18755,25 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M230" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N230" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O230" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P230" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="T230" t="n">
         <v>18</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E231" t="n">
         <v>7</v>
@@ -18835,25 +18835,25 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N231" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O231" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P231" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T231" t="n">
         <v>18</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E232" t="n">
         <v>7</v>
@@ -18915,25 +18915,25 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M232" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N232" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O232" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P232" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T232" t="n">
         <v>18</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E233" t="n">
         <v>7</v>
@@ -18995,25 +18995,25 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="N233" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O233" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P233" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="T233" t="n">
         <v>18</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E234" t="n">
         <v>7</v>
@@ -19075,25 +19075,25 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N234" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O234" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P234" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19102,11 +19102,11 @@
       </c>
       <c r="R234" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S234" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T234" t="n">
         <v>18</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E235" t="n">
         <v>7</v>
@@ -19160,20 +19160,20 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N235" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O235" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P235" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19182,11 +19182,11 @@
       </c>
       <c r="R235" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S235" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T235" t="n">
         <v>18</v>
@@ -19235,25 +19235,25 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="N236" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O236" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P236" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T236" t="n">
         <v>18</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E237" t="n">
         <v>7</v>
@@ -19315,25 +19315,25 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="N237" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O237" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P237" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19342,11 +19342,11 @@
       </c>
       <c r="R237" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S237" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T237" t="n">
         <v>18</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E238" t="n">
         <v>7</v>
@@ -19400,20 +19400,20 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="N238" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O238" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P238" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19422,11 +19422,11 @@
       </c>
       <c r="R238" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S238" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T238" t="n">
         <v>18</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E239" t="n">
         <v>7</v>
@@ -19475,7 +19475,7 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
@@ -19484,16 +19484,16 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N239" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O239" t="n">
         <v>8000</v>
       </c>
       <c r="P239" t="n">
-        <v>7370</v>
+        <v>8000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="T239" t="n">
         <v>18</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E240" t="n">
         <v>7</v>
@@ -19564,7 +19564,7 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N240" t="n">
         <v>9000</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E241" t="n">
         <v>7</v>
@@ -19644,7 +19644,7 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N241" t="n">
         <v>8000</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44362</v>
+        <v>44252</v>
       </c>
       <c r="E242" t="n">
         <v>7</v>
@@ -19715,25 +19715,25 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="N242" t="n">
         <v>7000</v>
       </c>
       <c r="O242" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P242" t="n">
-        <v>7000</v>
+        <v>7370</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19742,11 +19742,11 @@
       </c>
       <c r="R242" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S242" t="n">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="T242" t="n">
         <v>18</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E243" t="n">
         <v>7</v>
@@ -19795,7 +19795,7 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
@@ -19804,7 +19804,7 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N243" t="n">
         <v>9000</v>
@@ -19822,7 +19822,7 @@
       </c>
       <c r="R243" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S243" t="n">
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E244" t="n">
         <v>7</v>
@@ -19875,7 +19875,7 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -19884,7 +19884,7 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N244" t="n">
         <v>8000</v>
@@ -19902,7 +19902,7 @@
       </c>
       <c r="R244" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S244" t="n">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E245" t="n">
         <v>7</v>
@@ -19960,20 +19960,20 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N245" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O245" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P245" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19982,11 +19982,11 @@
       </c>
       <c r="R245" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S245" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T245" t="n">
         <v>18</v>
@@ -20035,25 +20035,25 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="N246" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O246" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P246" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T246" t="n">
         <v>18</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E247" t="n">
         <v>7</v>
@@ -20124,16 +20124,16 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="N247" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O247" t="n">
         <v>8000</v>
       </c>
       <c r="P247" t="n">
-        <v>7385</v>
+        <v>8000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="T247" t="n">
         <v>18</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E248" t="n">
         <v>7</v>
@@ -20200,20 +20200,20 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N248" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O248" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P248" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T248" t="n">
         <v>18</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E249" t="n">
         <v>7</v>
@@ -20280,20 +20280,20 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="N249" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O249" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P249" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T249" t="n">
         <v>18</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E250" t="n">
         <v>7</v>
@@ -20364,16 +20364,16 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N250" t="n">
         <v>7000</v>
       </c>
       <c r="O250" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P250" t="n">
-        <v>7000</v>
+        <v>7385</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20382,11 +20382,11 @@
       </c>
       <c r="R250" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S250" t="n">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="T250" t="n">
         <v>18</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E251" t="n">
         <v>7</v>
@@ -20440,20 +20440,20 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N251" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O251" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P251" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20462,11 +20462,11 @@
       </c>
       <c r="R251" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S251" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T251" t="n">
         <v>18</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44448</v>
+        <v>44349</v>
       </c>
       <c r="E252" t="n">
         <v>7</v>
@@ -20520,20 +20520,20 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="N252" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O252" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P252" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20542,11 +20542,11 @@
       </c>
       <c r="R252" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S252" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T252" t="n">
         <v>18</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E253" t="n">
         <v>7</v>
@@ -20595,7 +20595,7 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
@@ -20604,16 +20604,16 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N253" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O253" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P253" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20622,11 +20622,11 @@
       </c>
       <c r="R253" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S253" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T253" t="n">
         <v>18</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E254" t="n">
         <v>7</v>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="N254" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O254" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P254" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20702,11 +20702,11 @@
       </c>
       <c r="R254" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S254" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T254" t="n">
         <v>18</v>
@@ -20760,20 +20760,20 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="N255" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O255" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P255" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20782,11 +20782,11 @@
       </c>
       <c r="R255" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S255" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T255" t="n">
         <v>18</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E256" t="n">
         <v>7</v>
@@ -20835,7 +20835,7 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
@@ -20844,7 +20844,7 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="N256" t="n">
         <v>9000</v>
@@ -20862,7 +20862,7 @@
       </c>
       <c r="R256" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S256" t="n">
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E257" t="n">
         <v>7</v>
@@ -20920,20 +20920,20 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N257" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O257" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P257" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20942,11 +20942,11 @@
       </c>
       <c r="R257" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S257" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T257" t="n">
         <v>18</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E258" t="n">
         <v>7</v>
@@ -21000,20 +21000,20 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="N258" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O258" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P258" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21022,11 +21022,11 @@
       </c>
       <c r="R258" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S258" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T258" t="n">
         <v>18</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44453</v>
+        <v>44243</v>
       </c>
       <c r="E259" t="n">
         <v>7</v>
@@ -21075,7 +21075,7 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
@@ -21084,16 +21084,16 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N259" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O259" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P259" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T259" t="n">
         <v>18</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44453</v>
+        <v>44385</v>
       </c>
       <c r="E260" t="n">
         <v>7</v>
@@ -21160,20 +21160,20 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N260" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O260" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P260" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T260" t="n">
         <v>18</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E261" t="n">
         <v>7</v>
@@ -21235,7 +21235,7 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>590</v>
+        <v>350</v>
       </c>
       <c r="N261" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O261" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P261" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21262,11 +21262,11 @@
       </c>
       <c r="R261" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S261" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T261" t="n">
         <v>18</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E262" t="n">
         <v>7</v>
@@ -21324,7 +21324,7 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N262" t="n">
         <v>8000</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E263" t="n">
         <v>7</v>
@@ -21400,20 +21400,20 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>970</v>
+        <v>360</v>
       </c>
       <c r="N263" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O263" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P263" t="n">
-        <v>9485</v>
+        <v>8000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21422,11 +21422,11 @@
       </c>
       <c r="R263" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S263" t="n">
-        <v>527</v>
+        <v>444</v>
       </c>
       <c r="T263" t="n">
         <v>18</v>
@@ -21475,7 +21475,7 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>480</v>
+        <v>590</v>
       </c>
       <c r="N264" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O264" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P264" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T264" t="n">
         <v>18</v>
@@ -21555,7 +21555,7 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
@@ -21564,7 +21564,7 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N265" t="n">
         <v>8000</v>
@@ -21640,36 +21640,36 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="N266" t="n">
-        <v>170000</v>
+        <v>9000</v>
       </c>
       <c r="O266" t="n">
-        <v>170000</v>
+        <v>10000</v>
       </c>
       <c r="P266" t="n">
-        <v>170000</v>
+        <v>9485</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R266" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S266" t="n">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="T266" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="267">
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E267" t="n">
         <v>7</v>
@@ -21724,16 +21724,16 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="N267" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O267" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P267" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T267" t="n">
         <v>18</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E268" t="n">
         <v>7</v>
@@ -21800,20 +21800,20 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N268" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O268" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P268" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21822,11 +21822,11 @@
       </c>
       <c r="R268" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S268" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T268" t="n">
         <v>18</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E269" t="n">
         <v>7</v>
@@ -21884,32 +21884,32 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>280</v>
+        <v>15</v>
       </c>
       <c r="N269" t="n">
-        <v>8000</v>
+        <v>170000</v>
       </c>
       <c r="O269" t="n">
-        <v>8000</v>
+        <v>170000</v>
       </c>
       <c r="P269" t="n">
-        <v>8000</v>
+        <v>170000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R269" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S269" t="n">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="T269" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="270">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44334</v>
+        <v>44377</v>
       </c>
       <c r="E270" t="n">
         <v>7</v>
@@ -21964,16 +21964,16 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>540</v>
+        <v>250</v>
       </c>
       <c r="N270" t="n">
         <v>9000</v>
       </c>
       <c r="O270" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P270" t="n">
-        <v>9481</v>
+        <v>9000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21982,11 +21982,11 @@
       </c>
       <c r="R270" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S270" t="n">
-        <v>527</v>
+        <v>500</v>
       </c>
       <c r="T270" t="n">
         <v>18</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44476</v>
+        <v>44433</v>
       </c>
       <c r="E271" t="n">
         <v>7</v>
@@ -22035,25 +22035,25 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="N271" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O271" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P271" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22062,11 +22062,11 @@
       </c>
       <c r="R271" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S271" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T271" t="n">
         <v>18</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44476</v>
+        <v>44433</v>
       </c>
       <c r="E272" t="n">
         <v>7</v>
@@ -22115,7 +22115,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -22124,7 +22124,7 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="N272" t="n">
         <v>8000</v>
@@ -22142,7 +22142,7 @@
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S272" t="n">
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E273" t="n">
         <v>7</v>
@@ -22204,16 +22204,16 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="N273" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O273" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P273" t="n">
-        <v>8000</v>
+        <v>9481</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>444</v>
+        <v>527</v>
       </c>
       <c r="T273" t="n">
         <v>18</v>
@@ -22275,7 +22275,7 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -22284,7 +22284,7 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="N274" t="n">
         <v>8000</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E275" t="n">
         <v>7</v>
@@ -22355,7 +22355,7 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N275" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O275" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P275" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T275" t="n">
         <v>18</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E276" t="n">
         <v>7</v>
@@ -22435,7 +22435,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E277" t="n">
         <v>7</v>
@@ -22515,25 +22515,25 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="N277" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O277" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P277" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T277" t="n">
         <v>18</v>
@@ -22595,7 +22595,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N278" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O278" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P278" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T278" t="n">
         <v>18</v>
@@ -22675,7 +22675,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -22684,20 +22684,20 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="N279" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="O279" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="P279" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
@@ -22709,7 +22709,7 @@
         <v>444</v>
       </c>
       <c r="T279" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="280">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E280" t="n">
         <v>7</v>
@@ -22755,25 +22755,25 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="N280" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O280" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P280" t="n">
-        <v>7474</v>
+        <v>10000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22782,11 +22782,11 @@
       </c>
       <c r="R280" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S280" t="n">
-        <v>415</v>
+        <v>556</v>
       </c>
       <c r="T280" t="n">
         <v>18</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E281" t="n">
         <v>7</v>
@@ -22835,25 +22835,25 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N281" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O281" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P281" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22862,11 +22862,11 @@
       </c>
       <c r="R281" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S281" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T281" t="n">
         <v>18</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E282" t="n">
         <v>7</v>
@@ -22920,36 +22920,36 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="N282" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="O282" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="P282" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S282" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T282" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="283">
@@ -22995,7 +22995,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="N283" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O283" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P283" t="n">
-        <v>9000</v>
+        <v>7474</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>500</v>
+        <v>415</v>
       </c>
       <c r="T283" t="n">
         <v>18</v>
@@ -23075,7 +23075,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -23084,16 +23084,16 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N284" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O284" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P284" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="T284" t="n">
         <v>18</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E285" t="n">
         <v>7</v>
@@ -23164,7 +23164,7 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N285" t="n">
         <v>10000</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E286" t="n">
         <v>7</v>
@@ -23244,16 +23244,16 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N286" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O286" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P286" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T286" t="n">
         <v>18</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E287" t="n">
         <v>7</v>
@@ -23324,16 +23324,16 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="N287" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O287" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P287" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="T287" t="n">
         <v>18</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E288" t="n">
         <v>7</v>
@@ -23395,25 +23395,25 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="N288" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O288" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P288" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T288" t="n">
         <v>18</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E289" t="n">
         <v>7</v>
@@ -23475,25 +23475,25 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N289" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O289" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P289" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T289" t="n">
         <v>18</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E290" t="n">
         <v>7</v>
@@ -23555,25 +23555,25 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="N290" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O290" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P290" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="T290" t="n">
         <v>18</v>
@@ -23635,7 +23635,7 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
@@ -23644,16 +23644,16 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="N291" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O291" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P291" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T291" t="n">
         <v>18</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E292" t="n">
         <v>7</v>
@@ -23715,25 +23715,25 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="N292" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O292" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P292" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T292" t="n">
         <v>18</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E293" t="n">
         <v>7</v>
@@ -23795,7 +23795,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -23804,7 +23804,7 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N293" t="n">
         <v>8000</v>
@@ -23822,7 +23822,7 @@
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S293" t="n">
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E294" t="n">
         <v>7</v>
@@ -23880,20 +23880,20 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="N294" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O294" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P294" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23902,11 +23902,11 @@
       </c>
       <c r="R294" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S294" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T294" t="n">
         <v>18</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E295" t="n">
         <v>7</v>
@@ -23964,7 +23964,7 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N295" t="n">
         <v>9000</v>
@@ -23982,7 +23982,7 @@
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S295" t="n">
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E296" t="n">
         <v>7</v>
@@ -24047,13 +24047,13 @@
         <v>250</v>
       </c>
       <c r="N296" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O296" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P296" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24062,11 +24062,11 @@
       </c>
       <c r="R296" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S296" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T296" t="n">
         <v>18</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E297" t="n">
         <v>7</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="N297" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O297" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P297" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24142,11 +24142,11 @@
       </c>
       <c r="R297" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S297" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T297" t="n">
         <v>18</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E298" t="n">
         <v>7</v>
@@ -24195,7 +24195,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -24204,16 +24204,16 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N298" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O298" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P298" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24222,11 +24222,11 @@
       </c>
       <c r="R298" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S298" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T298" t="n">
         <v>18</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E299" t="n">
         <v>7</v>
@@ -24275,25 +24275,25 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>560</v>
+        <v>250</v>
       </c>
       <c r="N299" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O299" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P299" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24302,11 +24302,11 @@
       </c>
       <c r="R299" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S299" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="T299" t="n">
         <v>18</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E300" t="n">
         <v>7</v>
@@ -24360,11 +24360,11 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="N300" t="n">
         <v>9000</v>
@@ -24382,7 +24382,7 @@
       </c>
       <c r="R300" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S300" t="n">
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E301" t="n">
         <v>7</v>
@@ -24435,7 +24435,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -24444,16 +24444,16 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>380</v>
+        <v>210</v>
       </c>
       <c r="N301" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O301" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P301" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24462,11 +24462,11 @@
       </c>
       <c r="R301" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S301" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T301" t="n">
         <v>18</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E302" t="n">
         <v>7</v>
@@ -24520,20 +24520,20 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>200</v>
+        <v>560</v>
       </c>
       <c r="N302" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O302" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P302" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="T302" t="n">
         <v>18</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E303" t="n">
         <v>7</v>
@@ -24600,20 +24600,20 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="N303" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O303" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P303" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24622,11 +24622,11 @@
       </c>
       <c r="R303" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S303" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T303" t="n">
         <v>18</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E304" t="n">
         <v>7</v>
@@ -24684,7 +24684,7 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="N304" t="n">
         <v>9000</v>
@@ -24702,7 +24702,7 @@
       </c>
       <c r="R304" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S304" t="n">
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="E305" t="n">
         <v>7</v>
@@ -24755,25 +24755,25 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>530</v>
+        <v>200</v>
       </c>
       <c r="N305" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O305" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P305" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24782,11 +24782,11 @@
       </c>
       <c r="R305" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S305" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T305" t="n">
         <v>18</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E306" t="n">
         <v>7</v>
@@ -24840,11 +24840,11 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N306" t="n">
         <v>10000</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E307" t="n">
         <v>7</v>
@@ -24942,7 +24942,7 @@
       </c>
       <c r="R307" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S307" t="n">
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E308" t="n">
         <v>7</v>
@@ -25004,16 +25004,16 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>200</v>
+        <v>530</v>
       </c>
       <c r="N308" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O308" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P308" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T308" t="n">
         <v>18</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E309" t="n">
         <v>7</v>
@@ -25084,16 +25084,16 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N309" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O309" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P309" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T309" t="n">
         <v>18</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E310" t="n">
         <v>7</v>
@@ -25155,7 +25155,7 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N310" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O310" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P310" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25182,11 +25182,11 @@
       </c>
       <c r="R310" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S310" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T310" t="n">
         <v>18</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E311" t="n">
         <v>7</v>
@@ -25235,25 +25235,25 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N311" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O311" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P311" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T311" t="n">
         <v>18</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E312" t="n">
         <v>7</v>
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N312" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O312" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P312" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T312" t="n">
         <v>18</v>
@@ -25395,16 +25395,16 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="N313" t="n">
         <v>7000</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E314" t="n">
         <v>7</v>
@@ -25484,16 +25484,16 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N314" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O314" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P314" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25502,11 +25502,11 @@
       </c>
       <c r="R314" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S314" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="T314" t="n">
         <v>18</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E315" t="n">
         <v>7</v>
@@ -25564,16 +25564,16 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="N315" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O315" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P315" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25582,11 +25582,11 @@
       </c>
       <c r="R315" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S315" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T315" t="n">
         <v>18</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E316" t="n">
         <v>7</v>
@@ -25640,20 +25640,20 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="N316" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O316" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P316" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T316" t="n">
         <v>18</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E317" t="n">
         <v>7</v>
@@ -25720,20 +25720,20 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N317" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O317" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P317" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25742,11 +25742,11 @@
       </c>
       <c r="R317" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S317" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T317" t="n">
         <v>18</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E318" t="n">
         <v>7</v>
@@ -25800,11 +25800,11 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N318" t="n">
         <v>10000</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E319" t="n">
         <v>7</v>
@@ -25880,20 +25880,20 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N319" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O319" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P319" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25902,11 +25902,11 @@
       </c>
       <c r="R319" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S319" t="n">
-        <v>472</v>
+        <v>556</v>
       </c>
       <c r="T319" t="n">
         <v>18</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E320" t="n">
         <v>7</v>
@@ -25955,7 +25955,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -25964,16 +25964,16 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N320" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O320" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P320" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T320" t="n">
         <v>18</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E321" t="n">
         <v>7</v>
@@ -26044,7 +26044,7 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N321" t="n">
         <v>10000</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E322" t="n">
         <v>7</v>
@@ -26124,16 +26124,16 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N322" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O322" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="P322" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="T322" t="n">
         <v>18</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E323" t="n">
         <v>7</v>
@@ -26195,25 +26195,25 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>400</v>
+        <v>210</v>
       </c>
       <c r="N323" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O323" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P323" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T323" t="n">
         <v>18</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E324" t="n">
         <v>7</v>
@@ -26280,20 +26280,20 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N324" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O324" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P324" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26302,11 +26302,11 @@
       </c>
       <c r="R324" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S324" t="n">
-        <v>472</v>
+        <v>556</v>
       </c>
       <c r="T324" t="n">
         <v>18</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E325" t="n">
         <v>7</v>
@@ -26364,16 +26364,16 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>350</v>
+        <v>210</v>
       </c>
       <c r="N325" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O325" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P325" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26382,11 +26382,11 @@
       </c>
       <c r="R325" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S325" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T325" t="n">
         <v>18</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E326" t="n">
         <v>7</v>
@@ -26440,20 +26440,20 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N326" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O326" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P326" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T326" t="n">
         <v>18</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44270</v>
+        <v>44390</v>
       </c>
       <c r="E327" t="n">
         <v>7</v>
@@ -26515,7 +26515,7 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
@@ -26524,16 +26524,16 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N327" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O327" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="P327" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="T327" t="n">
         <v>18</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E328" t="n">
         <v>7</v>
@@ -26600,20 +26600,20 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="N328" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O328" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P328" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T328" t="n">
         <v>18</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E329" t="n">
         <v>7</v>
@@ -26680,20 +26680,20 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N329" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O329" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P329" t="n">
-        <v>9400</v>
+        <v>7000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>522</v>
+        <v>389</v>
       </c>
       <c r="T329" t="n">
         <v>18</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E330" t="n">
         <v>7</v>
@@ -26755,7 +26755,7 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
@@ -26764,7 +26764,7 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="N330" t="n">
         <v>8000</v>
@@ -26782,7 +26782,7 @@
       </c>
       <c r="R330" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S330" t="n">
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E331" t="n">
         <v>7</v>
@@ -26844,16 +26844,16 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="N331" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O331" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P331" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T331" t="n">
         <v>18</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E332" t="n">
         <v>7</v>
@@ -26924,16 +26924,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="N332" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O332" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P332" t="n">
-        <v>8000</v>
+        <v>9400</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>444</v>
+        <v>522</v>
       </c>
       <c r="T332" t="n">
         <v>18</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44461</v>
+        <v>44250</v>
       </c>
       <c r="E333" t="n">
         <v>7</v>
@@ -26995,25 +26995,25 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>360</v>
+        <v>130</v>
       </c>
       <c r="N333" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O333" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P333" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27022,11 +27022,11 @@
       </c>
       <c r="R333" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S333" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T333" t="n">
         <v>18</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E334" t="n">
         <v>7</v>
@@ -27080,20 +27080,20 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N334" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O334" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P334" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T334" t="n">
         <v>18</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E335" t="n">
         <v>7</v>
@@ -27155,7 +27155,7 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
@@ -27164,16 +27164,16 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N335" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O335" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P335" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T335" t="n">
         <v>18</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E336" t="n">
         <v>7</v>
@@ -27235,25 +27235,25 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N336" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O336" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P336" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T336" t="n">
         <v>18</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E337" t="n">
         <v>7</v>
@@ -27320,20 +27320,20 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N337" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O337" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P337" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T337" t="n">
         <v>18</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E338" t="n">
         <v>7</v>
@@ -27395,7 +27395,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -27404,16 +27404,16 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N338" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O338" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P338" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T338" t="n">
         <v>18</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E339" t="n">
         <v>7</v>
@@ -27475,7 +27475,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -27484,7 +27484,7 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N339" t="n">
         <v>8000</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E340" t="n">
         <v>7</v>
@@ -27560,20 +27560,20 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N340" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O340" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P340" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T340" t="n">
         <v>18</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E341" t="n">
         <v>7</v>
@@ -27635,7 +27635,7 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -27647,13 +27647,13 @@
         <v>300</v>
       </c>
       <c r="N341" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O341" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P341" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27662,11 +27662,11 @@
       </c>
       <c r="R341" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S341" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T341" t="n">
         <v>18</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E342" t="n">
         <v>7</v>
@@ -27715,7 +27715,7 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
@@ -27724,7 +27724,7 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N342" t="n">
         <v>8000</v>
@@ -27742,7 +27742,7 @@
       </c>
       <c r="R342" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S342" t="n">
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E343" t="n">
         <v>7</v>
@@ -27795,25 +27795,25 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N343" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O343" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P343" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27822,11 +27822,11 @@
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S343" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="T343" t="n">
         <v>18</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E344" t="n">
         <v>7</v>
@@ -27884,7 +27884,7 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N344" t="n">
         <v>7000</v>
@@ -27902,7 +27902,7 @@
       </c>
       <c r="R344" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S344" t="n">
@@ -27927,68 +27927,308 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E345" t="n">
+        <v>7</v>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G345" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I345" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>Forelle</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M345" t="n">
+        <v>150</v>
+      </c>
+      <c r="N345" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O345" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P345" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q345" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S345" t="n">
+        <v>444</v>
+      </c>
+      <c r="T345" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>5</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D346" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E346" t="n">
+        <v>7</v>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G346" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I346" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>Forelle</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M346" t="n">
+        <v>100</v>
+      </c>
+      <c r="N346" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O346" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P346" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S346" t="n">
+        <v>333</v>
+      </c>
+      <c r="T346" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>5</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D347" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E345" t="n">
-        <v>7</v>
-      </c>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G345" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I345" t="n">
-        <v>100104005</v>
-      </c>
-      <c r="J345" t="inlineStr">
-        <is>
-          <t>Pera</t>
-        </is>
-      </c>
-      <c r="K345" t="inlineStr">
+      <c r="E347" t="n">
+        <v>7</v>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G347" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I347" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>Abate Fettel</t>
+        </is>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M347" t="n">
+        <v>180</v>
+      </c>
+      <c r="N347" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O347" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P347" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q347" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S347" t="n">
+        <v>389</v>
+      </c>
+      <c r="T347" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>5</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D348" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E348" t="n">
+        <v>7</v>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G348" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I348" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K348" t="inlineStr">
         <is>
           <t>Packham's Triumph</t>
         </is>
       </c>
-      <c r="L345" t="inlineStr">
+      <c r="L348" t="inlineStr">
         <is>
           <t>Especial</t>
         </is>
       </c>
-      <c r="M345" t="n">
+      <c r="M348" t="n">
         <v>250</v>
       </c>
-      <c r="N345" t="n">
+      <c r="N348" t="n">
         <v>10000</v>
       </c>
-      <c r="O345" t="n">
+      <c r="O348" t="n">
         <v>10000</v>
       </c>
-      <c r="P345" t="n">
+      <c r="P348" t="n">
         <v>10000</v>
       </c>
-      <c r="Q345" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos granel</t>
-        </is>
-      </c>
-      <c r="R345" t="inlineStr">
+      <c r="Q348" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R348" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S345" t="n">
+      <c r="S348" t="n">
         <v>556</v>
       </c>
-      <c r="T345" t="n">
+      <c r="T348" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T348"/>
+  <dimension ref="A1:T353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44447</v>
+        <v>44484</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -13235,25 +13235,25 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N161" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O161" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P161" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13262,11 +13262,11 @@
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S161" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="T161" t="n">
         <v>18</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44447</v>
+        <v>44484</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N162" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O162" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P162" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13342,11 +13342,11 @@
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S162" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T162" t="n">
         <v>18</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44421</v>
+        <v>44484</v>
       </c>
       <c r="E163" t="n">
         <v>7</v>
@@ -13395,16 +13395,16 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N163" t="n">
         <v>7000</v>
@@ -13422,7 +13422,7 @@
       </c>
       <c r="R163" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S163" t="n">
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44421</v>
+        <v>44484</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
@@ -13475,7 +13475,7 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -13484,7 +13484,7 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N164" t="n">
         <v>8000</v>
@@ -13502,7 +13502,7 @@
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S164" t="n">
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44421</v>
+        <v>44484</v>
       </c>
       <c r="E165" t="n">
         <v>7</v>
@@ -13555,25 +13555,25 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="N165" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O165" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P165" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13582,11 +13582,11 @@
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S165" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="T165" t="n">
         <v>18</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -13635,7 +13635,7 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -13644,7 +13644,7 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N166" t="n">
         <v>8000</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44294</v>
+        <v>44447</v>
       </c>
       <c r="E167" t="n">
         <v>7</v>
@@ -13720,20 +13720,20 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="N167" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O167" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P167" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T167" t="n">
         <v>18</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -13795,7 +13795,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N168" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O168" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P168" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T168" t="n">
         <v>18</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44316</v>
+        <v>44421</v>
       </c>
       <c r="E169" t="n">
         <v>7</v>
@@ -13875,7 +13875,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -13884,7 +13884,7 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N169" t="n">
         <v>8000</v>
@@ -13902,7 +13902,7 @@
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S169" t="n">
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44316</v>
+        <v>44421</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -13964,7 +13964,7 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N170" t="n">
         <v>10000</v>
@@ -13982,7 +13982,7 @@
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S170" t="n">
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44316</v>
+        <v>44421</v>
       </c>
       <c r="E171" t="n">
         <v>7</v>
@@ -14044,7 +14044,7 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N171" t="n">
         <v>8000</v>
@@ -14062,7 +14062,7 @@
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S171" t="n">
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44356</v>
+        <v>44294</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -14115,25 +14115,25 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="N172" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O172" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P172" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="T172" t="n">
         <v>18</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44454</v>
+        <v>44294</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14200,20 +14200,20 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N173" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O173" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P173" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14222,11 +14222,11 @@
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S173" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T173" t="n">
         <v>18</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44454</v>
+        <v>44316</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14275,7 +14275,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -14284,16 +14284,16 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="N174" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O174" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P174" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T174" t="n">
         <v>18</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44454</v>
+        <v>44316</v>
       </c>
       <c r="E175" t="n">
         <v>7</v>
@@ -14355,25 +14355,25 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M175" t="n">
         <v>200</v>
       </c>
       <c r="N175" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O175" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P175" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T175" t="n">
         <v>18</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44454</v>
+        <v>44316</v>
       </c>
       <c r="E176" t="n">
         <v>7</v>
@@ -14435,25 +14435,25 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N176" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O176" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P176" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T176" t="n">
         <v>18</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44410</v>
+        <v>44356</v>
       </c>
       <c r="E177" t="n">
         <v>7</v>
@@ -14515,25 +14515,25 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N177" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O177" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P177" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14542,11 +14542,11 @@
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S177" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T177" t="n">
         <v>18</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44410</v>
+        <v>44454</v>
       </c>
       <c r="E178" t="n">
         <v>7</v>
@@ -14600,20 +14600,20 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N178" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O178" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P178" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T178" t="n">
         <v>18</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44467</v>
+        <v>44454</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -14680,20 +14680,20 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="N179" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O179" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P179" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14702,11 +14702,11 @@
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S179" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T179" t="n">
         <v>18</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44467</v>
+        <v>44454</v>
       </c>
       <c r="E180" t="n">
         <v>7</v>
@@ -14755,7 +14755,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
@@ -14782,7 +14782,7 @@
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S180" t="n">
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E181" t="n">
         <v>7</v>
@@ -14835,25 +14835,25 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N181" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O181" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P181" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="T181" t="n">
         <v>18</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44427</v>
+        <v>44410</v>
       </c>
       <c r="E182" t="n">
         <v>7</v>
@@ -14920,20 +14920,20 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N182" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O182" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P182" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T182" t="n">
         <v>18</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44319</v>
+        <v>44410</v>
       </c>
       <c r="E183" t="n">
         <v>7</v>
@@ -14995,25 +14995,25 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N183" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O183" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P183" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T183" t="n">
         <v>18</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44319</v>
+        <v>44467</v>
       </c>
       <c r="E184" t="n">
         <v>7</v>
@@ -15075,25 +15075,25 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="N184" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O184" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P184" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15102,11 +15102,11 @@
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S184" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T184" t="n">
         <v>18</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44319</v>
+        <v>44467</v>
       </c>
       <c r="E185" t="n">
         <v>7</v>
@@ -15160,20 +15160,20 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M185" t="n">
         <v>200</v>
       </c>
       <c r="N185" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O185" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P185" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15182,11 +15182,11 @@
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S185" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T185" t="n">
         <v>18</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E186" t="n">
         <v>7</v>
@@ -15240,20 +15240,20 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N186" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O186" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P186" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T186" t="n">
         <v>18</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44473</v>
+        <v>44427</v>
       </c>
       <c r="E187" t="n">
         <v>7</v>
@@ -15315,7 +15315,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -15324,7 +15324,7 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N187" t="n">
         <v>8000</v>
@@ -15342,7 +15342,7 @@
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S187" t="n">
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E188" t="n">
         <v>7</v>
@@ -15395,7 +15395,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -15404,16 +15404,16 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N188" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O188" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P188" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T188" t="n">
         <v>18</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E189" t="n">
         <v>7</v>
@@ -15475,25 +15475,25 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="N189" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O189" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P189" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15502,11 +15502,11 @@
       </c>
       <c r="R189" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S189" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T189" t="n">
         <v>18</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E190" t="n">
         <v>7</v>
@@ -15560,20 +15560,20 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N190" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O190" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P190" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T190" t="n">
         <v>18</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E191" t="n">
         <v>7</v>
@@ -15644,16 +15644,16 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N191" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O191" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P191" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15662,11 +15662,11 @@
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S191" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T191" t="n">
         <v>18</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E192" t="n">
         <v>7</v>
@@ -15724,7 +15724,7 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="N192" t="n">
         <v>8000</v>
@@ -15742,7 +15742,7 @@
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S192" t="n">
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E193" t="n">
         <v>7</v>
@@ -15800,20 +15800,20 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N193" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O193" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P193" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T193" t="n">
         <v>18</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44411</v>
+        <v>44473</v>
       </c>
       <c r="E194" t="n">
         <v>7</v>
@@ -15884,7 +15884,7 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="N194" t="n">
         <v>10000</v>
@@ -15902,7 +15902,7 @@
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S194" t="n">
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44403</v>
+        <v>44473</v>
       </c>
       <c r="E195" t="n">
         <v>7</v>
@@ -15960,20 +15960,20 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="N195" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O195" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P195" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15982,11 +15982,11 @@
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S195" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T195" t="n">
         <v>18</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44413</v>
+        <v>44473</v>
       </c>
       <c r="E196" t="n">
         <v>7</v>
@@ -16035,7 +16035,7 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
@@ -16044,7 +16044,7 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N196" t="n">
         <v>8000</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44413</v>
+        <v>44273</v>
       </c>
       <c r="E197" t="n">
         <v>7</v>
@@ -16115,25 +16115,25 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="N197" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O197" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P197" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16142,11 +16142,11 @@
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S197" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T197" t="n">
         <v>18</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44413</v>
+        <v>44273</v>
       </c>
       <c r="E198" t="n">
         <v>7</v>
@@ -16222,7 +16222,7 @@
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S198" t="n">
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44291</v>
+        <v>44411</v>
       </c>
       <c r="E199" t="n">
         <v>7</v>
@@ -16275,7 +16275,7 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
@@ -16284,16 +16284,16 @@
         </is>
       </c>
       <c r="M199" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="N199" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O199" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P199" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16302,11 +16302,11 @@
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S199" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T199" t="n">
         <v>18</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44291</v>
+        <v>44403</v>
       </c>
       <c r="E200" t="n">
         <v>7</v>
@@ -16355,7 +16355,7 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
@@ -16364,16 +16364,16 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="N200" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O200" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P200" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16382,11 +16382,11 @@
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S200" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T200" t="n">
         <v>18</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E201" t="n">
         <v>7</v>
@@ -16435,25 +16435,25 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M201" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N201" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O201" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P201" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16462,11 +16462,11 @@
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S201" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T201" t="n">
         <v>18</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E202" t="n">
         <v>7</v>
@@ -16520,20 +16520,20 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M202" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N202" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O202" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P202" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16542,11 +16542,11 @@
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S202" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T202" t="n">
         <v>18</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44469</v>
+        <v>44413</v>
       </c>
       <c r="E203" t="n">
         <v>7</v>
@@ -16595,25 +16595,25 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M203" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N203" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O203" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P203" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T203" t="n">
         <v>18</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E204" t="n">
         <v>7</v>
@@ -16680,11 +16680,11 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M204" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="N204" t="n">
         <v>8000</v>
@@ -16702,7 +16702,7 @@
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S204" t="n">
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E205" t="n">
         <v>7</v>
@@ -16755,25 +16755,25 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N205" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O205" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P205" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16782,11 +16782,11 @@
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S205" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T205" t="n">
         <v>18</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E206" t="n">
         <v>7</v>
@@ -16840,20 +16840,20 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N206" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O206" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P206" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16862,11 +16862,11 @@
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S206" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T206" t="n">
         <v>18</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44434</v>
+        <v>44426</v>
       </c>
       <c r="E207" t="n">
         <v>7</v>
@@ -16915,7 +16915,7 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
@@ -16924,16 +16924,16 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N207" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O207" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P207" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T207" t="n">
         <v>18</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E208" t="n">
         <v>7</v>
@@ -16995,7 +16995,7 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
@@ -17004,7 +17004,7 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N208" t="n">
         <v>9000</v>
@@ -17022,7 +17022,7 @@
       </c>
       <c r="R208" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S208" t="n">
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E209" t="n">
         <v>7</v>
@@ -17075,7 +17075,7 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
@@ -17084,7 +17084,7 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N209" t="n">
         <v>8000</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44292</v>
+        <v>44469</v>
       </c>
       <c r="E210" t="n">
         <v>7</v>
@@ -17155,7 +17155,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -17164,16 +17164,16 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N210" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O210" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P210" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17182,11 +17182,11 @@
       </c>
       <c r="R210" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S210" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T210" t="n">
         <v>18</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44292</v>
+        <v>44469</v>
       </c>
       <c r="E211" t="n">
         <v>7</v>
@@ -17240,20 +17240,20 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N211" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O211" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P211" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17262,11 +17262,11 @@
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S211" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T211" t="n">
         <v>18</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E212" t="n">
         <v>7</v>
@@ -17315,7 +17315,7 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -17324,16 +17324,16 @@
         </is>
       </c>
       <c r="M212" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N212" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O212" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P212" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T212" t="n">
         <v>18</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44280</v>
+        <v>44434</v>
       </c>
       <c r="E213" t="n">
         <v>7</v>
@@ -17404,16 +17404,16 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N213" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O213" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P213" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17422,11 +17422,11 @@
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S213" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T213" t="n">
         <v>18</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44280</v>
+        <v>44434</v>
       </c>
       <c r="E214" t="n">
         <v>7</v>
@@ -17484,16 +17484,16 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N214" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O214" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P214" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T214" t="n">
         <v>18</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44445</v>
+        <v>44292</v>
       </c>
       <c r="E215" t="n">
         <v>7</v>
@@ -17560,11 +17560,11 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="N215" t="n">
         <v>8000</v>
@@ -17582,7 +17582,7 @@
       </c>
       <c r="R215" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S215" t="n">
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44445</v>
+        <v>44292</v>
       </c>
       <c r="E216" t="n">
         <v>7</v>
@@ -17644,7 +17644,7 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N216" t="n">
         <v>10000</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44445</v>
+        <v>44292</v>
       </c>
       <c r="E217" t="n">
         <v>7</v>
@@ -17720,20 +17720,20 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N217" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O217" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P217" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17742,11 +17742,11 @@
       </c>
       <c r="R217" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S217" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T217" t="n">
         <v>18</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44445</v>
+        <v>44280</v>
       </c>
       <c r="E218" t="n">
         <v>7</v>
@@ -17800,20 +17800,20 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N218" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O218" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="P218" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17822,11 +17822,11 @@
       </c>
       <c r="R218" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S218" t="n">
-        <v>528</v>
+        <v>556</v>
       </c>
       <c r="T218" t="n">
         <v>18</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44229</v>
+        <v>44280</v>
       </c>
       <c r="E219" t="n">
         <v>7</v>
@@ -17875,7 +17875,7 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
@@ -17884,20 +17884,20 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="N219" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O219" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P219" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R219" t="inlineStr">
@@ -17906,10 +17906,10 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="T219" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220">
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44344</v>
+        <v>44445</v>
       </c>
       <c r="E220" t="n">
         <v>7</v>
@@ -17964,16 +17964,16 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="N220" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O220" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P220" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17982,11 +17982,11 @@
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S220" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T220" t="n">
         <v>18</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44344</v>
+        <v>44445</v>
       </c>
       <c r="E221" t="n">
         <v>7</v>
@@ -18044,7 +18044,7 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N221" t="n">
         <v>10000</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44344</v>
+        <v>44445</v>
       </c>
       <c r="E222" t="n">
         <v>7</v>
@@ -18120,20 +18120,20 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N222" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O222" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P222" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18142,11 +18142,11 @@
       </c>
       <c r="R222" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S222" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T222" t="n">
         <v>18</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44344</v>
+        <v>44445</v>
       </c>
       <c r="E223" t="n">
         <v>7</v>
@@ -18204,16 +18204,16 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="N223" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="O223" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="P223" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="T223" t="n">
         <v>18</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44407</v>
+        <v>44229</v>
       </c>
       <c r="E224" t="n">
         <v>7</v>
@@ -18275,29 +18275,29 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M224" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N224" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O224" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P224" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R224" t="inlineStr">
@@ -18306,10 +18306,10 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="T224" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E225" t="n">
         <v>7</v>
@@ -18355,7 +18355,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -18364,16 +18364,16 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N225" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O225" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P225" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18382,11 +18382,11 @@
       </c>
       <c r="R225" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S225" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T225" t="n">
         <v>18</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44358</v>
+        <v>44344</v>
       </c>
       <c r="E226" t="n">
         <v>7</v>
@@ -18435,25 +18435,25 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M226" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N226" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O226" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P226" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18462,11 +18462,11 @@
       </c>
       <c r="R226" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S226" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T226" t="n">
         <v>18</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44358</v>
+        <v>44344</v>
       </c>
       <c r="E227" t="n">
         <v>7</v>
@@ -18520,20 +18520,20 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N227" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O227" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P227" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18542,11 +18542,11 @@
       </c>
       <c r="R227" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S227" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T227" t="n">
         <v>18</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44358</v>
+        <v>44344</v>
       </c>
       <c r="E228" t="n">
         <v>7</v>
@@ -18604,7 +18604,7 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="N228" t="n">
         <v>9000</v>
@@ -18622,7 +18622,7 @@
       </c>
       <c r="R228" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S228" t="n">
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44391</v>
+        <v>44407</v>
       </c>
       <c r="E229" t="n">
         <v>7</v>
@@ -18684,16 +18684,16 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N229" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="O229" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="P229" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18702,11 +18702,11 @@
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S229" t="n">
-        <v>56</v>
+        <v>556</v>
       </c>
       <c r="T229" t="n">
         <v>18</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44391</v>
+        <v>44407</v>
       </c>
       <c r="E230" t="n">
         <v>7</v>
@@ -18764,7 +18764,7 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N230" t="n">
         <v>9000</v>
@@ -18782,7 +18782,7 @@
       </c>
       <c r="R230" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S230" t="n">
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44231</v>
+        <v>44358</v>
       </c>
       <c r="E231" t="n">
         <v>7</v>
@@ -18835,7 +18835,7 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="N231" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O231" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P231" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T231" t="n">
         <v>18</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44231</v>
+        <v>44358</v>
       </c>
       <c r="E232" t="n">
         <v>7</v>
@@ -18915,16 +18915,16 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M232" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="N232" t="n">
         <v>10000</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44320</v>
+        <v>44358</v>
       </c>
       <c r="E233" t="n">
         <v>7</v>
@@ -18995,25 +18995,25 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="N233" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O233" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P233" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19022,11 +19022,11 @@
       </c>
       <c r="R233" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S233" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="T233" t="n">
         <v>18</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44320</v>
+        <v>44391</v>
       </c>
       <c r="E234" t="n">
         <v>7</v>
@@ -19087,13 +19087,13 @@
         <v>300</v>
       </c>
       <c r="N234" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="O234" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P234" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19102,11 +19102,11 @@
       </c>
       <c r="R234" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S234" t="n">
-        <v>556</v>
+        <v>56</v>
       </c>
       <c r="T234" t="n">
         <v>18</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44320</v>
+        <v>44391</v>
       </c>
       <c r="E235" t="n">
         <v>7</v>
@@ -19182,7 +19182,7 @@
       </c>
       <c r="R235" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S235" t="n">
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44475</v>
+        <v>44231</v>
       </c>
       <c r="E236" t="n">
         <v>7</v>
@@ -19235,25 +19235,25 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="N236" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O236" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P236" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19262,11 +19262,11 @@
       </c>
       <c r="R236" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S236" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T236" t="n">
         <v>18</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44475</v>
+        <v>44231</v>
       </c>
       <c r="E237" t="n">
         <v>7</v>
@@ -19315,25 +19315,25 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N237" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O237" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P237" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19342,11 +19342,11 @@
       </c>
       <c r="R237" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S237" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T237" t="n">
         <v>18</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E238" t="n">
         <v>7</v>
@@ -19395,25 +19395,25 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N238" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O238" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P238" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="T238" t="n">
         <v>18</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E239" t="n">
         <v>7</v>
@@ -19480,20 +19480,20 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N239" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O239" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P239" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19502,11 +19502,11 @@
       </c>
       <c r="R239" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S239" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T239" t="n">
         <v>18</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44474</v>
+        <v>44320</v>
       </c>
       <c r="E240" t="n">
         <v>7</v>
@@ -19560,11 +19560,11 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N240" t="n">
         <v>9000</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E241" t="n">
         <v>7</v>
@@ -19635,25 +19635,25 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>360</v>
+        <v>190</v>
       </c>
       <c r="N241" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O241" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P241" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19662,11 +19662,11 @@
       </c>
       <c r="R241" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S241" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T241" t="n">
         <v>18</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E242" t="n">
         <v>7</v>
@@ -19724,16 +19724,16 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="N242" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O242" t="n">
         <v>8000</v>
       </c>
       <c r="P242" t="n">
-        <v>7370</v>
+        <v>8000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="T242" t="n">
         <v>18</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44362</v>
+        <v>44475</v>
       </c>
       <c r="E243" t="n">
         <v>7</v>
@@ -19804,16 +19804,16 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N243" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O243" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P243" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19822,11 +19822,11 @@
       </c>
       <c r="R243" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S243" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T243" t="n">
         <v>18</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44362</v>
+        <v>44475</v>
       </c>
       <c r="E244" t="n">
         <v>7</v>
@@ -19884,7 +19884,7 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N244" t="n">
         <v>8000</v>
@@ -19902,7 +19902,7 @@
       </c>
       <c r="R244" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S244" t="n">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E245" t="n">
         <v>7</v>
@@ -19960,20 +19960,20 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v